--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC740"/>
+  <dimension ref="A1:AC739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61837,7 +61837,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>7702210</v>
+        <v>7702211</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61849,10 +61849,10 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F689" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G689" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="H689">
         <v>0</v>
@@ -61864,61 +61864,61 @@
         <v>72</v>
       </c>
       <c r="K689">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L689">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M689">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N689">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O689">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P689">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q689">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R689">
+        <v>1.875</v>
+      </c>
+      <c r="S689">
         <v>1.975</v>
       </c>
-      <c r="S689">
-        <v>1.825</v>
-      </c>
       <c r="T689">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U689">
+        <v>1.975</v>
+      </c>
+      <c r="V689">
         <v>1.875</v>
       </c>
-      <c r="V689">
-        <v>1.925</v>
-      </c>
       <c r="W689">
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA689">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB689">
         <v>-1</v>
       </c>
       <c r="AC689">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="690" spans="1:29">
@@ -61926,7 +61926,7 @@
         <v>688</v>
       </c>
       <c r="B690">
-        <v>7702211</v>
+        <v>7698357</v>
       </c>
       <c r="C690" t="s">
         <v>28</v>
@@ -61938,55 +61938,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F690" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G690" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J690" t="s">
         <v>72</v>
       </c>
       <c r="K690">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L690">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M690">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N690">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O690">
         <v>2.875</v>
       </c>
       <c r="P690">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q690">
         <v>0</v>
       </c>
       <c r="R690">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S690">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T690">
         <v>1.75</v>
       </c>
       <c r="U690">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V690">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W690">
         <v>-1</v>
@@ -62004,10 +62004,10 @@
         <v>-0</v>
       </c>
       <c r="AB690">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC690">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="691" spans="1:29">
@@ -62015,7 +62015,7 @@
         <v>689</v>
       </c>
       <c r="B691">
-        <v>7698357</v>
+        <v>7702210</v>
       </c>
       <c r="C691" t="s">
         <v>28</v>
@@ -62027,76 +62027,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F691" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G691" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J691" t="s">
         <v>72</v>
       </c>
       <c r="K691">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L691">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M691">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N691">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O691">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P691">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q691">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R691">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S691">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T691">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U691">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V691">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W691">
         <v>-1</v>
       </c>
       <c r="X691">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y691">
         <v>-1</v>
       </c>
       <c r="Z691">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA691">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB691">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC691">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="692" spans="1:29">
@@ -62371,7 +62371,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>7698662</v>
+        <v>7698657</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62383,76 +62383,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F695" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G695" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
         <v>0</v>
       </c>
       <c r="J695" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K695">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L695">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M695">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N695">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O695">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P695">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q695">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R695">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S695">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T695">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U695">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V695">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W695">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X695">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y695">
         <v>-1</v>
       </c>
       <c r="Z695">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA695">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB695">
         <v>-1</v>
       </c>
       <c r="AC695">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="696" spans="1:29">
@@ -62460,7 +62460,7 @@
         <v>694</v>
       </c>
       <c r="B696">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C696" t="s">
         <v>28</v>
@@ -62472,10 +62472,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F696" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G696" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H696">
         <v>1</v>
@@ -62490,28 +62490,28 @@
         <v>2.5</v>
       </c>
       <c r="L696">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M696">
         <v>2.75</v>
       </c>
       <c r="N696">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O696">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P696">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q696">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R696">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S696">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T696">
         <v>1.75</v>
@@ -62523,7 +62523,7 @@
         <v>2.025</v>
       </c>
       <c r="W696">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="X696">
         <v>-1</v>
@@ -62532,7 +62532,7 @@
         <v>-1</v>
       </c>
       <c r="Z696">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA696">
         <v>-1</v>
@@ -62549,7 +62549,7 @@
         <v>695</v>
       </c>
       <c r="B697">
-        <v>7698656</v>
+        <v>7698545</v>
       </c>
       <c r="C697" t="s">
         <v>28</v>
@@ -62561,10 +62561,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F697" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G697" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="H697">
         <v>1</v>
@@ -62579,28 +62579,28 @@
         <v>2.5</v>
       </c>
       <c r="L697">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M697">
         <v>2.75</v>
       </c>
       <c r="N697">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O697">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P697">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q697">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R697">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S697">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T697">
         <v>1.75</v>
@@ -62612,7 +62612,7 @@
         <v>2.025</v>
       </c>
       <c r="W697">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="X697">
         <v>-1</v>
@@ -62621,7 +62621,7 @@
         <v>-1</v>
       </c>
       <c r="Z697">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA697">
         <v>-1</v>
@@ -62638,7 +62638,7 @@
         <v>696</v>
       </c>
       <c r="B698">
-        <v>7698657</v>
+        <v>7698662</v>
       </c>
       <c r="C698" t="s">
         <v>28</v>
@@ -62650,76 +62650,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F698" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G698" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I698">
         <v>0</v>
       </c>
       <c r="J698" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K698">
+        <v>2.1</v>
+      </c>
+      <c r="L698">
         <v>2.75</v>
       </c>
-      <c r="L698">
+      <c r="M698">
+        <v>3.75</v>
+      </c>
+      <c r="N698">
+        <v>2.1</v>
+      </c>
+      <c r="O698">
         <v>3.1</v>
       </c>
-      <c r="M698">
-        <v>2.375</v>
-      </c>
-      <c r="N698">
-        <v>2.9</v>
-      </c>
-      <c r="O698">
-        <v>3.3</v>
-      </c>
       <c r="P698">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q698">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R698">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S698">
+        <v>1.775</v>
+      </c>
+      <c r="T698">
         <v>1.75</v>
       </c>
-      <c r="T698">
-        <v>2</v>
-      </c>
       <c r="U698">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V698">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W698">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X698">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y698">
         <v>-1</v>
       </c>
       <c r="Z698">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA698">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB698">
         <v>-1</v>
       </c>
       <c r="AC698">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="699" spans="1:29">
@@ -62994,7 +62994,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -63006,76 +63006,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F702" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G702" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K702">
         <v>2.2</v>
       </c>
       <c r="L702">
+        <v>3.1</v>
+      </c>
+      <c r="M702">
         <v>3</v>
       </c>
-      <c r="M702">
-        <v>3.2</v>
-      </c>
       <c r="N702">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O702">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P702">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q702">
         <v>-0.5</v>
       </c>
       <c r="R702">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S702">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T702">
         <v>2</v>
       </c>
       <c r="U702">
+        <v>1.875</v>
+      </c>
+      <c r="V702">
         <v>1.925</v>
       </c>
-      <c r="V702">
-        <v>1.875</v>
-      </c>
       <c r="W702">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X702">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y702">
         <v>-1</v>
       </c>
       <c r="Z702">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA702">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB702">
+        <v>-1</v>
+      </c>
+      <c r="AC702">
         <v>0.925</v>
-      </c>
-      <c r="AC702">
-        <v>-1</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -63083,7 +63083,7 @@
         <v>701</v>
       </c>
       <c r="B703">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C703" t="s">
         <v>28</v>
@@ -63095,76 +63095,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F703" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G703" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J703" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K703">
         <v>2.2</v>
       </c>
       <c r="L703">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M703">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N703">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O703">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P703">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q703">
         <v>-0.5</v>
       </c>
       <c r="R703">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S703">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T703">
         <v>2</v>
       </c>
       <c r="U703">
+        <v>1.925</v>
+      </c>
+      <c r="V703">
         <v>1.875</v>
       </c>
-      <c r="V703">
-        <v>1.925</v>
-      </c>
       <c r="W703">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X703">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y703">
         <v>-1</v>
       </c>
       <c r="Z703">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA703">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB703">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC703">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704" spans="1:29">
@@ -65130,7 +65130,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>7698685</v>
+        <v>7698355</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65142,10 +65142,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F726" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G726" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H726">
         <v>0</v>
@@ -65157,40 +65157,40 @@
         <v>72</v>
       </c>
       <c r="K726">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L726">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M726">
         <v>2.75</v>
       </c>
       <c r="N726">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O726">
         <v>2.9</v>
       </c>
       <c r="P726">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q726">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R726">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S726">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T726">
         <v>1.75</v>
       </c>
       <c r="U726">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V726">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W726">
         <v>-1</v>
@@ -65202,16 +65202,16 @@
         <v>-1</v>
       </c>
       <c r="Z726">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA726">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB726">
         <v>-1</v>
       </c>
       <c r="AC726">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65219,7 +65219,7 @@
         <v>725</v>
       </c>
       <c r="B727">
-        <v>7698355</v>
+        <v>7698685</v>
       </c>
       <c r="C727" t="s">
         <v>28</v>
@@ -65231,10 +65231,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F727" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G727" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H727">
         <v>0</v>
@@ -65246,40 +65246,40 @@
         <v>72</v>
       </c>
       <c r="K727">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L727">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M727">
         <v>2.75</v>
       </c>
       <c r="N727">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O727">
         <v>2.9</v>
       </c>
       <c r="P727">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q727">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R727">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S727">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T727">
         <v>1.75</v>
       </c>
       <c r="U727">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V727">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W727">
         <v>-1</v>
@@ -65291,16 +65291,16 @@
         <v>-1</v>
       </c>
       <c r="Z727">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA727">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB727">
         <v>-1</v>
       </c>
       <c r="AC727">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="728" spans="1:29">
@@ -65397,7 +65397,7 @@
         <v>727</v>
       </c>
       <c r="B729">
-        <v>7698553</v>
+        <v>7864250</v>
       </c>
       <c r="C729" t="s">
         <v>28</v>
@@ -65406,49 +65406,49 @@
         <v>28</v>
       </c>
       <c r="E729" s="2">
-        <v>45346.90625</v>
+        <v>45347.70833333334</v>
       </c>
       <c r="F729" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G729" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K729">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L729">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M729">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N729">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O729">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P729">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q729">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R729">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S729">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T729">
         <v>2</v>
       </c>
       <c r="U729">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V729">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W729">
         <v>0</v>
@@ -65471,7 +65471,7 @@
         <v>728</v>
       </c>
       <c r="B730">
-        <v>7864250</v>
+        <v>7698687</v>
       </c>
       <c r="C730" t="s">
         <v>28</v>
@@ -65483,46 +65483,46 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F730" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G730" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K730">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L730">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M730">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N730">
+        <v>2.625</v>
+      </c>
+      <c r="O730">
+        <v>2.9</v>
+      </c>
+      <c r="P730">
+        <v>3</v>
+      </c>
+      <c r="Q730">
+        <v>0</v>
+      </c>
+      <c r="R730">
         <v>1.8</v>
       </c>
-      <c r="O730">
-        <v>3.3</v>
-      </c>
-      <c r="P730">
-        <v>5</v>
-      </c>
-      <c r="Q730">
-        <v>-0.5</v>
-      </c>
-      <c r="R730">
-        <v>1.825</v>
-      </c>
       <c r="S730">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T730">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U730">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V730">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W730">
         <v>0</v>
@@ -65545,7 +65545,7 @@
         <v>729</v>
       </c>
       <c r="B731">
-        <v>7698687</v>
+        <v>7698680</v>
       </c>
       <c r="C731" t="s">
         <v>28</v>
@@ -65557,46 +65557,46 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F731" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G731" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K731">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L731">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M731">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N731">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="O731">
         <v>2.9</v>
       </c>
       <c r="P731">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q731">
         <v>0</v>
       </c>
       <c r="R731">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S731">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T731">
         <v>1.75</v>
       </c>
       <c r="U731">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V731">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W731">
         <v>0</v>
@@ -65619,7 +65619,7 @@
         <v>730</v>
       </c>
       <c r="B732">
-        <v>7698680</v>
+        <v>7698551</v>
       </c>
       <c r="C732" t="s">
         <v>28</v>
@@ -65628,49 +65628,49 @@
         <v>28</v>
       </c>
       <c r="E732" s="2">
-        <v>45347.70833333334</v>
+        <v>45347.75</v>
       </c>
       <c r="F732" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G732" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K732">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L732">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M732">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N732">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O732">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P732">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q732">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R732">
+        <v>2</v>
+      </c>
+      <c r="S732">
         <v>1.85</v>
       </c>
-      <c r="S732">
-        <v>2</v>
-      </c>
       <c r="T732">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U732">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V732">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W732">
         <v>0</v>
@@ -65693,7 +65693,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>7698551</v>
+        <v>7698688</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65702,49 +65702,49 @@
         <v>28</v>
       </c>
       <c r="E733" s="2">
-        <v>45347.75</v>
+        <v>45347.77083333334</v>
       </c>
       <c r="F733" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G733" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="K733">
+        <v>2.3</v>
+      </c>
+      <c r="L733">
+        <v>2.75</v>
+      </c>
+      <c r="M733">
+        <v>3.2</v>
+      </c>
+      <c r="N733">
+        <v>2.6</v>
+      </c>
+      <c r="O733">
+        <v>2.8</v>
+      </c>
+      <c r="P733">
+        <v>3.2</v>
+      </c>
+      <c r="Q733">
+        <v>0</v>
+      </c>
+      <c r="R733">
         <v>1.8</v>
       </c>
-      <c r="L733">
-        <v>3.2</v>
-      </c>
-      <c r="M733">
-        <v>4</v>
-      </c>
-      <c r="N733">
-        <v>1.95</v>
-      </c>
-      <c r="O733">
-        <v>3.3</v>
-      </c>
-      <c r="P733">
-        <v>4.2</v>
-      </c>
-      <c r="Q733">
-        <v>-0.5</v>
-      </c>
-      <c r="R733">
-        <v>2</v>
-      </c>
       <c r="S733">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T733">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U733">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V733">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W733">
         <v>0</v>
@@ -65767,7 +65767,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>7698688</v>
+        <v>7698686</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65776,49 +65776,49 @@
         <v>28</v>
       </c>
       <c r="E734" s="2">
-        <v>45347.77083333334</v>
+        <v>45347.83333333334</v>
       </c>
       <c r="F734" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G734" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K734">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L734">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M734">
+        <v>3.5</v>
+      </c>
+      <c r="N734">
+        <v>2</v>
+      </c>
+      <c r="O734">
         <v>3.2</v>
       </c>
-      <c r="N734">
-        <v>2.6</v>
-      </c>
-      <c r="O734">
-        <v>2.8</v>
-      </c>
       <c r="P734">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q734">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R734">
+        <v>2.05</v>
+      </c>
+      <c r="S734">
         <v>1.8</v>
-      </c>
-      <c r="S734">
-        <v>2.05</v>
       </c>
       <c r="T734">
         <v>1.75</v>
       </c>
       <c r="U734">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V734">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W734">
         <v>0</v>
@@ -65841,7 +65841,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>7698691</v>
+        <v>7698679</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65853,46 +65853,46 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F735" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G735" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K735">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L735">
+        <v>2.9</v>
+      </c>
+      <c r="M735">
         <v>3.5</v>
       </c>
-      <c r="M735">
-        <v>4</v>
-      </c>
       <c r="N735">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="O735">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P735">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q735">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R735">
+        <v>2.05</v>
+      </c>
+      <c r="S735">
         <v>1.8</v>
       </c>
-      <c r="S735">
-        <v>2.05</v>
-      </c>
       <c r="T735">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U735">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V735">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W735">
         <v>0</v>
@@ -65915,7 +65915,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>7698686</v>
+        <v>7698691</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65927,46 +65927,46 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F736" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G736" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K736">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L736">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M736">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N736">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O736">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P736">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q736">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R736">
+        <v>1.8</v>
+      </c>
+      <c r="S736">
         <v>2.05</v>
       </c>
-      <c r="S736">
-        <v>1.8</v>
-      </c>
       <c r="T736">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U736">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V736">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W736">
         <v>0</v>
@@ -65989,7 +65989,7 @@
         <v>735</v>
       </c>
       <c r="B737">
-        <v>7698679</v>
+        <v>7698682</v>
       </c>
       <c r="C737" t="s">
         <v>28</v>
@@ -65998,49 +65998,49 @@
         <v>28</v>
       </c>
       <c r="E737" s="2">
-        <v>45347.83333333334</v>
+        <v>45347.90625</v>
       </c>
       <c r="F737" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G737" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="K737">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L737">
         <v>2.9</v>
       </c>
       <c r="M737">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N737">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O737">
         <v>3</v>
       </c>
       <c r="P737">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q737">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R737">
+        <v>1.8</v>
+      </c>
+      <c r="S737">
         <v>2.05</v>
       </c>
-      <c r="S737">
+      <c r="T737">
+        <v>2</v>
+      </c>
+      <c r="U737">
+        <v>2.05</v>
+      </c>
+      <c r="V737">
         <v>1.8</v>
-      </c>
-      <c r="T737">
-        <v>1.75</v>
-      </c>
-      <c r="U737">
-        <v>1.825</v>
-      </c>
-      <c r="V737">
-        <v>2.025</v>
       </c>
       <c r="W737">
         <v>0</v>
@@ -66063,7 +66063,7 @@
         <v>736</v>
       </c>
       <c r="B738">
-        <v>7698682</v>
+        <v>7702207</v>
       </c>
       <c r="C738" t="s">
         <v>28</v>
@@ -66072,28 +66072,28 @@
         <v>28</v>
       </c>
       <c r="E738" s="2">
-        <v>45347.90625</v>
+        <v>45348.70833333334</v>
       </c>
       <c r="F738" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G738" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K738">
+        <v>2.75</v>
+      </c>
+      <c r="L738">
+        <v>2.875</v>
+      </c>
+      <c r="M738">
         <v>2.5</v>
       </c>
-      <c r="L738">
-        <v>2.9</v>
-      </c>
-      <c r="M738">
+      <c r="N738">
         <v>2.75</v>
       </c>
-      <c r="N738">
-        <v>2.6</v>
-      </c>
       <c r="O738">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P738">
         <v>3</v>
@@ -66102,19 +66102,19 @@
         <v>0</v>
       </c>
       <c r="R738">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S738">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T738">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U738">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V738">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W738">
         <v>0</v>
@@ -66137,7 +66137,7 @@
         <v>737</v>
       </c>
       <c r="B739">
-        <v>7702207</v>
+        <v>7845890</v>
       </c>
       <c r="C739" t="s">
         <v>28</v>
@@ -66146,49 +66146,49 @@
         <v>28</v>
       </c>
       <c r="E739" s="2">
-        <v>45348.70833333334</v>
+        <v>45349.88194444445</v>
       </c>
       <c r="F739" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G739" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K739">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L739">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M739">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N739">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O739">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P739">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q739">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R739">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S739">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T739">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U739">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V739">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W739">
         <v>0</v>
@@ -66203,80 +66203,6 @@
         <v>0</v>
       </c>
       <c r="AA739">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:27">
-      <c r="A740" s="1">
-        <v>738</v>
-      </c>
-      <c r="B740">
-        <v>7845890</v>
-      </c>
-      <c r="C740" t="s">
-        <v>28</v>
-      </c>
-      <c r="D740" t="s">
-        <v>28</v>
-      </c>
-      <c r="E740" s="2">
-        <v>45349.88194444445</v>
-      </c>
-      <c r="F740" t="s">
-        <v>64</v>
-      </c>
-      <c r="G740" t="s">
-        <v>38</v>
-      </c>
-      <c r="K740">
-        <v>2.1</v>
-      </c>
-      <c r="L740">
-        <v>3</v>
-      </c>
-      <c r="M740">
-        <v>3.3</v>
-      </c>
-      <c r="N740">
-        <v>1.95</v>
-      </c>
-      <c r="O740">
-        <v>3</v>
-      </c>
-      <c r="P740">
-        <v>3.75</v>
-      </c>
-      <c r="Q740">
-        <v>-0.5</v>
-      </c>
-      <c r="R740">
-        <v>2.025</v>
-      </c>
-      <c r="S740">
-        <v>1.825</v>
-      </c>
-      <c r="T740">
-        <v>2</v>
-      </c>
-      <c r="U740">
-        <v>2.1</v>
-      </c>
-      <c r="V740">
-        <v>1.775</v>
-      </c>
-      <c r="W740">
-        <v>0</v>
-      </c>
-      <c r="X740">
-        <v>0</v>
-      </c>
-      <c r="Y740">
-        <v>0</v>
-      </c>
-      <c r="Z740">
-        <v>0</v>
-      </c>
-      <c r="AA740">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC529"/>
+  <dimension ref="A1:AC528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4432,7 +4432,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150859</v>
+        <v>6150858</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4444,76 +4444,76 @@
         <v>45096.625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
         <v>3.1</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6150858</v>
+        <v>6150859</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4533,76 +4533,76 @@
         <v>45096.625</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L45">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O45">
         <v>3.1</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V45">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W45">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4966,7 +4966,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6150464</v>
+        <v>6150863</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4978,58 +4978,58 @@
         <v>45101.625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>71</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L50">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O50">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -5038,16 +5038,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5055,7 +5055,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6150863</v>
+        <v>6150464</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5067,58 +5067,58 @@
         <v>45101.625</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>71</v>
       </c>
       <c r="K51">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M51">
         <v>3.6</v>
       </c>
       <c r="N51">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q51">
         <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W51">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5127,16 +5127,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6390,7 +6390,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6150549</v>
+        <v>6150696</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6402,76 +6402,76 @@
         <v>45107.875</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K66">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N66">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
+        <v>1.725</v>
+      </c>
+      <c r="S66">
+        <v>2.075</v>
+      </c>
+      <c r="T66">
+        <v>1.75</v>
+      </c>
+      <c r="U66">
+        <v>1.75</v>
+      </c>
+      <c r="V66">
         <v>2.05</v>
       </c>
-      <c r="S66">
-        <v>1.75</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.75</v>
       </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6479,7 +6479,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6150696</v>
+        <v>6150549</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6491,76 +6491,76 @@
         <v>45107.875</v>
       </c>
       <c r="F67" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K67">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L67">
+        <v>2.9</v>
+      </c>
+      <c r="M67">
         <v>2.75</v>
       </c>
-      <c r="M67">
-        <v>2.3</v>
-      </c>
       <c r="N67">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S67">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z67">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -9950,7 +9950,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6903680</v>
+        <v>6150710</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9962,76 +9962,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K106">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L106">
+        <v>2.875</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>2.3</v>
+      </c>
+      <c r="O106">
         <v>2.9</v>
       </c>
-      <c r="M106">
-        <v>3.2</v>
-      </c>
-      <c r="N106">
-        <v>1.85</v>
-      </c>
-      <c r="O106">
-        <v>3.3</v>
-      </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.975</v>
+      </c>
+      <c r="S106">
         <v>1.825</v>
       </c>
-      <c r="S106">
-        <v>1.975</v>
-      </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10039,7 +10039,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6150710</v>
+        <v>6903680</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10051,76 +10051,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K107">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
         <v>1.975</v>
       </c>
-      <c r="S107">
-        <v>1.825</v>
-      </c>
       <c r="T107">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -11908,7 +11908,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150711</v>
+        <v>6150887</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11920,56 +11920,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G128" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>73</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N128">
+        <v>4.75</v>
+      </c>
+      <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>1.909</v>
       </c>
-      <c r="O128">
-        <v>3.2</v>
-      </c>
-      <c r="P128">
-        <v>4.5</v>
-      </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.975</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
@@ -11977,19 +11977,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC128">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12086,7 +12086,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6150887</v>
+        <v>6150711</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12098,56 +12098,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
         <v>1</v>
-      </c>
-      <c r="I130">
-        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>73</v>
       </c>
       <c r="K130">
+        <v>1.8</v>
+      </c>
+      <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
         <v>4</v>
       </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
+      <c r="N130">
         <v>1.909</v>
       </c>
-      <c r="N130">
-        <v>4.75</v>
-      </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U130">
+        <v>1.825</v>
+      </c>
+      <c r="V130">
         <v>1.975</v>
       </c>
-      <c r="V130">
-        <v>1.825</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
@@ -12155,19 +12155,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC130">
-        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -13599,7 +13599,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6150895</v>
+        <v>6150559</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13611,13 +13611,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13626,44 +13626,44 @@
         <v>71</v>
       </c>
       <c r="K147">
+        <v>2.2</v>
+      </c>
+      <c r="L147">
+        <v>2.9</v>
+      </c>
+      <c r="M147">
+        <v>3.3</v>
+      </c>
+      <c r="N147">
+        <v>2.4</v>
+      </c>
+      <c r="O147">
+        <v>3</v>
+      </c>
+      <c r="P147">
+        <v>3.3</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.775</v>
+      </c>
+      <c r="W147">
         <v>1.4</v>
       </c>
-      <c r="L147">
-        <v>4</v>
-      </c>
-      <c r="M147">
-        <v>7</v>
-      </c>
-      <c r="N147">
-        <v>1.5</v>
-      </c>
-      <c r="O147">
-        <v>4</v>
-      </c>
-      <c r="P147">
-        <v>7.5</v>
-      </c>
-      <c r="Q147">
-        <v>-1</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>0.5</v>
-      </c>
       <c r="X147">
         <v>-1</v>
       </c>
@@ -13671,16 +13671,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13688,7 +13688,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6150559</v>
+        <v>6150895</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13700,13 +13700,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13715,43 +13715,43 @@
         <v>71</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
+        <v>1.775</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.775</v>
-      </c>
       <c r="W148">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13760,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -15379,7 +15379,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6150485</v>
+        <v>6150724</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15391,76 +15391,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>71</v>
+      </c>
+      <c r="K167">
         <v>3</v>
       </c>
-      <c r="J167" t="s">
-        <v>73</v>
-      </c>
-      <c r="K167">
-        <v>2</v>
-      </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>1.75</v>
       </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15468,7 +15468,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6150724</v>
+        <v>6150485</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15480,76 +15480,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -23300,7 +23300,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6150931</v>
+        <v>6264156</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23312,13 +23312,13 @@
         <v>45185.64583333334</v>
       </c>
       <c r="F256" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G256" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H256">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -23327,43 +23327,43 @@
         <v>71</v>
       </c>
       <c r="K256">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M256">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N256">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O256">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P256">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q256">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
+        <v>1.95</v>
+      </c>
+      <c r="S256">
         <v>1.85</v>
       </c>
-      <c r="S256">
+      <c r="T256">
+        <v>1.75</v>
+      </c>
+      <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
         <v>1.95</v>
       </c>
-      <c r="T256">
-        <v>2.25</v>
-      </c>
-      <c r="U256">
-        <v>1.825</v>
-      </c>
-      <c r="V256">
-        <v>1.975</v>
-      </c>
       <c r="W256">
-        <v>0.363</v>
+        <v>1.25</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23372,16 +23372,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23389,7 +23389,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6264156</v>
+        <v>6150931</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23401,13 +23401,13 @@
         <v>45185.64583333334</v>
       </c>
       <c r="F257" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G257" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -23416,43 +23416,43 @@
         <v>71</v>
       </c>
       <c r="K257">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L257">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M257">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N257">
+        <v>1.363</v>
+      </c>
+      <c r="O257">
+        <v>4.5</v>
+      </c>
+      <c r="P257">
+        <v>10</v>
+      </c>
+      <c r="Q257">
+        <v>-1.25</v>
+      </c>
+      <c r="R257">
+        <v>1.85</v>
+      </c>
+      <c r="S257">
+        <v>1.95</v>
+      </c>
+      <c r="T257">
         <v>2.25</v>
       </c>
-      <c r="O257">
-        <v>2.875</v>
-      </c>
-      <c r="P257">
-        <v>3.75</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.85</v>
-      </c>
-      <c r="T257">
-        <v>1.75</v>
-      </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W257">
-        <v>1.25</v>
+        <v>0.363</v>
       </c>
       <c r="X257">
         <v>-1</v>
@@ -23461,16 +23461,16 @@
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA257">
         <v>-1</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC257">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -24190,7 +24190,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6256581</v>
+        <v>6150576</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24202,76 +24202,76 @@
         <v>45186.75</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N266">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O266">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q266">
         <v>-0.75</v>
       </c>
       <c r="R266">
+        <v>2</v>
+      </c>
+      <c r="S266">
+        <v>1.8</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+      <c r="U266">
         <v>1.925</v>
       </c>
-      <c r="S266">
+      <c r="V266">
         <v>1.875</v>
       </c>
-      <c r="T266">
-        <v>2.25</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
-      </c>
-      <c r="V266">
-        <v>1.9</v>
-      </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
+        <v>0.8</v>
+      </c>
+      <c r="AB266">
         <v>0.925</v>
       </c>
-      <c r="AA266">
-        <v>-1</v>
-      </c>
-      <c r="AB266">
-        <v>-0.5</v>
-      </c>
       <c r="AC266">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24279,7 +24279,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6150576</v>
+        <v>6256581</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24291,76 +24291,76 @@
         <v>45186.75</v>
       </c>
       <c r="F267" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>71</v>
+      </c>
+      <c r="K267">
+        <v>2.1</v>
+      </c>
+      <c r="L267">
+        <v>3.25</v>
+      </c>
+      <c r="M267">
         <v>3</v>
       </c>
-      <c r="J267" t="s">
-        <v>73</v>
-      </c>
-      <c r="K267">
-        <v>1.909</v>
-      </c>
-      <c r="L267">
-        <v>3</v>
-      </c>
-      <c r="M267">
-        <v>4</v>
-      </c>
       <c r="N267">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA267">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -28818,7 +28818,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6323477</v>
+        <v>6330566</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28830,10 +28830,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F318" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G318" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28845,61 +28845,61 @@
         <v>72</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L318">
         <v>3.2</v>
       </c>
       <c r="M318">
+        <v>1.727</v>
+      </c>
+      <c r="N318">
+        <v>3.1</v>
+      </c>
+      <c r="O318">
         <v>3.2</v>
       </c>
-      <c r="N318">
-        <v>1.909</v>
-      </c>
-      <c r="O318">
-        <v>3.3</v>
-      </c>
       <c r="P318">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q318">
+        <v>0.25</v>
+      </c>
+      <c r="R318">
+        <v>1.775</v>
+      </c>
+      <c r="S318">
+        <v>2.025</v>
+      </c>
+      <c r="T318">
+        <v>2.25</v>
+      </c>
+      <c r="U318">
+        <v>1.9</v>
+      </c>
+      <c r="V318">
+        <v>1.9</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
+        <v>2.2</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
+        <v>0.3875</v>
+      </c>
+      <c r="AA318">
         <v>-0.5</v>
       </c>
-      <c r="R318">
-        <v>1.825</v>
-      </c>
-      <c r="S318">
-        <v>1.975</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.775</v>
-      </c>
-      <c r="V318">
-        <v>2.025</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>2.3</v>
-      </c>
-      <c r="Y318">
-        <v>-1</v>
-      </c>
-      <c r="Z318">
-        <v>-1</v>
-      </c>
-      <c r="AA318">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28996,7 +28996,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6330566</v>
+        <v>6323477</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29008,10 +29008,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G320" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -29023,61 +29023,61 @@
         <v>72</v>
       </c>
       <c r="K320">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L320">
         <v>3.2</v>
       </c>
       <c r="M320">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N320">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
+        <v>1.825</v>
+      </c>
+      <c r="S320">
+        <v>1.975</v>
+      </c>
+      <c r="T320">
+        <v>2</v>
+      </c>
+      <c r="U320">
         <v>1.775</v>
       </c>
-      <c r="S320">
+      <c r="V320">
         <v>2.025</v>
       </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
-      <c r="U320">
-        <v>1.9</v>
-      </c>
-      <c r="V320">
-        <v>1.9</v>
-      </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC320">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29441,7 +29441,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6360015</v>
+        <v>7323530</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29453,19 +29453,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G325" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H325">
+        <v>2</v>
+      </c>
+      <c r="I325">
         <v>1</v>
       </c>
-      <c r="I325">
-        <v>2</v>
-      </c>
       <c r="J325" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K325">
         <v>1.8</v>
@@ -29477,49 +29477,49 @@
         <v>4</v>
       </c>
       <c r="N325">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O325">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P325">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q325">
+        <v>-0.75</v>
+      </c>
+      <c r="R325">
+        <v>1.775</v>
+      </c>
+      <c r="S325">
+        <v>2.025</v>
+      </c>
+      <c r="T325">
+        <v>2</v>
+      </c>
+      <c r="U325">
+        <v>1.775</v>
+      </c>
+      <c r="V325">
+        <v>2.025</v>
+      </c>
+      <c r="W325">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
+        <v>-1</v>
+      </c>
+      <c r="Z325">
+        <v>0.3875</v>
+      </c>
+      <c r="AA325">
         <v>-0.5</v>
       </c>
-      <c r="R325">
-        <v>2.05</v>
-      </c>
-      <c r="S325">
-        <v>1.8</v>
-      </c>
-      <c r="T325">
-        <v>2.25</v>
-      </c>
-      <c r="U325">
-        <v>2.1</v>
-      </c>
-      <c r="V325">
-        <v>1.775</v>
-      </c>
-      <c r="W325">
-        <v>-1</v>
-      </c>
-      <c r="X325">
-        <v>-1</v>
-      </c>
-      <c r="Y325">
-        <v>3.2</v>
-      </c>
-      <c r="Z325">
-        <v>-1</v>
-      </c>
-      <c r="AA325">
-        <v>0.8</v>
-      </c>
       <c r="AB325">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -29530,7 +29530,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6356449</v>
+        <v>6360015</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29542,19 +29542,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F326" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G326" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K326">
         <v>1.8</v>
@@ -29572,46 +29572,46 @@
         <v>3.1</v>
       </c>
       <c r="P326">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q326">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S326">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC326">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29708,7 +29708,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7323530</v>
+        <v>6356449</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29720,19 +29720,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F328" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G328" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K328">
         <v>1.8</v>
@@ -29744,16 +29744,16 @@
         <v>4</v>
       </c>
       <c r="N328">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O328">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q328">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
         <v>1.775</v>
@@ -29762,34 +29762,34 @@
         <v>2.025</v>
       </c>
       <c r="T328">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V328">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W328">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA328">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB328">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29797,7 +29797,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323532</v>
+        <v>7323531</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29809,46 +29809,46 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F329" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K329">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L329">
         <v>3.2</v>
       </c>
       <c r="M329">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N329">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="O329">
         <v>3.25</v>
       </c>
       <c r="P329">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
@@ -29863,16 +29863,16 @@
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y329">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
         <v>-0.5</v>
@@ -29975,7 +29975,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6355608</v>
+        <v>7323532</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29987,10 +29987,10 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F331" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G331" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -30002,40 +30002,40 @@
         <v>73</v>
       </c>
       <c r="K331">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N331">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O331">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P331">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q331">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R331">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S331">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T331">
         <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -30044,19 +30044,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AB331">
         <v>-0.5</v>
       </c>
       <c r="AC331">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30064,7 +30064,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7323531</v>
+        <v>6355608</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30076,76 +30076,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G332" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K332">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L332">
         <v>3.2</v>
       </c>
       <c r="M332">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N332">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O332">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P332">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="Q332">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R332">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S332">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z332">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB332">
         <v>-0.5</v>
       </c>
       <c r="AC332">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30153,7 +30153,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6390738</v>
+        <v>7323841</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30165,58 +30165,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G333" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H333">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>71</v>
       </c>
       <c r="K333">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L333">
         <v>3</v>
       </c>
       <c r="M333">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N333">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O333">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P333">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S333">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30225,13 +30225,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -30242,7 +30242,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7323927</v>
+        <v>7323855</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30254,76 +30254,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G334" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K334">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L334">
         <v>3.2</v>
       </c>
       <c r="M334">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N334">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P334">
+        <v>4</v>
+      </c>
+      <c r="Q334">
+        <v>-0.5</v>
+      </c>
+      <c r="R334">
+        <v>2.025</v>
+      </c>
+      <c r="S334">
+        <v>1.775</v>
+      </c>
+      <c r="T334">
+        <v>1.75</v>
+      </c>
+      <c r="U334">
+        <v>1.75</v>
+      </c>
+      <c r="V334">
         <v>2.05</v>
       </c>
-      <c r="Q334">
-        <v>0.25</v>
-      </c>
-      <c r="R334">
-        <v>1.975</v>
-      </c>
-      <c r="S334">
-        <v>1.875</v>
-      </c>
-      <c r="T334">
-        <v>2.25</v>
-      </c>
-      <c r="U334">
-        <v>1.825</v>
-      </c>
-      <c r="V334">
-        <v>2.025</v>
-      </c>
       <c r="W334">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X334">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30331,7 +30331,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7323855</v>
+        <v>7323927</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30343,76 +30343,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G335" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H335">
         <v>1</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K335">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L335">
         <v>3.2</v>
       </c>
       <c r="M335">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N335">
+        <v>3.8</v>
+      </c>
+      <c r="O335">
+        <v>3.3</v>
+      </c>
+      <c r="P335">
         <v>2.05</v>
       </c>
-      <c r="O335">
-        <v>3.2</v>
-      </c>
-      <c r="P335">
-        <v>4</v>
-      </c>
       <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.975</v>
+      </c>
+      <c r="S335">
+        <v>1.875</v>
+      </c>
+      <c r="T335">
+        <v>2.25</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
+        <v>2.025</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>2.3</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
+        <v>0.4875</v>
+      </c>
+      <c r="AA335">
         <v>-0.5</v>
       </c>
-      <c r="R335">
-        <v>2.025</v>
-      </c>
-      <c r="S335">
-        <v>1.775</v>
-      </c>
-      <c r="T335">
-        <v>1.75</v>
-      </c>
-      <c r="U335">
-        <v>1.75</v>
-      </c>
-      <c r="V335">
-        <v>2.05</v>
-      </c>
-      <c r="W335">
-        <v>1.05</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>1.025</v>
-      </c>
-      <c r="AA335">
-        <v>-1</v>
-      </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30420,7 +30420,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7323841</v>
+        <v>6390738</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30432,58 +30432,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G336" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H336">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J336" t="s">
         <v>71</v>
       </c>
       <c r="K336">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L336">
         <v>3</v>
       </c>
       <c r="M336">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N336">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O336">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P336">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q336">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R336">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S336">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T336">
         <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V336">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W336">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30492,13 +30492,13 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC336">
         <v>-1</v>
@@ -30509,7 +30509,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7311908</v>
+        <v>6390737</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30521,10 +30521,10 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30536,58 +30536,58 @@
         <v>73</v>
       </c>
       <c r="K337">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M337">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N337">
+        <v>1.833</v>
+      </c>
+      <c r="O337">
+        <v>3.6</v>
+      </c>
+      <c r="P337">
+        <v>4.5</v>
+      </c>
+      <c r="Q337">
+        <v>-0.5</v>
+      </c>
+      <c r="R337">
         <v>1.8</v>
       </c>
-      <c r="O337">
+      <c r="S337">
+        <v>2</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>1.95</v>
+      </c>
+      <c r="V337">
+        <v>1.85</v>
+      </c>
+      <c r="W337">
+        <v>-1</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
         <v>3.5</v>
       </c>
-      <c r="P337">
-        <v>4.75</v>
-      </c>
-      <c r="Q337">
-        <v>-0.75</v>
-      </c>
-      <c r="R337">
-        <v>1.975</v>
-      </c>
-      <c r="S337">
-        <v>1.825</v>
-      </c>
-      <c r="T337">
-        <v>2</v>
-      </c>
-      <c r="U337">
-        <v>1.925</v>
-      </c>
-      <c r="V337">
-        <v>1.875</v>
-      </c>
-      <c r="W337">
-        <v>-1</v>
-      </c>
-      <c r="X337">
-        <v>-1</v>
-      </c>
-      <c r="Y337">
-        <v>3.75</v>
-      </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB337">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC337">
         <v>-1</v>
@@ -30687,7 +30687,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6390737</v>
+        <v>6387411</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30699,76 +30699,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F339" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K339">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L339">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M339">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N339">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O339">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P339">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q339">
         <v>-0.5</v>
       </c>
       <c r="R339">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S339">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T339">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U339">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V339">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA339">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30776,7 +30776,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6387411</v>
+        <v>6387410</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30788,58 +30788,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F340" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G340" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H340">
         <v>2</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="s">
         <v>71</v>
       </c>
       <c r="K340">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L340">
         <v>3.2</v>
       </c>
       <c r="M340">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N340">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="O340">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P340">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q340">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R340">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S340">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T340">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U340">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V340">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W340">
-        <v>0.95</v>
+        <v>1.55</v>
       </c>
       <c r="X340">
         <v>-1</v>
@@ -30848,16 +30848,16 @@
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA340">
         <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC340">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30865,7 +30865,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6387410</v>
+        <v>7311908</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30877,73 +30877,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G341" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K341">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L341">
         <v>3.2</v>
       </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N341">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O341">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P341">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q341">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R341">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S341">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T341">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U341">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V341">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W341">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z341">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB341">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC341">
         <v>-1</v>
@@ -32912,7 +32912,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7698640</v>
+        <v>7698645</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32924,13 +32924,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G364" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -32939,43 +32939,43 @@
         <v>71</v>
       </c>
       <c r="K364">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L364">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M364">
+        <v>3.5</v>
+      </c>
+      <c r="N364">
+        <v>2.05</v>
+      </c>
+      <c r="O364">
+        <v>2.9</v>
+      </c>
+      <c r="P364">
         <v>4.5</v>
       </c>
-      <c r="N364">
-        <v>1.8</v>
-      </c>
-      <c r="O364">
-        <v>3.4</v>
-      </c>
-      <c r="P364">
-        <v>5</v>
-      </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R364">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S364">
+        <v>1.75</v>
+      </c>
+      <c r="T364">
+        <v>1.75</v>
+      </c>
+      <c r="U364">
         <v>1.825</v>
       </c>
-      <c r="T364">
-        <v>2</v>
-      </c>
-      <c r="U364">
-        <v>1.925</v>
-      </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W364">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32984,16 +32984,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC364">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33090,7 +33090,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698645</v>
+        <v>7698640</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33102,13 +33102,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33117,43 +33117,43 @@
         <v>71</v>
       </c>
       <c r="K366">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L366">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M366">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N366">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O366">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P366">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q366">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S366">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T366">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U366">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33162,16 +33162,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA366">
         <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33179,7 +33179,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33191,76 +33191,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F367" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G367" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K367">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L367">
+        <v>2.75</v>
+      </c>
+      <c r="M367">
         <v>3</v>
       </c>
-      <c r="M367">
-        <v>3.3</v>
-      </c>
       <c r="N367">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O367">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P367">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R367">
+        <v>1.875</v>
+      </c>
+      <c r="S367">
         <v>1.975</v>
-      </c>
-      <c r="S367">
-        <v>1.825</v>
       </c>
       <c r="T367">
         <v>1.75</v>
       </c>
       <c r="U367">
+        <v>1.85</v>
+      </c>
+      <c r="V367">
+        <v>2</v>
+      </c>
+      <c r="W367">
         <v>1.9</v>
       </c>
-      <c r="V367">
-        <v>1.9</v>
-      </c>
-      <c r="W367">
-        <v>-1</v>
-      </c>
       <c r="X367">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA367">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33268,7 +33268,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33280,76 +33280,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F368" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G368" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K368">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L368">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M368">
+        <v>3.3</v>
+      </c>
+      <c r="N368">
+        <v>2.3</v>
+      </c>
+      <c r="O368">
         <v>3</v>
       </c>
-      <c r="N368">
-        <v>2.9</v>
-      </c>
-      <c r="O368">
-        <v>2.8</v>
-      </c>
       <c r="P368">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q368">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R368">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S368">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T368">
         <v>1.75</v>
       </c>
       <c r="U368">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W368">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA368">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33891,7 +33891,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7719052</v>
+        <v>7698641</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33903,76 +33903,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G375" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K375">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L375">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M375">
         <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O375">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P375">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S375">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U375">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y375">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC375">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33980,7 +33980,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7698641</v>
+        <v>7719052</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33992,76 +33992,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G376" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376">
         <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K376">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L376">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M376">
         <v>4.5</v>
       </c>
       <c r="N376">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O376">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P376">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q376">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R376">
+        <v>2.025</v>
+      </c>
+      <c r="S376">
+        <v>1.775</v>
+      </c>
+      <c r="T376">
+        <v>1.75</v>
+      </c>
+      <c r="U376">
+        <v>1.95</v>
+      </c>
+      <c r="V376">
         <v>1.85</v>
       </c>
-      <c r="S376">
-        <v>1.95</v>
-      </c>
-      <c r="T376">
-        <v>2</v>
-      </c>
-      <c r="U376">
-        <v>2</v>
-      </c>
-      <c r="V376">
-        <v>1.8</v>
-      </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z376">
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC376">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34603,7 +34603,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7698357</v>
+        <v>7698659</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34615,73 +34615,73 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G383" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J383" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K383">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L383">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M383">
+        <v>4</v>
+      </c>
+      <c r="N383">
+        <v>1.8</v>
+      </c>
+      <c r="O383">
         <v>3.2</v>
       </c>
-      <c r="N383">
-        <v>2.55</v>
-      </c>
-      <c r="O383">
-        <v>2.875</v>
-      </c>
       <c r="P383">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q383">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S383">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T383">
         <v>1.75</v>
       </c>
       <c r="U383">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V383">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB383">
-        <v>0.3875</v>
+        <v>0.375</v>
       </c>
       <c r="AC383">
         <v>-0.5</v>
@@ -34692,7 +34692,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7698659</v>
+        <v>7698357</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34704,73 +34704,73 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G384" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J384" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K384">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L384">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M384">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N384">
+        <v>2.55</v>
+      </c>
+      <c r="O384">
+        <v>2.875</v>
+      </c>
+      <c r="P384">
+        <v>3.2</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+      <c r="R384">
+        <v>2</v>
+      </c>
+      <c r="S384">
         <v>1.8</v>
-      </c>
-      <c r="O384">
-        <v>3.2</v>
-      </c>
-      <c r="P384">
-        <v>6</v>
-      </c>
-      <c r="Q384">
-        <v>-0.75</v>
-      </c>
-      <c r="R384">
-        <v>2.025</v>
-      </c>
-      <c r="S384">
-        <v>1.775</v>
       </c>
       <c r="T384">
         <v>1.75</v>
       </c>
       <c r="U384">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V384">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W384">
         <v>-1</v>
       </c>
       <c r="X384">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y384">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA384">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB384">
-        <v>0.375</v>
+        <v>0.3875</v>
       </c>
       <c r="AC384">
         <v>-0.5</v>
@@ -34781,7 +34781,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7702211</v>
+        <v>7702210</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34793,10 +34793,10 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G385" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H385">
         <v>0</v>
@@ -34808,61 +34808,61 @@
         <v>72</v>
       </c>
       <c r="K385">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L385">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M385">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N385">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="O385">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q385">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
+        <v>1.975</v>
+      </c>
+      <c r="S385">
+        <v>1.825</v>
+      </c>
+      <c r="T385">
+        <v>2</v>
+      </c>
+      <c r="U385">
         <v>1.875</v>
       </c>
-      <c r="S385">
-        <v>1.975</v>
-      </c>
-      <c r="T385">
-        <v>1.75</v>
-      </c>
-      <c r="U385">
-        <v>1.975</v>
-      </c>
       <c r="V385">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
         <v>-1</v>
       </c>
       <c r="X385">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB385">
         <v>-1</v>
       </c>
       <c r="AC385">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34870,7 +34870,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7702210</v>
+        <v>7702211</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34882,10 +34882,10 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G386" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -34897,61 +34897,61 @@
         <v>72</v>
       </c>
       <c r="K386">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L386">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M386">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N386">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O386">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P386">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R386">
+        <v>1.875</v>
+      </c>
+      <c r="S386">
         <v>1.975</v>
       </c>
-      <c r="S386">
-        <v>1.825</v>
-      </c>
       <c r="T386">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U386">
+        <v>1.975</v>
+      </c>
+      <c r="V386">
         <v>1.875</v>
       </c>
-      <c r="V386">
-        <v>1.925</v>
-      </c>
       <c r="W386">
         <v>-1</v>
       </c>
       <c r="X386">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y386">
         <v>-1</v>
       </c>
       <c r="Z386">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA386">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB386">
         <v>-1</v>
       </c>
       <c r="AC386">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -35671,7 +35671,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35683,76 +35683,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H395">
         <v>1</v>
       </c>
       <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395" t="s">
+        <v>72</v>
+      </c>
+      <c r="K395">
+        <v>2.5</v>
+      </c>
+      <c r="L395">
+        <v>2.75</v>
+      </c>
+      <c r="M395">
         <v>3</v>
       </c>
-      <c r="J395" t="s">
-        <v>73</v>
-      </c>
-      <c r="K395">
-        <v>3.4</v>
-      </c>
-      <c r="L395">
+      <c r="N395">
+        <v>2.55</v>
+      </c>
+      <c r="O395">
         <v>2.875</v>
       </c>
-      <c r="M395">
-        <v>2.2</v>
-      </c>
-      <c r="N395">
-        <v>2.45</v>
-      </c>
-      <c r="O395">
-        <v>2.8</v>
-      </c>
       <c r="P395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S395">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U395">
+        <v>1.8</v>
+      </c>
+      <c r="V395">
         <v>2.05</v>
       </c>
-      <c r="V395">
-        <v>1.8</v>
-      </c>
       <c r="W395">
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA395">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB395">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35760,7 +35760,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35772,76 +35772,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G396" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J396" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K396">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L396">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N396">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P396">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S396">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U396">
+        <v>2.05</v>
+      </c>
+      <c r="V396">
         <v>1.8</v>
       </c>
-      <c r="V396">
-        <v>2.05</v>
-      </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB396">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
+        <v>3.1</v>
+      </c>
+      <c r="M397">
         <v>3</v>
       </c>
-      <c r="M397">
-        <v>3.2</v>
-      </c>
       <c r="N397">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O397">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P397">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.875</v>
+      </c>
+      <c r="V397">
         <v>1.925</v>
       </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
       <c r="W397">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>0.925</v>
-      </c>
-      <c r="AC397">
-        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G398" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M398">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N398">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O398">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P398">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S398">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.925</v>
+      </c>
+      <c r="V398">
         <v>1.875</v>
       </c>
-      <c r="V398">
-        <v>1.925</v>
-      </c>
       <c r="W398">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X398">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA398">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC398">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36561,7 +36561,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7698673</v>
+        <v>7698676</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36573,10 +36573,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G405" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36588,43 +36588,43 @@
         <v>71</v>
       </c>
       <c r="K405">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L405">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M405">
         <v>3.2</v>
       </c>
       <c r="N405">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O405">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P405">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q405">
         <v>-0.25</v>
       </c>
       <c r="R405">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S405">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T405">
         <v>1.75</v>
       </c>
       <c r="U405">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V405">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W405">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36633,7 +36633,7 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA405">
         <v>-1</v>
@@ -36642,7 +36642,7 @@
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36650,7 +36650,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7698676</v>
+        <v>7698673</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36662,10 +36662,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G406" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H406">
         <v>1</v>
@@ -36677,43 +36677,43 @@
         <v>71</v>
       </c>
       <c r="K406">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L406">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M406">
         <v>3.2</v>
       </c>
       <c r="N406">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O406">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P406">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q406">
         <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S406">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T406">
         <v>1.75</v>
       </c>
       <c r="U406">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V406">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W406">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X406">
         <v>-1</v>
@@ -36722,7 +36722,7 @@
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA406">
         <v>-1</v>
@@ -36731,7 +36731,7 @@
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36917,7 +36917,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698667</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36929,13 +36929,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G409" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409">
         <v>0</v>
@@ -36944,43 +36944,43 @@
         <v>71</v>
       </c>
       <c r="K409">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L409">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M409">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N409">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P409">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S409">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U409">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V409">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W409">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X409">
         <v>-1</v>
@@ -36989,16 +36989,16 @@
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA409">
         <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC409">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37006,7 +37006,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698667</v>
+        <v>7698356</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -37018,13 +37018,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G410" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410">
         <v>0</v>
@@ -37033,43 +37033,43 @@
         <v>71</v>
       </c>
       <c r="K410">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L410">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M410">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N410">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O410">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P410">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S410">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T410">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
         <v>1.8</v>
       </c>
-      <c r="V410">
-        <v>2</v>
-      </c>
       <c r="W410">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X410">
         <v>-1</v>
@@ -37078,16 +37078,16 @@
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA410">
         <v>-1</v>
       </c>
       <c r="AB410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC410">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37896,7 +37896,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7698685</v>
+        <v>7698355</v>
       </c>
       <c r="C420" t="s">
         <v>28</v>
@@ -37908,10 +37908,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F420" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G420" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H420">
         <v>0</v>
@@ -37923,40 +37923,40 @@
         <v>72</v>
       </c>
       <c r="K420">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L420">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M420">
         <v>2.75</v>
       </c>
       <c r="N420">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="O420">
         <v>2.9</v>
       </c>
       <c r="P420">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q420">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R420">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T420">
         <v>1.75</v>
       </c>
       <c r="U420">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W420">
         <v>-1</v>
@@ -37968,16 +37968,16 @@
         <v>-1</v>
       </c>
       <c r="Z420">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA420">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB420">
         <v>-1</v>
       </c>
       <c r="AC420">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="421" spans="1:29">
@@ -37985,7 +37985,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7698355</v>
+        <v>7698685</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -37997,10 +37997,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="F421" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G421" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -38012,40 +38012,40 @@
         <v>72</v>
       </c>
       <c r="K421">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L421">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
         <v>2.75</v>
       </c>
       <c r="N421">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="O421">
         <v>2.9</v>
       </c>
       <c r="P421">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q421">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R421">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S421">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T421">
         <v>1.75</v>
       </c>
       <c r="U421">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V421">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W421">
         <v>-1</v>
@@ -38057,16 +38057,16 @@
         <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA421">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB421">
         <v>-1</v>
       </c>
       <c r="AC421">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="422" spans="1:29">
@@ -39498,7 +39498,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698703</v>
+        <v>7698556</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39510,76 +39510,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G438" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H438">
         <v>1</v>
       </c>
       <c r="I438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J438" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K438">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L438">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M438">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N438">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O438">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P438">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q438">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R438">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S438">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T438">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U438">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V438">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA438">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB438">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39676,7 +39676,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698556</v>
+        <v>7698703</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39688,76 +39688,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G440" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H440">
         <v>1</v>
       </c>
       <c r="I440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K440">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L440">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M440">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N440">
+        <v>2.2</v>
+      </c>
+      <c r="O440">
+        <v>2.875</v>
+      </c>
+      <c r="P440">
+        <v>4.2</v>
+      </c>
+      <c r="Q440">
+        <v>-0.25</v>
+      </c>
+      <c r="R440">
         <v>1.8</v>
       </c>
-      <c r="O440">
-        <v>3.25</v>
-      </c>
-      <c r="P440">
-        <v>5.5</v>
-      </c>
-      <c r="Q440">
+      <c r="S440">
+        <v>2</v>
+      </c>
+      <c r="T440">
+        <v>1.75</v>
+      </c>
+      <c r="U440">
+        <v>1.85</v>
+      </c>
+      <c r="V440">
+        <v>1.95</v>
+      </c>
+      <c r="W440">
+        <v>-1</v>
+      </c>
+      <c r="X440">
+        <v>1.875</v>
+      </c>
+      <c r="Y440">
+        <v>-1</v>
+      </c>
+      <c r="Z440">
         <v>-0.5</v>
       </c>
-      <c r="R440">
-        <v>1.775</v>
-      </c>
-      <c r="S440">
-        <v>2.025</v>
-      </c>
-      <c r="T440">
-        <v>2</v>
-      </c>
-      <c r="U440">
-        <v>1.975</v>
-      </c>
-      <c r="V440">
-        <v>1.825</v>
-      </c>
-      <c r="W440">
-        <v>-1</v>
-      </c>
-      <c r="X440">
-        <v>-1</v>
-      </c>
-      <c r="Y440">
-        <v>4.5</v>
-      </c>
-      <c r="Z440">
-        <v>-1</v>
-      </c>
       <c r="AA440">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB440">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC440">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39854,7 +39854,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7702204</v>
+        <v>7698354</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39866,10 +39866,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G442" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H442">
         <v>1</v>
@@ -39881,31 +39881,31 @@
         <v>71</v>
       </c>
       <c r="K442">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L442">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M442">
         <v>4.5</v>
       </c>
       <c r="N442">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="O442">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P442">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q442">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R442">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S442">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T442">
         <v>1.75</v>
@@ -39917,7 +39917,7 @@
         <v>2.05</v>
       </c>
       <c r="W442">
-        <v>1.2</v>
+        <v>0.833</v>
       </c>
       <c r="X442">
         <v>-1</v>
@@ -39926,7 +39926,7 @@
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA442">
         <v>-1</v>
@@ -39943,7 +39943,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7698697</v>
+        <v>7698700</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39955,49 +39955,49 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G443" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J443" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K443">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L443">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M443">
+        <v>4</v>
+      </c>
+      <c r="N443">
+        <v>2.1</v>
+      </c>
+      <c r="O443">
+        <v>2.8</v>
+      </c>
+      <c r="P443">
         <v>4.5</v>
       </c>
-      <c r="N443">
-        <v>1.8</v>
-      </c>
-      <c r="O443">
-        <v>3.3</v>
-      </c>
-      <c r="P443">
-        <v>5.25</v>
-      </c>
       <c r="Q443">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R443">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S443">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T443">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U443">
         <v>1.8</v>
@@ -40009,22 +40009,22 @@
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y443">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA443">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB443">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40032,7 +40032,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7702205</v>
+        <v>7702204</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40044,19 +40044,19 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G444" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K444">
         <v>1.8</v>
@@ -40068,52 +40068,52 @@
         <v>4.5</v>
       </c>
       <c r="N444">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O444">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P444">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R444">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S444">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T444">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U444">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V444">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA444">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40121,7 +40121,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698696</v>
+        <v>7698697</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40133,76 +40133,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G445" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H445">
         <v>1</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K445">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L445">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M445">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N445">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O445">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P445">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q445">
         <v>-0.5</v>
       </c>
       <c r="R445">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S445">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T445">
         <v>2</v>
       </c>
       <c r="U445">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V445">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W445">
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z445">
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB445">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC445">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40210,7 +40210,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698700</v>
+        <v>7702205</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40222,76 +40222,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F446" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G446" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H446">
         <v>0</v>
       </c>
       <c r="I446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K446">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L446">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M446">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N446">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O446">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P446">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q446">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R446">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S446">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T446">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U446">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V446">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W446">
         <v>-1</v>
       </c>
       <c r="X446">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y446">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z446">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA446">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB446">
         <v>-1</v>
       </c>
       <c r="AC446">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40299,7 +40299,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7698354</v>
+        <v>7698696</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40311,34 +40311,34 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F447" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G447" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H447">
         <v>1</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K447">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L447">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M447">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N447">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O447">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P447">
         <v>4.75</v>
@@ -40347,40 +40347,40 @@
         <v>-0.5</v>
       </c>
       <c r="R447">
+        <v>1.925</v>
+      </c>
+      <c r="S447">
+        <v>1.875</v>
+      </c>
+      <c r="T447">
+        <v>2</v>
+      </c>
+      <c r="U447">
+        <v>2</v>
+      </c>
+      <c r="V447">
         <v>1.8</v>
       </c>
-      <c r="S447">
-        <v>2</v>
-      </c>
-      <c r="T447">
-        <v>1.75</v>
-      </c>
-      <c r="U447">
-        <v>1.75</v>
-      </c>
-      <c r="V447">
-        <v>2.05</v>
-      </c>
       <c r="W447">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X447">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y447">
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA447">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB447">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC447">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -41100,7 +41100,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>7698716</v>
+        <v>7702203</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41112,76 +41112,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F456" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G456" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="s">
         <v>72</v>
       </c>
       <c r="K456">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L456">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M456">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N456">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O456">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P456">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q456">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R456">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S456">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T456">
         <v>2</v>
       </c>
       <c r="U456">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V456">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W456">
         <v>-1</v>
       </c>
       <c r="X456">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA456">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC456">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41189,7 +41189,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7702203</v>
+        <v>7698716</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41201,76 +41201,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F457" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G457" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>72</v>
       </c>
       <c r="K457">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L457">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M457">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N457">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O457">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P457">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q457">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R457">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S457">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T457">
         <v>2</v>
       </c>
       <c r="U457">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V457">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W457">
         <v>-1</v>
       </c>
       <c r="X457">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y457">
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA457">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698705</v>
+        <v>7698710</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,76 +41824,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G464" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H464">
         <v>2</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K464">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L464">
+        <v>2.75</v>
+      </c>
+      <c r="M464">
+        <v>2.875</v>
+      </c>
+      <c r="N464">
+        <v>2.75</v>
+      </c>
+      <c r="O464">
+        <v>2.8</v>
+      </c>
+      <c r="P464">
         <v>3</v>
       </c>
-      <c r="M464">
-        <v>3.6</v>
-      </c>
-      <c r="N464">
-        <v>2.375</v>
-      </c>
-      <c r="O464">
-        <v>3</v>
-      </c>
-      <c r="P464">
-        <v>3.4</v>
-      </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T464">
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X464">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA464">
+        <v>-1</v>
+      </c>
+      <c r="AB464">
+        <v>0.45</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AA464">
-        <v>0.4375</v>
-      </c>
-      <c r="AB464">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC464">
-        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698558</v>
+        <v>7698705</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,40 +41913,40 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G465" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J465" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K465">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L465">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M465">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N465">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O465">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P465">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q465">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R465">
         <v>1.925</v>
@@ -41958,31 +41958,31 @@
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V465">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y465">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA465">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC465">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41990,7 +41990,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698710</v>
+        <v>7698558</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42002,76 +42002,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F466" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G466" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K466">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L466">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M466">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N466">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O466">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P466">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q466">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S466">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T466">
         <v>1.75</v>
       </c>
       <c r="U466">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V466">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W466">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z466">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA466">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB466">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC466">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -43414,7 +43414,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7698720</v>
+        <v>7698723</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43426,10 +43426,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F482" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G482" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H482">
         <v>0</v>
@@ -43441,46 +43441,46 @@
         <v>72</v>
       </c>
       <c r="K482">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L482">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M482">
         <v>4</v>
       </c>
       <c r="N482">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O482">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P482">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q482">
         <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S482">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T482">
         <v>1.75</v>
       </c>
       <c r="U482">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V482">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W482">
         <v>-1</v>
       </c>
       <c r="X482">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y482">
         <v>-1</v>
@@ -43489,13 +43489,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>0.4875</v>
+        <v>0.5</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43592,7 +43592,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7698723</v>
+        <v>7698720</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43604,10 +43604,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F484" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G484" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H484">
         <v>0</v>
@@ -43619,46 +43619,46 @@
         <v>72</v>
       </c>
       <c r="K484">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L484">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M484">
         <v>4</v>
       </c>
       <c r="N484">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O484">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P484">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q484">
         <v>-0.25</v>
       </c>
       <c r="R484">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S484">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T484">
         <v>1.75</v>
       </c>
       <c r="U484">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V484">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W484">
         <v>-1</v>
       </c>
       <c r="X484">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y484">
         <v>-1</v>
@@ -43667,13 +43667,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA484">
-        <v>0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB484">
         <v>-1</v>
       </c>
       <c r="AC484">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -44838,7 +44838,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7698738</v>
+        <v>7698736</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44850,37 +44850,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G498" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H498">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I498">
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K498">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L498">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M498">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N498">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O498">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P498">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q498">
         <v>-0.25</v>
@@ -44889,7 +44889,7 @@
         <v>1.85</v>
       </c>
       <c r="S498">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T498">
         <v>1.75</v>
@@ -44898,28 +44898,28 @@
         <v>1.8</v>
       </c>
       <c r="V498">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W498">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z498">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA498">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB498">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC498">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -44927,7 +44927,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7698736</v>
+        <v>7698738</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44939,37 +44939,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F499" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G499" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I499">
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K499">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L499">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M499">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N499">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O499">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P499">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q499">
         <v>-0.25</v>
@@ -44978,7 +44978,7 @@
         <v>1.85</v>
       </c>
       <c r="S499">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T499">
         <v>1.75</v>
@@ -44987,28 +44987,28 @@
         <v>1.8</v>
       </c>
       <c r="V499">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W499">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z499">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA499">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB499">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC499">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -45728,7 +45728,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7960576</v>
+        <v>7989127</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45740,76 +45740,76 @@
         <v>45376.875</v>
       </c>
       <c r="F508" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G508" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I508">
         <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K508">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L508">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M508">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="N508">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="O508">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P508">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q508">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R508">
+        <v>1.975</v>
+      </c>
+      <c r="S508">
+        <v>1.825</v>
+      </c>
+      <c r="T508">
         <v>1.75</v>
       </c>
-      <c r="S508">
-        <v>2.05</v>
-      </c>
-      <c r="T508">
-        <v>2</v>
-      </c>
       <c r="U508">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V508">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W508">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X508">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA508">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC508">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45906,7 +45906,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7989127</v>
+        <v>7960576</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45918,76 +45918,76 @@
         <v>45376.875</v>
       </c>
       <c r="F510" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G510" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H510">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510">
         <v>0</v>
       </c>
       <c r="J510" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K510">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="L510">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M510">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N510">
-        <v>2.875</v>
+        <v>1.6</v>
       </c>
       <c r="O510">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P510">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S510">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T510">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U510">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V510">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W510">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA510">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB510">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -46084,7 +46084,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7702197</v>
+        <v>7698743</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46093,49 +46093,49 @@
         <v>28</v>
       </c>
       <c r="E512" s="2">
-        <v>45380.625</v>
+        <v>45380.79513888889</v>
       </c>
       <c r="F512" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G512" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K512">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L512">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M512">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N512">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O512">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P512">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q512">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R512">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S512">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T512">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U512">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V512">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W512">
         <v>0</v>
@@ -46158,7 +46158,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7698743</v>
+        <v>7698741</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46167,49 +46167,49 @@
         <v>28</v>
       </c>
       <c r="E513" s="2">
-        <v>45380.79513888889</v>
+        <v>45381.54513888889</v>
       </c>
       <c r="F513" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G513" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="K513">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L513">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M513">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N513">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O513">
         <v>3.1</v>
       </c>
       <c r="P513">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q513">
         <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S513">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T513">
         <v>2</v>
       </c>
       <c r="U513">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V513">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W513">
         <v>0</v>
@@ -46232,7 +46232,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7698741</v>
+        <v>7698752</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46241,49 +46241,49 @@
         <v>28</v>
       </c>
       <c r="E514" s="2">
-        <v>45381.54513888889</v>
+        <v>45381.625</v>
       </c>
       <c r="F514" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G514" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="K514">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L514">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M514">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N514">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="O514">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P514">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q514">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R514">
+        <v>1.875</v>
+      </c>
+      <c r="S514">
+        <v>1.975</v>
+      </c>
+      <c r="T514">
+        <v>2.25</v>
+      </c>
+      <c r="U514">
         <v>2.1</v>
       </c>
-      <c r="S514">
+      <c r="V514">
         <v>1.775</v>
-      </c>
-      <c r="T514">
-        <v>2</v>
-      </c>
-      <c r="U514">
-        <v>2.025</v>
-      </c>
-      <c r="V514">
-        <v>1.825</v>
       </c>
       <c r="W514">
         <v>0</v>
@@ -46306,7 +46306,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7698752</v>
+        <v>7698749</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46315,49 +46315,49 @@
         <v>28</v>
       </c>
       <c r="E515" s="2">
-        <v>45381.625</v>
+        <v>45381.66666666666</v>
       </c>
       <c r="F515" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G515" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K515">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L515">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M515">
+        <v>3.75</v>
+      </c>
+      <c r="N515">
+        <v>1.909</v>
+      </c>
+      <c r="O515">
+        <v>3</v>
+      </c>
+      <c r="P515">
+        <v>5.25</v>
+      </c>
+      <c r="Q515">
+        <v>-0.5</v>
+      </c>
+      <c r="R515">
+        <v>1.9</v>
+      </c>
+      <c r="S515">
+        <v>1.95</v>
+      </c>
+      <c r="T515">
+        <v>1.75</v>
+      </c>
+      <c r="U515">
+        <v>1.775</v>
+      </c>
+      <c r="V515">
         <v>2.1</v>
-      </c>
-      <c r="N515">
-        <v>3.2</v>
-      </c>
-      <c r="O515">
-        <v>3.2</v>
-      </c>
-      <c r="P515">
-        <v>2.375</v>
-      </c>
-      <c r="Q515">
-        <v>0.25</v>
-      </c>
-      <c r="R515">
-        <v>1.875</v>
-      </c>
-      <c r="S515">
-        <v>1.975</v>
-      </c>
-      <c r="T515">
-        <v>2.25</v>
-      </c>
-      <c r="U515">
-        <v>2</v>
-      </c>
-      <c r="V515">
-        <v>1.85</v>
       </c>
       <c r="W515">
         <v>0</v>
@@ -46380,7 +46380,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7698749</v>
+        <v>7698569</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46392,46 +46392,46 @@
         <v>45381.66666666666</v>
       </c>
       <c r="F516" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G516" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K516">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L516">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M516">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N516">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O516">
         <v>3</v>
       </c>
       <c r="P516">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q516">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R516">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S516">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T516">
         <v>2</v>
       </c>
       <c r="U516">
+        <v>1.775</v>
+      </c>
+      <c r="V516">
         <v>2.1</v>
-      </c>
-      <c r="V516">
-        <v>1.775</v>
       </c>
       <c r="W516">
         <v>0</v>
@@ -46493,10 +46493,10 @@
         <v>0</v>
       </c>
       <c r="R517">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S517">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T517">
         <v>1.75</v>
@@ -46528,7 +46528,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7698569</v>
+        <v>7698751</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46537,40 +46537,40 @@
         <v>28</v>
       </c>
       <c r="E518" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G518" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K518">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L518">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M518">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N518">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="O518">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P518">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q518">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S518">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T518">
         <v>2</v>
@@ -46602,7 +46602,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7698751</v>
+        <v>7698745</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46611,13 +46611,13 @@
         <v>28</v>
       </c>
       <c r="E519" s="2">
-        <v>45382.64583333334</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F519" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G519" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K519">
         <v>1.95</v>
@@ -46629,31 +46629,31 @@
         <v>4</v>
       </c>
       <c r="N519">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O519">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P519">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q519">
         <v>-0.5</v>
       </c>
       <c r="R519">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S519">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T519">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U519">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V519">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W519">
         <v>0</v>
@@ -46706,28 +46706,28 @@
         <v>2.05</v>
       </c>
       <c r="O520">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P520">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q520">
         <v>-0.5</v>
       </c>
       <c r="R520">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S520">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T520">
         <v>1.75</v>
       </c>
       <c r="U520">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V520">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W520">
         <v>0</v>
@@ -46750,7 +46750,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7698745</v>
+        <v>7698570</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46759,49 +46759,49 @@
         <v>28</v>
       </c>
       <c r="E521" s="2">
-        <v>45382.66666666666</v>
+        <v>45382.6875</v>
       </c>
       <c r="F521" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G521" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K521">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L521">
         <v>3</v>
       </c>
       <c r="M521">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N521">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O521">
         <v>3.1</v>
       </c>
       <c r="P521">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q521">
         <v>-0.5</v>
       </c>
       <c r="R521">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S521">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T521">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U521">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V521">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W521">
         <v>0</v>
@@ -46824,7 +46824,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>7698570</v>
+        <v>7698744</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46833,49 +46833,49 @@
         <v>28</v>
       </c>
       <c r="E522" s="2">
-        <v>45382.6875</v>
+        <v>45382.70833333334</v>
       </c>
       <c r="F522" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G522" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K522">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L522">
         <v>3</v>
       </c>
       <c r="M522">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N522">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O522">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P522">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q522">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R522">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S522">
+        <v>2.025</v>
+      </c>
+      <c r="T522">
+        <v>2</v>
+      </c>
+      <c r="U522">
         <v>1.85</v>
       </c>
-      <c r="T522">
-        <v>2</v>
-      </c>
-      <c r="U522">
-        <v>1.9</v>
-      </c>
       <c r="V522">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -46898,7 +46898,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>7698744</v>
+        <v>7702196</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46907,13 +46907,13 @@
         <v>28</v>
       </c>
       <c r="E523" s="2">
-        <v>45382.70833333334</v>
+        <v>45382.73958333334</v>
       </c>
       <c r="F523" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G523" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K523">
         <v>1.95</v>
@@ -46925,13 +46925,13 @@
         <v>4</v>
       </c>
       <c r="N523">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O523">
         <v>3</v>
       </c>
       <c r="P523">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q523">
         <v>-0.25</v>
@@ -46946,10 +46946,10 @@
         <v>2</v>
       </c>
       <c r="U523">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V523">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W523">
         <v>0</v>
@@ -46972,7 +46972,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>7702196</v>
+        <v>7698748</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -46981,49 +46981,49 @@
         <v>28</v>
       </c>
       <c r="E524" s="2">
-        <v>45382.73958333334</v>
+        <v>45382.79166666666</v>
       </c>
       <c r="F524" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G524" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K524">
+        <v>2.625</v>
+      </c>
+      <c r="L524">
+        <v>2.75</v>
+      </c>
+      <c r="M524">
+        <v>2.75</v>
+      </c>
+      <c r="N524">
+        <v>2.7</v>
+      </c>
+      <c r="O524">
+        <v>2.9</v>
+      </c>
+      <c r="P524">
+        <v>3</v>
+      </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
+      <c r="R524">
+        <v>1.8</v>
+      </c>
+      <c r="S524">
+        <v>2.05</v>
+      </c>
+      <c r="T524">
+        <v>1.75</v>
+      </c>
+      <c r="U524">
+        <v>1.9</v>
+      </c>
+      <c r="V524">
         <v>1.95</v>
-      </c>
-      <c r="L524">
-        <v>3</v>
-      </c>
-      <c r="M524">
-        <v>4</v>
-      </c>
-      <c r="N524">
-        <v>2.15</v>
-      </c>
-      <c r="O524">
-        <v>3</v>
-      </c>
-      <c r="P524">
-        <v>3.8</v>
-      </c>
-      <c r="Q524">
-        <v>-0.25</v>
-      </c>
-      <c r="R524">
-        <v>1.825</v>
-      </c>
-      <c r="S524">
-        <v>2.025</v>
-      </c>
-      <c r="T524">
-        <v>2</v>
-      </c>
-      <c r="U524">
-        <v>2.05</v>
-      </c>
-      <c r="V524">
-        <v>1.8</v>
       </c>
       <c r="W524">
         <v>0</v>
@@ -47046,7 +47046,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47058,46 +47058,46 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F525" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G525" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K525">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N525">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O525">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P525">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S525">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T525">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U525">
+        <v>1.95</v>
+      </c>
+      <c r="V525">
         <v>1.9</v>
-      </c>
-      <c r="V525">
-        <v>1.95</v>
       </c>
       <c r="W525">
         <v>0</v>
@@ -47120,7 +47120,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698742</v>
+        <v>7698746</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47129,28 +47129,28 @@
         <v>28</v>
       </c>
       <c r="E526" s="2">
-        <v>45382.79166666666</v>
+        <v>45383.64583333334</v>
       </c>
       <c r="F526" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G526" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="K526">
         <v>1.8</v>
       </c>
       <c r="L526">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M526">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N526">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O526">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P526">
         <v>5.25</v>
@@ -47159,19 +47159,19 @@
         <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S526">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T526">
         <v>2</v>
       </c>
       <c r="U526">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V526">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W526">
         <v>0</v>
@@ -47194,7 +47194,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>7698746</v>
+        <v>8015923</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47203,28 +47203,28 @@
         <v>28</v>
       </c>
       <c r="E527" s="2">
-        <v>45383.64583333334</v>
+        <v>45383.66666666666</v>
       </c>
       <c r="F527" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G527" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K527">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L527">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M527">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N527">
         <v>1.833</v>
       </c>
       <c r="O527">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P527">
         <v>4.75</v>
@@ -47233,13 +47233,13 @@
         <v>-0.5</v>
       </c>
       <c r="R527">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S527">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T527">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U527">
         <v>1.8</v>
@@ -47268,7 +47268,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>8015923</v>
+        <v>7992353</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47277,40 +47277,40 @@
         <v>28</v>
       </c>
       <c r="E528" s="2">
-        <v>45383.66666666666</v>
+        <v>45383.88194444445</v>
       </c>
       <c r="F528" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G528" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K528">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L528">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M528">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N528">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O528">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P528">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q528">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R528">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S528">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T528">
         <v>1.75</v>
@@ -47334,80 +47334,6 @@
         <v>0</v>
       </c>
       <c r="AA528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:27">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>7992353</v>
-      </c>
-      <c r="C529" t="s">
-        <v>28</v>
-      </c>
-      <c r="D529" t="s">
-        <v>28</v>
-      </c>
-      <c r="E529" s="2">
-        <v>45383.88194444445</v>
-      </c>
-      <c r="F529" t="s">
-        <v>43</v>
-      </c>
-      <c r="G529" t="s">
-        <v>34</v>
-      </c>
-      <c r="K529">
-        <v>1.8</v>
-      </c>
-      <c r="L529">
-        <v>3</v>
-      </c>
-      <c r="M529">
-        <v>4.5</v>
-      </c>
-      <c r="N529">
-        <v>1.833</v>
-      </c>
-      <c r="O529">
-        <v>3</v>
-      </c>
-      <c r="P529">
-        <v>4.5</v>
-      </c>
-      <c r="Q529">
-        <v>-0.5</v>
-      </c>
-      <c r="R529">
-        <v>1.875</v>
-      </c>
-      <c r="S529">
-        <v>1.975</v>
-      </c>
-      <c r="T529">
-        <v>1.75</v>
-      </c>
-      <c r="U529">
-        <v>1.8</v>
-      </c>
-      <c r="V529">
-        <v>2.05</v>
-      </c>
-      <c r="W529">
-        <v>0</v>
-      </c>
-      <c r="X529">
-        <v>0</v>
-      </c>
-      <c r="Y529">
-        <v>0</v>
-      </c>
-      <c r="Z529">
-        <v>0</v>
-      </c>
-      <c r="AA529">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC528"/>
+  <dimension ref="A1:AC523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4432,7 +4432,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150858</v>
+        <v>6150859</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4444,76 +4444,76 @@
         <v>45096.625</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L44">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
         <v>3.1</v>
       </c>
       <c r="P44">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6150859</v>
+        <v>6150858</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4533,76 +4533,76 @@
         <v>45096.625</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M45">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O45">
         <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4966,7 +4966,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6150863</v>
+        <v>6150464</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4978,58 +4978,58 @@
         <v>45101.625</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>71</v>
       </c>
       <c r="K50">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="M50">
         <v>3.6</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P50">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>1.375</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -5038,16 +5038,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5055,7 +5055,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6150464</v>
+        <v>6150863</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5067,58 +5067,58 @@
         <v>45101.625</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>71</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L51">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>3.6</v>
       </c>
       <c r="N51">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
         <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5127,16 +5127,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8348,7 +8348,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6150704</v>
+        <v>6870414</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8360,55 +8360,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>73</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O88">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P88">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
         <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V88">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8417,19 +8417,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8437,7 +8437,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6870414</v>
+        <v>6150704</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8449,55 +8449,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>73</v>
       </c>
       <c r="K89">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M89">
+        <v>2.875</v>
+      </c>
+      <c r="N89">
+        <v>2.5</v>
+      </c>
+      <c r="O89">
+        <v>2.875</v>
+      </c>
+      <c r="P89">
         <v>3.3</v>
-      </c>
-      <c r="N89">
-        <v>2.25</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-      <c r="P89">
-        <v>3.6</v>
       </c>
       <c r="Q89">
         <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
         <v>2</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8506,19 +8506,19 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9950,7 +9950,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6150710</v>
+        <v>6903680</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9962,76 +9962,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K106">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O106">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>1.825</v>
+      </c>
+      <c r="S106">
         <v>1.975</v>
       </c>
-      <c r="S106">
-        <v>1.825</v>
-      </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10039,7 +10039,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6903680</v>
+        <v>6150710</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10051,76 +10051,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
+        <v>2.875</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>2.3</v>
+      </c>
+      <c r="O107">
         <v>2.9</v>
       </c>
-      <c r="M107">
-        <v>3.2</v>
-      </c>
-      <c r="N107">
-        <v>1.85</v>
-      </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10751,7 +10751,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6903653</v>
+        <v>6903682</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10763,13 +10763,13 @@
         <v>45124.625</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -10778,34 +10778,34 @@
         <v>73</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q115">
         <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U115">
         <v>1.8</v>
@@ -10820,19 +10820,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10840,7 +10840,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6903682</v>
+        <v>6903653</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10852,13 +10852,13 @@
         <v>45124.625</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -10867,34 +10867,34 @@
         <v>73</v>
       </c>
       <c r="K116">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N116">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
         <v>1.8</v>
@@ -10909,19 +10909,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11196,7 +11196,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6150885</v>
+        <v>6150886</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11208,76 +11208,76 @@
         <v>45129.625</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K120">
         <v>2.5</v>
       </c>
       <c r="L120">
+        <v>2.875</v>
+      </c>
+      <c r="M120">
+        <v>2.75</v>
+      </c>
+      <c r="N120">
+        <v>2.05</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="M120">
-        <v>2.625</v>
-      </c>
-      <c r="N120">
-        <v>2.15</v>
-      </c>
-      <c r="O120">
-        <v>3.1</v>
-      </c>
       <c r="P120">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA120">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11285,7 +11285,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6150886</v>
+        <v>6150714</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11297,76 +11297,76 @@
         <v>45129.625</v>
       </c>
       <c r="F121" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K121">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L121">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M121">
         <v>2.75</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z121">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11374,7 +11374,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6150714</v>
+        <v>6150885</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11386,76 +11386,76 @@
         <v>45129.625</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
         <v>2.625</v>
       </c>
-      <c r="L122">
-        <v>2.75</v>
-      </c>
-      <c r="M122">
-        <v>2.75</v>
-      </c>
       <c r="N122">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.7250000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11819,7 +11819,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150888</v>
+        <v>6150711</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11831,76 +11831,76 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K127">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
+        <v>1.925</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
         <v>1.75</v>
       </c>
-      <c r="S127">
-        <v>2.05</v>
-      </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11908,7 +11908,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150887</v>
+        <v>6150888</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11920,73 +11920,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12086,7 +12086,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6150711</v>
+        <v>6150887</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12098,56 +12098,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G130" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>73</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
+        <v>4.75</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
         <v>1.909</v>
       </c>
-      <c r="O130">
-        <v>3.2</v>
-      </c>
-      <c r="P130">
-        <v>4.5</v>
-      </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U130">
+        <v>1.975</v>
+      </c>
+      <c r="V130">
         <v>1.825</v>
       </c>
-      <c r="V130">
-        <v>1.975</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
@@ -12155,19 +12155,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -16180,7 +16180,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16192,76 +16192,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M176">
+        <v>2.3</v>
+      </c>
+      <c r="N176">
+        <v>1.85</v>
+      </c>
+      <c r="O176">
         <v>3.3</v>
       </c>
-      <c r="N176">
-        <v>2.05</v>
-      </c>
-      <c r="O176">
-        <v>3.2</v>
-      </c>
       <c r="P176">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16269,7 +16269,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16281,76 +16281,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -21876,7 +21876,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6234808</v>
+        <v>6234807</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21888,58 +21888,58 @@
         <v>45179.625</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>71</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W240">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21948,16 +21948,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21965,7 +21965,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6234807</v>
+        <v>6234808</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21977,58 +21977,58 @@
         <v>45179.625</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>71</v>
       </c>
       <c r="K241">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
+        <v>3.2</v>
+      </c>
+      <c r="M241">
+        <v>3.2</v>
+      </c>
+      <c r="N241">
+        <v>2.2</v>
+      </c>
+      <c r="O241">
+        <v>3.3</v>
+      </c>
+      <c r="P241">
         <v>3.4</v>
       </c>
-      <c r="M241">
-        <v>5</v>
-      </c>
-      <c r="N241">
-        <v>1.6</v>
-      </c>
-      <c r="O241">
-        <v>3.8</v>
-      </c>
-      <c r="P241">
-        <v>6</v>
-      </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V241">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W241">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -22037,16 +22037,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -24190,7 +24190,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6150576</v>
+        <v>6256581</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24202,76 +24202,76 @@
         <v>45186.75</v>
       </c>
       <c r="F266" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G266" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>71</v>
+      </c>
+      <c r="K266">
+        <v>2.1</v>
+      </c>
+      <c r="L266">
+        <v>3.25</v>
+      </c>
+      <c r="M266">
         <v>3</v>
       </c>
-      <c r="J266" t="s">
-        <v>73</v>
-      </c>
-      <c r="K266">
-        <v>1.909</v>
-      </c>
-      <c r="L266">
-        <v>3</v>
-      </c>
-      <c r="M266">
-        <v>4</v>
-      </c>
       <c r="N266">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O266">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P266">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q266">
         <v>-0.75</v>
       </c>
       <c r="R266">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V266">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA266">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24279,7 +24279,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6256581</v>
+        <v>6150576</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24291,76 +24291,76 @@
         <v>45186.75</v>
       </c>
       <c r="F267" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G267" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N267">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O267">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P267">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
       </c>
       <c r="R267">
+        <v>2</v>
+      </c>
+      <c r="S267">
+        <v>1.8</v>
+      </c>
+      <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
         <v>1.925</v>
       </c>
-      <c r="S267">
+      <c r="V267">
         <v>1.875</v>
       </c>
-      <c r="T267">
-        <v>2.25</v>
-      </c>
-      <c r="U267">
-        <v>1.9</v>
-      </c>
-      <c r="V267">
-        <v>1.9</v>
-      </c>
       <c r="W267">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z267">
+        <v>-1</v>
+      </c>
+      <c r="AA267">
+        <v>0.8</v>
+      </c>
+      <c r="AB267">
         <v>0.925</v>
       </c>
-      <c r="AA267">
-        <v>-1</v>
-      </c>
-      <c r="AB267">
-        <v>-0.5</v>
-      </c>
       <c r="AC267">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25525,7 +25525,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6301749</v>
+        <v>6296630</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25537,76 +25537,76 @@
         <v>45193.64583333334</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G281" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K281">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L281">
         <v>3.2</v>
       </c>
       <c r="M281">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="N281">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O281">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P281">
+        <v>4</v>
+      </c>
+      <c r="Q281">
+        <v>-0.5</v>
+      </c>
+      <c r="R281">
+        <v>2.025</v>
+      </c>
+      <c r="S281">
+        <v>1.825</v>
+      </c>
+      <c r="T281">
+        <v>1.75</v>
+      </c>
+      <c r="U281">
+        <v>1.825</v>
+      </c>
+      <c r="V281">
+        <v>2.025</v>
+      </c>
+      <c r="W281">
+        <v>-1</v>
+      </c>
+      <c r="X281">
         <v>2.3</v>
       </c>
-      <c r="Q281">
-        <v>0.25</v>
-      </c>
-      <c r="R281">
-        <v>1.825</v>
-      </c>
-      <c r="S281">
-        <v>2.025</v>
-      </c>
-      <c r="T281">
-        <v>2</v>
-      </c>
-      <c r="U281">
-        <v>1.925</v>
-      </c>
-      <c r="V281">
-        <v>1.925</v>
-      </c>
-      <c r="W281">
-        <v>2.4</v>
-      </c>
-      <c r="X281">
-        <v>-1</v>
-      </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
         <v>0.825</v>
       </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC281">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25614,7 +25614,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6296630</v>
+        <v>6301749</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25626,76 +25626,76 @@
         <v>45193.64583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K282">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L282">
         <v>3.2</v>
       </c>
       <c r="M282">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="N282">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O282">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P282">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R282">
+        <v>1.825</v>
+      </c>
+      <c r="S282">
         <v>2.025</v>
       </c>
-      <c r="S282">
-        <v>1.825</v>
-      </c>
       <c r="T282">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X282">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -28818,7 +28818,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6330566</v>
+        <v>6323477</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28830,10 +28830,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F318" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G318" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28845,61 +28845,61 @@
         <v>72</v>
       </c>
       <c r="K318">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L318">
         <v>3.2</v>
       </c>
       <c r="M318">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N318">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P318">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q318">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
+        <v>1.825</v>
+      </c>
+      <c r="S318">
+        <v>1.975</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
         <v>1.775</v>
       </c>
-      <c r="S318">
+      <c r="V318">
         <v>2.025</v>
       </c>
-      <c r="T318">
-        <v>2.25</v>
-      </c>
-      <c r="U318">
-        <v>1.9</v>
-      </c>
-      <c r="V318">
-        <v>1.9</v>
-      </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB318">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC318">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28996,7 +28996,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6323477</v>
+        <v>6330566</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29008,10 +29008,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -29023,61 +29023,61 @@
         <v>72</v>
       </c>
       <c r="K320">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L320">
         <v>3.2</v>
       </c>
       <c r="M320">
+        <v>1.727</v>
+      </c>
+      <c r="N320">
+        <v>3.1</v>
+      </c>
+      <c r="O320">
         <v>3.2</v>
       </c>
-      <c r="N320">
-        <v>1.909</v>
-      </c>
-      <c r="O320">
-        <v>3.3</v>
-      </c>
       <c r="P320">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q320">
+        <v>0.25</v>
+      </c>
+      <c r="R320">
+        <v>1.775</v>
+      </c>
+      <c r="S320">
+        <v>2.025</v>
+      </c>
+      <c r="T320">
+        <v>2.25</v>
+      </c>
+      <c r="U320">
+        <v>1.9</v>
+      </c>
+      <c r="V320">
+        <v>1.9</v>
+      </c>
+      <c r="W320">
+        <v>-1</v>
+      </c>
+      <c r="X320">
+        <v>2.2</v>
+      </c>
+      <c r="Y320">
+        <v>-1</v>
+      </c>
+      <c r="Z320">
+        <v>0.3875</v>
+      </c>
+      <c r="AA320">
         <v>-0.5</v>
       </c>
-      <c r="R320">
-        <v>1.825</v>
-      </c>
-      <c r="S320">
-        <v>1.975</v>
-      </c>
-      <c r="T320">
-        <v>2</v>
-      </c>
-      <c r="U320">
-        <v>1.775</v>
-      </c>
-      <c r="V320">
-        <v>2.025</v>
-      </c>
-      <c r="W320">
-        <v>-1</v>
-      </c>
-      <c r="X320">
-        <v>2.3</v>
-      </c>
-      <c r="Y320">
-        <v>-1</v>
-      </c>
-      <c r="Z320">
-        <v>-1</v>
-      </c>
-      <c r="AA320">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB320">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29441,7 +29441,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7323530</v>
+        <v>6360015</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29453,19 +29453,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G325" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K325">
         <v>1.8</v>
@@ -29477,49 +29477,49 @@
         <v>4</v>
       </c>
       <c r="N325">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O325">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P325">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q325">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R325">
+        <v>2.05</v>
+      </c>
+      <c r="S325">
+        <v>1.8</v>
+      </c>
+      <c r="T325">
+        <v>2.25</v>
+      </c>
+      <c r="U325">
+        <v>2.1</v>
+      </c>
+      <c r="V325">
         <v>1.775</v>
       </c>
-      <c r="S325">
-        <v>2.025</v>
-      </c>
-      <c r="T325">
-        <v>2</v>
-      </c>
-      <c r="U325">
-        <v>1.775</v>
-      </c>
-      <c r="V325">
-        <v>2.025</v>
-      </c>
       <c r="W325">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z325">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB325">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AC325">
         <v>-1</v>
@@ -29530,7 +29530,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6360015</v>
+        <v>6356449</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29542,19 +29542,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F326" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G326" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K326">
         <v>1.8</v>
@@ -29572,46 +29572,46 @@
         <v>3.1</v>
       </c>
       <c r="P326">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q326">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S326">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T326">
         <v>2.25</v>
       </c>
       <c r="U326">
+        <v>1.925</v>
+      </c>
+      <c r="V326">
+        <v>1.875</v>
+      </c>
+      <c r="W326">
+        <v>-1</v>
+      </c>
+      <c r="X326">
         <v>2.1</v>
       </c>
-      <c r="V326">
-        <v>1.775</v>
-      </c>
-      <c r="W326">
-        <v>-1</v>
-      </c>
-      <c r="X326">
-        <v>-1</v>
-      </c>
       <c r="Y326">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA326">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AB326">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29708,7 +29708,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6356449</v>
+        <v>7323530</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29720,19 +29720,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F328" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G328" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K328">
         <v>1.8</v>
@@ -29744,16 +29744,16 @@
         <v>4</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P328">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R328">
         <v>1.775</v>
@@ -29762,34 +29762,34 @@
         <v>2.025</v>
       </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V328">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W328">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X328">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
+        <v>0.3875</v>
+      </c>
+      <c r="AA328">
         <v>-0.5</v>
       </c>
-      <c r="AA328">
-        <v>0.5125</v>
-      </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC328">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29797,7 +29797,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323531</v>
+        <v>7323532</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29809,46 +29809,46 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F329" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G329" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K329">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L329">
         <v>3.2</v>
       </c>
       <c r="M329">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N329">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="O329">
         <v>3.25</v>
       </c>
       <c r="P329">
+        <v>3.5</v>
+      </c>
+      <c r="Q329">
+        <v>-0.25</v>
+      </c>
+      <c r="R329">
+        <v>1.85</v>
+      </c>
+      <c r="S329">
         <v>1.95</v>
-      </c>
-      <c r="Q329">
-        <v>0.5</v>
-      </c>
-      <c r="R329">
-        <v>1.825</v>
-      </c>
-      <c r="S329">
-        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
@@ -29863,16 +29863,16 @@
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z329">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB329">
         <v>-0.5</v>
@@ -29975,7 +29975,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7323532</v>
+        <v>6355608</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29987,10 +29987,10 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F331" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G331" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -30002,40 +30002,40 @@
         <v>73</v>
       </c>
       <c r="K331">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="O331">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S331">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T331">
         <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
         <v>-1</v>
@@ -30044,19 +30044,19 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z331">
         <v>-1</v>
       </c>
       <c r="AA331">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AB331">
         <v>-0.5</v>
       </c>
       <c r="AC331">
-        <v>0.4125</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30064,7 +30064,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6355608</v>
+        <v>7323531</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30076,76 +30076,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G332" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J332" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K332">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L332">
         <v>3.2</v>
       </c>
       <c r="M332">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="N332">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P332">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q332">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R332">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S332">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y332">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA332">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
         <v>-0.5</v>
       </c>
       <c r="AC332">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30153,7 +30153,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7323841</v>
+        <v>6390738</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30165,58 +30165,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
         <v>71</v>
       </c>
       <c r="K333">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L333">
         <v>3</v>
       </c>
       <c r="M333">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N333">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O333">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P333">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q333">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R333">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30225,13 +30225,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -30242,7 +30242,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7323855</v>
+        <v>7323927</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30254,76 +30254,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G334" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H334">
         <v>1</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K334">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L334">
         <v>3.2</v>
       </c>
       <c r="M334">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N334">
+        <v>3.8</v>
+      </c>
+      <c r="O334">
+        <v>3.3</v>
+      </c>
+      <c r="P334">
         <v>2.05</v>
       </c>
-      <c r="O334">
-        <v>3.2</v>
-      </c>
-      <c r="P334">
-        <v>4</v>
-      </c>
       <c r="Q334">
+        <v>0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.975</v>
+      </c>
+      <c r="S334">
+        <v>1.875</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.825</v>
+      </c>
+      <c r="V334">
+        <v>2.025</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>2.3</v>
+      </c>
+      <c r="Y334">
+        <v>-1</v>
+      </c>
+      <c r="Z334">
+        <v>0.4875</v>
+      </c>
+      <c r="AA334">
         <v>-0.5</v>
       </c>
-      <c r="R334">
-        <v>2.025</v>
-      </c>
-      <c r="S334">
-        <v>1.775</v>
-      </c>
-      <c r="T334">
-        <v>1.75</v>
-      </c>
-      <c r="U334">
-        <v>1.75</v>
-      </c>
-      <c r="V334">
-        <v>2.05</v>
-      </c>
-      <c r="W334">
-        <v>1.05</v>
-      </c>
-      <c r="X334">
-        <v>-1</v>
-      </c>
-      <c r="Y334">
-        <v>-1</v>
-      </c>
-      <c r="Z334">
-        <v>1.025</v>
-      </c>
-      <c r="AA334">
-        <v>-1</v>
-      </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30331,7 +30331,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7323927</v>
+        <v>7323855</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30343,76 +30343,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G335" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H335">
         <v>1</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K335">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L335">
         <v>3.2</v>
       </c>
       <c r="M335">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N335">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P335">
+        <v>4</v>
+      </c>
+      <c r="Q335">
+        <v>-0.5</v>
+      </c>
+      <c r="R335">
+        <v>2.025</v>
+      </c>
+      <c r="S335">
+        <v>1.775</v>
+      </c>
+      <c r="T335">
+        <v>1.75</v>
+      </c>
+      <c r="U335">
+        <v>1.75</v>
+      </c>
+      <c r="V335">
         <v>2.05</v>
       </c>
-      <c r="Q335">
-        <v>0.25</v>
-      </c>
-      <c r="R335">
-        <v>1.975</v>
-      </c>
-      <c r="S335">
-        <v>1.875</v>
-      </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
-      <c r="U335">
-        <v>1.825</v>
-      </c>
-      <c r="V335">
-        <v>2.025</v>
-      </c>
       <c r="W335">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X335">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y335">
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30420,7 +30420,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6390738</v>
+        <v>7323841</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30432,58 +30432,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G336" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H336">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J336" t="s">
         <v>71</v>
       </c>
       <c r="K336">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L336">
         <v>3</v>
       </c>
       <c r="M336">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N336">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O336">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P336">
-        <v>13</v>
+        <v>3.75</v>
       </c>
       <c r="Q336">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T336">
         <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V336">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W336">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30492,13 +30492,13 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC336">
         <v>-1</v>
@@ -30509,7 +30509,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6390737</v>
+        <v>7311908</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30521,10 +30521,10 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G337" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -30536,40 +30536,40 @@
         <v>73</v>
       </c>
       <c r="K337">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N337">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P337">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R337">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S337">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T337">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U337">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V337">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W337">
         <v>-1</v>
@@ -30578,16 +30578,16 @@
         <v>-1</v>
       </c>
       <c r="Y337">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB337">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC337">
         <v>-1</v>
@@ -30687,7 +30687,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6387411</v>
+        <v>6390737</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30699,76 +30699,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F339" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G339" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K339">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L339">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M339">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N339">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O339">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P339">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q339">
         <v>-0.5</v>
       </c>
       <c r="R339">
+        <v>1.8</v>
+      </c>
+      <c r="S339">
+        <v>2</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
         <v>1.95</v>
       </c>
-      <c r="S339">
-        <v>1.9</v>
-      </c>
-      <c r="T339">
-        <v>2</v>
-      </c>
-      <c r="U339">
-        <v>1.875</v>
-      </c>
       <c r="V339">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W339">
+        <v>-1</v>
+      </c>
+      <c r="X339">
+        <v>-1</v>
+      </c>
+      <c r="Y339">
+        <v>3.5</v>
+      </c>
+      <c r="Z339">
+        <v>-1</v>
+      </c>
+      <c r="AA339">
+        <v>1</v>
+      </c>
+      <c r="AB339">
         <v>0.95</v>
       </c>
-      <c r="X339">
-        <v>-1</v>
-      </c>
-      <c r="Y339">
-        <v>-1</v>
-      </c>
-      <c r="Z339">
-        <v>0.95</v>
-      </c>
-      <c r="AA339">
-        <v>-1</v>
-      </c>
-      <c r="AB339">
-        <v>0</v>
-      </c>
       <c r="AC339">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30776,7 +30776,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6387410</v>
+        <v>6387411</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30788,58 +30788,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F340" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G340" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H340">
         <v>2</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
         <v>71</v>
       </c>
       <c r="K340">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L340">
         <v>3.2</v>
       </c>
       <c r="M340">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N340">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="O340">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P340">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q340">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S340">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T340">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V340">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W340">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="X340">
         <v>-1</v>
@@ -30848,16 +30848,16 @@
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA340">
         <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC340">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30865,7 +30865,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7311908</v>
+        <v>6387410</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30877,73 +30877,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G341" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K341">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L341">
         <v>3.2</v>
       </c>
       <c r="M341">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N341">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O341">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P341">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q341">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S341">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T341">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U341">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V341">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA341">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC341">
         <v>-1</v>
@@ -32467,7 +32467,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7514267</v>
+        <v>7503697</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32479,52 +32479,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L359">
         <v>3</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N359">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O359">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P359">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S359">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T359">
         <v>1.75</v>
       </c>
       <c r="U359">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V359">
         <v>2.025</v>
@@ -32533,19 +32533,19 @@
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB359">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC359">
         <v>-0.5</v>
@@ -32556,7 +32556,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7503697</v>
+        <v>7514267</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32568,52 +32568,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G360" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K360">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L360">
         <v>3</v>
       </c>
       <c r="M360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N360">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O360">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P360">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q360">
         <v>-0.25</v>
       </c>
       <c r="R360">
+        <v>1.825</v>
+      </c>
+      <c r="S360">
         <v>1.975</v>
-      </c>
-      <c r="S360">
-        <v>1.875</v>
       </c>
       <c r="T360">
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
         <v>2.025</v>
@@ -32622,19 +32622,19 @@
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y360">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB360">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AC360">
         <v>-0.5</v>
@@ -32912,7 +32912,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7698645</v>
+        <v>7698640</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32924,13 +32924,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G364" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -32939,43 +32939,43 @@
         <v>71</v>
       </c>
       <c r="K364">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L364">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M364">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N364">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O364">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P364">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q364">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S364">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T364">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U364">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32984,16 +32984,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33090,7 +33090,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698640</v>
+        <v>7698645</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33102,13 +33102,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G366" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33117,43 +33117,43 @@
         <v>71</v>
       </c>
       <c r="K366">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L366">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M366">
+        <v>3.5</v>
+      </c>
+      <c r="N366">
+        <v>2.05</v>
+      </c>
+      <c r="O366">
+        <v>2.9</v>
+      </c>
+      <c r="P366">
         <v>4.5</v>
       </c>
-      <c r="N366">
-        <v>1.8</v>
-      </c>
-      <c r="O366">
-        <v>3.4</v>
-      </c>
-      <c r="P366">
-        <v>5</v>
-      </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R366">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S366">
+        <v>1.75</v>
+      </c>
+      <c r="T366">
+        <v>1.75</v>
+      </c>
+      <c r="U366">
         <v>1.825</v>
       </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>1.925</v>
-      </c>
       <c r="V366">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W366">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33162,16 +33162,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA366">
         <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC366">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33179,7 +33179,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33191,76 +33191,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F367" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G367" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K367">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M367">
+        <v>3.3</v>
+      </c>
+      <c r="N367">
+        <v>2.3</v>
+      </c>
+      <c r="O367">
         <v>3</v>
       </c>
-      <c r="N367">
-        <v>2.9</v>
-      </c>
-      <c r="O367">
-        <v>2.8</v>
-      </c>
       <c r="P367">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S367">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T367">
         <v>1.75</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33268,7 +33268,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33280,76 +33280,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F368" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G368" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K368">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L368">
+        <v>2.75</v>
+      </c>
+      <c r="M368">
         <v>3</v>
       </c>
-      <c r="M368">
-        <v>3.3</v>
-      </c>
       <c r="N368">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O368">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P368">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R368">
+        <v>1.875</v>
+      </c>
+      <c r="S368">
         <v>1.975</v>
-      </c>
-      <c r="S368">
-        <v>1.825</v>
       </c>
       <c r="T368">
         <v>1.75</v>
       </c>
       <c r="U368">
+        <v>1.85</v>
+      </c>
+      <c r="V368">
+        <v>2</v>
+      </c>
+      <c r="W368">
         <v>1.9</v>
       </c>
-      <c r="V368">
-        <v>1.9</v>
-      </c>
-      <c r="W368">
-        <v>-1</v>
-      </c>
       <c r="X368">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA368">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -34514,7 +34514,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7698663</v>
+        <v>7698357</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34526,76 +34526,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G382" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382">
         <v>1</v>
       </c>
       <c r="J382" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K382">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L382">
         <v>2.875</v>
       </c>
       <c r="M382">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N382">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="O382">
         <v>2.875</v>
       </c>
       <c r="P382">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q382">
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S382">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T382">
         <v>1.75</v>
       </c>
       <c r="U382">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V382">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W382">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB382">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34603,7 +34603,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7698659</v>
+        <v>7698663</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34615,76 +34615,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G383" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J383" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K383">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L383">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M383">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N383">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O383">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P383">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q383">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R383">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S383">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
         <v>1.75</v>
       </c>
       <c r="U383">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA383">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC383">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34692,7 +34692,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7698357</v>
+        <v>7698659</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34704,73 +34704,73 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G384" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J384" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K384">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L384">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M384">
+        <v>4</v>
+      </c>
+      <c r="N384">
+        <v>1.8</v>
+      </c>
+      <c r="O384">
         <v>3.2</v>
       </c>
-      <c r="N384">
-        <v>2.55</v>
-      </c>
-      <c r="O384">
-        <v>2.875</v>
-      </c>
       <c r="P384">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q384">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R384">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S384">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T384">
         <v>1.75</v>
       </c>
       <c r="U384">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V384">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W384">
         <v>-1</v>
       </c>
       <c r="X384">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z384">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB384">
-        <v>0.3875</v>
+        <v>0.375</v>
       </c>
       <c r="AC384">
         <v>-0.5</v>
@@ -35226,7 +35226,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35238,10 +35238,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G390" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -35253,43 +35253,43 @@
         <v>71</v>
       </c>
       <c r="K390">
+        <v>2.5</v>
+      </c>
+      <c r="L390">
         <v>3</v>
       </c>
-      <c r="L390">
+      <c r="M390">
         <v>2.75</v>
       </c>
-      <c r="M390">
-        <v>2.5</v>
-      </c>
       <c r="N390">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O390">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P390">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q390">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S390">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T390">
         <v>1.75</v>
       </c>
       <c r="U390">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V390">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W390">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35298,7 +35298,7 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA390">
         <v>-1</v>
@@ -35307,7 +35307,7 @@
         <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35315,7 +35315,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698545</v>
+        <v>7698658</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35327,10 +35327,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G391" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H391">
         <v>1</v>
@@ -35342,43 +35342,43 @@
         <v>71</v>
       </c>
       <c r="K391">
+        <v>3</v>
+      </c>
+      <c r="L391">
+        <v>2.75</v>
+      </c>
+      <c r="M391">
         <v>2.5</v>
       </c>
-      <c r="L391">
-        <v>3</v>
-      </c>
-      <c r="M391">
-        <v>2.75</v>
-      </c>
       <c r="N391">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O391">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P391">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S391">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T391">
         <v>1.75</v>
       </c>
       <c r="U391">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W391">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X391">
         <v>-1</v>
@@ -35387,7 +35387,7 @@
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA391">
         <v>-1</v>
@@ -35396,7 +35396,7 @@
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G397" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N397">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O397">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P397">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.925</v>
+      </c>
+      <c r="V397">
         <v>1.875</v>
       </c>
-      <c r="V397">
-        <v>1.925</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X397">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA397">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
+        <v>3.1</v>
+      </c>
+      <c r="M398">
         <v>3</v>
       </c>
-      <c r="M398">
-        <v>3.2</v>
-      </c>
       <c r="N398">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O398">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P398">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S398">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.875</v>
+      </c>
+      <c r="V398">
         <v>1.925</v>
       </c>
-      <c r="V398">
-        <v>1.875</v>
-      </c>
       <c r="W398">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X398">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB398">
+        <v>-1</v>
+      </c>
+      <c r="AC398">
         <v>0.925</v>
-      </c>
-      <c r="AC398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -39498,7 +39498,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698556</v>
+        <v>7698703</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39510,76 +39510,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G438" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H438">
         <v>1</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J438" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K438">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L438">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M438">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N438">
+        <v>2.2</v>
+      </c>
+      <c r="O438">
+        <v>2.875</v>
+      </c>
+      <c r="P438">
+        <v>4.2</v>
+      </c>
+      <c r="Q438">
+        <v>-0.25</v>
+      </c>
+      <c r="R438">
         <v>1.8</v>
       </c>
-      <c r="O438">
-        <v>3.25</v>
-      </c>
-      <c r="P438">
-        <v>5.5</v>
-      </c>
-      <c r="Q438">
+      <c r="S438">
+        <v>2</v>
+      </c>
+      <c r="T438">
+        <v>1.75</v>
+      </c>
+      <c r="U438">
+        <v>1.85</v>
+      </c>
+      <c r="V438">
+        <v>1.95</v>
+      </c>
+      <c r="W438">
+        <v>-1</v>
+      </c>
+      <c r="X438">
+        <v>1.875</v>
+      </c>
+      <c r="Y438">
+        <v>-1</v>
+      </c>
+      <c r="Z438">
         <v>-0.5</v>
       </c>
-      <c r="R438">
-        <v>1.775</v>
-      </c>
-      <c r="S438">
-        <v>2.025</v>
-      </c>
-      <c r="T438">
-        <v>2</v>
-      </c>
-      <c r="U438">
-        <v>1.975</v>
-      </c>
-      <c r="V438">
-        <v>1.825</v>
-      </c>
-      <c r="W438">
-        <v>-1</v>
-      </c>
-      <c r="X438">
-        <v>-1</v>
-      </c>
-      <c r="Y438">
-        <v>4.5</v>
-      </c>
-      <c r="Z438">
-        <v>-1</v>
-      </c>
       <c r="AA438">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB438">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC438">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39676,7 +39676,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698703</v>
+        <v>7698556</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39688,76 +39688,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G440" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H440">
         <v>1</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J440" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K440">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L440">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M440">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N440">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O440">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P440">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R440">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S440">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T440">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U440">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V440">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W440">
         <v>-1</v>
       </c>
       <c r="X440">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y440">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB440">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -41723,7 +41723,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7698711</v>
+        <v>7698558</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41735,76 +41735,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F463" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G463" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H463">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K463">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L463">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M463">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N463">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O463">
         <v>3.1</v>
       </c>
       <c r="P463">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R463">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S463">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T463">
         <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V463">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W463">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z463">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB463">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698710</v>
+        <v>7698711</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,58 +41824,58 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G464" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
         <v>71</v>
       </c>
       <c r="K464">
+        <v>2.75</v>
+      </c>
+      <c r="L464">
+        <v>2.875</v>
+      </c>
+      <c r="M464">
         <v>2.625</v>
       </c>
-      <c r="L464">
-        <v>2.75</v>
-      </c>
-      <c r="M464">
-        <v>2.875</v>
-      </c>
       <c r="N464">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P464">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q464">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S464">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V464">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W464">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X464">
         <v>-1</v>
@@ -41884,16 +41884,16 @@
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA464">
         <v>-1</v>
       </c>
       <c r="AB464">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41990,7 +41990,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698558</v>
+        <v>7698710</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42002,76 +42002,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F466" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G466" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K466">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L466">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M466">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N466">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O466">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P466">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q466">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R466">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S466">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T466">
         <v>1.75</v>
       </c>
       <c r="U466">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V466">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W466">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA466">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC466">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -42257,7 +42257,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42269,76 +42269,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F469" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G469" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H469">
         <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J469" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K469">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L469">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M469">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N469">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O469">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P469">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q469">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R469">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S469">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T469">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U469">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V469">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB469">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC469">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42346,7 +42346,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42358,76 +42358,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F470" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G470" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H470">
         <v>1</v>
       </c>
       <c r="I470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J470" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K470">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L470">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M470">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N470">
+        <v>1.65</v>
+      </c>
+      <c r="O470">
+        <v>3.5</v>
+      </c>
+      <c r="P470">
+        <v>6</v>
+      </c>
+      <c r="Q470">
+        <v>-0.75</v>
+      </c>
+      <c r="R470">
+        <v>1.8</v>
+      </c>
+      <c r="S470">
+        <v>2</v>
+      </c>
+      <c r="T470">
         <v>2.25</v>
       </c>
-      <c r="O470">
-        <v>2.875</v>
-      </c>
-      <c r="P470">
-        <v>3.8</v>
-      </c>
-      <c r="Q470">
-        <v>-0.25</v>
-      </c>
-      <c r="R470">
+      <c r="U470">
+        <v>1.975</v>
+      </c>
+      <c r="V470">
         <v>1.825</v>
       </c>
-      <c r="S470">
-        <v>1.975</v>
-      </c>
-      <c r="T470">
-        <v>2</v>
-      </c>
-      <c r="U470">
-        <v>2.025</v>
-      </c>
-      <c r="V470">
-        <v>1.775</v>
-      </c>
       <c r="W470">
         <v>-1</v>
       </c>
       <c r="X470">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y470">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB470">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC470">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -44838,7 +44838,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7698736</v>
+        <v>7698738</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44850,37 +44850,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G498" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I498">
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K498">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L498">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M498">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N498">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O498">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P498">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q498">
         <v>-0.25</v>
@@ -44889,7 +44889,7 @@
         <v>1.85</v>
       </c>
       <c r="S498">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T498">
         <v>1.75</v>
@@ -44898,28 +44898,28 @@
         <v>1.8</v>
       </c>
       <c r="V498">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W498">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z498">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA498">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB498">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC498">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -44927,7 +44927,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7698738</v>
+        <v>7698736</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44939,37 +44939,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F499" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G499" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H499">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I499">
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K499">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L499">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M499">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N499">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O499">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P499">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q499">
         <v>-0.25</v>
@@ -44978,7 +44978,7 @@
         <v>1.85</v>
       </c>
       <c r="S499">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T499">
         <v>1.75</v>
@@ -44987,28 +44987,28 @@
         <v>1.8</v>
       </c>
       <c r="V499">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W499">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z499">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB499">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC499">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -46084,7 +46084,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>7698743</v>
+        <v>7698751</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46093,49 +46093,49 @@
         <v>28</v>
       </c>
       <c r="E512" s="2">
-        <v>45380.79513888889</v>
+        <v>45382.64583333334</v>
       </c>
       <c r="F512" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G512" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K512">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L512">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M512">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N512">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O512">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P512">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q512">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R512">
+        <v>2.025</v>
+      </c>
+      <c r="S512">
+        <v>1.825</v>
+      </c>
+      <c r="T512">
+        <v>2</v>
+      </c>
+      <c r="U512">
+        <v>2.05</v>
+      </c>
+      <c r="V512">
         <v>1.8</v>
-      </c>
-      <c r="S512">
-        <v>2.05</v>
-      </c>
-      <c r="T512">
-        <v>1.75</v>
-      </c>
-      <c r="U512">
-        <v>1.8</v>
-      </c>
-      <c r="V512">
-        <v>2.05</v>
       </c>
       <c r="W512">
         <v>0</v>
@@ -46158,7 +46158,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>7698741</v>
+        <v>7698745</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46167,49 +46167,49 @@
         <v>28</v>
       </c>
       <c r="E513" s="2">
-        <v>45381.54513888889</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F513" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G513" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="K513">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L513">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M513">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N513">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O513">
         <v>3.1</v>
       </c>
       <c r="P513">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q513">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R513">
+        <v>1.975</v>
+      </c>
+      <c r="S513">
+        <v>1.875</v>
+      </c>
+      <c r="T513">
+        <v>1.75</v>
+      </c>
+      <c r="U513">
+        <v>1.775</v>
+      </c>
+      <c r="V513">
         <v>2.1</v>
-      </c>
-      <c r="S513">
-        <v>1.775</v>
-      </c>
-      <c r="T513">
-        <v>2</v>
-      </c>
-      <c r="U513">
-        <v>2.025</v>
-      </c>
-      <c r="V513">
-        <v>1.825</v>
       </c>
       <c r="W513">
         <v>0</v>
@@ -46232,7 +46232,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>7698752</v>
+        <v>7698350</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46241,49 +46241,49 @@
         <v>28</v>
       </c>
       <c r="E514" s="2">
-        <v>45381.625</v>
+        <v>45382.66666666666</v>
       </c>
       <c r="F514" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G514" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K514">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L514">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M514">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N514">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O514">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P514">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q514">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R514">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S514">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T514">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U514">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V514">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W514">
         <v>0</v>
@@ -46306,7 +46306,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>7698749</v>
+        <v>7698570</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46315,49 +46315,49 @@
         <v>28</v>
       </c>
       <c r="E515" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.6875</v>
       </c>
       <c r="F515" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G515" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K515">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L515">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M515">
         <v>3.75</v>
       </c>
       <c r="N515">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O515">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P515">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q515">
         <v>-0.5</v>
       </c>
       <c r="R515">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S515">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T515">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U515">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V515">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W515">
         <v>0</v>
@@ -46380,7 +46380,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7698569</v>
+        <v>7698744</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46389,49 +46389,49 @@
         <v>28</v>
       </c>
       <c r="E516" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.70833333334</v>
       </c>
       <c r="F516" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G516" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K516">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L516">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M516">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N516">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="O516">
         <v>3</v>
       </c>
       <c r="P516">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q516">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R516">
+        <v>2.05</v>
+      </c>
+      <c r="S516">
         <v>1.8</v>
       </c>
-      <c r="S516">
-        <v>2.05</v>
-      </c>
       <c r="T516">
         <v>2</v>
       </c>
       <c r="U516">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V516">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W516">
         <v>0</v>
@@ -46454,7 +46454,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7698747</v>
+        <v>7702196</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46463,40 +46463,40 @@
         <v>28</v>
       </c>
       <c r="E517" s="2">
-        <v>45381.66666666666</v>
+        <v>45382.73958333334</v>
       </c>
       <c r="F517" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G517" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K517">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L517">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M517">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N517">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O517">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P517">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q517">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R517">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S517">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T517">
         <v>1.75</v>
@@ -46528,7 +46528,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7698751</v>
+        <v>7698742</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46537,49 +46537,49 @@
         <v>28</v>
       </c>
       <c r="E518" s="2">
-        <v>45382.64583333334</v>
+        <v>45382.79166666666</v>
       </c>
       <c r="F518" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G518" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K518">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L518">
         <v>3</v>
       </c>
       <c r="M518">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N518">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O518">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P518">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q518">
         <v>-0.5</v>
       </c>
       <c r="R518">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S518">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T518">
         <v>2</v>
       </c>
       <c r="U518">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V518">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
         <v>0</v>
@@ -46602,7 +46602,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>7698745</v>
+        <v>7698748</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46611,49 +46611,49 @@
         <v>28</v>
       </c>
       <c r="E519" s="2">
-        <v>45382.66666666666</v>
+        <v>45382.79166666666</v>
       </c>
       <c r="F519" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G519" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K519">
+        <v>2.625</v>
+      </c>
+      <c r="L519">
+        <v>2.75</v>
+      </c>
+      <c r="M519">
+        <v>2.75</v>
+      </c>
+      <c r="N519">
+        <v>2.6</v>
+      </c>
+      <c r="O519">
+        <v>2.9</v>
+      </c>
+      <c r="P519">
+        <v>3.1</v>
+      </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
+      <c r="R519">
+        <v>1.725</v>
+      </c>
+      <c r="S519">
+        <v>2.15</v>
+      </c>
+      <c r="T519">
+        <v>1.75</v>
+      </c>
+      <c r="U519">
+        <v>1.9</v>
+      </c>
+      <c r="V519">
         <v>1.95</v>
-      </c>
-      <c r="L519">
-        <v>3</v>
-      </c>
-      <c r="M519">
-        <v>4</v>
-      </c>
-      <c r="N519">
-        <v>2.05</v>
-      </c>
-      <c r="O519">
-        <v>3.1</v>
-      </c>
-      <c r="P519">
-        <v>4.2</v>
-      </c>
-      <c r="Q519">
-        <v>-0.5</v>
-      </c>
-      <c r="R519">
-        <v>2.05</v>
-      </c>
-      <c r="S519">
-        <v>1.8</v>
-      </c>
-      <c r="T519">
-        <v>2</v>
-      </c>
-      <c r="U519">
-        <v>2.1</v>
-      </c>
-      <c r="V519">
-        <v>1.775</v>
       </c>
       <c r="W519">
         <v>0</v>
@@ -46676,7 +46676,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7698350</v>
+        <v>7698750</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46685,49 +46685,49 @@
         <v>28</v>
       </c>
       <c r="E520" s="2">
-        <v>45382.66666666666</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F520" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="G520" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K520">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L520">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M520">
+        <v>3.5</v>
+      </c>
+      <c r="N520">
+        <v>2.25</v>
+      </c>
+      <c r="O520">
+        <v>2.75</v>
+      </c>
+      <c r="P520">
         <v>4</v>
       </c>
-      <c r="N520">
-        <v>2.05</v>
-      </c>
-      <c r="O520">
-        <v>2.8</v>
-      </c>
-      <c r="P520">
-        <v>4.75</v>
-      </c>
       <c r="Q520">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R520">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S520">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T520">
         <v>1.75</v>
       </c>
       <c r="U520">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V520">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W520">
         <v>0</v>
@@ -46750,7 +46750,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7698570</v>
+        <v>7698746</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46759,49 +46759,49 @@
         <v>28</v>
       </c>
       <c r="E521" s="2">
-        <v>45382.6875</v>
+        <v>45383.64583333334</v>
       </c>
       <c r="F521" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G521" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K521">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L521">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M521">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N521">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O521">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P521">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q521">
         <v>-0.5</v>
       </c>
       <c r="R521">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S521">
+        <v>2.025</v>
+      </c>
+      <c r="T521">
+        <v>2</v>
+      </c>
+      <c r="U521">
         <v>1.85</v>
       </c>
-      <c r="T521">
-        <v>2</v>
-      </c>
-      <c r="U521">
-        <v>1.925</v>
-      </c>
       <c r="V521">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W521">
         <v>0</v>
@@ -46824,7 +46824,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>7698744</v>
+        <v>8015923</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46833,19 +46833,19 @@
         <v>28</v>
       </c>
       <c r="E522" s="2">
-        <v>45382.70833333334</v>
+        <v>45383.66666666666</v>
       </c>
       <c r="F522" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G522" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="K522">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L522">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M522">
         <v>4</v>
@@ -46854,28 +46854,28 @@
         <v>2.1</v>
       </c>
       <c r="O522">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P522">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q522">
         <v>-0.25</v>
       </c>
       <c r="R522">
+        <v>1.8</v>
+      </c>
+      <c r="S522">
+        <v>2.05</v>
+      </c>
+      <c r="T522">
+        <v>1.75</v>
+      </c>
+      <c r="U522">
         <v>1.825</v>
       </c>
-      <c r="S522">
+      <c r="V522">
         <v>2.025</v>
-      </c>
-      <c r="T522">
-        <v>2</v>
-      </c>
-      <c r="U522">
-        <v>1.85</v>
-      </c>
-      <c r="V522">
-        <v>2</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -46898,7 +46898,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>7702196</v>
+        <v>7992353</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -46907,50 +46907,50 @@
         <v>28</v>
       </c>
       <c r="E523" s="2">
-        <v>45382.73958333334</v>
+        <v>45383.88194444445</v>
       </c>
       <c r="F523" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G523" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K523">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L523">
         <v>3</v>
       </c>
       <c r="M523">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N523">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O523">
         <v>3</v>
       </c>
       <c r="P523">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q523">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S523">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T523">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U523">
+        <v>1.8</v>
+      </c>
+      <c r="V523">
         <v>2.05</v>
       </c>
-      <c r="V523">
-        <v>1.8</v>
-      </c>
       <c r="W523">
         <v>0</v>
       </c>
@@ -46964,376 +46964,6 @@
         <v>0</v>
       </c>
       <c r="AA523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:27">
-      <c r="A524" s="1">
-        <v>522</v>
-      </c>
-      <c r="B524">
-        <v>7698748</v>
-      </c>
-      <c r="C524" t="s">
-        <v>28</v>
-      </c>
-      <c r="D524" t="s">
-        <v>28</v>
-      </c>
-      <c r="E524" s="2">
-        <v>45382.79166666666</v>
-      </c>
-      <c r="F524" t="s">
-        <v>60</v>
-      </c>
-      <c r="G524" t="s">
-        <v>58</v>
-      </c>
-      <c r="K524">
-        <v>2.625</v>
-      </c>
-      <c r="L524">
-        <v>2.75</v>
-      </c>
-      <c r="M524">
-        <v>2.75</v>
-      </c>
-      <c r="N524">
-        <v>2.7</v>
-      </c>
-      <c r="O524">
-        <v>2.9</v>
-      </c>
-      <c r="P524">
-        <v>3</v>
-      </c>
-      <c r="Q524">
-        <v>0</v>
-      </c>
-      <c r="R524">
-        <v>1.8</v>
-      </c>
-      <c r="S524">
-        <v>2.05</v>
-      </c>
-      <c r="T524">
-        <v>1.75</v>
-      </c>
-      <c r="U524">
-        <v>1.9</v>
-      </c>
-      <c r="V524">
-        <v>1.95</v>
-      </c>
-      <c r="W524">
-        <v>0</v>
-      </c>
-      <c r="X524">
-        <v>0</v>
-      </c>
-      <c r="Y524">
-        <v>0</v>
-      </c>
-      <c r="Z524">
-        <v>0</v>
-      </c>
-      <c r="AA524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:27">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
-        <v>7698742</v>
-      </c>
-      <c r="C525" t="s">
-        <v>28</v>
-      </c>
-      <c r="D525" t="s">
-        <v>28</v>
-      </c>
-      <c r="E525" s="2">
-        <v>45382.79166666666</v>
-      </c>
-      <c r="F525" t="s">
-        <v>41</v>
-      </c>
-      <c r="G525" t="s">
-        <v>61</v>
-      </c>
-      <c r="K525">
-        <v>1.8</v>
-      </c>
-      <c r="L525">
-        <v>3</v>
-      </c>
-      <c r="M525">
-        <v>4.5</v>
-      </c>
-      <c r="N525">
-        <v>1.833</v>
-      </c>
-      <c r="O525">
-        <v>3.2</v>
-      </c>
-      <c r="P525">
-        <v>5.25</v>
-      </c>
-      <c r="Q525">
-        <v>-0.5</v>
-      </c>
-      <c r="R525">
-        <v>1.825</v>
-      </c>
-      <c r="S525">
-        <v>2.025</v>
-      </c>
-      <c r="T525">
-        <v>2</v>
-      </c>
-      <c r="U525">
-        <v>1.95</v>
-      </c>
-      <c r="V525">
-        <v>1.9</v>
-      </c>
-      <c r="W525">
-        <v>0</v>
-      </c>
-      <c r="X525">
-        <v>0</v>
-      </c>
-      <c r="Y525">
-        <v>0</v>
-      </c>
-      <c r="Z525">
-        <v>0</v>
-      </c>
-      <c r="AA525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:27">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526">
-        <v>7698746</v>
-      </c>
-      <c r="C526" t="s">
-        <v>28</v>
-      </c>
-      <c r="D526" t="s">
-        <v>28</v>
-      </c>
-      <c r="E526" s="2">
-        <v>45383.64583333334</v>
-      </c>
-      <c r="F526" t="s">
-        <v>51</v>
-      </c>
-      <c r="G526" t="s">
-        <v>38</v>
-      </c>
-      <c r="K526">
-        <v>1.8</v>
-      </c>
-      <c r="L526">
-        <v>3.1</v>
-      </c>
-      <c r="M526">
-        <v>4.333</v>
-      </c>
-      <c r="N526">
-        <v>1.727</v>
-      </c>
-      <c r="O526">
-        <v>3.1</v>
-      </c>
-      <c r="P526">
-        <v>5.25</v>
-      </c>
-      <c r="Q526">
-        <v>-0.5</v>
-      </c>
-      <c r="R526">
-        <v>1.8</v>
-      </c>
-      <c r="S526">
-        <v>2.05</v>
-      </c>
-      <c r="T526">
-        <v>2</v>
-      </c>
-      <c r="U526">
-        <v>1.8</v>
-      </c>
-      <c r="V526">
-        <v>2.05</v>
-      </c>
-      <c r="W526">
-        <v>0</v>
-      </c>
-      <c r="X526">
-        <v>0</v>
-      </c>
-      <c r="Y526">
-        <v>0</v>
-      </c>
-      <c r="Z526">
-        <v>0</v>
-      </c>
-      <c r="AA526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:27">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527">
-        <v>8015923</v>
-      </c>
-      <c r="C527" t="s">
-        <v>28</v>
-      </c>
-      <c r="D527" t="s">
-        <v>28</v>
-      </c>
-      <c r="E527" s="2">
-        <v>45383.66666666666</v>
-      </c>
-      <c r="F527" t="s">
-        <v>44</v>
-      </c>
-      <c r="G527" t="s">
-        <v>42</v>
-      </c>
-      <c r="K527">
-        <v>2.05</v>
-      </c>
-      <c r="L527">
-        <v>2.75</v>
-      </c>
-      <c r="M527">
-        <v>4</v>
-      </c>
-      <c r="N527">
-        <v>1.833</v>
-      </c>
-      <c r="O527">
-        <v>2.9</v>
-      </c>
-      <c r="P527">
-        <v>4.75</v>
-      </c>
-      <c r="Q527">
-        <v>-0.5</v>
-      </c>
-      <c r="R527">
-        <v>1.925</v>
-      </c>
-      <c r="S527">
-        <v>1.925</v>
-      </c>
-      <c r="T527">
-        <v>1.75</v>
-      </c>
-      <c r="U527">
-        <v>1.8</v>
-      </c>
-      <c r="V527">
-        <v>2.05</v>
-      </c>
-      <c r="W527">
-        <v>0</v>
-      </c>
-      <c r="X527">
-        <v>0</v>
-      </c>
-      <c r="Y527">
-        <v>0</v>
-      </c>
-      <c r="Z527">
-        <v>0</v>
-      </c>
-      <c r="AA527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:27">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528">
-        <v>7992353</v>
-      </c>
-      <c r="C528" t="s">
-        <v>28</v>
-      </c>
-      <c r="D528" t="s">
-        <v>28</v>
-      </c>
-      <c r="E528" s="2">
-        <v>45383.88194444445</v>
-      </c>
-      <c r="F528" t="s">
-        <v>43</v>
-      </c>
-      <c r="G528" t="s">
-        <v>34</v>
-      </c>
-      <c r="K528">
-        <v>1.8</v>
-      </c>
-      <c r="L528">
-        <v>3</v>
-      </c>
-      <c r="M528">
-        <v>4.5</v>
-      </c>
-      <c r="N528">
-        <v>1.833</v>
-      </c>
-      <c r="O528">
-        <v>3</v>
-      </c>
-      <c r="P528">
-        <v>4.5</v>
-      </c>
-      <c r="Q528">
-        <v>-0.5</v>
-      </c>
-      <c r="R528">
-        <v>1.875</v>
-      </c>
-      <c r="S528">
-        <v>1.975</v>
-      </c>
-      <c r="T528">
-        <v>1.75</v>
-      </c>
-      <c r="U528">
-        <v>1.8</v>
-      </c>
-      <c r="V528">
-        <v>2.05</v>
-      </c>
-      <c r="W528">
-        <v>0</v>
-      </c>
-      <c r="X528">
-        <v>0</v>
-      </c>
-      <c r="Y528">
-        <v>0</v>
-      </c>
-      <c r="Z528">
-        <v>0</v>
-      </c>
-      <c r="AA528">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC531"/>
+  <dimension ref="A1:AC541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33001,7 +33001,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -33013,13 +33013,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G365" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -33028,61 +33028,61 @@
         <v>71</v>
       </c>
       <c r="K365">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M365">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N365">
+        <v>2.625</v>
+      </c>
+      <c r="O365">
+        <v>2.75</v>
+      </c>
+      <c r="P365">
+        <v>3.25</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>1.75</v>
+      </c>
+      <c r="S365">
+        <v>2.05</v>
+      </c>
+      <c r="T365">
+        <v>2</v>
+      </c>
+      <c r="U365">
+        <v>2</v>
+      </c>
+      <c r="V365">
         <v>1.8</v>
       </c>
-      <c r="O365">
-        <v>3.4</v>
-      </c>
-      <c r="P365">
-        <v>5</v>
-      </c>
-      <c r="Q365">
-        <v>-0.75</v>
-      </c>
-      <c r="R365">
-        <v>2.025</v>
-      </c>
-      <c r="S365">
-        <v>1.825</v>
-      </c>
-      <c r="T365">
-        <v>2</v>
-      </c>
-      <c r="U365">
-        <v>1.925</v>
-      </c>
-      <c r="V365">
-        <v>1.925</v>
-      </c>
       <c r="W365">
+        <v>1.625</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>0.75</v>
+      </c>
+      <c r="AA365">
+        <v>-1</v>
+      </c>
+      <c r="AB365">
+        <v>-1</v>
+      </c>
+      <c r="AC365">
         <v>0.8</v>
-      </c>
-      <c r="X365">
-        <v>-1</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>1.025</v>
-      </c>
-      <c r="AA365">
-        <v>-1</v>
-      </c>
-      <c r="AB365">
-        <v>0</v>
-      </c>
-      <c r="AC365">
-        <v>-0</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33090,7 +33090,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698644</v>
+        <v>7698640</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33102,13 +33102,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G366" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33117,43 +33117,43 @@
         <v>71</v>
       </c>
       <c r="K366">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L366">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M366">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N366">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O366">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P366">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q366">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S366">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T366">
         <v>2</v>
       </c>
       <c r="U366">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V366">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33162,16 +33162,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA366">
         <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC366">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33891,7 +33891,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7698641</v>
+        <v>7698543</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33903,10 +33903,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G375" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -33918,55 +33918,55 @@
         <v>72</v>
       </c>
       <c r="K375">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L375">
+        <v>2.75</v>
+      </c>
+      <c r="M375">
+        <v>3</v>
+      </c>
+      <c r="N375">
+        <v>2.625</v>
+      </c>
+      <c r="O375">
+        <v>2.8</v>
+      </c>
+      <c r="P375">
         <v>3.2</v>
       </c>
-      <c r="M375">
-        <v>4.5</v>
-      </c>
-      <c r="N375">
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <v>1.75</v>
+      </c>
+      <c r="S375">
+        <v>2.05</v>
+      </c>
+      <c r="T375">
+        <v>2</v>
+      </c>
+      <c r="U375">
+        <v>2.025</v>
+      </c>
+      <c r="V375">
+        <v>1.775</v>
+      </c>
+      <c r="W375">
+        <v>-1</v>
+      </c>
+      <c r="X375">
         <v>1.8</v>
       </c>
-      <c r="O375">
-        <v>3.1</v>
-      </c>
-      <c r="P375">
-        <v>4.2</v>
-      </c>
-      <c r="Q375">
-        <v>-0.5</v>
-      </c>
-      <c r="R375">
-        <v>1.85</v>
-      </c>
-      <c r="S375">
-        <v>1.95</v>
-      </c>
-      <c r="T375">
-        <v>2</v>
-      </c>
-      <c r="U375">
-        <v>2</v>
-      </c>
-      <c r="V375">
-        <v>1.8</v>
-      </c>
-      <c r="W375">
-        <v>-1</v>
-      </c>
-      <c r="X375">
-        <v>2.1</v>
-      </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA375">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB375">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7698543</v>
+        <v>7698641</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33992,10 +33992,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G376" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H376">
         <v>1</v>
@@ -34007,55 +34007,55 @@
         <v>72</v>
       </c>
       <c r="K376">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L376">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M376">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N376">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O376">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P376">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q376">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R376">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S376">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T376">
         <v>2</v>
       </c>
       <c r="U376">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V376">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB376">
         <v>0</v>
@@ -35137,7 +35137,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698656</v>
+        <v>7698545</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35149,10 +35149,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G389" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -35167,28 +35167,28 @@
         <v>2.5</v>
       </c>
       <c r="L389">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M389">
         <v>2.75</v>
       </c>
       <c r="N389">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O389">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P389">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R389">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S389">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T389">
         <v>1.75</v>
@@ -35200,7 +35200,7 @@
         <v>2.025</v>
       </c>
       <c r="W389">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="X389">
         <v>-1</v>
@@ -35209,7 +35209,7 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA389">
         <v>-1</v>
@@ -35226,7 +35226,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698545</v>
+        <v>7698658</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35238,10 +35238,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G390" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -35253,43 +35253,43 @@
         <v>71</v>
       </c>
       <c r="K390">
+        <v>3</v>
+      </c>
+      <c r="L390">
+        <v>2.75</v>
+      </c>
+      <c r="M390">
         <v>2.5</v>
       </c>
-      <c r="L390">
-        <v>3</v>
-      </c>
-      <c r="M390">
-        <v>2.75</v>
-      </c>
       <c r="N390">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O390">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P390">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q390">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R390">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S390">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T390">
         <v>1.75</v>
       </c>
       <c r="U390">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V390">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W390">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35298,7 +35298,7 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA390">
         <v>-1</v>
@@ -35307,7 +35307,7 @@
         <v>-1</v>
       </c>
       <c r="AC390">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35315,7 +35315,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698658</v>
+        <v>7698656</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35327,10 +35327,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G391" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H391">
         <v>1</v>
@@ -35342,16 +35342,16 @@
         <v>71</v>
       </c>
       <c r="K391">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L391">
+        <v>2.875</v>
+      </c>
+      <c r="M391">
         <v>2.75</v>
       </c>
-      <c r="M391">
-        <v>2.5</v>
-      </c>
       <c r="N391">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O391">
         <v>2.9</v>
@@ -35363,22 +35363,22 @@
         <v>0</v>
       </c>
       <c r="R391">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S391">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T391">
         <v>1.75</v>
       </c>
       <c r="U391">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W391">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X391">
         <v>-1</v>
@@ -35387,7 +35387,7 @@
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA391">
         <v>-1</v>
@@ -35396,7 +35396,7 @@
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35404,7 +35404,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698657</v>
+        <v>7698662</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35416,76 +35416,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G392" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I392">
         <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K392">
+        <v>2.1</v>
+      </c>
+      <c r="L392">
         <v>2.75</v>
       </c>
-      <c r="L392">
+      <c r="M392">
+        <v>3.75</v>
+      </c>
+      <c r="N392">
+        <v>2.1</v>
+      </c>
+      <c r="O392">
         <v>3.1</v>
       </c>
-      <c r="M392">
-        <v>2.375</v>
-      </c>
-      <c r="N392">
-        <v>2.9</v>
-      </c>
-      <c r="O392">
-        <v>3.3</v>
-      </c>
       <c r="P392">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q392">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R392">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S392">
+        <v>1.775</v>
+      </c>
+      <c r="T392">
         <v>1.75</v>
       </c>
-      <c r="T392">
-        <v>2</v>
-      </c>
       <c r="U392">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V392">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W392">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X392">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA392">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
         <v>-1</v>
       </c>
       <c r="AC392">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35493,7 +35493,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698662</v>
+        <v>7698657</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35505,76 +35505,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F393" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G393" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K393">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L393">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M393">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N393">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O393">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P393">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q393">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R393">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S393">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T393">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U393">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V393">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W393">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X393">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA393">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35671,7 +35671,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35683,76 +35683,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H395">
         <v>1</v>
       </c>
       <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395" t="s">
+        <v>72</v>
+      </c>
+      <c r="K395">
+        <v>2.5</v>
+      </c>
+      <c r="L395">
+        <v>2.75</v>
+      </c>
+      <c r="M395">
         <v>3</v>
       </c>
-      <c r="J395" t="s">
-        <v>73</v>
-      </c>
-      <c r="K395">
-        <v>3.4</v>
-      </c>
-      <c r="L395">
+      <c r="N395">
+        <v>2.55</v>
+      </c>
+      <c r="O395">
         <v>2.875</v>
       </c>
-      <c r="M395">
-        <v>2.2</v>
-      </c>
-      <c r="N395">
-        <v>2.45</v>
-      </c>
-      <c r="O395">
-        <v>2.8</v>
-      </c>
       <c r="P395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S395">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U395">
+        <v>1.8</v>
+      </c>
+      <c r="V395">
         <v>2.05</v>
       </c>
-      <c r="V395">
-        <v>1.8</v>
-      </c>
       <c r="W395">
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA395">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB395">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35760,7 +35760,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35772,76 +35772,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G396" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J396" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K396">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L396">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N396">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P396">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S396">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U396">
+        <v>2.05</v>
+      </c>
+      <c r="V396">
         <v>1.8</v>
       </c>
-      <c r="V396">
-        <v>2.05</v>
-      </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB396">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
+        <v>3.1</v>
+      </c>
+      <c r="M397">
         <v>3</v>
       </c>
-      <c r="M397">
-        <v>3.2</v>
-      </c>
       <c r="N397">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O397">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P397">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.875</v>
+      </c>
+      <c r="V397">
         <v>1.925</v>
       </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
       <c r="W397">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>0.925</v>
-      </c>
-      <c r="AC397">
-        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M398">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N398">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O398">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P398">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S398">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.925</v>
+      </c>
+      <c r="V398">
         <v>1.875</v>
       </c>
-      <c r="V398">
-        <v>1.925</v>
-      </c>
       <c r="W398">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X398">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA398">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC398">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36205,7 +36205,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7698671</v>
+        <v>7698670</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36217,76 +36217,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G401" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H401">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K401">
         <v>2</v>
       </c>
       <c r="L401">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M401">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N401">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O401">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P401">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q401">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S401">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T401">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U401">
         <v>1.775</v>
       </c>
       <c r="V401">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W401">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z401">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB401">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC401">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36294,7 +36294,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7698670</v>
+        <v>7698671</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36306,76 +36306,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G402" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I402">
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K402">
         <v>2</v>
       </c>
       <c r="L402">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M402">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N402">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O402">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P402">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R402">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S402">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U402">
         <v>1.775</v>
       </c>
       <c r="V402">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W402">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X402">
         <v>-1</v>
       </c>
       <c r="Y402">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA402">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB402">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC402">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -37273,7 +37273,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37285,16 +37285,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G413" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
         <v>71</v>
@@ -37309,34 +37309,34 @@
         <v>4</v>
       </c>
       <c r="N413">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O413">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P413">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q413">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S413">
+        <v>2</v>
+      </c>
+      <c r="T413">
         <v>1.75</v>
       </c>
-      <c r="T413">
-        <v>2</v>
-      </c>
       <c r="U413">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V413">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W413">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37345,16 +37345,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37362,7 +37362,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37374,16 +37374,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F414" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G414" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="s">
         <v>71</v>
@@ -37398,34 +37398,34 @@
         <v>4</v>
       </c>
       <c r="N414">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O414">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P414">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R414">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S414">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T414">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U414">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V414">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W414">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37434,16 +37434,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA414">
         <v>-1</v>
       </c>
       <c r="AB414">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC414">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -38341,7 +38341,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7864250</v>
+        <v>7698680</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38353,76 +38353,76 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F425" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G425" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K425">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L425">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M425">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N425">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="O425">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P425">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>1.975</v>
+      </c>
+      <c r="S425">
+        <v>1.825</v>
+      </c>
+      <c r="T425">
+        <v>1.75</v>
+      </c>
+      <c r="U425">
+        <v>1.9</v>
+      </c>
+      <c r="V425">
+        <v>1.9</v>
+      </c>
+      <c r="W425">
+        <v>-1</v>
+      </c>
+      <c r="X425">
+        <v>1.9</v>
+      </c>
+      <c r="Y425">
+        <v>-1</v>
+      </c>
+      <c r="Z425">
+        <v>0</v>
+      </c>
+      <c r="AA425">
+        <v>-0</v>
+      </c>
+      <c r="AB425">
+        <v>0.45</v>
+      </c>
+      <c r="AC425">
         <v>-0.5</v>
-      </c>
-      <c r="R425">
-        <v>1.8</v>
-      </c>
-      <c r="S425">
-        <v>2</v>
-      </c>
-      <c r="T425">
-        <v>2</v>
-      </c>
-      <c r="U425">
-        <v>2.025</v>
-      </c>
-      <c r="V425">
-        <v>1.775</v>
-      </c>
-      <c r="W425">
-        <v>0.833</v>
-      </c>
-      <c r="X425">
-        <v>-1</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>0.8</v>
-      </c>
-      <c r="AA425">
-        <v>-1</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
-      <c r="AC425">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38430,7 +38430,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7698687</v>
+        <v>7864250</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38442,10 +38442,10 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F426" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G426" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -38457,43 +38457,43 @@
         <v>71</v>
       </c>
       <c r="K426">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L426">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M426">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N426">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O426">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P426">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q426">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R426">
+        <v>1.8</v>
+      </c>
+      <c r="S426">
+        <v>2</v>
+      </c>
+      <c r="T426">
+        <v>2</v>
+      </c>
+      <c r="U426">
+        <v>2.025</v>
+      </c>
+      <c r="V426">
         <v>1.775</v>
       </c>
-      <c r="S426">
-        <v>2.1</v>
-      </c>
-      <c r="T426">
-        <v>1.75</v>
-      </c>
-      <c r="U426">
-        <v>1.85</v>
-      </c>
-      <c r="V426">
-        <v>2</v>
-      </c>
       <c r="W426">
-        <v>1.625</v>
+        <v>0.833</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38502,16 +38502,16 @@
         <v>-1</v>
       </c>
       <c r="Z426">
+        <v>0.8</v>
+      </c>
+      <c r="AA426">
+        <v>-1</v>
+      </c>
+      <c r="AB426">
+        <v>-1</v>
+      </c>
+      <c r="AC426">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA426">
-        <v>-1</v>
-      </c>
-      <c r="AB426">
-        <v>-1</v>
-      </c>
-      <c r="AC426">
-        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38519,7 +38519,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7698680</v>
+        <v>7698687</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38531,76 +38531,76 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F427" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G427" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H427">
         <v>1</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K427">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L427">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M427">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N427">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="O427">
         <v>2.9</v>
       </c>
       <c r="P427">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q427">
         <v>0</v>
       </c>
       <c r="R427">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S427">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T427">
         <v>1.75</v>
       </c>
       <c r="U427">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V427">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W427">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X427">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y427">
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA427">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB427">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38786,7 +38786,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698691</v>
+        <v>7698679</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38798,13 +38798,13 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F430" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G430" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H430">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I430">
         <v>0</v>
@@ -38813,43 +38813,43 @@
         <v>71</v>
       </c>
       <c r="K430">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L430">
+        <v>2.9</v>
+      </c>
+      <c r="M430">
         <v>3.5</v>
       </c>
-      <c r="M430">
-        <v>4</v>
-      </c>
       <c r="N430">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O430">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P430">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q430">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R430">
+        <v>2.05</v>
+      </c>
+      <c r="S430">
+        <v>1.75</v>
+      </c>
+      <c r="T430">
+        <v>1.75</v>
+      </c>
+      <c r="U430">
+        <v>1.825</v>
+      </c>
+      <c r="V430">
         <v>1.975</v>
       </c>
-      <c r="S430">
-        <v>1.875</v>
-      </c>
-      <c r="T430">
-        <v>2</v>
-      </c>
-      <c r="U430">
-        <v>1.8</v>
-      </c>
-      <c r="V430">
-        <v>2.05</v>
-      </c>
       <c r="W430">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38858,16 +38858,16 @@
         <v>-1</v>
       </c>
       <c r="Z430">
+        <v>1.05</v>
+      </c>
+      <c r="AA430">
+        <v>-1</v>
+      </c>
+      <c r="AB430">
+        <v>-1</v>
+      </c>
+      <c r="AC430">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA430">
-        <v>-1</v>
-      </c>
-      <c r="AB430">
-        <v>0.8</v>
-      </c>
-      <c r="AC430">
-        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38964,7 +38964,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698679</v>
+        <v>7698691</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38976,13 +38976,13 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F432" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G432" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I432">
         <v>0</v>
@@ -38991,43 +38991,43 @@
         <v>71</v>
       </c>
       <c r="K432">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L432">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M432">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N432">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O432">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P432">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q432">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R432">
+        <v>1.975</v>
+      </c>
+      <c r="S432">
+        <v>1.875</v>
+      </c>
+      <c r="T432">
+        <v>2</v>
+      </c>
+      <c r="U432">
+        <v>1.8</v>
+      </c>
+      <c r="V432">
         <v>2.05</v>
       </c>
-      <c r="S432">
-        <v>1.75</v>
-      </c>
-      <c r="T432">
-        <v>1.75</v>
-      </c>
-      <c r="U432">
-        <v>1.825</v>
-      </c>
-      <c r="V432">
-        <v>1.975</v>
-      </c>
       <c r="W432">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39036,16 +39036,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA432">
         <v>-1</v>
       </c>
       <c r="AB432">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC432">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39409,7 +39409,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7698693</v>
+        <v>7698556</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39421,76 +39421,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F437" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G437" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J437" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K437">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L437">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M437">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N437">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O437">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P437">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q437">
         <v>-0.5</v>
       </c>
       <c r="R437">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S437">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T437">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U437">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V437">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y437">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z437">
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC437">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39498,7 +39498,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698556</v>
+        <v>7698693</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39510,76 +39510,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G438" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J438" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K438">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L438">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M438">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N438">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O438">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P438">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q438">
         <v>-0.5</v>
       </c>
       <c r="R438">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S438">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T438">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U438">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y438">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
         <v>-1</v>
       </c>
       <c r="AA438">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB438">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC438">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -40299,7 +40299,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7702205</v>
+        <v>7702204</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40311,19 +40311,19 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F447" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G447" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K447">
         <v>1.8</v>
@@ -40335,52 +40335,52 @@
         <v>4.5</v>
       </c>
       <c r="N447">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O447">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P447">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q447">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R447">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S447">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T447">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U447">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V447">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W447">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X447">
         <v>-1</v>
       </c>
       <c r="Y447">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z447">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA447">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB447">
         <v>-1</v>
       </c>
       <c r="AC447">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40388,7 +40388,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7702204</v>
+        <v>7698700</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40400,76 +40400,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F448" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G448" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448">
         <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K448">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L448">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M448">
+        <v>4</v>
+      </c>
+      <c r="N448">
+        <v>2.1</v>
+      </c>
+      <c r="O448">
+        <v>2.8</v>
+      </c>
+      <c r="P448">
         <v>4.5</v>
-      </c>
-      <c r="N448">
-        <v>2.2</v>
-      </c>
-      <c r="O448">
-        <v>3</v>
-      </c>
-      <c r="P448">
-        <v>3.8</v>
       </c>
       <c r="Q448">
         <v>-0.25</v>
       </c>
       <c r="R448">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S448">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T448">
         <v>1.75</v>
       </c>
       <c r="U448">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V448">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W448">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X448">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y448">
         <v>-1</v>
       </c>
       <c r="Z448">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA448">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB448">
         <v>-1</v>
       </c>
       <c r="AC448">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40477,7 +40477,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7698700</v>
+        <v>7702205</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40489,76 +40489,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F449" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G449" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H449">
         <v>0</v>
       </c>
       <c r="I449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K449">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L449">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M449">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N449">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O449">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P449">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q449">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R449">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S449">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T449">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U449">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V449">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W449">
         <v>-1</v>
       </c>
       <c r="X449">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z449">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB449">
         <v>-1</v>
       </c>
       <c r="AC449">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -41723,7 +41723,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7698558</v>
+        <v>7698711</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41735,76 +41735,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F463" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G463" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K463">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L463">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M463">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N463">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O463">
         <v>3.1</v>
       </c>
       <c r="P463">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q463">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R463">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S463">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T463">
         <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V463">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z463">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA463">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC463">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698710</v>
+        <v>7698558</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,76 +41824,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G464" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K464">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L464">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M464">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N464">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O464">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P464">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q464">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S464">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T464">
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V464">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W464">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z464">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB464">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698711</v>
+        <v>7698710</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,58 +41913,58 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G465" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H465">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J465" t="s">
         <v>71</v>
       </c>
       <c r="K465">
+        <v>2.625</v>
+      </c>
+      <c r="L465">
         <v>2.75</v>
       </c>
-      <c r="L465">
+      <c r="M465">
         <v>2.875</v>
       </c>
-      <c r="M465">
-        <v>2.625</v>
-      </c>
       <c r="N465">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O465">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R465">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S465">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T465">
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V465">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W465">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X465">
         <v>-1</v>
@@ -41973,16 +41973,16 @@
         <v>-1</v>
       </c>
       <c r="Z465">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA465">
         <v>-1</v>
       </c>
       <c r="AB465">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC465">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42257,7 +42257,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42269,76 +42269,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F469" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G469" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H469">
         <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J469" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K469">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L469">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M469">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N469">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O469">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P469">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q469">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R469">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S469">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T469">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U469">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V469">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB469">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC469">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42346,7 +42346,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42358,76 +42358,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F470" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G470" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H470">
         <v>1</v>
       </c>
       <c r="I470">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J470" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K470">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L470">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M470">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N470">
+        <v>1.65</v>
+      </c>
+      <c r="O470">
+        <v>3.5</v>
+      </c>
+      <c r="P470">
+        <v>6</v>
+      </c>
+      <c r="Q470">
+        <v>-0.75</v>
+      </c>
+      <c r="R470">
+        <v>1.8</v>
+      </c>
+      <c r="S470">
+        <v>2</v>
+      </c>
+      <c r="T470">
         <v>2.25</v>
       </c>
-      <c r="O470">
-        <v>2.875</v>
-      </c>
-      <c r="P470">
-        <v>3.8</v>
-      </c>
-      <c r="Q470">
-        <v>-0.25</v>
-      </c>
-      <c r="R470">
+      <c r="U470">
+        <v>1.975</v>
+      </c>
+      <c r="V470">
         <v>1.825</v>
       </c>
-      <c r="S470">
-        <v>1.975</v>
-      </c>
-      <c r="T470">
-        <v>2</v>
-      </c>
-      <c r="U470">
-        <v>2.025</v>
-      </c>
-      <c r="V470">
-        <v>1.775</v>
-      </c>
       <c r="W470">
         <v>-1</v>
       </c>
       <c r="X470">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y470">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB470">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC470">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -45728,7 +45728,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7960576</v>
+        <v>7958332</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45740,10 +45740,10 @@
         <v>45376.875</v>
       </c>
       <c r="F508" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G508" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H508">
         <v>0</v>
@@ -45755,61 +45755,61 @@
         <v>72</v>
       </c>
       <c r="K508">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L508">
+        <v>2.9</v>
+      </c>
+      <c r="M508">
         <v>3.6</v>
       </c>
-      <c r="M508">
-        <v>6</v>
-      </c>
       <c r="N508">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O508">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P508">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q508">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R508">
+        <v>1.825</v>
+      </c>
+      <c r="S508">
+        <v>1.975</v>
+      </c>
+      <c r="T508">
         <v>1.75</v>
       </c>
-      <c r="S508">
-        <v>2.05</v>
-      </c>
-      <c r="T508">
-        <v>2</v>
-      </c>
       <c r="U508">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V508">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W508">
         <v>-1</v>
       </c>
       <c r="X508">
-        <v>2.6</v>
+        <v>1.875</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA508">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB508">
         <v>-1</v>
       </c>
       <c r="AC508">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45906,7 +45906,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7958332</v>
+        <v>7960576</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45918,10 +45918,10 @@
         <v>45376.875</v>
       </c>
       <c r="F510" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G510" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H510">
         <v>0</v>
@@ -45933,61 +45933,61 @@
         <v>72</v>
       </c>
       <c r="K510">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L510">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M510">
+        <v>6</v>
+      </c>
+      <c r="N510">
+        <v>1.6</v>
+      </c>
+      <c r="O510">
         <v>3.6</v>
       </c>
-      <c r="N510">
-        <v>2.15</v>
-      </c>
-      <c r="O510">
-        <v>2.875</v>
-      </c>
       <c r="P510">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q510">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R510">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S510">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T510">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U510">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V510">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>1.875</v>
+        <v>2.6</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA510">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AB510">
         <v>-1</v>
       </c>
       <c r="AC510">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -47241,7 +47241,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47253,76 +47253,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F525" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G525" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J525" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K525">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N525">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O525">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P525">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S525">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T525">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V525">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y525">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47330,7 +47330,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47342,76 +47342,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F526" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G526" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K526">
+        <v>2.625</v>
+      </c>
+      <c r="L526">
+        <v>2.75</v>
+      </c>
+      <c r="M526">
+        <v>2.75</v>
+      </c>
+      <c r="N526">
+        <v>2.7</v>
+      </c>
+      <c r="O526">
+        <v>2.875</v>
+      </c>
+      <c r="P526">
+        <v>3.1</v>
+      </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <v>1.775</v>
+      </c>
+      <c r="S526">
+        <v>2.025</v>
+      </c>
+      <c r="T526">
+        <v>1.75</v>
+      </c>
+      <c r="U526">
+        <v>2</v>
+      </c>
+      <c r="V526">
         <v>1.8</v>
       </c>
-      <c r="L526">
-        <v>3</v>
-      </c>
-      <c r="M526">
-        <v>4.5</v>
-      </c>
-      <c r="N526">
-        <v>1.8</v>
-      </c>
-      <c r="O526">
-        <v>3.2</v>
-      </c>
-      <c r="P526">
-        <v>5.25</v>
-      </c>
-      <c r="Q526">
-        <v>-0.5</v>
-      </c>
-      <c r="R526">
-        <v>1.8</v>
-      </c>
-      <c r="S526">
-        <v>2.05</v>
-      </c>
-      <c r="T526">
-        <v>2</v>
-      </c>
-      <c r="U526">
-        <v>1.975</v>
-      </c>
-      <c r="V526">
-        <v>1.875</v>
-      </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47802,10 +47802,10 @@
         <v>3.5</v>
       </c>
       <c r="N531">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O531">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P531">
         <v>3.75</v>
@@ -47814,33 +47814,773 @@
         <v>-0.25</v>
       </c>
       <c r="R531">
+        <v>1.85</v>
+      </c>
+      <c r="S531">
+        <v>2</v>
+      </c>
+      <c r="T531">
+        <v>2</v>
+      </c>
+      <c r="U531">
+        <v>2.05</v>
+      </c>
+      <c r="V531">
+        <v>1.8</v>
+      </c>
+      <c r="W531">
+        <v>0</v>
+      </c>
+      <c r="X531">
+        <v>0</v>
+      </c>
+      <c r="Y531">
+        <v>0</v>
+      </c>
+      <c r="Z531">
+        <v>0</v>
+      </c>
+      <c r="AA531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:29">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>7698759</v>
+      </c>
+      <c r="C532" t="s">
+        <v>28</v>
+      </c>
+      <c r="D532" t="s">
+        <v>28</v>
+      </c>
+      <c r="E532" s="2">
+        <v>45388.60416666666</v>
+      </c>
+      <c r="F532" t="s">
+        <v>56</v>
+      </c>
+      <c r="G532" t="s">
+        <v>49</v>
+      </c>
+      <c r="K532">
+        <v>2.375</v>
+      </c>
+      <c r="L532">
+        <v>2.9</v>
+      </c>
+      <c r="M532">
+        <v>2.9</v>
+      </c>
+      <c r="N532">
+        <v>2.4</v>
+      </c>
+      <c r="O532">
+        <v>2.9</v>
+      </c>
+      <c r="P532">
+        <v>2.9</v>
+      </c>
+      <c r="Q532">
+        <v>0</v>
+      </c>
+      <c r="R532">
+        <v>1.75</v>
+      </c>
+      <c r="S532">
+        <v>2.125</v>
+      </c>
+      <c r="T532">
+        <v>1.75</v>
+      </c>
+      <c r="U532">
+        <v>1.8</v>
+      </c>
+      <c r="V532">
+        <v>2.05</v>
+      </c>
+      <c r="W532">
+        <v>0</v>
+      </c>
+      <c r="X532">
+        <v>0</v>
+      </c>
+      <c r="Y532">
+        <v>0</v>
+      </c>
+      <c r="Z532">
+        <v>0</v>
+      </c>
+      <c r="AA532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:29">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>7698764</v>
+      </c>
+      <c r="C533" t="s">
+        <v>28</v>
+      </c>
+      <c r="D533" t="s">
+        <v>28</v>
+      </c>
+      <c r="E533" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F533" t="s">
+        <v>39</v>
+      </c>
+      <c r="G533" t="s">
+        <v>34</v>
+      </c>
+      <c r="K533">
+        <v>1.8</v>
+      </c>
+      <c r="L533">
+        <v>3.2</v>
+      </c>
+      <c r="M533">
+        <v>4</v>
+      </c>
+      <c r="N533">
+        <v>2</v>
+      </c>
+      <c r="O533">
+        <v>3.1</v>
+      </c>
+      <c r="P533">
+        <v>3.6</v>
+      </c>
+      <c r="Q533">
+        <v>-0.5</v>
+      </c>
+      <c r="R533">
+        <v>2.05</v>
+      </c>
+      <c r="S533">
+        <v>1.8</v>
+      </c>
+      <c r="T533">
+        <v>2</v>
+      </c>
+      <c r="U533">
+        <v>1.925</v>
+      </c>
+      <c r="V533">
+        <v>1.925</v>
+      </c>
+      <c r="W533">
+        <v>0</v>
+      </c>
+      <c r="X533">
+        <v>0</v>
+      </c>
+      <c r="Y533">
+        <v>0</v>
+      </c>
+      <c r="Z533">
+        <v>0</v>
+      </c>
+      <c r="AA533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:29">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>7698761</v>
+      </c>
+      <c r="C534" t="s">
+        <v>28</v>
+      </c>
+      <c r="D534" t="s">
+        <v>28</v>
+      </c>
+      <c r="E534" s="2">
+        <v>45388.64583333334</v>
+      </c>
+      <c r="F534" t="s">
+        <v>40</v>
+      </c>
+      <c r="G534" t="s">
+        <v>60</v>
+      </c>
+      <c r="K534">
+        <v>1.727</v>
+      </c>
+      <c r="L534">
+        <v>3.4</v>
+      </c>
+      <c r="M534">
+        <v>4.333</v>
+      </c>
+      <c r="N534">
+        <v>1.909</v>
+      </c>
+      <c r="O534">
+        <v>3.25</v>
+      </c>
+      <c r="P534">
+        <v>3.75</v>
+      </c>
+      <c r="Q534">
+        <v>-0.5</v>
+      </c>
+      <c r="R534">
+        <v>2.025</v>
+      </c>
+      <c r="S534">
+        <v>1.825</v>
+      </c>
+      <c r="T534">
+        <v>1.75</v>
+      </c>
+      <c r="U534">
+        <v>1.875</v>
+      </c>
+      <c r="V534">
+        <v>1.975</v>
+      </c>
+      <c r="W534">
+        <v>0</v>
+      </c>
+      <c r="X534">
+        <v>0</v>
+      </c>
+      <c r="Y534">
+        <v>0</v>
+      </c>
+      <c r="Z534">
+        <v>0</v>
+      </c>
+      <c r="AA534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:29">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>7698574</v>
+      </c>
+      <c r="C535" t="s">
+        <v>28</v>
+      </c>
+      <c r="D535" t="s">
+        <v>28</v>
+      </c>
+      <c r="E535" s="2">
+        <v>45388.79166666666</v>
+      </c>
+      <c r="F535" t="s">
+        <v>54</v>
+      </c>
+      <c r="G535" t="s">
+        <v>47</v>
+      </c>
+      <c r="K535">
+        <v>2</v>
+      </c>
+      <c r="L535">
+        <v>3.1</v>
+      </c>
+      <c r="M535">
+        <v>3.5</v>
+      </c>
+      <c r="N535">
+        <v>1.8</v>
+      </c>
+      <c r="O535">
+        <v>3.25</v>
+      </c>
+      <c r="P535">
+        <v>4</v>
+      </c>
+      <c r="Q535">
+        <v>-0.5</v>
+      </c>
+      <c r="R535">
+        <v>1.925</v>
+      </c>
+      <c r="S535">
+        <v>1.925</v>
+      </c>
+      <c r="T535">
+        <v>2.25</v>
+      </c>
+      <c r="U535">
+        <v>2.1</v>
+      </c>
+      <c r="V535">
         <v>1.775</v>
       </c>
-      <c r="S531">
+      <c r="W535">
+        <v>0</v>
+      </c>
+      <c r="X535">
+        <v>0</v>
+      </c>
+      <c r="Y535">
+        <v>0</v>
+      </c>
+      <c r="Z535">
+        <v>0</v>
+      </c>
+      <c r="AA535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:29">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>7698755</v>
+      </c>
+      <c r="C536" t="s">
+        <v>28</v>
+      </c>
+      <c r="D536" t="s">
+        <v>28</v>
+      </c>
+      <c r="E536" s="2">
+        <v>45389.64583333334</v>
+      </c>
+      <c r="F536" t="s">
+        <v>61</v>
+      </c>
+      <c r="G536" t="s">
+        <v>38</v>
+      </c>
+      <c r="K536">
         <v>2.1</v>
       </c>
-      <c r="T531">
-        <v>2</v>
-      </c>
-      <c r="U531">
-        <v>2</v>
-      </c>
-      <c r="V531">
+      <c r="L536">
+        <v>2.875</v>
+      </c>
+      <c r="M536">
+        <v>3.5</v>
+      </c>
+      <c r="N536">
+        <v>1.909</v>
+      </c>
+      <c r="O536">
+        <v>2.9</v>
+      </c>
+      <c r="P536">
+        <v>4</v>
+      </c>
+      <c r="Q536">
+        <v>-0.5</v>
+      </c>
+      <c r="R536">
+        <v>2.025</v>
+      </c>
+      <c r="S536">
+        <v>1.825</v>
+      </c>
+      <c r="T536">
+        <v>1.75</v>
+      </c>
+      <c r="U536">
+        <v>1.8</v>
+      </c>
+      <c r="V536">
+        <v>2.05</v>
+      </c>
+      <c r="W536">
+        <v>0</v>
+      </c>
+      <c r="X536">
+        <v>0</v>
+      </c>
+      <c r="Y536">
+        <v>0</v>
+      </c>
+      <c r="Z536">
+        <v>0</v>
+      </c>
+      <c r="AA536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:29">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>7698762</v>
+      </c>
+      <c r="C537" t="s">
+        <v>28</v>
+      </c>
+      <c r="D537" t="s">
+        <v>28</v>
+      </c>
+      <c r="E537" s="2">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="F537" t="s">
+        <v>58</v>
+      </c>
+      <c r="G537" t="s">
+        <v>32</v>
+      </c>
+      <c r="K537">
+        <v>2.5</v>
+      </c>
+      <c r="L537">
+        <v>2.875</v>
+      </c>
+      <c r="M537">
+        <v>2.75</v>
+      </c>
+      <c r="N537">
+        <v>2.05</v>
+      </c>
+      <c r="O537">
+        <v>2.9</v>
+      </c>
+      <c r="P537">
+        <v>3.6</v>
+      </c>
+      <c r="Q537">
+        <v>-0.25</v>
+      </c>
+      <c r="R537">
+        <v>1.825</v>
+      </c>
+      <c r="S537">
+        <v>2.025</v>
+      </c>
+      <c r="T537">
+        <v>1.75</v>
+      </c>
+      <c r="U537">
+        <v>1.925</v>
+      </c>
+      <c r="V537">
+        <v>1.925</v>
+      </c>
+      <c r="W537">
+        <v>0</v>
+      </c>
+      <c r="X537">
+        <v>0</v>
+      </c>
+      <c r="Y537">
+        <v>0</v>
+      </c>
+      <c r="Z537">
+        <v>0</v>
+      </c>
+      <c r="AA537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:29">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>7698754</v>
+      </c>
+      <c r="C538" t="s">
+        <v>28</v>
+      </c>
+      <c r="D538" t="s">
+        <v>28</v>
+      </c>
+      <c r="E538" s="2">
+        <v>45389.67013888889</v>
+      </c>
+      <c r="F538" t="s">
+        <v>59</v>
+      </c>
+      <c r="G538" t="s">
+        <v>55</v>
+      </c>
+      <c r="K538">
+        <v>2</v>
+      </c>
+      <c r="L538">
+        <v>2.875</v>
+      </c>
+      <c r="M538">
+        <v>3.75</v>
+      </c>
+      <c r="N538">
+        <v>1.75</v>
+      </c>
+      <c r="O538">
+        <v>3</v>
+      </c>
+      <c r="P538">
+        <v>4.75</v>
+      </c>
+      <c r="Q538">
+        <v>-0.5</v>
+      </c>
+      <c r="R538">
+        <v>1.875</v>
+      </c>
+      <c r="S538">
+        <v>1.975</v>
+      </c>
+      <c r="T538">
+        <v>2</v>
+      </c>
+      <c r="U538">
+        <v>2.1</v>
+      </c>
+      <c r="V538">
+        <v>1.775</v>
+      </c>
+      <c r="W538">
+        <v>0</v>
+      </c>
+      <c r="X538">
+        <v>0</v>
+      </c>
+      <c r="Y538">
+        <v>0</v>
+      </c>
+      <c r="Z538">
+        <v>0</v>
+      </c>
+      <c r="AA538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:29">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>7698573</v>
+      </c>
+      <c r="C539" t="s">
+        <v>28</v>
+      </c>
+      <c r="D539" t="s">
+        <v>28</v>
+      </c>
+      <c r="E539" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F539" t="s">
+        <v>62</v>
+      </c>
+      <c r="G539" t="s">
+        <v>46</v>
+      </c>
+      <c r="K539">
+        <v>2.75</v>
+      </c>
+      <c r="L539">
+        <v>3.2</v>
+      </c>
+      <c r="M539">
+        <v>2.375</v>
+      </c>
+      <c r="N539">
+        <v>2.4</v>
+      </c>
+      <c r="O539">
+        <v>3.2</v>
+      </c>
+      <c r="P539">
+        <v>2.7</v>
+      </c>
+      <c r="Q539">
+        <v>0</v>
+      </c>
+      <c r="R539">
+        <v>1.825</v>
+      </c>
+      <c r="S539">
+        <v>2.025</v>
+      </c>
+      <c r="T539">
+        <v>2</v>
+      </c>
+      <c r="U539">
+        <v>1.925</v>
+      </c>
+      <c r="V539">
+        <v>1.925</v>
+      </c>
+      <c r="W539">
+        <v>0</v>
+      </c>
+      <c r="X539">
+        <v>0</v>
+      </c>
+      <c r="Y539">
+        <v>0</v>
+      </c>
+      <c r="Z539">
+        <v>0</v>
+      </c>
+      <c r="AA539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:29">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>7698757</v>
+      </c>
+      <c r="C540" t="s">
+        <v>28</v>
+      </c>
+      <c r="D540" t="s">
+        <v>28</v>
+      </c>
+      <c r="E540" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F540" t="s">
+        <v>48</v>
+      </c>
+      <c r="G540" t="s">
+        <v>52</v>
+      </c>
+      <c r="K540">
+        <v>2.3</v>
+      </c>
+      <c r="L540">
+        <v>2.875</v>
+      </c>
+      <c r="M540">
+        <v>3.1</v>
+      </c>
+      <c r="N540">
+        <v>2.2</v>
+      </c>
+      <c r="O540">
+        <v>2.8</v>
+      </c>
+      <c r="P540">
+        <v>3.4</v>
+      </c>
+      <c r="Q540">
+        <v>-0.25</v>
+      </c>
+      <c r="R540">
+        <v>1.95</v>
+      </c>
+      <c r="S540">
+        <v>1.9</v>
+      </c>
+      <c r="T540">
+        <v>1.75</v>
+      </c>
+      <c r="U540">
+        <v>1.825</v>
+      </c>
+      <c r="V540">
+        <v>2.025</v>
+      </c>
+      <c r="W540">
+        <v>0</v>
+      </c>
+      <c r="X540">
+        <v>0</v>
+      </c>
+      <c r="Y540">
+        <v>0</v>
+      </c>
+      <c r="Z540">
+        <v>0</v>
+      </c>
+      <c r="AA540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:29">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>7698763</v>
+      </c>
+      <c r="C541" t="s">
+        <v>28</v>
+      </c>
+      <c r="D541" t="s">
+        <v>28</v>
+      </c>
+      <c r="E541" s="2">
+        <v>45389.75694444445</v>
+      </c>
+      <c r="F541" t="s">
+        <v>63</v>
+      </c>
+      <c r="G541" t="s">
+        <v>51</v>
+      </c>
+      <c r="K541">
+        <v>2.75</v>
+      </c>
+      <c r="L541">
+        <v>3</v>
+      </c>
+      <c r="M541">
+        <v>2.375</v>
+      </c>
+      <c r="N541">
+        <v>2.3</v>
+      </c>
+      <c r="O541">
+        <v>3</v>
+      </c>
+      <c r="P541">
+        <v>3</v>
+      </c>
+      <c r="Q541">
+        <v>-0.25</v>
+      </c>
+      <c r="R541">
+        <v>2</v>
+      </c>
+      <c r="S541">
         <v>1.85</v>
       </c>
-      <c r="W531">
-        <v>0</v>
-      </c>
-      <c r="X531">
-        <v>0</v>
-      </c>
-      <c r="Y531">
-        <v>0</v>
-      </c>
-      <c r="Z531">
-        <v>0</v>
-      </c>
-      <c r="AA531">
+      <c r="T541">
+        <v>2</v>
+      </c>
+      <c r="U541">
+        <v>2.05</v>
+      </c>
+      <c r="V541">
+        <v>1.8</v>
+      </c>
+      <c r="W541">
+        <v>0</v>
+      </c>
+      <c r="X541">
+        <v>0</v>
+      </c>
+      <c r="Y541">
+        <v>0</v>
+      </c>
+      <c r="Z541">
+        <v>0</v>
+      </c>
+      <c r="AA541">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -220,10 +220,10 @@
     <t>Colon</t>
   </si>
   <si>
-    <t>Gimnasia y Tiro</t>
+    <t>Arsenal de Sarandi</t>
   </si>
   <si>
-    <t>Arsenal de Sarandi</t>
+    <t>Gimnasia y Tiro</t>
   </si>
   <si>
     <t>CA San Miguel</t>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC541"/>
+  <dimension ref="A1:AC542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33001,7 +33001,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698644</v>
+        <v>7698640</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -33013,13 +33013,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G365" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -33028,43 +33028,43 @@
         <v>71</v>
       </c>
       <c r="K365">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L365">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M365">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N365">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O365">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P365">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S365">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T365">
         <v>2</v>
       </c>
       <c r="U365">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V365">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W365">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33073,16 +33073,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA365">
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC365">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33090,7 +33090,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33102,13 +33102,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G366" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33117,61 +33117,61 @@
         <v>71</v>
       </c>
       <c r="K366">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L366">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M366">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N366">
+        <v>2.625</v>
+      </c>
+      <c r="O366">
+        <v>2.75</v>
+      </c>
+      <c r="P366">
+        <v>3.25</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>1.75</v>
+      </c>
+      <c r="S366">
+        <v>2.05</v>
+      </c>
+      <c r="T366">
+        <v>2</v>
+      </c>
+      <c r="U366">
+        <v>2</v>
+      </c>
+      <c r="V366">
         <v>1.8</v>
       </c>
-      <c r="O366">
-        <v>3.4</v>
-      </c>
-      <c r="P366">
-        <v>5</v>
-      </c>
-      <c r="Q366">
-        <v>-0.75</v>
-      </c>
-      <c r="R366">
-        <v>2.025</v>
-      </c>
-      <c r="S366">
-        <v>1.825</v>
-      </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>1.925</v>
-      </c>
-      <c r="V366">
-        <v>1.925</v>
-      </c>
       <c r="W366">
+        <v>1.625</v>
+      </c>
+      <c r="X366">
+        <v>-1</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>0.75</v>
+      </c>
+      <c r="AA366">
+        <v>-1</v>
+      </c>
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
         <v>0.8</v>
-      </c>
-      <c r="X366">
-        <v>-1</v>
-      </c>
-      <c r="Y366">
-        <v>-1</v>
-      </c>
-      <c r="Z366">
-        <v>1.025</v>
-      </c>
-      <c r="AA366">
-        <v>-1</v>
-      </c>
-      <c r="AB366">
-        <v>0</v>
-      </c>
-      <c r="AC366">
-        <v>-0</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33535,7 +33535,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7698542</v>
+        <v>7698649</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33547,76 +33547,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G371" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K371">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L371">
         <v>2.75</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N371">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O371">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P371">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q371">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R371">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S371">
         <v>1.775</v>
       </c>
       <c r="T371">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U371">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V371">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z371">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33624,7 +33624,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7698649</v>
+        <v>7698542</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33636,76 +33636,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G372" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K372">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L372">
         <v>2.75</v>
       </c>
       <c r="M372">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N372">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O372">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P372">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S372">
         <v>1.775</v>
       </c>
       <c r="T372">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U372">
+        <v>1.775</v>
+      </c>
+      <c r="V372">
         <v>2.025</v>
       </c>
-      <c r="V372">
-        <v>1.825</v>
-      </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA372">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33802,7 +33802,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7698358</v>
+        <v>7719052</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33814,76 +33814,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K374">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L374">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M374">
+        <v>4.5</v>
+      </c>
+      <c r="N374">
+        <v>2.45</v>
+      </c>
+      <c r="O374">
+        <v>2.8</v>
+      </c>
+      <c r="P374">
         <v>3.5</v>
       </c>
-      <c r="N374">
-        <v>2.1</v>
-      </c>
-      <c r="O374">
-        <v>2.875</v>
-      </c>
-      <c r="P374">
-        <v>4.333</v>
-      </c>
       <c r="Q374">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T374">
         <v>1.75</v>
       </c>
       <c r="U374">
+        <v>1.95</v>
+      </c>
+      <c r="V374">
         <v>1.85</v>
       </c>
-      <c r="V374">
-        <v>1.95</v>
-      </c>
       <c r="W374">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z374">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB374">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33891,7 +33891,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7698543</v>
+        <v>7698641</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33903,10 +33903,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G375" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -33918,55 +33918,55 @@
         <v>72</v>
       </c>
       <c r="K375">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L375">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M375">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O375">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P375">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q375">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
         <v>2</v>
       </c>
       <c r="U375">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB375">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7698641</v>
+        <v>7698543</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33992,10 +33992,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H376">
         <v>1</v>
@@ -34007,55 +34007,55 @@
         <v>72</v>
       </c>
       <c r="K376">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L376">
+        <v>2.75</v>
+      </c>
+      <c r="M376">
+        <v>3</v>
+      </c>
+      <c r="N376">
+        <v>2.625</v>
+      </c>
+      <c r="O376">
+        <v>2.8</v>
+      </c>
+      <c r="P376">
         <v>3.2</v>
       </c>
-      <c r="M376">
-        <v>4.5</v>
-      </c>
-      <c r="N376">
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <v>1.75</v>
+      </c>
+      <c r="S376">
+        <v>2.05</v>
+      </c>
+      <c r="T376">
+        <v>2</v>
+      </c>
+      <c r="U376">
+        <v>2.025</v>
+      </c>
+      <c r="V376">
+        <v>1.775</v>
+      </c>
+      <c r="W376">
+        <v>-1</v>
+      </c>
+      <c r="X376">
         <v>1.8</v>
       </c>
-      <c r="O376">
-        <v>3.1</v>
-      </c>
-      <c r="P376">
-        <v>4.2</v>
-      </c>
-      <c r="Q376">
-        <v>-0.5</v>
-      </c>
-      <c r="R376">
-        <v>1.85</v>
-      </c>
-      <c r="S376">
-        <v>1.95</v>
-      </c>
-      <c r="T376">
-        <v>2</v>
-      </c>
-      <c r="U376">
-        <v>2</v>
-      </c>
-      <c r="V376">
-        <v>1.8</v>
-      </c>
-      <c r="W376">
-        <v>-1</v>
-      </c>
-      <c r="X376">
-        <v>2.1</v>
-      </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA376">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB376">
         <v>0</v>
@@ -34069,7 +34069,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7719052</v>
+        <v>7698358</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34081,76 +34081,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K377">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L377">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M377">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N377">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O377">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P377">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R377">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S377">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T377">
         <v>1.75</v>
       </c>
       <c r="U377">
+        <v>1.85</v>
+      </c>
+      <c r="V377">
         <v>1.95</v>
       </c>
-      <c r="V377">
-        <v>1.85</v>
-      </c>
       <c r="W377">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA377">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC377">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34885,7 +34885,7 @@
         <v>39</v>
       </c>
       <c r="G386" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H386">
         <v>1</v>
@@ -35137,7 +35137,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35149,10 +35149,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G389" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -35167,28 +35167,28 @@
         <v>2.5</v>
       </c>
       <c r="L389">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M389">
         <v>2.75</v>
       </c>
       <c r="N389">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O389">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P389">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q389">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R389">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S389">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T389">
         <v>1.75</v>
@@ -35200,7 +35200,7 @@
         <v>2.025</v>
       </c>
       <c r="W389">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="X389">
         <v>-1</v>
@@ -35209,7 +35209,7 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA389">
         <v>-1</v>
@@ -35226,7 +35226,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35238,10 +35238,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G390" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -35253,43 +35253,43 @@
         <v>71</v>
       </c>
       <c r="K390">
+        <v>2.5</v>
+      </c>
+      <c r="L390">
         <v>3</v>
       </c>
-      <c r="L390">
+      <c r="M390">
         <v>2.75</v>
       </c>
-      <c r="M390">
-        <v>2.5</v>
-      </c>
       <c r="N390">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O390">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P390">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q390">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S390">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T390">
         <v>1.75</v>
       </c>
       <c r="U390">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V390">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W390">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="X390">
         <v>-1</v>
@@ -35298,7 +35298,7 @@
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA390">
         <v>-1</v>
@@ -35307,7 +35307,7 @@
         <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35315,7 +35315,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698656</v>
+        <v>7698658</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35327,10 +35327,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G391" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H391">
         <v>1</v>
@@ -35342,16 +35342,16 @@
         <v>71</v>
       </c>
       <c r="K391">
+        <v>3</v>
+      </c>
+      <c r="L391">
+        <v>2.75</v>
+      </c>
+      <c r="M391">
         <v>2.5</v>
       </c>
-      <c r="L391">
-        <v>2.875</v>
-      </c>
-      <c r="M391">
-        <v>2.75</v>
-      </c>
       <c r="N391">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O391">
         <v>2.9</v>
@@ -35363,22 +35363,22 @@
         <v>0</v>
       </c>
       <c r="R391">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S391">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T391">
         <v>1.75</v>
       </c>
       <c r="U391">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W391">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X391">
         <v>-1</v>
@@ -35387,7 +35387,7 @@
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA391">
         <v>-1</v>
@@ -35396,7 +35396,7 @@
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35404,7 +35404,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698662</v>
+        <v>7698657</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35416,76 +35416,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G392" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392">
         <v>0</v>
       </c>
       <c r="J392" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L392">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M392">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N392">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P392">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q392">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S392">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T392">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U392">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V392">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W392">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X392">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y392">
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA392">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB392">
         <v>-1</v>
       </c>
       <c r="AC392">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35493,7 +35493,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698657</v>
+        <v>7698662</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35505,76 +35505,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F393" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G393" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I393">
         <v>0</v>
       </c>
       <c r="J393" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K393">
+        <v>2.1</v>
+      </c>
+      <c r="L393">
         <v>2.75</v>
       </c>
-      <c r="L393">
+      <c r="M393">
+        <v>3.75</v>
+      </c>
+      <c r="N393">
+        <v>2.1</v>
+      </c>
+      <c r="O393">
         <v>3.1</v>
       </c>
-      <c r="M393">
-        <v>2.375</v>
-      </c>
-      <c r="N393">
-        <v>2.9</v>
-      </c>
-      <c r="O393">
-        <v>3.3</v>
-      </c>
       <c r="P393">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q393">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S393">
+        <v>1.775</v>
+      </c>
+      <c r="T393">
         <v>1.75</v>
       </c>
-      <c r="T393">
-        <v>2</v>
-      </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X393">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y393">
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA393">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB393">
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35671,7 +35671,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35683,76 +35683,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G395" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H395">
         <v>1</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J395" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K395">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L395">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M395">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N395">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O395">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P395">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S395">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T395">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U395">
+        <v>2.05</v>
+      </c>
+      <c r="V395">
         <v>1.8</v>
       </c>
-      <c r="V395">
-        <v>2.05</v>
-      </c>
       <c r="W395">
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB395">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35760,7 +35760,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35772,76 +35772,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396" t="s">
+        <v>72</v>
+      </c>
+      <c r="K396">
+        <v>2.5</v>
+      </c>
+      <c r="L396">
+        <v>2.75</v>
+      </c>
+      <c r="M396">
         <v>3</v>
       </c>
-      <c r="J396" t="s">
-        <v>73</v>
-      </c>
-      <c r="K396">
-        <v>3.4</v>
-      </c>
-      <c r="L396">
+      <c r="N396">
+        <v>2.55</v>
+      </c>
+      <c r="O396">
         <v>2.875</v>
       </c>
-      <c r="M396">
-        <v>2.2</v>
-      </c>
-      <c r="N396">
-        <v>2.45</v>
-      </c>
-      <c r="O396">
-        <v>2.8</v>
-      </c>
       <c r="P396">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q396">
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S396">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U396">
+        <v>1.8</v>
+      </c>
+      <c r="V396">
         <v>2.05</v>
       </c>
-      <c r="V396">
-        <v>1.8</v>
-      </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y396">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA396">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB396">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N397">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O397">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P397">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.925</v>
+      </c>
+      <c r="V397">
         <v>1.875</v>
       </c>
-      <c r="V397">
-        <v>1.925</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X397">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA397">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
+        <v>3.1</v>
+      </c>
+      <c r="M398">
         <v>3</v>
       </c>
-      <c r="M398">
-        <v>3.2</v>
-      </c>
       <c r="N398">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O398">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P398">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S398">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.875</v>
+      </c>
+      <c r="V398">
         <v>1.925</v>
       </c>
-      <c r="V398">
-        <v>1.875</v>
-      </c>
       <c r="W398">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X398">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB398">
+        <v>-1</v>
+      </c>
+      <c r="AC398">
         <v>0.925</v>
-      </c>
-      <c r="AC398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36205,7 +36205,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7698670</v>
+        <v>7698671</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36217,76 +36217,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G401" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I401">
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K401">
         <v>2</v>
       </c>
       <c r="L401">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M401">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N401">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O401">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P401">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q401">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R401">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S401">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T401">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U401">
         <v>1.775</v>
       </c>
       <c r="V401">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA401">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC401">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36294,7 +36294,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7698671</v>
+        <v>7698670</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36306,76 +36306,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G402" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H402">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K402">
         <v>2</v>
       </c>
       <c r="L402">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M402">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N402">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O402">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P402">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q402">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R402">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S402">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T402">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U402">
         <v>1.775</v>
       </c>
       <c r="V402">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W402">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X402">
         <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z402">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB402">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC402">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36929,7 +36929,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G409" t="s">
         <v>62</v>
@@ -37107,7 +37107,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F411" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G411" t="s">
         <v>63</v>
@@ -37273,7 +37273,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37285,16 +37285,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>71</v>
@@ -37309,34 +37309,34 @@
         <v>4</v>
       </c>
       <c r="N413">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O413">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P413">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S413">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T413">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U413">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V413">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37345,16 +37345,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC413">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37362,7 +37362,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37374,16 +37374,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F414" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G414" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="s">
         <v>71</v>
@@ -37398,34 +37398,34 @@
         <v>4</v>
       </c>
       <c r="N414">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O414">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P414">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q414">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S414">
+        <v>2</v>
+      </c>
+      <c r="T414">
         <v>1.75</v>
       </c>
-      <c r="T414">
-        <v>2</v>
-      </c>
       <c r="U414">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V414">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W414">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37434,16 +37434,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA414">
         <v>-1</v>
       </c>
       <c r="AB414">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -38000,7 +38000,7 @@
         <v>58</v>
       </c>
       <c r="G421" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H421">
         <v>0</v>
@@ -38267,7 +38267,7 @@
         <v>54</v>
       </c>
       <c r="G424" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H424">
         <v>1</v>
@@ -38341,7 +38341,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7698680</v>
+        <v>7864250</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38353,76 +38353,76 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F425" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G425" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H425">
         <v>1</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K425">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L425">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M425">
+        <v>4.333</v>
+      </c>
+      <c r="N425">
+        <v>1.833</v>
+      </c>
+      <c r="O425">
         <v>3.2</v>
       </c>
-      <c r="N425">
-        <v>2.9</v>
-      </c>
-      <c r="O425">
-        <v>2.9</v>
-      </c>
       <c r="P425">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="Q425">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R425">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S425">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T425">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U425">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X425">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA425">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB425">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC425">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38430,7 +38430,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7864250</v>
+        <v>7698687</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38442,10 +38442,10 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F426" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="G426" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -38457,43 +38457,43 @@
         <v>71</v>
       </c>
       <c r="K426">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L426">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M426">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N426">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O426">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P426">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q426">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R426">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S426">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T426">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U426">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V426">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W426">
-        <v>0.833</v>
+        <v>1.625</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38502,7 +38502,7 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA426">
         <v>-1</v>
@@ -38511,7 +38511,7 @@
         <v>-1</v>
       </c>
       <c r="AC426">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38519,7 +38519,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7698687</v>
+        <v>7698680</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38531,76 +38531,76 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F427" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G427" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H427">
         <v>1</v>
       </c>
       <c r="I427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J427" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K427">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L427">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M427">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N427">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O427">
         <v>2.9</v>
       </c>
       <c r="P427">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q427">
         <v>0</v>
       </c>
       <c r="R427">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S427">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T427">
         <v>1.75</v>
       </c>
       <c r="U427">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V427">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W427">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X427">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y427">
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA427">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB427">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC427">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -38786,7 +38786,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698679</v>
+        <v>7698691</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38798,13 +38798,13 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F430" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G430" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I430">
         <v>0</v>
@@ -38813,43 +38813,43 @@
         <v>71</v>
       </c>
       <c r="K430">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L430">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M430">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N430">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O430">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P430">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q430">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R430">
+        <v>1.975</v>
+      </c>
+      <c r="S430">
+        <v>1.875</v>
+      </c>
+      <c r="T430">
+        <v>2</v>
+      </c>
+      <c r="U430">
+        <v>1.8</v>
+      </c>
+      <c r="V430">
         <v>2.05</v>
       </c>
-      <c r="S430">
-        <v>1.75</v>
-      </c>
-      <c r="T430">
-        <v>1.75</v>
-      </c>
-      <c r="U430">
-        <v>1.825</v>
-      </c>
-      <c r="V430">
-        <v>1.975</v>
-      </c>
       <c r="W430">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38858,16 +38858,16 @@
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA430">
         <v>-1</v>
       </c>
       <c r="AB430">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC430">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38964,7 +38964,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698691</v>
+        <v>7698679</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38976,13 +38976,13 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F432" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G432" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H432">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I432">
         <v>0</v>
@@ -38991,43 +38991,43 @@
         <v>71</v>
       </c>
       <c r="K432">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L432">
+        <v>2.9</v>
+      </c>
+      <c r="M432">
         <v>3.5</v>
       </c>
-      <c r="M432">
-        <v>4</v>
-      </c>
       <c r="N432">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O432">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P432">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q432">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R432">
+        <v>2.05</v>
+      </c>
+      <c r="S432">
+        <v>1.75</v>
+      </c>
+      <c r="T432">
+        <v>1.75</v>
+      </c>
+      <c r="U432">
+        <v>1.825</v>
+      </c>
+      <c r="V432">
         <v>1.975</v>
       </c>
-      <c r="S432">
-        <v>1.875</v>
-      </c>
-      <c r="T432">
-        <v>2</v>
-      </c>
-      <c r="U432">
-        <v>1.8</v>
-      </c>
-      <c r="V432">
-        <v>2.05</v>
-      </c>
       <c r="W432">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39036,16 +39036,16 @@
         <v>-1</v>
       </c>
       <c r="Z432">
+        <v>1.05</v>
+      </c>
+      <c r="AA432">
+        <v>-1</v>
+      </c>
+      <c r="AB432">
+        <v>-1</v>
+      </c>
+      <c r="AC432">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA432">
-        <v>-1</v>
-      </c>
-      <c r="AB432">
-        <v>0.8</v>
-      </c>
-      <c r="AC432">
-        <v>-1</v>
       </c>
     </row>
     <row r="433" spans="1:29">
@@ -39409,7 +39409,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7698556</v>
+        <v>7698693</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39421,76 +39421,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F437" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G437" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J437" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K437">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L437">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M437">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N437">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O437">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P437">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q437">
         <v>-0.5</v>
       </c>
       <c r="R437">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S437">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T437">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U437">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V437">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y437">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB437">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC437">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39498,7 +39498,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698693</v>
+        <v>7698556</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39510,76 +39510,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G438" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J438" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K438">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L438">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M438">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N438">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O438">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P438">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q438">
         <v>-0.5</v>
       </c>
       <c r="R438">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S438">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T438">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U438">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V438">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z438">
         <v>-1</v>
       </c>
       <c r="AA438">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB438">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC438">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39866,7 +39866,7 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G442" t="s">
         <v>40</v>
@@ -40299,7 +40299,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7702204</v>
+        <v>7702205</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40311,19 +40311,19 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F447" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G447" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K447">
         <v>1.8</v>
@@ -40335,52 +40335,52 @@
         <v>4.5</v>
       </c>
       <c r="N447">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O447">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P447">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q447">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R447">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S447">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T447">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U447">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V447">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W447">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X447">
         <v>-1</v>
       </c>
       <c r="Y447">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z447">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA447">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB447">
         <v>-1</v>
       </c>
       <c r="AC447">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40388,7 +40388,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7698700</v>
+        <v>7702204</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40400,76 +40400,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F448" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G448" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I448">
         <v>0</v>
       </c>
       <c r="J448" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K448">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L448">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M448">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N448">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O448">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P448">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q448">
         <v>-0.25</v>
       </c>
       <c r="R448">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S448">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T448">
         <v>1.75</v>
       </c>
       <c r="U448">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V448">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X448">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y448">
         <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA448">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
         <v>-1</v>
       </c>
       <c r="AC448">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40477,7 +40477,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7702205</v>
+        <v>7698700</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40489,76 +40489,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F449" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G449" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H449">
         <v>0</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K449">
+        <v>2.1</v>
+      </c>
+      <c r="L449">
+        <v>2.75</v>
+      </c>
+      <c r="M449">
+        <v>4</v>
+      </c>
+      <c r="N449">
+        <v>2.1</v>
+      </c>
+      <c r="O449">
+        <v>2.8</v>
+      </c>
+      <c r="P449">
+        <v>4.5</v>
+      </c>
+      <c r="Q449">
+        <v>-0.25</v>
+      </c>
+      <c r="R449">
+        <v>1.75</v>
+      </c>
+      <c r="S449">
+        <v>2.05</v>
+      </c>
+      <c r="T449">
+        <v>1.75</v>
+      </c>
+      <c r="U449">
         <v>1.8</v>
       </c>
-      <c r="L449">
-        <v>3.2</v>
-      </c>
-      <c r="M449">
-        <v>4.5</v>
-      </c>
-      <c r="N449">
-        <v>1.7</v>
-      </c>
-      <c r="O449">
-        <v>3.3</v>
-      </c>
-      <c r="P449">
-        <v>6</v>
-      </c>
-      <c r="Q449">
-        <v>-0.75</v>
-      </c>
-      <c r="R449">
-        <v>1.95</v>
-      </c>
-      <c r="S449">
-        <v>1.85</v>
-      </c>
-      <c r="T449">
-        <v>2</v>
-      </c>
-      <c r="U449">
-        <v>1.9</v>
-      </c>
       <c r="V449">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W449">
         <v>-1</v>
       </c>
       <c r="X449">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y449">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA449">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB449">
         <v>-1</v>
       </c>
       <c r="AC449">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:29">
@@ -41649,7 +41649,7 @@
         <v>59</v>
       </c>
       <c r="G462" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H462">
         <v>0</v>
@@ -41723,7 +41723,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7698711</v>
+        <v>7698558</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41735,76 +41735,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F463" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G463" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H463">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K463">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L463">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M463">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N463">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O463">
         <v>3.1</v>
       </c>
       <c r="P463">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R463">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S463">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T463">
         <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V463">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W463">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z463">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB463">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698558</v>
+        <v>7698710</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,76 +41824,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G464" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K464">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L464">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M464">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N464">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O464">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P464">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T464">
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA464">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC464">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698710</v>
+        <v>7698711</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,58 +41913,58 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G465" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J465" t="s">
         <v>71</v>
       </c>
       <c r="K465">
+        <v>2.75</v>
+      </c>
+      <c r="L465">
+        <v>2.875</v>
+      </c>
+      <c r="M465">
         <v>2.625</v>
       </c>
-      <c r="L465">
-        <v>2.75</v>
-      </c>
-      <c r="M465">
-        <v>2.875</v>
-      </c>
       <c r="N465">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O465">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q465">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R465">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S465">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T465">
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V465">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W465">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X465">
         <v>-1</v>
@@ -41973,16 +41973,16 @@
         <v>-1</v>
       </c>
       <c r="Z465">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA465">
         <v>-1</v>
       </c>
       <c r="AB465">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC465">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42257,7 +42257,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42269,76 +42269,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F469" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G469" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H469">
         <v>1</v>
       </c>
       <c r="I469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J469" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K469">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L469">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M469">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N469">
+        <v>1.65</v>
+      </c>
+      <c r="O469">
+        <v>3.5</v>
+      </c>
+      <c r="P469">
+        <v>6</v>
+      </c>
+      <c r="Q469">
+        <v>-0.75</v>
+      </c>
+      <c r="R469">
+        <v>1.8</v>
+      </c>
+      <c r="S469">
+        <v>2</v>
+      </c>
+      <c r="T469">
         <v>2.25</v>
       </c>
-      <c r="O469">
-        <v>2.875</v>
-      </c>
-      <c r="P469">
-        <v>3.8</v>
-      </c>
-      <c r="Q469">
-        <v>-0.25</v>
-      </c>
-      <c r="R469">
+      <c r="U469">
+        <v>1.975</v>
+      </c>
+      <c r="V469">
         <v>1.825</v>
       </c>
-      <c r="S469">
-        <v>1.975</v>
-      </c>
-      <c r="T469">
-        <v>2</v>
-      </c>
-      <c r="U469">
-        <v>2.025</v>
-      </c>
-      <c r="V469">
-        <v>1.775</v>
-      </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y469">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB469">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42346,7 +42346,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42358,76 +42358,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F470" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G470" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H470">
         <v>1</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J470" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K470">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L470">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M470">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N470">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O470">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P470">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q470">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R470">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S470">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T470">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U470">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V470">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W470">
         <v>-1</v>
       </c>
       <c r="X470">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y470">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB470">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC470">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42628,7 +42628,7 @@
         <v>45</v>
       </c>
       <c r="G473" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H473">
         <v>1</v>
@@ -43337,7 +43337,7 @@
         <v>45368.625</v>
       </c>
       <c r="F481" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G481" t="s">
         <v>66</v>
@@ -44316,7 +44316,7 @@
         <v>45370.66666666666</v>
       </c>
       <c r="F492" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G492" t="s">
         <v>56</v>
@@ -44497,7 +44497,7 @@
         <v>61</v>
       </c>
       <c r="G494" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H494">
         <v>1</v>
@@ -45728,7 +45728,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7958332</v>
+        <v>7960576</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45740,10 +45740,10 @@
         <v>45376.875</v>
       </c>
       <c r="F508" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G508" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H508">
         <v>0</v>
@@ -45755,61 +45755,61 @@
         <v>72</v>
       </c>
       <c r="K508">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="L508">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M508">
+        <v>6</v>
+      </c>
+      <c r="N508">
+        <v>1.6</v>
+      </c>
+      <c r="O508">
         <v>3.6</v>
       </c>
-      <c r="N508">
-        <v>2.15</v>
-      </c>
-      <c r="O508">
-        <v>2.875</v>
-      </c>
       <c r="P508">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q508">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R508">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S508">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T508">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U508">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V508">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W508">
         <v>-1</v>
       </c>
       <c r="X508">
-        <v>1.875</v>
+        <v>2.6</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA508">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AB508">
         <v>-1</v>
       </c>
       <c r="AC508">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45906,7 +45906,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7960576</v>
+        <v>7958332</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45918,10 +45918,10 @@
         <v>45376.875</v>
       </c>
       <c r="F510" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G510" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H510">
         <v>0</v>
@@ -45933,61 +45933,61 @@
         <v>72</v>
       </c>
       <c r="K510">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="L510">
+        <v>2.9</v>
+      </c>
+      <c r="M510">
         <v>3.6</v>
       </c>
-      <c r="M510">
-        <v>6</v>
-      </c>
       <c r="N510">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="O510">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P510">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q510">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R510">
+        <v>1.825</v>
+      </c>
+      <c r="S510">
+        <v>1.975</v>
+      </c>
+      <c r="T510">
         <v>1.75</v>
       </c>
-      <c r="S510">
-        <v>2.05</v>
-      </c>
-      <c r="T510">
-        <v>2</v>
-      </c>
       <c r="U510">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>2.6</v>
+        <v>1.875</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA510">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AB510">
         <v>-1</v>
       </c>
       <c r="AC510">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -46010,7 +46010,7 @@
         <v>67</v>
       </c>
       <c r="G511" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H511">
         <v>1</v>
@@ -46274,7 +46274,7 @@
         <v>45381.54513888889</v>
       </c>
       <c r="F514" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G514" t="s">
         <v>29</v>
@@ -46897,7 +46897,7 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F521" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G521" t="s">
         <v>48</v>
@@ -47241,7 +47241,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47253,76 +47253,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F525" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G525" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J525" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K525">
+        <v>2.625</v>
+      </c>
+      <c r="L525">
+        <v>2.75</v>
+      </c>
+      <c r="M525">
+        <v>2.75</v>
+      </c>
+      <c r="N525">
+        <v>2.7</v>
+      </c>
+      <c r="O525">
+        <v>2.875</v>
+      </c>
+      <c r="P525">
+        <v>3.1</v>
+      </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <v>1.775</v>
+      </c>
+      <c r="S525">
+        <v>2.025</v>
+      </c>
+      <c r="T525">
+        <v>1.75</v>
+      </c>
+      <c r="U525">
+        <v>2</v>
+      </c>
+      <c r="V525">
         <v>1.8</v>
       </c>
-      <c r="L525">
-        <v>3</v>
-      </c>
-      <c r="M525">
-        <v>4.5</v>
-      </c>
-      <c r="N525">
-        <v>1.8</v>
-      </c>
-      <c r="O525">
-        <v>3.2</v>
-      </c>
-      <c r="P525">
-        <v>5.25</v>
-      </c>
-      <c r="Q525">
-        <v>-0.5</v>
-      </c>
-      <c r="R525">
-        <v>1.8</v>
-      </c>
-      <c r="S525">
-        <v>2.05</v>
-      </c>
-      <c r="T525">
-        <v>2</v>
-      </c>
-      <c r="U525">
-        <v>1.975</v>
-      </c>
-      <c r="V525">
-        <v>1.875</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y525">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47330,7 +47330,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47342,76 +47342,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F526" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G526" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J526" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K526">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L526">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M526">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N526">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O526">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P526">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q526">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S526">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T526">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U526">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V526">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y526">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47775,7 +47775,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>7698756</v>
+        <v>7698758</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -47784,49 +47784,49 @@
         <v>28</v>
       </c>
       <c r="E531" s="2">
-        <v>45388.59027777778</v>
+        <v>45387.88194444445</v>
       </c>
       <c r="F531" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G531" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K531">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L531">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M531">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N531">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O531">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P531">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q531">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R531">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S531">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T531">
         <v>2</v>
       </c>
       <c r="U531">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V531">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W531">
         <v>0</v>
@@ -47849,7 +47849,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>7698759</v>
+        <v>7698756</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47858,49 +47858,49 @@
         <v>28</v>
       </c>
       <c r="E532" s="2">
-        <v>45388.60416666666</v>
+        <v>45388.59027777778</v>
       </c>
       <c r="F532" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G532" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K532">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L532">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M532">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N532">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O532">
         <v>2.9</v>
       </c>
       <c r="P532">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q532">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R532">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S532">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="T532">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U532">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V532">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W532">
         <v>0</v>
@@ -47923,7 +47923,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>7698764</v>
+        <v>7698759</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47932,49 +47932,49 @@
         <v>28</v>
       </c>
       <c r="E533" s="2">
-        <v>45388.64583333334</v>
+        <v>45388.60416666666</v>
       </c>
       <c r="F533" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G533" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K533">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L533">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M533">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N533">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O533">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P533">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q533">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R533">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S533">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T533">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U533">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W533">
         <v>0</v>
@@ -48027,28 +48027,28 @@
         <v>1.909</v>
       </c>
       <c r="O534">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P534">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q534">
         <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S534">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T534">
         <v>1.75</v>
       </c>
       <c r="U534">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W534">
         <v>0</v>
@@ -48071,7 +48071,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7698574</v>
+        <v>7698764</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48080,49 +48080,49 @@
         <v>28</v>
       </c>
       <c r="E535" s="2">
-        <v>45388.79166666666</v>
+        <v>45388.64583333334</v>
       </c>
       <c r="F535" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G535" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K535">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L535">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M535">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N535">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O535">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P535">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q535">
         <v>-0.5</v>
       </c>
       <c r="R535">
+        <v>2</v>
+      </c>
+      <c r="S535">
+        <v>1.85</v>
+      </c>
+      <c r="T535">
+        <v>2</v>
+      </c>
+      <c r="U535">
         <v>1.925</v>
       </c>
-      <c r="S535">
+      <c r="V535">
         <v>1.925</v>
-      </c>
-      <c r="T535">
-        <v>2.25</v>
-      </c>
-      <c r="U535">
-        <v>2.1</v>
-      </c>
-      <c r="V535">
-        <v>1.775</v>
       </c>
       <c r="W535">
         <v>0</v>
@@ -48145,7 +48145,7 @@
         <v>534</v>
       </c>
       <c r="B536">
-        <v>7698755</v>
+        <v>7698574</v>
       </c>
       <c r="C536" t="s">
         <v>28</v>
@@ -48154,49 +48154,49 @@
         <v>28</v>
       </c>
       <c r="E536" s="2">
-        <v>45389.64583333334</v>
+        <v>45388.79166666666</v>
       </c>
       <c r="F536" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G536" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K536">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L536">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M536">
         <v>3.5</v>
       </c>
       <c r="N536">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O536">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P536">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q536">
         <v>-0.5</v>
       </c>
       <c r="R536">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S536">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T536">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U536">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V536">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W536">
         <v>0</v>
@@ -48219,7 +48219,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7698762</v>
+        <v>7698755</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48228,49 +48228,49 @@
         <v>28</v>
       </c>
       <c r="E537" s="2">
-        <v>45389.66666666666</v>
+        <v>45389.64583333334</v>
       </c>
       <c r="F537" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G537" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K537">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L537">
         <v>2.875</v>
       </c>
       <c r="M537">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N537">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O537">
         <v>2.9</v>
       </c>
       <c r="P537">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q537">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R537">
+        <v>2.025</v>
+      </c>
+      <c r="S537">
         <v>1.825</v>
-      </c>
-      <c r="S537">
-        <v>2.025</v>
       </c>
       <c r="T537">
         <v>1.75</v>
       </c>
       <c r="U537">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V537">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W537">
         <v>0</v>
@@ -48293,7 +48293,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>7698754</v>
+        <v>7698762</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48302,49 +48302,49 @@
         <v>28</v>
       </c>
       <c r="E538" s="2">
-        <v>45389.67013888889</v>
+        <v>45389.66666666666</v>
       </c>
       <c r="F538" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G538" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K538">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L538">
         <v>2.875</v>
       </c>
       <c r="M538">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N538">
+        <v>2.05</v>
+      </c>
+      <c r="O538">
+        <v>2.9</v>
+      </c>
+      <c r="P538">
+        <v>3.6</v>
+      </c>
+      <c r="Q538">
+        <v>-0.25</v>
+      </c>
+      <c r="R538">
+        <v>1.825</v>
+      </c>
+      <c r="S538">
+        <v>2.025</v>
+      </c>
+      <c r="T538">
         <v>1.75</v>
       </c>
-      <c r="O538">
-        <v>3</v>
-      </c>
-      <c r="P538">
-        <v>4.75</v>
-      </c>
-      <c r="Q538">
-        <v>-0.5</v>
-      </c>
-      <c r="R538">
-        <v>1.875</v>
-      </c>
-      <c r="S538">
-        <v>1.975</v>
-      </c>
-      <c r="T538">
-        <v>2</v>
-      </c>
       <c r="U538">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V538">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W538">
         <v>0</v>
@@ -48367,7 +48367,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>7698573</v>
+        <v>7698754</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48376,49 +48376,49 @@
         <v>28</v>
       </c>
       <c r="E539" s="2">
-        <v>45389.70833333334</v>
+        <v>45389.67013888889</v>
       </c>
       <c r="F539" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G539" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K539">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L539">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M539">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N539">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O539">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P539">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q539">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R539">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S539">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T539">
         <v>2</v>
       </c>
       <c r="U539">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V539">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W539">
         <v>0</v>
@@ -48441,7 +48441,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>7698757</v>
+        <v>7698573</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48450,49 +48450,49 @@
         <v>28</v>
       </c>
       <c r="E540" s="2">
-        <v>45389.75</v>
+        <v>45389.70833333334</v>
       </c>
       <c r="F540" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G540" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K540">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L540">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M540">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="N540">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O540">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P540">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q540">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R540">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S540">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T540">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U540">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V540">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W540">
         <v>0</v>
@@ -48515,7 +48515,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>7698763</v>
+        <v>7698757</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48524,49 +48524,49 @@
         <v>28</v>
       </c>
       <c r="E541" s="2">
-        <v>45389.75694444445</v>
+        <v>45389.75</v>
       </c>
       <c r="F541" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G541" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K541">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L541">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M541">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="N541">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O541">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P541">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q541">
         <v>-0.25</v>
       </c>
       <c r="R541">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S541">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T541">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V541">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W541">
         <v>0</v>
@@ -48581,6 +48581,80 @@
         <v>0</v>
       </c>
       <c r="AA541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:29">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>7698763</v>
+      </c>
+      <c r="C542" t="s">
+        <v>28</v>
+      </c>
+      <c r="D542" t="s">
+        <v>28</v>
+      </c>
+      <c r="E542" s="2">
+        <v>45389.75694444445</v>
+      </c>
+      <c r="F542" t="s">
+        <v>63</v>
+      </c>
+      <c r="G542" t="s">
+        <v>51</v>
+      </c>
+      <c r="K542">
+        <v>2.75</v>
+      </c>
+      <c r="L542">
+        <v>3</v>
+      </c>
+      <c r="M542">
+        <v>2.375</v>
+      </c>
+      <c r="N542">
+        <v>2.2</v>
+      </c>
+      <c r="O542">
+        <v>3</v>
+      </c>
+      <c r="P542">
+        <v>3.2</v>
+      </c>
+      <c r="Q542">
+        <v>-0.25</v>
+      </c>
+      <c r="R542">
+        <v>1.975</v>
+      </c>
+      <c r="S542">
+        <v>1.875</v>
+      </c>
+      <c r="T542">
+        <v>2</v>
+      </c>
+      <c r="U542">
+        <v>2.025</v>
+      </c>
+      <c r="V542">
+        <v>1.825</v>
+      </c>
+      <c r="W542">
+        <v>0</v>
+      </c>
+      <c r="X542">
+        <v>0</v>
+      </c>
+      <c r="Y542">
+        <v>0</v>
+      </c>
+      <c r="Z542">
+        <v>0</v>
+      </c>
+      <c r="AA542">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC543"/>
+  <dimension ref="A1:AC547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3987,7 +3987,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6150541</v>
+        <v>6150462</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3999,76 +3999,76 @@
         <v>45095.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="M39">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N39">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4076,7 +4076,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6150462</v>
+        <v>6150541</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4088,76 +4088,76 @@
         <v>45095.64583333334</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L40">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R40">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -7191,7 +7191,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6150698</v>
+        <v>6150866</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7203,46 +7203,46 @@
         <v>45109.64583333334</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>71</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L75">
         <v>2.9</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2</v>
@@ -7254,7 +7254,7 @@
         <v>1.775</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7263,7 +7263,7 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7280,7 +7280,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6150866</v>
+        <v>6150698</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7292,46 +7292,46 @@
         <v>45109.64583333334</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>71</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L76">
         <v>2.9</v>
       </c>
       <c r="M76">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
         <v>2</v>
@@ -7343,7 +7343,7 @@
         <v>1.775</v>
       </c>
       <c r="W76">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7352,7 +7352,7 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -9950,7 +9950,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6150710</v>
+        <v>6903680</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9962,76 +9962,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K106">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O106">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>1.825</v>
+      </c>
+      <c r="S106">
         <v>1.975</v>
       </c>
-      <c r="S106">
-        <v>1.825</v>
-      </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10039,7 +10039,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6903680</v>
+        <v>6150710</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10051,76 +10051,76 @@
         <v>45122.66666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
+        <v>2.875</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>2.3</v>
+      </c>
+      <c r="O107">
         <v>2.9</v>
       </c>
-      <c r="M107">
-        <v>3.2</v>
-      </c>
-      <c r="N107">
-        <v>1.85</v>
-      </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
         <v>1.825</v>
       </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10751,7 +10751,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6903682</v>
+        <v>6903653</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10763,13 +10763,13 @@
         <v>45124.625</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -10778,34 +10778,34 @@
         <v>73</v>
       </c>
       <c r="K115">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q115">
         <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U115">
         <v>1.8</v>
@@ -10820,19 +10820,19 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10840,7 +10840,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6903653</v>
+        <v>6903682</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10852,13 +10852,13 @@
         <v>45124.625</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>2</v>
@@ -10867,34 +10867,34 @@
         <v>73</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q116">
         <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U116">
         <v>1.8</v>
@@ -10909,19 +10909,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11819,7 +11819,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150888</v>
+        <v>6150557</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11831,73 +11831,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K127">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N127">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R127">
+        <v>1.95</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
         <v>1.75</v>
       </c>
-      <c r="S127">
+      <c r="U127">
+        <v>1.75</v>
+      </c>
+      <c r="V127">
         <v>2.05</v>
       </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>2.025</v>
-      </c>
-      <c r="V127">
-        <v>1.775</v>
-      </c>
       <c r="W127">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11908,7 +11908,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150887</v>
+        <v>6150888</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11920,73 +11920,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11997,7 +11997,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150711</v>
+        <v>6150887</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12009,56 +12009,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G129" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>73</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N129">
+        <v>4.75</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
         <v>1.909</v>
       </c>
-      <c r="O129">
-        <v>3.2</v>
-      </c>
-      <c r="P129">
-        <v>4.5</v>
-      </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
@@ -12066,19 +12066,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12086,7 +12086,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6150557</v>
+        <v>6150711</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12098,55 +12098,55 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
         <v>73</v>
       </c>
       <c r="K130">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L130">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>1.75</v>
       </c>
       <c r="U130">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12155,19 +12155,19 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12887,7 +12887,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6150720</v>
+        <v>6150480</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12899,73 +12899,73 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>0.925</v>
-      </c>
-      <c r="AB139">
-        <v>0.8</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12976,7 +12976,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6150480</v>
+        <v>6150720</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12988,73 +12988,73 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K140">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N140">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
         <v>1.75</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.925</v>
+      </c>
+      <c r="AB140">
         <v>0.8</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.925</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13599,7 +13599,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6150895</v>
+        <v>6150559</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13611,13 +13611,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13626,44 +13626,44 @@
         <v>71</v>
       </c>
       <c r="K147">
+        <v>2.2</v>
+      </c>
+      <c r="L147">
+        <v>2.9</v>
+      </c>
+      <c r="M147">
+        <v>3.3</v>
+      </c>
+      <c r="N147">
+        <v>2.4</v>
+      </c>
+      <c r="O147">
+        <v>3</v>
+      </c>
+      <c r="P147">
+        <v>3.3</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1.8</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.775</v>
+      </c>
+      <c r="W147">
         <v>1.4</v>
       </c>
-      <c r="L147">
-        <v>4</v>
-      </c>
-      <c r="M147">
-        <v>7</v>
-      </c>
-      <c r="N147">
-        <v>1.5</v>
-      </c>
-      <c r="O147">
-        <v>4</v>
-      </c>
-      <c r="P147">
-        <v>7.5</v>
-      </c>
-      <c r="Q147">
-        <v>-1</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>0.5</v>
-      </c>
       <c r="X147">
         <v>-1</v>
       </c>
@@ -13671,16 +13671,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13688,7 +13688,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6150559</v>
+        <v>6150895</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13700,13 +13700,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13715,43 +13715,43 @@
         <v>71</v>
       </c>
       <c r="K148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P148">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
+        <v>1.775</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.775</v>
-      </c>
       <c r="W148">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13760,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -15023,7 +15023,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150563</v>
+        <v>6150900</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -15035,13 +15035,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15050,43 +15050,43 @@
         <v>71</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15095,16 +15095,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15112,7 +15112,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150900</v>
+        <v>6150563</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15124,13 +15124,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15139,43 +15139,43 @@
         <v>71</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15184,16 +15184,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -16180,7 +16180,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16192,76 +16192,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M176">
+        <v>2.3</v>
+      </c>
+      <c r="N176">
+        <v>1.85</v>
+      </c>
+      <c r="O176">
         <v>3.3</v>
       </c>
-      <c r="N176">
-        <v>2.05</v>
-      </c>
-      <c r="O176">
-        <v>3.2</v>
-      </c>
       <c r="P176">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q176">
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16269,7 +16269,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16281,76 +16281,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M177">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N177">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P177">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q177">
         <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -28907,7 +28907,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6330566</v>
+        <v>6359296</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28919,76 +28919,76 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G319" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
         <v>72</v>
       </c>
       <c r="K319">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="L319">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N319">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q319">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S319">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA319">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC319">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28996,7 +28996,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6359296</v>
+        <v>6330566</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29008,76 +29008,76 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
         <v>72</v>
       </c>
       <c r="K320">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M320">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N320">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P320">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R320">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S320">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T320">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
+        <v>0.3875</v>
+      </c>
+      <c r="AA320">
         <v>-0.5</v>
       </c>
-      <c r="AA320">
-        <v>0.5</v>
-      </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29619,7 +29619,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7323533</v>
+        <v>7323842</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29631,10 +29631,10 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F327" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -29646,40 +29646,40 @@
         <v>73</v>
       </c>
       <c r="K327">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L327">
         <v>3.2</v>
       </c>
       <c r="M327">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="N327">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="O327">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P327">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q327">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R327">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S327">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T327">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U327">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="V327">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W327">
         <v>-1</v>
@@ -29688,19 +29688,19 @@
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>1.55</v>
+        <v>0.909</v>
       </c>
       <c r="Z327">
         <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB327">
         <v>-1</v>
       </c>
       <c r="AC327">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29708,7 +29708,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7323842</v>
+        <v>6360015</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29720,55 +29720,55 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F328" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G328" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>73</v>
       </c>
       <c r="K328">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L328">
         <v>3.2</v>
       </c>
       <c r="M328">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N328">
+        <v>2.05</v>
+      </c>
+      <c r="O328">
+        <v>3.1</v>
+      </c>
+      <c r="P328">
         <v>4.2</v>
       </c>
-      <c r="O328">
-        <v>3.5</v>
-      </c>
-      <c r="P328">
-        <v>1.909</v>
-      </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S328">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T328">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V328">
-        <v>2.2</v>
+        <v>1.775</v>
       </c>
       <c r="W328">
         <v>-1</v>
@@ -29777,19 +29777,19 @@
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>0.909</v>
+        <v>3.2</v>
       </c>
       <c r="Z328">
         <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC328">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29797,7 +29797,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323532</v>
+        <v>7323530</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29809,76 +29809,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F329" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K329">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L329">
         <v>3.2</v>
       </c>
       <c r="M329">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N329">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O329">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P329">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S329">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T329">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U329">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA329">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB329">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC329">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29975,7 +29975,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7323530</v>
+        <v>7323533</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29987,76 +29987,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F331" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331">
         <v>1</v>
       </c>
       <c r="J331" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K331">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P331">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R331">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="S331">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V331">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W331">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z331">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB331">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30064,7 +30064,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6360015</v>
+        <v>7323532</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30076,13 +30076,13 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G332" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
         <v>2</v>
@@ -30091,40 +30091,40 @@
         <v>73</v>
       </c>
       <c r="K332">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L332">
         <v>3.2</v>
       </c>
       <c r="M332">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N332">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O332">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P332">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V332">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W332">
         <v>-1</v>
@@ -30133,19 +30133,19 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z332">
         <v>-1</v>
       </c>
       <c r="AA332">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB332">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30687,7 +30687,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6390738</v>
+        <v>7323855</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30699,13 +30699,13 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F339" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G339" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H339">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -30717,40 +30717,40 @@
         <v>1.909</v>
       </c>
       <c r="L339">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M339">
+        <v>3.75</v>
+      </c>
+      <c r="N339">
+        <v>2.05</v>
+      </c>
+      <c r="O339">
+        <v>3.2</v>
+      </c>
+      <c r="P339">
         <v>4</v>
       </c>
-      <c r="N339">
-        <v>1.363</v>
-      </c>
-      <c r="O339">
-        <v>4</v>
-      </c>
-      <c r="P339">
-        <v>13</v>
-      </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T339">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U339">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V339">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W339">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -30759,16 +30759,16 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA339">
         <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30776,7 +30776,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7311908</v>
+        <v>6390738</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30788,73 +30788,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G340" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K340">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L340">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M340">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N340">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P340">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q340">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R340">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S340">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T340">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U340">
+        <v>1.875</v>
+      </c>
+      <c r="V340">
         <v>1.925</v>
       </c>
-      <c r="V340">
-        <v>1.875</v>
-      </c>
       <c r="W340">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA340">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -30865,7 +30865,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7323855</v>
+        <v>7311908</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30877,76 +30877,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G341" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H341">
         <v>1</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K341">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L341">
         <v>3.2</v>
       </c>
       <c r="M341">
+        <v>3.3</v>
+      </c>
+      <c r="N341">
+        <v>1.8</v>
+      </c>
+      <c r="O341">
+        <v>3.5</v>
+      </c>
+      <c r="P341">
+        <v>4.75</v>
+      </c>
+      <c r="Q341">
+        <v>-0.75</v>
+      </c>
+      <c r="R341">
+        <v>1.975</v>
+      </c>
+      <c r="S341">
+        <v>1.825</v>
+      </c>
+      <c r="T341">
+        <v>2</v>
+      </c>
+      <c r="U341">
+        <v>1.925</v>
+      </c>
+      <c r="V341">
+        <v>1.875</v>
+      </c>
+      <c r="W341">
+        <v>-1</v>
+      </c>
+      <c r="X341">
+        <v>-1</v>
+      </c>
+      <c r="Y341">
         <v>3.75</v>
       </c>
-      <c r="N341">
-        <v>2.05</v>
-      </c>
-      <c r="O341">
-        <v>3.2</v>
-      </c>
-      <c r="P341">
-        <v>4</v>
-      </c>
-      <c r="Q341">
-        <v>-0.5</v>
-      </c>
-      <c r="R341">
-        <v>2.025</v>
-      </c>
-      <c r="S341">
-        <v>1.775</v>
-      </c>
-      <c r="T341">
-        <v>1.75</v>
-      </c>
-      <c r="U341">
-        <v>1.75</v>
-      </c>
-      <c r="V341">
-        <v>2.05</v>
-      </c>
-      <c r="W341">
-        <v>1.05</v>
-      </c>
-      <c r="X341">
-        <v>-1</v>
-      </c>
-      <c r="Y341">
-        <v>-1</v>
-      </c>
       <c r="Z341">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB341">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC341">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -32467,7 +32467,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7503697</v>
+        <v>7514267</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32479,52 +32479,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G359" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K359">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L359">
         <v>3</v>
       </c>
       <c r="M359">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N359">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O359">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P359">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
       </c>
       <c r="R359">
+        <v>1.825</v>
+      </c>
+      <c r="S359">
         <v>1.975</v>
-      </c>
-      <c r="S359">
-        <v>1.875</v>
       </c>
       <c r="T359">
         <v>1.75</v>
       </c>
       <c r="U359">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V359">
         <v>2.025</v>
@@ -32533,19 +32533,19 @@
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y359">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA359">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB359">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AC359">
         <v>-0.5</v>
@@ -32556,7 +32556,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7514267</v>
+        <v>7503697</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32568,52 +32568,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G360" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K360">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L360">
         <v>3</v>
       </c>
       <c r="M360">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N360">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O360">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P360">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q360">
         <v>-0.25</v>
       </c>
       <c r="R360">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T360">
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V360">
         <v>2.025</v>
@@ -32622,19 +32622,19 @@
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z360">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB360">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC360">
         <v>-0.5</v>
@@ -33802,7 +33802,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7698641</v>
+        <v>7698543</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33814,10 +33814,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G374" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H374">
         <v>1</v>
@@ -33829,55 +33829,55 @@
         <v>72</v>
       </c>
       <c r="K374">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L374">
+        <v>2.75</v>
+      </c>
+      <c r="M374">
+        <v>3</v>
+      </c>
+      <c r="N374">
+        <v>2.625</v>
+      </c>
+      <c r="O374">
+        <v>2.8</v>
+      </c>
+      <c r="P374">
         <v>3.2</v>
       </c>
-      <c r="M374">
-        <v>4.5</v>
-      </c>
-      <c r="N374">
+      <c r="Q374">
+        <v>0</v>
+      </c>
+      <c r="R374">
+        <v>1.75</v>
+      </c>
+      <c r="S374">
+        <v>2.05</v>
+      </c>
+      <c r="T374">
+        <v>2</v>
+      </c>
+      <c r="U374">
+        <v>2.025</v>
+      </c>
+      <c r="V374">
+        <v>1.775</v>
+      </c>
+      <c r="W374">
+        <v>-1</v>
+      </c>
+      <c r="X374">
         <v>1.8</v>
       </c>
-      <c r="O374">
-        <v>3.1</v>
-      </c>
-      <c r="P374">
-        <v>4.2</v>
-      </c>
-      <c r="Q374">
-        <v>-0.5</v>
-      </c>
-      <c r="R374">
-        <v>1.85</v>
-      </c>
-      <c r="S374">
-        <v>1.95</v>
-      </c>
-      <c r="T374">
-        <v>2</v>
-      </c>
-      <c r="U374">
-        <v>2</v>
-      </c>
-      <c r="V374">
-        <v>1.8</v>
-      </c>
-      <c r="W374">
-        <v>-1</v>
-      </c>
-      <c r="X374">
-        <v>2.1</v>
-      </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA374">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB374">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7698543</v>
+        <v>7698641</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33903,10 +33903,10 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G375" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H375">
         <v>1</v>
@@ -33918,55 +33918,55 @@
         <v>72</v>
       </c>
       <c r="K375">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L375">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M375">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O375">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P375">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q375">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S375">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
         <v>2</v>
       </c>
       <c r="U375">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB375">
         <v>0</v>
@@ -35137,7 +35137,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698545</v>
+        <v>7698662</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35149,10 +35149,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G389" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -35164,31 +35164,31 @@
         <v>71</v>
       </c>
       <c r="K389">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L389">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M389">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N389">
         <v>2.1</v>
       </c>
       <c r="O389">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P389">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q389">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R389">
+        <v>2.1</v>
+      </c>
+      <c r="S389">
         <v>1.775</v>
-      </c>
-      <c r="S389">
-        <v>2.025</v>
       </c>
       <c r="T389">
         <v>1.75</v>
@@ -35197,7 +35197,7 @@
         <v>1.775</v>
       </c>
       <c r="V389">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W389">
         <v>1.1</v>
@@ -35209,7 +35209,7 @@
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA389">
         <v>-1</v>
@@ -35218,7 +35218,7 @@
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35226,7 +35226,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698657</v>
+        <v>7698545</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35238,76 +35238,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G390" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="J390" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K390">
+        <v>2.5</v>
+      </c>
+      <c r="L390">
+        <v>3</v>
+      </c>
+      <c r="M390">
         <v>2.75</v>
       </c>
-      <c r="L390">
-        <v>3.1</v>
-      </c>
-      <c r="M390">
-        <v>2.375</v>
-      </c>
       <c r="N390">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O390">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P390">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q390">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R390">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="S390">
+        <v>2.025</v>
+      </c>
+      <c r="T390">
         <v>1.75</v>
       </c>
-      <c r="T390">
-        <v>2</v>
-      </c>
       <c r="U390">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V390">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X390">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA390">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
         <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35315,7 +35315,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698658</v>
+        <v>7698657</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35327,76 +35327,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G391" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391">
         <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K391">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L391">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
+        <v>2.375</v>
+      </c>
+      <c r="N391">
+        <v>2.9</v>
+      </c>
+      <c r="O391">
+        <v>3.3</v>
+      </c>
+      <c r="P391">
         <v>2.5</v>
       </c>
-      <c r="N391">
-        <v>2.8</v>
-      </c>
-      <c r="O391">
-        <v>2.9</v>
-      </c>
-      <c r="P391">
-        <v>2.8</v>
-      </c>
       <c r="Q391">
         <v>0</v>
       </c>
       <c r="R391">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S391">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T391">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U391">
         <v>1.9</v>
       </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB391">
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35404,7 +35404,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698662</v>
+        <v>7698658</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35416,10 +35416,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G392" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -35431,43 +35431,43 @@
         <v>71</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L392">
         <v>2.75</v>
       </c>
       <c r="M392">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N392">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P392">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q392">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S392">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T392">
         <v>1.75</v>
       </c>
       <c r="U392">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V392">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W392">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="X392">
         <v>-1</v>
@@ -35476,7 +35476,7 @@
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA392">
         <v>-1</v>
@@ -35485,7 +35485,7 @@
         <v>-1</v>
       </c>
       <c r="AC392">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35671,7 +35671,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35683,76 +35683,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G395" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H395">
         <v>1</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J395" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K395">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L395">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M395">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N395">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O395">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P395">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S395">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T395">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U395">
+        <v>2.05</v>
+      </c>
+      <c r="V395">
         <v>1.8</v>
       </c>
-      <c r="V395">
-        <v>2.05</v>
-      </c>
       <c r="W395">
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB395">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35760,7 +35760,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35772,76 +35772,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396" t="s">
+        <v>72</v>
+      </c>
+      <c r="K396">
+        <v>2.5</v>
+      </c>
+      <c r="L396">
+        <v>2.75</v>
+      </c>
+      <c r="M396">
         <v>3</v>
       </c>
-      <c r="J396" t="s">
-        <v>73</v>
-      </c>
-      <c r="K396">
-        <v>3.4</v>
-      </c>
-      <c r="L396">
+      <c r="N396">
+        <v>2.55</v>
+      </c>
+      <c r="O396">
         <v>2.875</v>
       </c>
-      <c r="M396">
-        <v>2.2</v>
-      </c>
-      <c r="N396">
-        <v>2.45</v>
-      </c>
-      <c r="O396">
-        <v>2.8</v>
-      </c>
       <c r="P396">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q396">
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S396">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U396">
+        <v>1.8</v>
+      </c>
+      <c r="V396">
         <v>2.05</v>
       </c>
-      <c r="V396">
-        <v>1.8</v>
-      </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y396">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA396">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB396">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N397">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O397">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P397">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.925</v>
+      </c>
+      <c r="V397">
         <v>1.875</v>
       </c>
-      <c r="V397">
-        <v>1.925</v>
-      </c>
       <c r="W397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X397">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA397">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
+        <v>3.1</v>
+      </c>
+      <c r="M398">
         <v>3</v>
       </c>
-      <c r="M398">
-        <v>3.2</v>
-      </c>
       <c r="N398">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O398">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P398">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S398">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.875</v>
+      </c>
+      <c r="V398">
         <v>1.925</v>
       </c>
-      <c r="V398">
-        <v>1.875</v>
-      </c>
       <c r="W398">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X398">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB398">
+        <v>-1</v>
+      </c>
+      <c r="AC398">
         <v>0.925</v>
-      </c>
-      <c r="AC398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36205,7 +36205,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7698671</v>
+        <v>7698670</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36217,76 +36217,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G401" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H401">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I401">
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K401">
         <v>2</v>
       </c>
       <c r="L401">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M401">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N401">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O401">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P401">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q401">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R401">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S401">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T401">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U401">
         <v>1.775</v>
       </c>
       <c r="V401">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W401">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z401">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB401">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC401">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36294,7 +36294,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7698670</v>
+        <v>7698671</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36306,76 +36306,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G402" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I402">
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K402">
         <v>2</v>
       </c>
       <c r="L402">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M402">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N402">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O402">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P402">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R402">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S402">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U402">
         <v>1.775</v>
       </c>
       <c r="V402">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W402">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X402">
         <v>-1</v>
       </c>
       <c r="Y402">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA402">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB402">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC402">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36561,7 +36561,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7698676</v>
+        <v>7698673</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36573,10 +36573,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F405" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G405" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H405">
         <v>1</v>
@@ -36588,43 +36588,43 @@
         <v>71</v>
       </c>
       <c r="K405">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L405">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M405">
         <v>3.2</v>
       </c>
       <c r="N405">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O405">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P405">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q405">
         <v>-0.25</v>
       </c>
       <c r="R405">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S405">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T405">
         <v>1.75</v>
       </c>
       <c r="U405">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V405">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W405">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="X405">
         <v>-1</v>
@@ -36633,7 +36633,7 @@
         <v>-1</v>
       </c>
       <c r="Z405">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA405">
         <v>-1</v>
@@ -36642,7 +36642,7 @@
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36650,7 +36650,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7698673</v>
+        <v>7698676</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36662,10 +36662,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="F406" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G406" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H406">
         <v>1</v>
@@ -36677,43 +36677,43 @@
         <v>71</v>
       </c>
       <c r="K406">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L406">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M406">
         <v>3.2</v>
       </c>
       <c r="N406">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O406">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P406">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q406">
         <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S406">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T406">
         <v>1.75</v>
       </c>
       <c r="U406">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V406">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W406">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="X406">
         <v>-1</v>
@@ -36722,7 +36722,7 @@
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA406">
         <v>-1</v>
@@ -36731,7 +36731,7 @@
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -37006,7 +37006,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698668</v>
+        <v>7698356</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -37018,10 +37018,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G410" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H410">
         <v>1</v>
@@ -37033,43 +37033,43 @@
         <v>71</v>
       </c>
       <c r="K410">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L410">
         <v>2.9</v>
       </c>
       <c r="M410">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N410">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O410">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P410">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S410">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T410">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U410">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V410">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W410">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X410">
         <v>-1</v>
@@ -37078,7 +37078,7 @@
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA410">
         <v>-1</v>
@@ -37087,7 +37087,7 @@
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37095,7 +37095,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698356</v>
+        <v>7698668</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37107,10 +37107,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F411" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G411" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H411">
         <v>1</v>
@@ -37122,43 +37122,43 @@
         <v>71</v>
       </c>
       <c r="K411">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L411">
         <v>2.9</v>
       </c>
       <c r="M411">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N411">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O411">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P411">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R411">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S411">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T411">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U411">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V411">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W411">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X411">
         <v>-1</v>
@@ -37167,7 +37167,7 @@
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA411">
         <v>-1</v>
@@ -37176,7 +37176,7 @@
         <v>-1</v>
       </c>
       <c r="AC411">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37273,7 +37273,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37285,16 +37285,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>71</v>
@@ -37309,34 +37309,34 @@
         <v>4</v>
       </c>
       <c r="N413">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O413">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P413">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S413">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T413">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U413">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V413">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37345,16 +37345,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC413">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37362,7 +37362,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37374,16 +37374,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F414" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G414" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="s">
         <v>71</v>
@@ -37398,34 +37398,34 @@
         <v>4</v>
       </c>
       <c r="N414">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O414">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P414">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q414">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S414">
+        <v>2</v>
+      </c>
+      <c r="T414">
         <v>1.75</v>
       </c>
-      <c r="T414">
-        <v>2</v>
-      </c>
       <c r="U414">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V414">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W414">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37434,16 +37434,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA414">
         <v>-1</v>
       </c>
       <c r="AB414">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -38786,7 +38786,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698686</v>
+        <v>7698691</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38798,58 +38798,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F430" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G430" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H430">
         <v>4</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
         <v>71</v>
       </c>
       <c r="K430">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L430">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M430">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N430">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O430">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P430">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q430">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R430">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S430">
         <v>1.875</v>
       </c>
       <c r="T430">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U430">
         <v>1.8</v>
       </c>
       <c r="V430">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W430">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X430">
         <v>-1</v>
@@ -38858,7 +38858,7 @@
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA430">
         <v>-1</v>
@@ -38964,7 +38964,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698691</v>
+        <v>7698686</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38976,58 +38976,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F432" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G432" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H432">
         <v>4</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J432" t="s">
         <v>71</v>
       </c>
       <c r="K432">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L432">
+        <v>2.9</v>
+      </c>
+      <c r="M432">
         <v>3.5</v>
       </c>
-      <c r="M432">
-        <v>4</v>
-      </c>
       <c r="N432">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O432">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P432">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q432">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R432">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S432">
         <v>1.875</v>
       </c>
       <c r="T432">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U432">
         <v>1.8</v>
       </c>
       <c r="V432">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W432">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -39036,7 +39036,7 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA432">
         <v>-1</v>
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698558</v>
+        <v>7698705</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,40 +41824,40 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G464" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K464">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L464">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M464">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N464">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O464">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P464">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q464">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
         <v>1.925</v>
@@ -41869,31 +41869,31 @@
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V464">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y464">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA464">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB464">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC464">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698705</v>
+        <v>7698558</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,40 +41913,40 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G465" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K465">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L465">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M465">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N465">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O465">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
         <v>1.925</v>
@@ -41958,31 +41958,31 @@
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z465">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA465">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB465">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -43503,7 +43503,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7698720</v>
+        <v>7947447</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43515,16 +43515,16 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F483" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G483" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J483" t="s">
         <v>72</v>
@@ -43533,37 +43533,37 @@
         <v>2.1</v>
       </c>
       <c r="L483">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M483">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N483">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O483">
         <v>2.8</v>
       </c>
       <c r="P483">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q483">
         <v>-0.25</v>
       </c>
       <c r="R483">
+        <v>1.975</v>
+      </c>
+      <c r="S483">
         <v>1.825</v>
       </c>
-      <c r="S483">
-        <v>1.975</v>
-      </c>
       <c r="T483">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U483">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V483">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W483">
         <v>-1</v>
@@ -43578,13 +43578,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA483">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB483">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC483">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43592,7 +43592,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7947447</v>
+        <v>7698720</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43604,16 +43604,16 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F484" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G484" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="s">
         <v>72</v>
@@ -43622,37 +43622,37 @@
         <v>2.1</v>
       </c>
       <c r="L484">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M484">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N484">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O484">
         <v>2.8</v>
       </c>
       <c r="P484">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q484">
         <v>-0.25</v>
       </c>
       <c r="R484">
+        <v>1.825</v>
+      </c>
+      <c r="S484">
         <v>1.975</v>
       </c>
-      <c r="S484">
-        <v>1.825</v>
-      </c>
       <c r="T484">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U484">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V484">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W484">
         <v>-1</v>
@@ -43667,13 +43667,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA484">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB484">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC484">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -44482,7 +44482,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7698731</v>
+        <v>7698735</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44494,13 +44494,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F494" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G494" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494">
         <v>0</v>
@@ -44509,43 +44509,43 @@
         <v>71</v>
       </c>
       <c r="K494">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L494">
+        <v>2.8</v>
+      </c>
+      <c r="M494">
         <v>2.875</v>
       </c>
-      <c r="M494">
-        <v>2.5</v>
-      </c>
       <c r="N494">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O494">
         <v>2.875</v>
       </c>
       <c r="P494">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q494">
         <v>0</v>
       </c>
       <c r="R494">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S494">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T494">
         <v>1.75</v>
       </c>
       <c r="U494">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W494">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="X494">
         <v>-1</v>
@@ -44554,16 +44554,16 @@
         <v>-1</v>
       </c>
       <c r="Z494">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA494">
         <v>-1</v>
       </c>
       <c r="AB494">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC494">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44571,7 +44571,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7698735</v>
+        <v>7698731</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44583,13 +44583,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F495" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G495" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495">
         <v>0</v>
@@ -44598,43 +44598,43 @@
         <v>71</v>
       </c>
       <c r="K495">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L495">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M495">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N495">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O495">
         <v>2.875</v>
       </c>
       <c r="P495">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q495">
         <v>0</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S495">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T495">
         <v>1.75</v>
       </c>
       <c r="U495">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V495">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W495">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="X495">
         <v>-1</v>
@@ -44643,16 +44643,16 @@
         <v>-1</v>
       </c>
       <c r="Z495">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA495">
         <v>-1</v>
       </c>
       <c r="AB495">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC495">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -47241,7 +47241,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47253,76 +47253,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F525" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G525" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J525" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K525">
+        <v>2.625</v>
+      </c>
+      <c r="L525">
+        <v>2.75</v>
+      </c>
+      <c r="M525">
+        <v>2.75</v>
+      </c>
+      <c r="N525">
+        <v>2.7</v>
+      </c>
+      <c r="O525">
+        <v>2.875</v>
+      </c>
+      <c r="P525">
+        <v>3.1</v>
+      </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <v>1.775</v>
+      </c>
+      <c r="S525">
+        <v>2.025</v>
+      </c>
+      <c r="T525">
+        <v>1.75</v>
+      </c>
+      <c r="U525">
+        <v>2</v>
+      </c>
+      <c r="V525">
         <v>1.8</v>
       </c>
-      <c r="L525">
-        <v>3</v>
-      </c>
-      <c r="M525">
-        <v>4.5</v>
-      </c>
-      <c r="N525">
-        <v>1.8</v>
-      </c>
-      <c r="O525">
-        <v>3.2</v>
-      </c>
-      <c r="P525">
-        <v>5.25</v>
-      </c>
-      <c r="Q525">
-        <v>-0.5</v>
-      </c>
-      <c r="R525">
-        <v>1.8</v>
-      </c>
-      <c r="S525">
-        <v>2.05</v>
-      </c>
-      <c r="T525">
-        <v>2</v>
-      </c>
-      <c r="U525">
-        <v>1.975</v>
-      </c>
-      <c r="V525">
-        <v>1.875</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y525">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47330,7 +47330,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47342,76 +47342,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F526" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G526" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J526" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K526">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L526">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M526">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N526">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O526">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P526">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q526">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S526">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T526">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U526">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V526">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y526">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47802,31 +47802,31 @@
         <v>3.5</v>
       </c>
       <c r="N531">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O531">
         <v>2.9</v>
       </c>
       <c r="P531">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q531">
         <v>-0.25</v>
       </c>
       <c r="R531">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S531">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T531">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U531">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V531">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W531">
         <v>0</v>
@@ -47876,22 +47876,22 @@
         <v>2.9</v>
       </c>
       <c r="N532">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O532">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P532">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q532">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R532">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S532">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T532">
         <v>1.75</v>
@@ -47950,13 +47950,13 @@
         <v>4</v>
       </c>
       <c r="N533">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O533">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P533">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q533">
         <v>-0.5</v>
@@ -47971,10 +47971,10 @@
         <v>2</v>
       </c>
       <c r="U533">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V533">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W533">
         <v>0</v>
@@ -48024,31 +48024,31 @@
         <v>4.333</v>
       </c>
       <c r="N534">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O534">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P534">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q534">
         <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S534">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T534">
         <v>1.75</v>
       </c>
       <c r="U534">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V534">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W534">
         <v>0</v>
@@ -48098,22 +48098,22 @@
         <v>3.5</v>
       </c>
       <c r="N535">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O535">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P535">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q535">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R535">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S535">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T535">
         <v>2.25</v>
@@ -48172,22 +48172,22 @@
         <v>3</v>
       </c>
       <c r="N536">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O536">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P536">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q536">
         <v>-0.5</v>
       </c>
       <c r="R536">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S536">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T536">
         <v>1.75</v>
@@ -48219,7 +48219,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>7698755</v>
+        <v>7702195</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48228,49 +48228,49 @@
         <v>28</v>
       </c>
       <c r="E537" s="2">
-        <v>45389.64583333334</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F537" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G537" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K537">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L537">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M537">
         <v>3.5</v>
       </c>
       <c r="N537">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O537">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P537">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q537">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R537">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S537">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T537">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U537">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V537">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W537">
         <v>0</v>
@@ -48293,7 +48293,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>8041468</v>
+        <v>7702194</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48302,49 +48302,49 @@
         <v>28</v>
       </c>
       <c r="E538" s="2">
-        <v>45389.66666666666</v>
+        <v>45389.64583333334</v>
       </c>
       <c r="F538" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G538" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K538">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L538">
+        <v>2.75</v>
+      </c>
+      <c r="M538">
         <v>2.9</v>
       </c>
-      <c r="M538">
-        <v>4</v>
-      </c>
       <c r="N538">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O538">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P538">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q538">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R538">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S538">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T538">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U538">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V538">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W538">
         <v>0</v>
@@ -48367,7 +48367,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>7698762</v>
+        <v>7698755</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48376,49 +48376,49 @@
         <v>28</v>
       </c>
       <c r="E539" s="2">
-        <v>45389.66666666666</v>
+        <v>45389.64583333334</v>
       </c>
       <c r="F539" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G539" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K539">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L539">
         <v>2.875</v>
       </c>
       <c r="M539">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N539">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O539">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P539">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q539">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R539">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S539">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T539">
         <v>1.75</v>
       </c>
       <c r="U539">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V539">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W539">
         <v>0</v>
@@ -48441,7 +48441,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>7698754</v>
+        <v>8041468</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48450,49 +48450,49 @@
         <v>28</v>
       </c>
       <c r="E540" s="2">
-        <v>45389.67013888889</v>
+        <v>45389.66666666666</v>
       </c>
       <c r="F540" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G540" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K540">
         <v>2</v>
       </c>
       <c r="L540">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M540">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N540">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O540">
         <v>3</v>
       </c>
       <c r="P540">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q540">
         <v>-0.5</v>
       </c>
       <c r="R540">
+        <v>1.975</v>
+      </c>
+      <c r="S540">
+        <v>1.875</v>
+      </c>
+      <c r="T540">
+        <v>2</v>
+      </c>
+      <c r="U540">
+        <v>2</v>
+      </c>
+      <c r="V540">
         <v>1.85</v>
-      </c>
-      <c r="S540">
-        <v>2</v>
-      </c>
-      <c r="T540">
-        <v>2</v>
-      </c>
-      <c r="U540">
-        <v>2.05</v>
-      </c>
-      <c r="V540">
-        <v>1.8</v>
       </c>
       <c r="W540">
         <v>0</v>
@@ -48515,7 +48515,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>7698573</v>
+        <v>7698762</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48524,49 +48524,49 @@
         <v>28</v>
       </c>
       <c r="E541" s="2">
-        <v>45389.70833333334</v>
+        <v>45389.66666666666</v>
       </c>
       <c r="F541" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G541" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K541">
+        <v>2.5</v>
+      </c>
+      <c r="L541">
+        <v>2.875</v>
+      </c>
+      <c r="M541">
         <v>2.75</v>
       </c>
-      <c r="L541">
-        <v>3.2</v>
-      </c>
-      <c r="M541">
-        <v>2.375</v>
-      </c>
       <c r="N541">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O541">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P541">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q541">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R541">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S541">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T541">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V541">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W541">
         <v>0</v>
@@ -48589,7 +48589,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>7698757</v>
+        <v>7698754</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48598,49 +48598,49 @@
         <v>28</v>
       </c>
       <c r="E542" s="2">
-        <v>45389.75</v>
+        <v>45389.67013888889</v>
       </c>
       <c r="F542" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G542" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K542">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L542">
         <v>2.875</v>
       </c>
       <c r="M542">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N542">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O542">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P542">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q542">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R542">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S542">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T542">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U542">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V542">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W542">
         <v>0</v>
@@ -48663,7 +48663,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>7698763</v>
+        <v>7698765</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48672,63 +48672,359 @@
         <v>28</v>
       </c>
       <c r="E543" s="2">
-        <v>45389.75694444445</v>
+        <v>45389.70833333334</v>
       </c>
       <c r="F543" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G543" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K543">
+        <v>2.3</v>
+      </c>
+      <c r="L543">
         <v>2.75</v>
       </c>
-      <c r="L543">
-        <v>3</v>
-      </c>
       <c r="M543">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="N543">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O543">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P543">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q543">
         <v>-0.25</v>
       </c>
       <c r="R543">
+        <v>1.85</v>
+      </c>
+      <c r="S543">
+        <v>2</v>
+      </c>
+      <c r="T543">
+        <v>1.75</v>
+      </c>
+      <c r="U543">
+        <v>1.925</v>
+      </c>
+      <c r="V543">
+        <v>1.925</v>
+      </c>
+      <c r="W543">
+        <v>0</v>
+      </c>
+      <c r="X543">
+        <v>0</v>
+      </c>
+      <c r="Y543">
+        <v>0</v>
+      </c>
+      <c r="Z543">
+        <v>0</v>
+      </c>
+      <c r="AA543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:29">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>7698573</v>
+      </c>
+      <c r="C544" t="s">
+        <v>28</v>
+      </c>
+      <c r="D544" t="s">
+        <v>28</v>
+      </c>
+      <c r="E544" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F544" t="s">
+        <v>62</v>
+      </c>
+      <c r="G544" t="s">
+        <v>46</v>
+      </c>
+      <c r="K544">
+        <v>2.75</v>
+      </c>
+      <c r="L544">
+        <v>3.2</v>
+      </c>
+      <c r="M544">
+        <v>2.375</v>
+      </c>
+      <c r="N544">
+        <v>2.375</v>
+      </c>
+      <c r="O544">
+        <v>3.3</v>
+      </c>
+      <c r="P544">
+        <v>2.7</v>
+      </c>
+      <c r="Q544">
+        <v>0</v>
+      </c>
+      <c r="R544">
+        <v>1.8</v>
+      </c>
+      <c r="S544">
+        <v>2.05</v>
+      </c>
+      <c r="T544">
+        <v>2</v>
+      </c>
+      <c r="U544">
+        <v>1.85</v>
+      </c>
+      <c r="V544">
+        <v>2</v>
+      </c>
+      <c r="W544">
+        <v>0</v>
+      </c>
+      <c r="X544">
+        <v>0</v>
+      </c>
+      <c r="Y544">
+        <v>0</v>
+      </c>
+      <c r="Z544">
+        <v>0</v>
+      </c>
+      <c r="AA544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>7698349</v>
+      </c>
+      <c r="C545" t="s">
+        <v>28</v>
+      </c>
+      <c r="D545" t="s">
+        <v>28</v>
+      </c>
+      <c r="E545" s="2">
+        <v>45389.70833333334</v>
+      </c>
+      <c r="F545" t="s">
+        <v>42</v>
+      </c>
+      <c r="G545" t="s">
+        <v>69</v>
+      </c>
+      <c r="K545">
+        <v>2.375</v>
+      </c>
+      <c r="L545">
+        <v>2.75</v>
+      </c>
+      <c r="M545">
+        <v>3.1</v>
+      </c>
+      <c r="N545">
+        <v>2.375</v>
+      </c>
+      <c r="O545">
+        <v>2.75</v>
+      </c>
+      <c r="P545">
+        <v>3.1</v>
+      </c>
+      <c r="Q545">
+        <v>-0.25</v>
+      </c>
+      <c r="R545">
+        <v>2.05</v>
+      </c>
+      <c r="S545">
+        <v>1.8</v>
+      </c>
+      <c r="T545">
+        <v>1.75</v>
+      </c>
+      <c r="U545">
+        <v>1.9</v>
+      </c>
+      <c r="V545">
+        <v>1.95</v>
+      </c>
+      <c r="W545">
+        <v>0</v>
+      </c>
+      <c r="X545">
+        <v>0</v>
+      </c>
+      <c r="Y545">
+        <v>0</v>
+      </c>
+      <c r="Z545">
+        <v>0</v>
+      </c>
+      <c r="AA545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:27">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>7698757</v>
+      </c>
+      <c r="C546" t="s">
+        <v>28</v>
+      </c>
+      <c r="D546" t="s">
+        <v>28</v>
+      </c>
+      <c r="E546" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F546" t="s">
+        <v>48</v>
+      </c>
+      <c r="G546" t="s">
+        <v>52</v>
+      </c>
+      <c r="K546">
+        <v>2.3</v>
+      </c>
+      <c r="L546">
+        <v>2.875</v>
+      </c>
+      <c r="M546">
+        <v>3.1</v>
+      </c>
+      <c r="N546">
+        <v>2.15</v>
+      </c>
+      <c r="O546">
+        <v>2.8</v>
+      </c>
+      <c r="P546">
+        <v>3.6</v>
+      </c>
+      <c r="Q546">
+        <v>-0.25</v>
+      </c>
+      <c r="R546">
+        <v>1.875</v>
+      </c>
+      <c r="S546">
         <v>1.975</v>
       </c>
-      <c r="S543">
+      <c r="T546">
+        <v>1.75</v>
+      </c>
+      <c r="U546">
         <v>1.875</v>
       </c>
-      <c r="T543">
-        <v>2</v>
-      </c>
-      <c r="U543">
-        <v>2.025</v>
-      </c>
-      <c r="V543">
-        <v>1.825</v>
-      </c>
-      <c r="W543">
-        <v>0</v>
-      </c>
-      <c r="X543">
-        <v>0</v>
-      </c>
-      <c r="Y543">
-        <v>0</v>
-      </c>
-      <c r="Z543">
-        <v>0</v>
-      </c>
-      <c r="AA543">
+      <c r="V546">
+        <v>1.975</v>
+      </c>
+      <c r="W546">
+        <v>0</v>
+      </c>
+      <c r="X546">
+        <v>0</v>
+      </c>
+      <c r="Y546">
+        <v>0</v>
+      </c>
+      <c r="Z546">
+        <v>0</v>
+      </c>
+      <c r="AA546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:27">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>7698763</v>
+      </c>
+      <c r="C547" t="s">
+        <v>28</v>
+      </c>
+      <c r="D547" t="s">
+        <v>28</v>
+      </c>
+      <c r="E547" s="2">
+        <v>45389.75694444445</v>
+      </c>
+      <c r="F547" t="s">
+        <v>63</v>
+      </c>
+      <c r="G547" t="s">
+        <v>51</v>
+      </c>
+      <c r="K547">
+        <v>2.75</v>
+      </c>
+      <c r="L547">
+        <v>3</v>
+      </c>
+      <c r="M547">
+        <v>2.375</v>
+      </c>
+      <c r="N547">
+        <v>1.95</v>
+      </c>
+      <c r="O547">
+        <v>3.2</v>
+      </c>
+      <c r="P547">
+        <v>3.75</v>
+      </c>
+      <c r="Q547">
+        <v>-0.5</v>
+      </c>
+      <c r="R547">
+        <v>2.05</v>
+      </c>
+      <c r="S547">
+        <v>1.8</v>
+      </c>
+      <c r="T547">
+        <v>2</v>
+      </c>
+      <c r="U547">
+        <v>2.1</v>
+      </c>
+      <c r="V547">
+        <v>1.775</v>
+      </c>
+      <c r="W547">
+        <v>0</v>
+      </c>
+      <c r="X547">
+        <v>0</v>
+      </c>
+      <c r="Y547">
+        <v>0</v>
+      </c>
+      <c r="Z547">
+        <v>0</v>
+      </c>
+      <c r="AA547">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Nueva Chicago</t>
   </si>
   <si>
-    <t>Guillermo Brown</t>
+    <t>CA San Telmo</t>
   </si>
   <si>
-    <t>CA San Telmo</t>
+    <t>Guillermo Brown</t>
   </si>
   <si>
     <t>Defensores Unidos</t>
@@ -163,10 +163,10 @@
     <t>Estudiantes Rio Cuarto</t>
   </si>
   <si>
-    <t>CA Alvarado</t>
+    <t>Deportivo Moron</t>
   </si>
   <si>
-    <t>Deportivo Moron</t>
+    <t>CA Alvarado</t>
   </si>
   <si>
     <t>Defensores de Belgrano</t>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC554"/>
+  <dimension ref="A1:AC563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6150455</v>
+        <v>6150673</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1510,70 +1510,70 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
         <v>1.85</v>
       </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1584,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6150673</v>
+        <v>6150455</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1599,70 +1599,70 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
         <v>3.2</v>
       </c>
-      <c r="M12">
-        <v>2.5</v>
-      </c>
       <c r="N12">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S12">
+        <v>1.75</v>
+      </c>
+      <c r="T12">
+        <v>1.75</v>
+      </c>
+      <c r="U12">
         <v>1.85</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1688,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>45087.60763888889</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -2664,7 +2664,7 @@
         <v>45087.625</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
@@ -2756,7 +2756,7 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6150687</v>
+        <v>6150684</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3557,43 +3557,43 @@
         <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>71</v>
       </c>
       <c r="K34">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L34">
+        <v>2.9</v>
+      </c>
+      <c r="M34">
+        <v>2.5</v>
+      </c>
+      <c r="N34">
+        <v>2.6</v>
+      </c>
+      <c r="O34">
+        <v>2.9</v>
+      </c>
+      <c r="P34">
         <v>3.1</v>
       </c>
-      <c r="M34">
-        <v>3.2</v>
-      </c>
-      <c r="N34">
-        <v>2.3</v>
-      </c>
-      <c r="O34">
-        <v>2.875</v>
-      </c>
-      <c r="P34">
-        <v>3.6</v>
-      </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
         <v>1.75</v>
@@ -3605,7 +3605,7 @@
         <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3614,16 +3614,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3631,7 +3631,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6150684</v>
+        <v>6150687</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3646,43 +3646,43 @@
         <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>71</v>
       </c>
       <c r="K35">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P35">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>1.75</v>
@@ -3694,7 +3694,7 @@
         <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3703,16 +3703,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3824,7 +3824,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -4002,7 +4002,7 @@
         <v>53</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4343,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6150461</v>
+        <v>6150859</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4355,76 +4355,76 @@
         <v>45096.625</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N43">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
         <v>3.1</v>
       </c>
       <c r="P43">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6150859</v>
+        <v>6150461</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4533,76 +4533,76 @@
         <v>45096.625</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O45">
         <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5245,7 +5245,7 @@
         <v>45101.64583333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>48</v>
@@ -5767,7 +5767,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6150463</v>
+        <v>6150861</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5779,46 +5779,46 @@
         <v>45102.625</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L59">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="M59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
         <v>2</v>
@@ -5833,16 +5833,16 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>1.075</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6150861</v>
+        <v>6150463</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5868,46 +5868,46 @@
         <v>45102.625</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="M60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T60">
         <v>2</v>
@@ -5922,16 +5922,16 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.5249999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7025,7 +7025,7 @@
         <v>45108.83333333334</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
         <v>40</v>
@@ -7295,7 +7295,7 @@
         <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7918,7 +7918,7 @@
         <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8449,7 +8449,7 @@
         <v>45115.64583333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
         <v>37</v>
@@ -8627,7 +8627,7 @@
         <v>45115.66666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G91" t="s">
         <v>47</v>
@@ -8808,7 +8808,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -9520,7 +9520,7 @@
         <v>53</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -10318,7 +10318,7 @@
         <v>45123.625</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G110" t="s">
         <v>64</v>
@@ -10588,7 +10588,7 @@
         <v>48</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11030,7 +11030,7 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
         <v>55</v>
@@ -11119,7 +11119,7 @@
         <v>45129.50694444445</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>36</v>
@@ -11564,10 +11564,10 @@
         <v>45129.75694444445</v>
       </c>
       <c r="F124" t="s">
+        <v>50</v>
+      </c>
+      <c r="G124" t="s">
         <v>49</v>
-      </c>
-      <c r="G124" t="s">
-        <v>50</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150888</v>
+        <v>6150887</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11831,73 +11831,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K127">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N127">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB127">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11997,7 +11997,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150887</v>
+        <v>6150888</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12009,73 +12009,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12813,7 +12813,7 @@
         <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12988,7 +12988,7 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G140" t="s">
         <v>52</v>
@@ -13169,7 +13169,7 @@
         <v>56</v>
       </c>
       <c r="G142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13599,7 +13599,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6150559</v>
+        <v>6150895</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13611,13 +13611,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13626,43 +13626,43 @@
         <v>71</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N147">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P147">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
+        <v>1.775</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="V147">
-        <v>1.775</v>
-      </c>
       <c r="W147">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13671,16 +13671,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13688,7 +13688,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6150895</v>
+        <v>6150559</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13700,13 +13700,13 @@
         <v>45137.66666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13715,44 +13715,44 @@
         <v>71</v>
       </c>
       <c r="K148">
+        <v>2.2</v>
+      </c>
+      <c r="L148">
+        <v>2.9</v>
+      </c>
+      <c r="M148">
+        <v>3.3</v>
+      </c>
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>3</v>
+      </c>
+      <c r="P148">
+        <v>3.3</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1.8</v>
+      </c>
+      <c r="T148">
+        <v>2</v>
+      </c>
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.775</v>
+      </c>
+      <c r="W148">
         <v>1.4</v>
       </c>
-      <c r="L148">
-        <v>4</v>
-      </c>
-      <c r="M148">
-        <v>7</v>
-      </c>
-      <c r="N148">
-        <v>1.5</v>
-      </c>
-      <c r="O148">
-        <v>4</v>
-      </c>
-      <c r="P148">
-        <v>7.5</v>
-      </c>
-      <c r="Q148">
-        <v>-1</v>
-      </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2</v>
-      </c>
-      <c r="T148">
-        <v>2.25</v>
-      </c>
-      <c r="U148">
-        <v>1.775</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>0.5</v>
-      </c>
       <c r="X148">
         <v>-1</v>
       </c>
@@ -13760,16 +13760,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14326,7 +14326,7 @@
         <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14590,7 +14590,7 @@
         <v>45143.84027777778</v>
       </c>
       <c r="F158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G158" t="s">
         <v>51</v>
@@ -14679,7 +14679,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
         <v>43</v>
@@ -15023,7 +15023,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150900</v>
+        <v>6150563</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -15035,13 +15035,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15050,43 +15050,43 @@
         <v>71</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15095,16 +15095,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15112,7 +15112,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150563</v>
+        <v>6150900</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15124,13 +15124,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15139,43 +15139,43 @@
         <v>71</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O164">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W164">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15184,16 +15184,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15305,7 +15305,7 @@
         <v>47</v>
       </c>
       <c r="G166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15839,7 +15839,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>45153.625</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16284,7 +16284,7 @@
         <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16548,7 +16548,7 @@
         <v>45154.72916666666</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G180" t="s">
         <v>53</v>
@@ -17349,10 +17349,10 @@
         <v>45158.625</v>
       </c>
       <c r="F189" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189" t="s">
         <v>38</v>
-      </c>
-      <c r="G189" t="s">
-        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17438,7 +17438,7 @@
         <v>45158.64583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G190" t="s">
         <v>55</v>
@@ -18595,7 +18595,7 @@
         <v>45164.625</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
         <v>40</v>
@@ -18865,7 +18865,7 @@
         <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19310,7 +19310,7 @@
         <v>56</v>
       </c>
       <c r="G211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19399,7 +19399,7 @@
         <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H212">
         <v>2</v>
@@ -20375,7 +20375,7 @@
         <v>45172.63194444445</v>
       </c>
       <c r="F223" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G223" t="s">
         <v>43</v>
@@ -20464,7 +20464,7 @@
         <v>45172.64583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
         <v>33</v>
@@ -20912,7 +20912,7 @@
         <v>41</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20998,7 +20998,7 @@
         <v>45173.625</v>
       </c>
       <c r="F230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G230" t="s">
         <v>51</v>
@@ -21535,7 +21535,7 @@
         <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21787,7 +21787,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6234807</v>
+        <v>6234808</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21799,58 +21799,58 @@
         <v>45179.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>71</v>
       </c>
       <c r="K239">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
+        <v>3.2</v>
+      </c>
+      <c r="M239">
+        <v>3.2</v>
+      </c>
+      <c r="N239">
+        <v>2.2</v>
+      </c>
+      <c r="O239">
+        <v>3.3</v>
+      </c>
+      <c r="P239">
         <v>3.4</v>
       </c>
-      <c r="M239">
-        <v>5</v>
-      </c>
-      <c r="N239">
-        <v>1.6</v>
-      </c>
-      <c r="O239">
-        <v>3.8</v>
-      </c>
-      <c r="P239">
-        <v>6</v>
-      </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V239">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W239">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21859,16 +21859,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC239">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21876,7 +21876,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6234808</v>
+        <v>6234807</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21888,58 +21888,58 @@
         <v>45179.625</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>71</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W240">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21948,16 +21948,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22143,7 +22143,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6150923</v>
+        <v>6150927</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22155,76 +22155,76 @@
         <v>45179.64583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G243" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N243">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
         <v>3.4</v>
       </c>
-      <c r="P243">
-        <v>4</v>
-      </c>
       <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>2.025</v>
+      </c>
+      <c r="V243">
+        <v>1.775</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>2.2</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
         <v>-0.5</v>
       </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
-      <c r="V243">
-        <v>1.8</v>
-      </c>
-      <c r="W243">
-        <v>0.909</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC243">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22232,7 +22232,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6150927</v>
+        <v>6150923</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22244,76 +22244,76 @@
         <v>45179.64583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
         <v>-0.5</v>
       </c>
-      <c r="AA244">
-        <v>0.4375</v>
-      </c>
-      <c r="AB244">
-        <v>1.025</v>
-      </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22781,7 +22781,7 @@
         <v>48</v>
       </c>
       <c r="G250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H250">
         <v>2</v>
@@ -23226,7 +23226,7 @@
         <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H255">
         <v>2</v>
@@ -23935,10 +23935,10 @@
         <v>45186.66666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H263">
         <v>1</v>
@@ -24113,7 +24113,7 @@
         <v>45186.71875</v>
       </c>
       <c r="F265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G265" t="s">
         <v>55</v>
@@ -24190,7 +24190,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6256581</v>
+        <v>6150576</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24202,76 +24202,76 @@
         <v>45186.75</v>
       </c>
       <c r="F266" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G266" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N266">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O266">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P266">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q266">
         <v>-0.75</v>
       </c>
       <c r="R266">
+        <v>2</v>
+      </c>
+      <c r="S266">
+        <v>1.8</v>
+      </c>
+      <c r="T266">
+        <v>2</v>
+      </c>
+      <c r="U266">
         <v>1.925</v>
       </c>
-      <c r="S266">
+      <c r="V266">
         <v>1.875</v>
       </c>
-      <c r="T266">
-        <v>2.25</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
-      </c>
-      <c r="V266">
-        <v>1.9</v>
-      </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z266">
+        <v>-1</v>
+      </c>
+      <c r="AA266">
+        <v>0.8</v>
+      </c>
+      <c r="AB266">
         <v>0.925</v>
       </c>
-      <c r="AA266">
-        <v>-1</v>
-      </c>
-      <c r="AB266">
-        <v>-0.5</v>
-      </c>
       <c r="AC266">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24279,7 +24279,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6150576</v>
+        <v>6256581</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24291,76 +24291,76 @@
         <v>45186.75</v>
       </c>
       <c r="F267" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G267" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>71</v>
+      </c>
+      <c r="K267">
+        <v>2.1</v>
+      </c>
+      <c r="L267">
+        <v>3.25</v>
+      </c>
+      <c r="M267">
         <v>3</v>
       </c>
-      <c r="J267" t="s">
-        <v>73</v>
-      </c>
-      <c r="K267">
-        <v>1.909</v>
-      </c>
-      <c r="L267">
-        <v>3</v>
-      </c>
-      <c r="M267">
-        <v>4</v>
-      </c>
       <c r="N267">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O267">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P267">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X267">
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA267">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24825,7 +24825,7 @@
         <v>45192.64583333334</v>
       </c>
       <c r="F273" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G273" t="s">
         <v>52</v>
@@ -25540,7 +25540,7 @@
         <v>31</v>
       </c>
       <c r="G281" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H281">
         <v>1</v>
@@ -25626,7 +25626,7 @@
         <v>45193.64583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G282" t="s">
         <v>41</v>
@@ -25718,7 +25718,7 @@
         <v>37</v>
       </c>
       <c r="G283" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -26252,7 +26252,7 @@
         <v>64</v>
       </c>
       <c r="G289" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H289">
         <v>2</v>
@@ -26964,7 +26964,7 @@
         <v>47</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -27050,7 +27050,7 @@
         <v>45199.79166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G298" t="s">
         <v>33</v>
@@ -27127,7 +27127,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6290532</v>
+        <v>6296632</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27139,70 +27139,70 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F299" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G299" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K299">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L299">
+        <v>3</v>
+      </c>
+      <c r="M299">
+        <v>2.875</v>
+      </c>
+      <c r="N299">
+        <v>2.375</v>
+      </c>
+      <c r="O299">
+        <v>3.1</v>
+      </c>
+      <c r="P299">
         <v>3.2</v>
       </c>
-      <c r="M299">
-        <v>4</v>
-      </c>
-      <c r="N299">
-        <v>1.6</v>
-      </c>
-      <c r="O299">
-        <v>3.6</v>
-      </c>
-      <c r="P299">
-        <v>6</v>
-      </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
+        <v>2.025</v>
+      </c>
+      <c r="S299">
         <v>1.775</v>
       </c>
-      <c r="S299">
-        <v>2.025</v>
-      </c>
       <c r="T299">
         <v>2</v>
       </c>
       <c r="U299">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V299">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W299">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB299">
         <v>0</v>
@@ -27216,7 +27216,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6296632</v>
+        <v>6290532</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27228,70 +27228,70 @@
         <v>45200.66666666666</v>
       </c>
       <c r="F300" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G300" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K300">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L300">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M300">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N300">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O300">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P300">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R300">
+        <v>1.775</v>
+      </c>
+      <c r="S300">
         <v>2.025</v>
       </c>
-      <c r="S300">
+      <c r="T300">
+        <v>2</v>
+      </c>
+      <c r="U300">
         <v>1.775</v>
       </c>
-      <c r="T300">
-        <v>2</v>
-      </c>
-      <c r="U300">
-        <v>1.925</v>
-      </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X300">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA300">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
         <v>0</v>
@@ -27572,7 +27572,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6290536</v>
+        <v>6296003</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27584,73 +27584,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G304" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
         <v>3</v>
       </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
       <c r="J304" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K304">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M304">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N304">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P304">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R304">
+        <v>2.1</v>
+      </c>
+      <c r="S304">
         <v>1.775</v>
-      </c>
-      <c r="S304">
-        <v>2.025</v>
       </c>
       <c r="T304">
         <v>2.25</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V304">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W304">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z304">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27661,7 +27661,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6296003</v>
+        <v>6290536</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27673,73 +27673,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K305">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L305">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
+        <v>4.5</v>
+      </c>
+      <c r="N305">
         <v>1.615</v>
       </c>
-      <c r="N305">
+      <c r="O305">
+        <v>3.6</v>
+      </c>
+      <c r="P305">
         <v>6.5</v>
       </c>
-      <c r="O305">
-        <v>3.75</v>
-      </c>
-      <c r="P305">
-        <v>1.6</v>
-      </c>
       <c r="Q305">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
         <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA305">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -27762,7 +27762,7 @@
         <v>45201.88194444445</v>
       </c>
       <c r="F306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G306" t="s">
         <v>43</v>
@@ -27851,10 +27851,10 @@
         <v>45205.64583333334</v>
       </c>
       <c r="F307" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -28207,7 +28207,7 @@
         <v>45206.625</v>
       </c>
       <c r="F311" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
         <v>53</v>
@@ -28655,7 +28655,7 @@
         <v>36</v>
       </c>
       <c r="G316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -30153,7 +30153,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7323927</v>
+        <v>6390737</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30165,76 +30165,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G333" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H333">
         <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K333">
+        <v>1.5</v>
+      </c>
+      <c r="L333">
         <v>4</v>
       </c>
-      <c r="L333">
-        <v>3.2</v>
-      </c>
       <c r="M333">
+        <v>5</v>
+      </c>
+      <c r="N333">
+        <v>1.833</v>
+      </c>
+      <c r="O333">
+        <v>3.6</v>
+      </c>
+      <c r="P333">
+        <v>4.5</v>
+      </c>
+      <c r="Q333">
+        <v>-0.5</v>
+      </c>
+      <c r="R333">
         <v>1.8</v>
       </c>
-      <c r="N333">
-        <v>3.8</v>
-      </c>
-      <c r="O333">
-        <v>3.3</v>
-      </c>
-      <c r="P333">
-        <v>2.05</v>
-      </c>
-      <c r="Q333">
-        <v>0.25</v>
-      </c>
-      <c r="R333">
-        <v>1.975</v>
-      </c>
       <c r="S333">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T333">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V333">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z333">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB333">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC333">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30331,7 +30331,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6390737</v>
+        <v>7323927</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30343,76 +30343,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G335" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H335">
         <v>1</v>
       </c>
       <c r="I335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K335">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L335">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M335">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N335">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O335">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P335">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.975</v>
+      </c>
+      <c r="S335">
+        <v>1.875</v>
+      </c>
+      <c r="T335">
+        <v>2.25</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
+        <v>2.025</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>2.3</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
+        <v>0.4875</v>
+      </c>
+      <c r="AA335">
         <v>-0.5</v>
       </c>
-      <c r="R335">
-        <v>1.8</v>
-      </c>
-      <c r="S335">
-        <v>2</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
-      <c r="U335">
-        <v>1.95</v>
-      </c>
-      <c r="V335">
-        <v>1.85</v>
-      </c>
-      <c r="W335">
-        <v>-1</v>
-      </c>
-      <c r="X335">
-        <v>-1</v>
-      </c>
-      <c r="Y335">
-        <v>3.5</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
-      <c r="AA335">
-        <v>1</v>
-      </c>
       <c r="AB335">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30420,7 +30420,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6387411</v>
+        <v>6387413</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30432,76 +30432,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G336" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K336">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L336">
         <v>3.2</v>
       </c>
       <c r="M336">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N336">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="O336">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P336">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q336">
+        <v>0.75</v>
+      </c>
+      <c r="R336">
+        <v>2</v>
+      </c>
+      <c r="S336">
+        <v>1.85</v>
+      </c>
+      <c r="T336">
+        <v>2.25</v>
+      </c>
+      <c r="U336">
+        <v>2</v>
+      </c>
+      <c r="V336">
+        <v>1.85</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
+        <v>2.6</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>1</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
         <v>-0.5</v>
       </c>
-      <c r="R336">
-        <v>1.95</v>
-      </c>
-      <c r="S336">
-        <v>1.9</v>
-      </c>
-      <c r="T336">
-        <v>2</v>
-      </c>
-      <c r="U336">
-        <v>1.875</v>
-      </c>
-      <c r="V336">
-        <v>1.975</v>
-      </c>
-      <c r="W336">
-        <v>0.95</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
-      <c r="Y336">
-        <v>-1</v>
-      </c>
-      <c r="Z336">
-        <v>0.95</v>
-      </c>
-      <c r="AA336">
-        <v>-1</v>
-      </c>
-      <c r="AB336">
-        <v>0</v>
-      </c>
       <c r="AC336">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30509,7 +30509,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6387413</v>
+        <v>6387410</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30521,76 +30521,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G337" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337">
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K337">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L337">
         <v>3.2</v>
       </c>
       <c r="M337">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N337">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P337">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>1.75</v>
+      </c>
+      <c r="S337">
+        <v>2.05</v>
+      </c>
+      <c r="T337">
+        <v>1.75</v>
+      </c>
+      <c r="U337">
+        <v>1.75</v>
+      </c>
+      <c r="V337">
+        <v>2.05</v>
+      </c>
+      <c r="W337">
+        <v>1.55</v>
+      </c>
+      <c r="X337">
+        <v>-1</v>
+      </c>
+      <c r="Y337">
+        <v>-1</v>
+      </c>
+      <c r="Z337">
         <v>0.75</v>
       </c>
-      <c r="R337">
-        <v>2</v>
-      </c>
-      <c r="S337">
-        <v>1.85</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
-      <c r="U337">
-        <v>2</v>
-      </c>
-      <c r="V337">
-        <v>1.85</v>
-      </c>
-      <c r="W337">
-        <v>-1</v>
-      </c>
-      <c r="X337">
-        <v>2.6</v>
-      </c>
-      <c r="Y337">
-        <v>-1</v>
-      </c>
-      <c r="Z337">
-        <v>1</v>
-      </c>
       <c r="AA337">
         <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC337">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30598,7 +30598,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6390738</v>
+        <v>6387411</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30610,13 +30610,13 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F338" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G338" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H338">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -30628,40 +30628,40 @@
         <v>1.909</v>
       </c>
       <c r="L338">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M338">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N338">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="O338">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P338">
-        <v>13</v>
+        <v>4.333</v>
       </c>
       <c r="Q338">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S338">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T338">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U338">
         <v>1.875</v>
       </c>
       <c r="V338">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W338">
-        <v>0.363</v>
+        <v>0.95</v>
       </c>
       <c r="X338">
         <v>-1</v>
@@ -30670,16 +30670,16 @@
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA338">
         <v>-1</v>
       </c>
       <c r="AB338">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC338">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30687,7 +30687,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7311908</v>
+        <v>6390738</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30699,73 +30699,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F339" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G339" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K339">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L339">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M339">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N339">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O339">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P339">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q339">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S339">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T339">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U339">
+        <v>1.875</v>
+      </c>
+      <c r="V339">
         <v>1.925</v>
       </c>
-      <c r="V339">
-        <v>1.875</v>
-      </c>
       <c r="W339">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC339">
         <v>-1</v>
@@ -30776,7 +30776,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7323841</v>
+        <v>7311908</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30788,73 +30788,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F340" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G340" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H340">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I340">
         <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K340">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L340">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M340">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N340">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O340">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P340">
+        <v>4.75</v>
+      </c>
+      <c r="Q340">
+        <v>-0.75</v>
+      </c>
+      <c r="R340">
+        <v>1.975</v>
+      </c>
+      <c r="S340">
+        <v>1.825</v>
+      </c>
+      <c r="T340">
+        <v>2</v>
+      </c>
+      <c r="U340">
+        <v>1.925</v>
+      </c>
+      <c r="V340">
+        <v>1.875</v>
+      </c>
+      <c r="W340">
+        <v>-1</v>
+      </c>
+      <c r="X340">
+        <v>-1</v>
+      </c>
+      <c r="Y340">
         <v>3.75</v>
       </c>
-      <c r="Q340">
-        <v>-0.25</v>
-      </c>
-      <c r="R340">
-        <v>1.775</v>
-      </c>
-      <c r="S340">
-        <v>2.025</v>
-      </c>
-      <c r="T340">
-        <v>2.25</v>
-      </c>
-      <c r="U340">
-        <v>1.95</v>
-      </c>
-      <c r="V340">
-        <v>1.85</v>
-      </c>
-      <c r="W340">
-        <v>1.05</v>
-      </c>
-      <c r="X340">
-        <v>-1</v>
-      </c>
-      <c r="Y340">
-        <v>-1</v>
-      </c>
       <c r="Z340">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB340">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -30865,7 +30865,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6387410</v>
+        <v>7323841</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30877,58 +30877,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G341" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>71</v>
       </c>
       <c r="K341">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L341">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M341">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N341">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O341">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q341">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R341">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S341">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T341">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U341">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V341">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W341">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="X341">
         <v>-1</v>
@@ -30937,13 +30937,13 @@
         <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA341">
         <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC341">
         <v>-1</v>
@@ -32838,7 +32838,7 @@
         <v>44</v>
       </c>
       <c r="G363" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H363">
         <v>1</v>
@@ -32924,7 +32924,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G364" t="s">
         <v>60</v>
@@ -33179,7 +33179,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33191,76 +33191,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F367" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G367" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K367">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M367">
+        <v>3.3</v>
+      </c>
+      <c r="N367">
+        <v>2.3</v>
+      </c>
+      <c r="O367">
         <v>3</v>
       </c>
-      <c r="N367">
-        <v>2.9</v>
-      </c>
-      <c r="O367">
-        <v>2.8</v>
-      </c>
       <c r="P367">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S367">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T367">
         <v>1.75</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33268,7 +33268,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33280,76 +33280,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="F368" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G368" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K368">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L368">
+        <v>2.75</v>
+      </c>
+      <c r="M368">
         <v>3</v>
       </c>
-      <c r="M368">
-        <v>3.3</v>
-      </c>
       <c r="N368">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O368">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P368">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R368">
+        <v>1.875</v>
+      </c>
+      <c r="S368">
         <v>1.975</v>
-      </c>
-      <c r="S368">
-        <v>1.825</v>
       </c>
       <c r="T368">
         <v>1.75</v>
       </c>
       <c r="U368">
+        <v>1.85</v>
+      </c>
+      <c r="V368">
+        <v>2</v>
+      </c>
+      <c r="W368">
         <v>1.9</v>
       </c>
-      <c r="V368">
-        <v>1.9</v>
-      </c>
-      <c r="W368">
-        <v>-1</v>
-      </c>
       <c r="X368">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA368">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33814,7 +33814,7 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
         <v>46</v>
@@ -34173,7 +34173,7 @@
         <v>41</v>
       </c>
       <c r="G378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -34707,7 +34707,7 @@
         <v>31</v>
       </c>
       <c r="G384" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H384">
         <v>2</v>
@@ -34882,7 +34882,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G386" t="s">
         <v>69</v>
@@ -35137,7 +35137,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698657</v>
+        <v>7698662</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35149,76 +35149,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G389" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I389">
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K389">
+        <v>2.1</v>
+      </c>
+      <c r="L389">
         <v>2.75</v>
       </c>
-      <c r="L389">
+      <c r="M389">
+        <v>3.75</v>
+      </c>
+      <c r="N389">
+        <v>2.1</v>
+      </c>
+      <c r="O389">
         <v>3.1</v>
       </c>
-      <c r="M389">
-        <v>2.375</v>
-      </c>
-      <c r="N389">
-        <v>2.9</v>
-      </c>
-      <c r="O389">
-        <v>3.3</v>
-      </c>
       <c r="P389">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R389">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S389">
+        <v>1.775</v>
+      </c>
+      <c r="T389">
         <v>1.75</v>
       </c>
-      <c r="T389">
-        <v>2</v>
-      </c>
       <c r="U389">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V389">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W389">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X389">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA389">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35315,7 +35315,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698662</v>
+        <v>7698657</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35327,76 +35327,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F391" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G391" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391">
         <v>0</v>
       </c>
       <c r="J391" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K391">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L391">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M391">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N391">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O391">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P391">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q391">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S391">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T391">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U391">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W391">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y391">
         <v>-1</v>
       </c>
       <c r="Z391">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA391">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB391">
         <v>-1</v>
       </c>
       <c r="AC391">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35404,7 +35404,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35416,10 +35416,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G392" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -35434,28 +35434,28 @@
         <v>2.5</v>
       </c>
       <c r="L392">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M392">
         <v>2.75</v>
       </c>
       <c r="N392">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="O392">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P392">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q392">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S392">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T392">
         <v>1.75</v>
@@ -35467,7 +35467,7 @@
         <v>2.025</v>
       </c>
       <c r="W392">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="X392">
         <v>-1</v>
@@ -35476,7 +35476,7 @@
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA392">
         <v>-1</v>
@@ -35493,7 +35493,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698656</v>
+        <v>7698545</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35505,10 +35505,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F393" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G393" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -35523,28 +35523,28 @@
         <v>2.5</v>
       </c>
       <c r="L393">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M393">
         <v>2.75</v>
       </c>
       <c r="N393">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="O393">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P393">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q393">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R393">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S393">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T393">
         <v>1.75</v>
@@ -35556,7 +35556,7 @@
         <v>2.025</v>
       </c>
       <c r="W393">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="X393">
         <v>-1</v>
@@ -35565,7 +35565,7 @@
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA393">
         <v>-1</v>
@@ -35950,10 +35950,10 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H398">
         <v>2</v>
@@ -36205,7 +36205,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7698670</v>
+        <v>7698671</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36217,76 +36217,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F401" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G401" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I401">
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K401">
         <v>2</v>
       </c>
       <c r="L401">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M401">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N401">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O401">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P401">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q401">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R401">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S401">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T401">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U401">
         <v>1.775</v>
       </c>
       <c r="V401">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z401">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA401">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB401">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC401">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36294,7 +36294,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7698671</v>
+        <v>7698670</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36306,76 +36306,76 @@
         <v>45339.70833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G402" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H402">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I402">
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K402">
         <v>2</v>
       </c>
       <c r="L402">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M402">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N402">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="O402">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P402">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q402">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R402">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S402">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T402">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U402">
         <v>1.775</v>
       </c>
       <c r="V402">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W402">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X402">
         <v>-1</v>
       </c>
       <c r="Y402">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z402">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA402">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB402">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC402">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36383,7 +36383,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7702208</v>
+        <v>7698666</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36395,76 +36395,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G403" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J403" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K403">
         <v>2.5</v>
       </c>
       <c r="L403">
+        <v>2.875</v>
+      </c>
+      <c r="M403">
+        <v>2.875</v>
+      </c>
+      <c r="N403">
+        <v>2.7</v>
+      </c>
+      <c r="O403">
+        <v>2.875</v>
+      </c>
+      <c r="P403">
         <v>3</v>
       </c>
-      <c r="M403">
-        <v>2.75</v>
-      </c>
-      <c r="N403">
-        <v>2.3</v>
-      </c>
-      <c r="O403">
-        <v>3</v>
-      </c>
-      <c r="P403">
-        <v>3.5</v>
-      </c>
       <c r="Q403">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R403">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S403">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T403">
         <v>1.75</v>
       </c>
       <c r="U403">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V403">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W403">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X403">
         <v>-1</v>
       </c>
       <c r="Y403">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z403">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA403">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB403">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC403">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36472,7 +36472,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7698666</v>
+        <v>7702208</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36484,76 +36484,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G404" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J404" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K404">
         <v>2.5</v>
       </c>
       <c r="L404">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M404">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N404">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O404">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P404">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q404">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S404">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T404">
         <v>1.75</v>
       </c>
       <c r="U404">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V404">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W404">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X404">
         <v>-1</v>
       </c>
       <c r="Y404">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA404">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36754,7 +36754,7 @@
         <v>33</v>
       </c>
       <c r="G407" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H407">
         <v>1</v>
@@ -36840,7 +36840,7 @@
         <v>45339.88194444445</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G408" t="s">
         <v>51</v>
@@ -36917,7 +36917,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698667</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36929,13 +36929,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G409" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409">
         <v>0</v>
@@ -36944,43 +36944,43 @@
         <v>71</v>
       </c>
       <c r="K409">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L409">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M409">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N409">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P409">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S409">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U409">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V409">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W409">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="X409">
         <v>-1</v>
@@ -36989,16 +36989,16 @@
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA409">
         <v>-1</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC409">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37018,7 +37018,7 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G410" t="s">
         <v>53</v>
@@ -37095,7 +37095,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698667</v>
+        <v>7698356</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37107,13 +37107,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F411" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G411" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411">
         <v>0</v>
@@ -37122,43 +37122,43 @@
         <v>71</v>
       </c>
       <c r="K411">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L411">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M411">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N411">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P411">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q411">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S411">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T411">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U411">
+        <v>2</v>
+      </c>
+      <c r="V411">
         <v>1.8</v>
       </c>
-      <c r="V411">
-        <v>2</v>
-      </c>
       <c r="W411">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X411">
         <v>-1</v>
@@ -37167,16 +37167,16 @@
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA411">
         <v>-1</v>
       </c>
       <c r="AB411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -38356,7 +38356,7 @@
         <v>65</v>
       </c>
       <c r="G425" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H425">
         <v>1</v>
@@ -38442,7 +38442,7 @@
         <v>45347.70833333334</v>
       </c>
       <c r="F426" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G426" t="s">
         <v>37</v>
@@ -38712,7 +38712,7 @@
         <v>34</v>
       </c>
       <c r="G429" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H429">
         <v>0</v>
@@ -38798,7 +38798,7 @@
         <v>45347.83333333334</v>
       </c>
       <c r="F430" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G430" t="s">
         <v>55</v>
@@ -39498,7 +39498,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698694</v>
+        <v>7698703</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39510,61 +39510,61 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F438" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G438" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J438" t="s">
         <v>72</v>
       </c>
       <c r="K438">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L438">
+        <v>3</v>
+      </c>
+      <c r="M438">
+        <v>4</v>
+      </c>
+      <c r="N438">
+        <v>2.2</v>
+      </c>
+      <c r="O438">
         <v>2.875</v>
       </c>
-      <c r="M438">
-        <v>2.9</v>
-      </c>
-      <c r="N438">
-        <v>2.4</v>
-      </c>
-      <c r="O438">
-        <v>3</v>
-      </c>
       <c r="P438">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q438">
         <v>-0.25</v>
       </c>
       <c r="R438">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S438">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T438">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U438">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V438">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y438">
         <v>-1</v>
@@ -39573,13 +39573,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA438">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB438">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AC438">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39587,7 +39587,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7698693</v>
+        <v>7698694</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39599,76 +39599,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G439" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J439" t="s">
         <v>72</v>
       </c>
       <c r="K439">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L439">
         <v>2.875</v>
       </c>
       <c r="M439">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N439">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O439">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P439">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q439">
+        <v>-0.25</v>
+      </c>
+      <c r="R439">
+        <v>2.025</v>
+      </c>
+      <c r="S439">
+        <v>1.775</v>
+      </c>
+      <c r="T439">
+        <v>2</v>
+      </c>
+      <c r="U439">
+        <v>2.025</v>
+      </c>
+      <c r="V439">
+        <v>1.775</v>
+      </c>
+      <c r="W439">
+        <v>-1</v>
+      </c>
+      <c r="X439">
+        <v>2</v>
+      </c>
+      <c r="Y439">
+        <v>-1</v>
+      </c>
+      <c r="Z439">
         <v>-0.5</v>
       </c>
-      <c r="R439">
-        <v>2</v>
-      </c>
-      <c r="S439">
-        <v>1.8</v>
-      </c>
-      <c r="T439">
-        <v>1.75</v>
-      </c>
-      <c r="U439">
-        <v>1.95</v>
-      </c>
-      <c r="V439">
-        <v>1.85</v>
-      </c>
-      <c r="W439">
-        <v>-1</v>
-      </c>
-      <c r="X439">
-        <v>1.9</v>
-      </c>
-      <c r="Y439">
-        <v>-1</v>
-      </c>
-      <c r="Z439">
-        <v>-1</v>
-      </c>
       <c r="AA439">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB439">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC439">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39676,7 +39676,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698703</v>
+        <v>7698693</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39688,76 +39688,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G440" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="s">
         <v>72</v>
       </c>
       <c r="K440">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L440">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M440">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N440">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O440">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P440">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q440">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R440">
+        <v>2</v>
+      </c>
+      <c r="S440">
         <v>1.8</v>
-      </c>
-      <c r="S440">
-        <v>2</v>
       </c>
       <c r="T440">
         <v>1.75</v>
       </c>
       <c r="U440">
+        <v>1.95</v>
+      </c>
+      <c r="V440">
         <v>1.85</v>
       </c>
-      <c r="V440">
-        <v>1.95</v>
-      </c>
       <c r="W440">
         <v>-1</v>
       </c>
       <c r="X440">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB440">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC440">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39943,7 +39943,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7702205</v>
+        <v>7698700</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39955,76 +39955,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G443" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H443">
         <v>0</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J443" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K443">
+        <v>2.1</v>
+      </c>
+      <c r="L443">
+        <v>2.75</v>
+      </c>
+      <c r="M443">
+        <v>4</v>
+      </c>
+      <c r="N443">
+        <v>2.1</v>
+      </c>
+      <c r="O443">
+        <v>2.8</v>
+      </c>
+      <c r="P443">
+        <v>4.5</v>
+      </c>
+      <c r="Q443">
+        <v>-0.25</v>
+      </c>
+      <c r="R443">
+        <v>1.75</v>
+      </c>
+      <c r="S443">
+        <v>2.05</v>
+      </c>
+      <c r="T443">
+        <v>1.75</v>
+      </c>
+      <c r="U443">
         <v>1.8</v>
       </c>
-      <c r="L443">
-        <v>3.2</v>
-      </c>
-      <c r="M443">
-        <v>4.5</v>
-      </c>
-      <c r="N443">
-        <v>1.7</v>
-      </c>
-      <c r="O443">
-        <v>3.3</v>
-      </c>
-      <c r="P443">
-        <v>6</v>
-      </c>
-      <c r="Q443">
-        <v>-0.75</v>
-      </c>
-      <c r="R443">
-        <v>1.95</v>
-      </c>
-      <c r="S443">
-        <v>1.85</v>
-      </c>
-      <c r="T443">
-        <v>2</v>
-      </c>
-      <c r="U443">
-        <v>1.9</v>
-      </c>
       <c r="V443">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W443">
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y443">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA443">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB443">
         <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40032,7 +40032,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7698354</v>
+        <v>7702205</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40044,76 +40044,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F444" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="G444" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K444">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M444">
         <v>4.5</v>
       </c>
       <c r="N444">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O444">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P444">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q444">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R444">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S444">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T444">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U444">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V444">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W444">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z444">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB444">
         <v>-1</v>
       </c>
       <c r="AC444">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40121,7 +40121,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698692</v>
+        <v>7698354</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40133,76 +40133,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F445" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G445" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H445">
         <v>1</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J445" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K445">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L445">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M445">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N445">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O445">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P445">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q445">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R445">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S445">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T445">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U445">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V445">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X445">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
         <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA445">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC445">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40210,7 +40210,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698697</v>
+        <v>7698692</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40222,76 +40222,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F446" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G446" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H446">
         <v>1</v>
       </c>
       <c r="I446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K446">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L446">
+        <v>3</v>
+      </c>
+      <c r="M446">
         <v>3.2</v>
       </c>
-      <c r="M446">
-        <v>4.5</v>
-      </c>
       <c r="N446">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O446">
+        <v>3</v>
+      </c>
+      <c r="P446">
         <v>3.3</v>
       </c>
-      <c r="P446">
-        <v>5.25</v>
-      </c>
       <c r="Q446">
+        <v>-0.25</v>
+      </c>
+      <c r="R446">
+        <v>2.025</v>
+      </c>
+      <c r="S446">
+        <v>1.825</v>
+      </c>
+      <c r="T446">
+        <v>2</v>
+      </c>
+      <c r="U446">
+        <v>2.1</v>
+      </c>
+      <c r="V446">
+        <v>1.775</v>
+      </c>
+      <c r="W446">
+        <v>-1</v>
+      </c>
+      <c r="X446">
+        <v>2</v>
+      </c>
+      <c r="Y446">
+        <v>-1</v>
+      </c>
+      <c r="Z446">
         <v>-0.5</v>
       </c>
-      <c r="R446">
-        <v>1.775</v>
-      </c>
-      <c r="S446">
-        <v>2.025</v>
-      </c>
-      <c r="T446">
-        <v>2</v>
-      </c>
-      <c r="U446">
-        <v>1.8</v>
-      </c>
-      <c r="V446">
-        <v>2</v>
-      </c>
-      <c r="W446">
-        <v>-1</v>
-      </c>
-      <c r="X446">
-        <v>-1</v>
-      </c>
-      <c r="Y446">
-        <v>4.25</v>
-      </c>
-      <c r="Z446">
-        <v>-1</v>
-      </c>
       <c r="AA446">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AB446">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC446">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40299,7 +40299,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7698700</v>
+        <v>7698697</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40311,49 +40311,49 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F447" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G447" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J447" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K447">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L447">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M447">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N447">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O447">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P447">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q447">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R447">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S447">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T447">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U447">
         <v>1.8</v>
@@ -40365,22 +40365,22 @@
         <v>-1</v>
       </c>
       <c r="X447">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y447">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z447">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA447">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB447">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC447">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -41026,7 +41026,7 @@
         <v>63</v>
       </c>
       <c r="G455" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H455">
         <v>1</v>
@@ -41471,7 +41471,7 @@
         <v>54</v>
       </c>
       <c r="G460" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H460">
         <v>1</v>
@@ -41723,7 +41723,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7698710</v>
+        <v>7698705</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41735,76 +41735,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F463" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G463" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H463">
         <v>2</v>
       </c>
       <c r="I463">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J463" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K463">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="L463">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N463">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O463">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P463">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q463">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R463">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S463">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T463">
         <v>1.75</v>
       </c>
       <c r="U463">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W463">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB463">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698705</v>
+        <v>7698710</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,76 +41824,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G464" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H464">
         <v>2</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K464">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L464">
+        <v>2.75</v>
+      </c>
+      <c r="M464">
+        <v>2.875</v>
+      </c>
+      <c r="N464">
+        <v>2.75</v>
+      </c>
+      <c r="O464">
+        <v>2.8</v>
+      </c>
+      <c r="P464">
         <v>3</v>
       </c>
-      <c r="M464">
-        <v>3.6</v>
-      </c>
-      <c r="N464">
-        <v>2.375</v>
-      </c>
-      <c r="O464">
-        <v>3</v>
-      </c>
-      <c r="P464">
-        <v>3.4</v>
-      </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T464">
         <v>1.75</v>
       </c>
       <c r="U464">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V464">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X464">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA464">
+        <v>-1</v>
+      </c>
+      <c r="AB464">
+        <v>0.45</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AA464">
-        <v>0.4375</v>
-      </c>
-      <c r="AB464">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC464">
-        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698558</v>
+        <v>7698711</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,76 +41913,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G465" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I465">
         <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K465">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L465">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M465">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N465">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O465">
         <v>3.1</v>
       </c>
       <c r="P465">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q465">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R465">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S465">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T465">
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V465">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W465">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X465">
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA465">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC465">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41990,7 +41990,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698711</v>
+        <v>7698558</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42002,76 +42002,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F466" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G466" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H466">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466">
         <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K466">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L466">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M466">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N466">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O466">
         <v>3.1</v>
       </c>
       <c r="P466">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q466">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S466">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T466">
         <v>1.75</v>
       </c>
       <c r="U466">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V466">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W466">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z466">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA466">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB466">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC466">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -42180,7 +42180,7 @@
         <v>45361.75</v>
       </c>
       <c r="F468" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G468" t="s">
         <v>47</v>
@@ -42257,7 +42257,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42269,76 +42269,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F469" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G469" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H469">
         <v>1</v>
       </c>
       <c r="I469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J469" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K469">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L469">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M469">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N469">
+        <v>1.65</v>
+      </c>
+      <c r="O469">
+        <v>3.5</v>
+      </c>
+      <c r="P469">
+        <v>6</v>
+      </c>
+      <c r="Q469">
+        <v>-0.75</v>
+      </c>
+      <c r="R469">
+        <v>1.8</v>
+      </c>
+      <c r="S469">
+        <v>2</v>
+      </c>
+      <c r="T469">
         <v>2.25</v>
       </c>
-      <c r="O469">
-        <v>2.875</v>
-      </c>
-      <c r="P469">
-        <v>3.8</v>
-      </c>
-      <c r="Q469">
-        <v>-0.25</v>
-      </c>
-      <c r="R469">
+      <c r="U469">
+        <v>1.975</v>
+      </c>
+      <c r="V469">
         <v>1.825</v>
       </c>
-      <c r="S469">
-        <v>1.975</v>
-      </c>
-      <c r="T469">
-        <v>2</v>
-      </c>
-      <c r="U469">
-        <v>2.025</v>
-      </c>
-      <c r="V469">
-        <v>1.775</v>
-      </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y469">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB469">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42346,7 +42346,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42358,76 +42358,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="F470" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G470" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H470">
         <v>1</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J470" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K470">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L470">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M470">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N470">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O470">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P470">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q470">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R470">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S470">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T470">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U470">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V470">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W470">
         <v>-1</v>
       </c>
       <c r="X470">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y470">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z470">
         <v>-1</v>
       </c>
       <c r="AA470">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB470">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC470">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:29">
@@ -42536,7 +42536,7 @@
         <v>45362.70833333334</v>
       </c>
       <c r="F472" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G472" t="s">
         <v>36</v>
@@ -43251,7 +43251,7 @@
         <v>60</v>
       </c>
       <c r="G480" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H480">
         <v>0</v>
@@ -43426,7 +43426,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F482" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G482" t="s">
         <v>70</v>
@@ -43515,7 +43515,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="F483" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G483" t="s">
         <v>58</v>
@@ -43696,7 +43696,7 @@
         <v>46</v>
       </c>
       <c r="G485" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H485">
         <v>2</v>
@@ -44482,7 +44482,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7698735</v>
+        <v>7702199</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44494,73 +44494,73 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F494" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G494" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J494" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K494">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L494">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M494">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N494">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O494">
         <v>2.875</v>
       </c>
       <c r="P494">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q494">
         <v>0</v>
       </c>
       <c r="R494">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S494">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T494">
         <v>1.75</v>
       </c>
       <c r="U494">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V494">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W494">
+        <v>-1</v>
+      </c>
+      <c r="X494">
         <v>1.875</v>
       </c>
-      <c r="X494">
-        <v>-1</v>
-      </c>
       <c r="Y494">
         <v>-1</v>
       </c>
       <c r="Z494">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA494">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB494">
-        <v>0.4125</v>
+        <v>0.375</v>
       </c>
       <c r="AC494">
         <v>-0.5</v>
@@ -44571,7 +44571,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7702199</v>
+        <v>7698731</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44583,76 +44583,76 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F495" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G495" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H495">
         <v>1</v>
       </c>
       <c r="I495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J495" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K495">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L495">
         <v>2.875</v>
       </c>
       <c r="M495">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N495">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O495">
         <v>2.875</v>
       </c>
       <c r="P495">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q495">
         <v>0</v>
       </c>
       <c r="R495">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S495">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T495">
         <v>1.75</v>
       </c>
       <c r="U495">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V495">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W495">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X495">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y495">
         <v>-1</v>
       </c>
       <c r="Z495">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA495">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB495">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC495">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="496" spans="1:29">
@@ -44660,7 +44660,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7698731</v>
+        <v>7698735</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44672,13 +44672,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F496" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G496" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496">
         <v>0</v>
@@ -44687,43 +44687,43 @@
         <v>71</v>
       </c>
       <c r="K496">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L496">
+        <v>2.8</v>
+      </c>
+      <c r="M496">
         <v>2.875</v>
       </c>
-      <c r="M496">
-        <v>2.5</v>
-      </c>
       <c r="N496">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O496">
         <v>2.875</v>
       </c>
       <c r="P496">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q496">
         <v>0</v>
       </c>
       <c r="R496">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S496">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T496">
         <v>1.75</v>
       </c>
       <c r="U496">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V496">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W496">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="X496">
         <v>-1</v>
@@ -44732,16 +44732,16 @@
         <v>-1</v>
       </c>
       <c r="Z496">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA496">
         <v>-1</v>
       </c>
       <c r="AB496">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC496">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -44764,7 +44764,7 @@
         <v>42</v>
       </c>
       <c r="G497" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H497">
         <v>0</v>
@@ -44838,7 +44838,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7698736</v>
+        <v>7698738</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -44850,37 +44850,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F498" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G498" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I498">
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K498">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L498">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M498">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N498">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O498">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P498">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q498">
         <v>-0.25</v>
@@ -44889,7 +44889,7 @@
         <v>1.85</v>
       </c>
       <c r="S498">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T498">
         <v>1.75</v>
@@ -44898,28 +44898,28 @@
         <v>1.8</v>
       </c>
       <c r="V498">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W498">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X498">
         <v>-1</v>
       </c>
       <c r="Y498">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z498">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA498">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB498">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC498">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499" spans="1:29">
@@ -44927,7 +44927,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7698738</v>
+        <v>7698736</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -44939,37 +44939,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="F499" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G499" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H499">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I499">
         <v>1</v>
       </c>
       <c r="J499" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K499">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L499">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M499">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N499">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O499">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P499">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q499">
         <v>-0.25</v>
@@ -44978,7 +44978,7 @@
         <v>1.85</v>
       </c>
       <c r="S499">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T499">
         <v>1.75</v>
@@ -44987,28 +44987,28 @@
         <v>1.8</v>
       </c>
       <c r="V499">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W499">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X499">
         <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z499">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB499">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC499">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:29">
@@ -45120,7 +45120,7 @@
         <v>59</v>
       </c>
       <c r="G501" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H501">
         <v>1</v>
@@ -45728,7 +45728,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7958332</v>
+        <v>7989127</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45740,76 +45740,76 @@
         <v>45376.875</v>
       </c>
       <c r="F508" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G508" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I508">
         <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K508">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L508">
+        <v>2.875</v>
+      </c>
+      <c r="M508">
+        <v>2.8</v>
+      </c>
+      <c r="N508">
+        <v>2.875</v>
+      </c>
+      <c r="O508">
         <v>2.9</v>
       </c>
-      <c r="M508">
-        <v>3.6</v>
-      </c>
-      <c r="N508">
-        <v>2.15</v>
-      </c>
-      <c r="O508">
-        <v>2.875</v>
-      </c>
       <c r="P508">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q508">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R508">
+        <v>1.975</v>
+      </c>
+      <c r="S508">
         <v>1.825</v>
-      </c>
-      <c r="S508">
-        <v>1.975</v>
       </c>
       <c r="T508">
         <v>1.75</v>
       </c>
       <c r="U508">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V508">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W508">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X508">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA508">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC508">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45906,7 +45906,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7989127</v>
+        <v>7958332</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45918,76 +45918,76 @@
         <v>45376.875</v>
       </c>
       <c r="F510" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G510" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H510">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510">
         <v>0</v>
       </c>
       <c r="J510" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K510">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L510">
+        <v>2.9</v>
+      </c>
+      <c r="M510">
+        <v>3.6</v>
+      </c>
+      <c r="N510">
+        <v>2.15</v>
+      </c>
+      <c r="O510">
         <v>2.875</v>
       </c>
-      <c r="M510">
-        <v>2.8</v>
-      </c>
-      <c r="N510">
-        <v>2.875</v>
-      </c>
-      <c r="O510">
-        <v>2.9</v>
-      </c>
       <c r="P510">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R510">
+        <v>1.825</v>
+      </c>
+      <c r="S510">
         <v>1.975</v>
-      </c>
-      <c r="S510">
-        <v>1.825</v>
       </c>
       <c r="T510">
         <v>1.75</v>
       </c>
       <c r="U510">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W510">
+        <v>-1</v>
+      </c>
+      <c r="X510">
         <v>1.875</v>
       </c>
-      <c r="X510">
-        <v>-1</v>
-      </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA510">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB510">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -46096,7 +46096,7 @@
         <v>45380.625</v>
       </c>
       <c r="F512" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G512" t="s">
         <v>66</v>
@@ -46897,7 +46897,7 @@
         <v>45382.66666666666</v>
       </c>
       <c r="F521" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G521" t="s">
         <v>53</v>
@@ -47241,7 +47241,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47253,76 +47253,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F525" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G525" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H525">
         <v>0</v>
       </c>
       <c r="I525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J525" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K525">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="N525">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O525">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P525">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S525">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T525">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V525">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y525">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB525">
         <v>-1</v>
       </c>
       <c r="AC525">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47330,7 +47330,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47342,76 +47342,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="F526" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G526" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H526">
         <v>0</v>
       </c>
       <c r="I526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K526">
+        <v>2.625</v>
+      </c>
+      <c r="L526">
+        <v>2.75</v>
+      </c>
+      <c r="M526">
+        <v>2.75</v>
+      </c>
+      <c r="N526">
+        <v>2.7</v>
+      </c>
+      <c r="O526">
+        <v>2.875</v>
+      </c>
+      <c r="P526">
+        <v>3.1</v>
+      </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <v>1.775</v>
+      </c>
+      <c r="S526">
+        <v>2.025</v>
+      </c>
+      <c r="T526">
+        <v>1.75</v>
+      </c>
+      <c r="U526">
+        <v>2</v>
+      </c>
+      <c r="V526">
         <v>1.8</v>
       </c>
-      <c r="L526">
-        <v>3</v>
-      </c>
-      <c r="M526">
-        <v>4.5</v>
-      </c>
-      <c r="N526">
-        <v>1.8</v>
-      </c>
-      <c r="O526">
-        <v>3.2</v>
-      </c>
-      <c r="P526">
-        <v>5.25</v>
-      </c>
-      <c r="Q526">
-        <v>-0.5</v>
-      </c>
-      <c r="R526">
-        <v>1.8</v>
-      </c>
-      <c r="S526">
-        <v>2.05</v>
-      </c>
-      <c r="T526">
-        <v>2</v>
-      </c>
-      <c r="U526">
-        <v>1.975</v>
-      </c>
-      <c r="V526">
-        <v>1.875</v>
-      </c>
       <c r="W526">
         <v>-1</v>
       </c>
       <c r="X526">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB526">
         <v>-1</v>
       </c>
       <c r="AC526">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47431,7 +47431,7 @@
         <v>45382.83333333334</v>
       </c>
       <c r="F527" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G527" t="s">
         <v>45</v>
@@ -47523,7 +47523,7 @@
         <v>51</v>
       </c>
       <c r="G528" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H528">
         <v>0</v>
@@ -47968,7 +47968,7 @@
         <v>56</v>
       </c>
       <c r="G533" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H533">
         <v>1</v>
@@ -48042,7 +48042,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7698761</v>
+        <v>7698764</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -48054,76 +48054,76 @@
         <v>45388.64583333334</v>
       </c>
       <c r="F534" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G534" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K534">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M534">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N534">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O534">
         <v>3.1</v>
       </c>
       <c r="P534">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q534">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S534">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U534">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V534">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W534">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X534">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA534">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB534">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC534">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48131,7 +48131,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7698764</v>
+        <v>7698761</v>
       </c>
       <c r="C535" t="s">
         <v>28</v>
@@ -48143,76 +48143,76 @@
         <v>45388.64583333334</v>
       </c>
       <c r="F535" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G535" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J535" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K535">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L535">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M535">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N535">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O535">
         <v>3.1</v>
       </c>
       <c r="P535">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q535">
+        <v>-0.25</v>
+      </c>
+      <c r="R535">
+        <v>1.75</v>
+      </c>
+      <c r="S535">
+        <v>2.05</v>
+      </c>
+      <c r="T535">
+        <v>1.75</v>
+      </c>
+      <c r="U535">
+        <v>1.975</v>
+      </c>
+      <c r="V535">
+        <v>1.825</v>
+      </c>
+      <c r="W535">
+        <v>-1</v>
+      </c>
+      <c r="X535">
+        <v>2.1</v>
+      </c>
+      <c r="Y535">
+        <v>-1</v>
+      </c>
+      <c r="Z535">
         <v>-0.5</v>
       </c>
-      <c r="R535">
-        <v>2</v>
-      </c>
-      <c r="S535">
-        <v>1.8</v>
-      </c>
-      <c r="T535">
-        <v>2</v>
-      </c>
-      <c r="U535">
-        <v>2</v>
-      </c>
-      <c r="V535">
-        <v>1.8</v>
-      </c>
-      <c r="W535">
-        <v>0.95</v>
-      </c>
-      <c r="X535">
-        <v>-1</v>
-      </c>
-      <c r="Y535">
-        <v>-1</v>
-      </c>
-      <c r="Z535">
-        <v>1</v>
-      </c>
       <c r="AA535">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB535">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC535">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="536" spans="1:29">
@@ -48502,7 +48502,7 @@
         <v>61</v>
       </c>
       <c r="G539" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H539">
         <v>2</v>
@@ -48665,7 +48665,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>8041468</v>
+        <v>7698762</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48677,13 +48677,13 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F541" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G541" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541">
         <v>0</v>
@@ -48692,43 +48692,43 @@
         <v>71</v>
       </c>
       <c r="K541">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L541">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M541">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N541">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O541">
         <v>3.1</v>
       </c>
       <c r="P541">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q541">
         <v>-0.5</v>
       </c>
       <c r="R541">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S541">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T541">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V541">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W541">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X541">
         <v>-1</v>
@@ -48737,16 +48737,16 @@
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA541">
         <v>-1</v>
       </c>
       <c r="AB541">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC541">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -48754,7 +48754,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>7698762</v>
+        <v>8041468</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48766,13 +48766,13 @@
         <v>45389.66666666666</v>
       </c>
       <c r="F542" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G542" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542">
         <v>0</v>
@@ -48781,43 +48781,43 @@
         <v>71</v>
       </c>
       <c r="K542">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L542">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M542">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N542">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O542">
         <v>3.1</v>
       </c>
       <c r="P542">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q542">
         <v>-0.5</v>
       </c>
       <c r="R542">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S542">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T542">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U542">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V542">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W542">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X542">
         <v>-1</v>
@@ -48826,16 +48826,16 @@
         <v>-1</v>
       </c>
       <c r="Z542">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA542">
         <v>-1</v>
       </c>
       <c r="AB542">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC542">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -49493,31 +49493,31 @@
         <v>4</v>
       </c>
       <c r="N550">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O550">
+        <v>3.8</v>
+      </c>
+      <c r="P550">
         <v>3.4</v>
       </c>
-      <c r="P550">
-        <v>3.5</v>
-      </c>
       <c r="Q550">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R550">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S550">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T550">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U550">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V550">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W550">
         <v>0</v>
@@ -49567,31 +49567,31 @@
         <v>3.75</v>
       </c>
       <c r="N551">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O551">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P551">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q551">
         <v>-0.25</v>
       </c>
       <c r="R551">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S551">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T551">
         <v>1.75</v>
       </c>
       <c r="U551">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V551">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W551">
         <v>0</v>
@@ -49614,7 +49614,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>8072431</v>
+        <v>8072426</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49623,49 +49623,49 @@
         <v>28</v>
       </c>
       <c r="E552" s="2">
-        <v>45395.66666666666</v>
+        <v>45395.64583333334</v>
       </c>
       <c r="F552" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G552" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K552">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L552">
         <v>3</v>
       </c>
       <c r="M552">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N552">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O552">
         <v>3.1</v>
       </c>
       <c r="P552">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q552">
         <v>-0.25</v>
       </c>
       <c r="R552">
+        <v>1.775</v>
+      </c>
+      <c r="S552">
+        <v>2.1</v>
+      </c>
+      <c r="T552">
+        <v>1.75</v>
+      </c>
+      <c r="U552">
         <v>1.85</v>
       </c>
-      <c r="S552">
-        <v>2</v>
-      </c>
-      <c r="T552">
-        <v>2</v>
-      </c>
-      <c r="U552">
-        <v>1.975</v>
-      </c>
       <c r="V552">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W552">
         <v>0</v>
@@ -49688,7 +49688,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>8072424</v>
+        <v>8072431</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49697,49 +49697,49 @@
         <v>28</v>
       </c>
       <c r="E553" s="2">
-        <v>45395.70833333334</v>
+        <v>45395.66666666666</v>
       </c>
       <c r="F553" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G553" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K553">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L553">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M553">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N553">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O553">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P553">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q553">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R553">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S553">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T553">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U553">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V553">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W553">
         <v>0</v>
@@ -49762,7 +49762,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>8072382</v>
+        <v>8072424</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49771,34 +49771,34 @@
         <v>28</v>
       </c>
       <c r="E554" s="2">
-        <v>45395.71180555555</v>
+        <v>45395.70833333334</v>
       </c>
       <c r="F554" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G554" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K554">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L554">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M554">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N554">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O554">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P554">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q554">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R554">
         <v>1.8</v>
@@ -49807,7 +49807,7 @@
         <v>2.05</v>
       </c>
       <c r="T554">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U554">
         <v>2.05</v>
@@ -49828,6 +49828,672 @@
         <v>0</v>
       </c>
       <c r="AA554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:29">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>8072382</v>
+      </c>
+      <c r="C555" t="s">
+        <v>28</v>
+      </c>
+      <c r="D555" t="s">
+        <v>28</v>
+      </c>
+      <c r="E555" s="2">
+        <v>45395.71180555555</v>
+      </c>
+      <c r="F555" t="s">
+        <v>33</v>
+      </c>
+      <c r="G555" t="s">
+        <v>61</v>
+      </c>
+      <c r="K555">
+        <v>2</v>
+      </c>
+      <c r="L555">
+        <v>3</v>
+      </c>
+      <c r="M555">
+        <v>3.6</v>
+      </c>
+      <c r="N555">
+        <v>1.95</v>
+      </c>
+      <c r="O555">
+        <v>3</v>
+      </c>
+      <c r="P555">
+        <v>3.75</v>
+      </c>
+      <c r="Q555">
+        <v>-0.5</v>
+      </c>
+      <c r="R555">
+        <v>2.1</v>
+      </c>
+      <c r="S555">
+        <v>1.775</v>
+      </c>
+      <c r="T555">
+        <v>2</v>
+      </c>
+      <c r="U555">
+        <v>2.1</v>
+      </c>
+      <c r="V555">
+        <v>1.775</v>
+      </c>
+      <c r="W555">
+        <v>0</v>
+      </c>
+      <c r="X555">
+        <v>0</v>
+      </c>
+      <c r="Y555">
+        <v>0</v>
+      </c>
+      <c r="Z555">
+        <v>0</v>
+      </c>
+      <c r="AA555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:29">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556">
+        <v>8072429</v>
+      </c>
+      <c r="C556" t="s">
+        <v>28</v>
+      </c>
+      <c r="D556" t="s">
+        <v>28</v>
+      </c>
+      <c r="E556" s="2">
+        <v>45395.88194444445</v>
+      </c>
+      <c r="F556" t="s">
+        <v>49</v>
+      </c>
+      <c r="G556" t="s">
+        <v>67</v>
+      </c>
+      <c r="K556">
+        <v>2.75</v>
+      </c>
+      <c r="L556">
+        <v>3.1</v>
+      </c>
+      <c r="M556">
+        <v>2.375</v>
+      </c>
+      <c r="N556">
+        <v>2.7</v>
+      </c>
+      <c r="O556">
+        <v>3.1</v>
+      </c>
+      <c r="P556">
+        <v>2.4</v>
+      </c>
+      <c r="Q556">
+        <v>0</v>
+      </c>
+      <c r="R556">
+        <v>2.05</v>
+      </c>
+      <c r="S556">
+        <v>1.8</v>
+      </c>
+      <c r="T556">
+        <v>2</v>
+      </c>
+      <c r="U556">
+        <v>1.95</v>
+      </c>
+      <c r="V556">
+        <v>1.9</v>
+      </c>
+      <c r="W556">
+        <v>0</v>
+      </c>
+      <c r="X556">
+        <v>0</v>
+      </c>
+      <c r="Y556">
+        <v>0</v>
+      </c>
+      <c r="Z556">
+        <v>0</v>
+      </c>
+      <c r="AA556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:29">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557">
+        <v>8072419</v>
+      </c>
+      <c r="C557" t="s">
+        <v>28</v>
+      </c>
+      <c r="D557" t="s">
+        <v>28</v>
+      </c>
+      <c r="E557" s="2">
+        <v>45396.60416666666</v>
+      </c>
+      <c r="F557" t="s">
+        <v>32</v>
+      </c>
+      <c r="G557" t="s">
+        <v>59</v>
+      </c>
+      <c r="K557">
+        <v>2.9</v>
+      </c>
+      <c r="L557">
+        <v>2.75</v>
+      </c>
+      <c r="M557">
+        <v>2.5</v>
+      </c>
+      <c r="N557">
+        <v>3.25</v>
+      </c>
+      <c r="O557">
+        <v>2.8</v>
+      </c>
+      <c r="P557">
+        <v>2.25</v>
+      </c>
+      <c r="Q557">
+        <v>0.25</v>
+      </c>
+      <c r="R557">
+        <v>1.85</v>
+      </c>
+      <c r="S557">
+        <v>2</v>
+      </c>
+      <c r="T557">
+        <v>2</v>
+      </c>
+      <c r="U557">
+        <v>1.925</v>
+      </c>
+      <c r="V557">
+        <v>1.925</v>
+      </c>
+      <c r="W557">
+        <v>0</v>
+      </c>
+      <c r="X557">
+        <v>0</v>
+      </c>
+      <c r="Y557">
+        <v>0</v>
+      </c>
+      <c r="Z557">
+        <v>0</v>
+      </c>
+      <c r="AA557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:29">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558">
+        <v>8072447</v>
+      </c>
+      <c r="C558" t="s">
+        <v>28</v>
+      </c>
+      <c r="D558" t="s">
+        <v>28</v>
+      </c>
+      <c r="E558" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F558" t="s">
+        <v>68</v>
+      </c>
+      <c r="G558" t="s">
+        <v>38</v>
+      </c>
+      <c r="K558">
+        <v>2.1</v>
+      </c>
+      <c r="L558">
+        <v>3</v>
+      </c>
+      <c r="M558">
+        <v>3.4</v>
+      </c>
+      <c r="N558">
+        <v>1.95</v>
+      </c>
+      <c r="O558">
+        <v>3.1</v>
+      </c>
+      <c r="P558">
+        <v>3.8</v>
+      </c>
+      <c r="Q558">
+        <v>-0.5</v>
+      </c>
+      <c r="R558">
+        <v>2.025</v>
+      </c>
+      <c r="S558">
+        <v>1.825</v>
+      </c>
+      <c r="T558">
+        <v>2</v>
+      </c>
+      <c r="U558">
+        <v>1.925</v>
+      </c>
+      <c r="V558">
+        <v>1.925</v>
+      </c>
+      <c r="W558">
+        <v>0</v>
+      </c>
+      <c r="X558">
+        <v>0</v>
+      </c>
+      <c r="Y558">
+        <v>0</v>
+      </c>
+      <c r="Z558">
+        <v>0</v>
+      </c>
+      <c r="AA558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:29">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559">
+        <v>8072380</v>
+      </c>
+      <c r="C559" t="s">
+        <v>28</v>
+      </c>
+      <c r="D559" t="s">
+        <v>28</v>
+      </c>
+      <c r="E559" s="2">
+        <v>45396.64583333334</v>
+      </c>
+      <c r="F559" t="s">
+        <v>39</v>
+      </c>
+      <c r="G559" t="s">
+        <v>29</v>
+      </c>
+      <c r="K559">
+        <v>2.3</v>
+      </c>
+      <c r="L559">
+        <v>2.875</v>
+      </c>
+      <c r="M559">
+        <v>3.1</v>
+      </c>
+      <c r="N559">
+        <v>2.7</v>
+      </c>
+      <c r="O559">
+        <v>2.875</v>
+      </c>
+      <c r="P559">
+        <v>2.6</v>
+      </c>
+      <c r="Q559">
+        <v>0</v>
+      </c>
+      <c r="R559">
+        <v>2</v>
+      </c>
+      <c r="S559">
+        <v>1.85</v>
+      </c>
+      <c r="T559">
+        <v>2</v>
+      </c>
+      <c r="U559">
+        <v>2.05</v>
+      </c>
+      <c r="V559">
+        <v>1.8</v>
+      </c>
+      <c r="W559">
+        <v>0</v>
+      </c>
+      <c r="X559">
+        <v>0</v>
+      </c>
+      <c r="Y559">
+        <v>0</v>
+      </c>
+      <c r="Z559">
+        <v>0</v>
+      </c>
+      <c r="AA559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:29">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>8072421</v>
+      </c>
+      <c r="C560" t="s">
+        <v>28</v>
+      </c>
+      <c r="D560" t="s">
+        <v>28</v>
+      </c>
+      <c r="E560" s="2">
+        <v>45396.6875</v>
+      </c>
+      <c r="F560" t="s">
+        <v>46</v>
+      </c>
+      <c r="G560" t="s">
+        <v>54</v>
+      </c>
+      <c r="K560">
+        <v>2</v>
+      </c>
+      <c r="L560">
+        <v>3.1</v>
+      </c>
+      <c r="M560">
+        <v>3.5</v>
+      </c>
+      <c r="N560">
+        <v>2.1</v>
+      </c>
+      <c r="O560">
+        <v>3.1</v>
+      </c>
+      <c r="P560">
+        <v>3.3</v>
+      </c>
+      <c r="Q560">
+        <v>-0.25</v>
+      </c>
+      <c r="R560">
+        <v>1.9</v>
+      </c>
+      <c r="S560">
+        <v>1.95</v>
+      </c>
+      <c r="T560">
+        <v>2</v>
+      </c>
+      <c r="U560">
+        <v>1.975</v>
+      </c>
+      <c r="V560">
+        <v>1.875</v>
+      </c>
+      <c r="W560">
+        <v>0</v>
+      </c>
+      <c r="X560">
+        <v>0</v>
+      </c>
+      <c r="Y560">
+        <v>0</v>
+      </c>
+      <c r="Z560">
+        <v>0</v>
+      </c>
+      <c r="AA560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:27">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>8072420</v>
+      </c>
+      <c r="C561" t="s">
+        <v>28</v>
+      </c>
+      <c r="D561" t="s">
+        <v>28</v>
+      </c>
+      <c r="E561" s="2">
+        <v>45396.70833333334</v>
+      </c>
+      <c r="F561" t="s">
+        <v>47</v>
+      </c>
+      <c r="G561" t="s">
+        <v>70</v>
+      </c>
+      <c r="K561">
+        <v>2.3</v>
+      </c>
+      <c r="L561">
+        <v>2.75</v>
+      </c>
+      <c r="M561">
+        <v>3.2</v>
+      </c>
+      <c r="N561">
+        <v>2.2</v>
+      </c>
+      <c r="O561">
+        <v>2.75</v>
+      </c>
+      <c r="P561">
+        <v>3.4</v>
+      </c>
+      <c r="Q561">
+        <v>-0.25</v>
+      </c>
+      <c r="R561">
+        <v>1.95</v>
+      </c>
+      <c r="S561">
+        <v>1.9</v>
+      </c>
+      <c r="T561">
+        <v>1.75</v>
+      </c>
+      <c r="U561">
+        <v>1.8</v>
+      </c>
+      <c r="V561">
+        <v>2.05</v>
+      </c>
+      <c r="W561">
+        <v>0</v>
+      </c>
+      <c r="X561">
+        <v>0</v>
+      </c>
+      <c r="Y561">
+        <v>0</v>
+      </c>
+      <c r="Z561">
+        <v>0</v>
+      </c>
+      <c r="AA561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:27">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>8072379</v>
+      </c>
+      <c r="C562" t="s">
+        <v>28</v>
+      </c>
+      <c r="D562" t="s">
+        <v>28</v>
+      </c>
+      <c r="E562" s="2">
+        <v>45396.78125</v>
+      </c>
+      <c r="F562" t="s">
+        <v>41</v>
+      </c>
+      <c r="G562" t="s">
+        <v>43</v>
+      </c>
+      <c r="K562">
+        <v>2.1</v>
+      </c>
+      <c r="L562">
+        <v>3</v>
+      </c>
+      <c r="M562">
+        <v>3.3</v>
+      </c>
+      <c r="N562">
+        <v>2.15</v>
+      </c>
+      <c r="O562">
+        <v>3</v>
+      </c>
+      <c r="P562">
+        <v>3.2</v>
+      </c>
+      <c r="Q562">
+        <v>-0.25</v>
+      </c>
+      <c r="R562">
+        <v>1.95</v>
+      </c>
+      <c r="S562">
+        <v>1.9</v>
+      </c>
+      <c r="T562">
+        <v>1.75</v>
+      </c>
+      <c r="U562">
+        <v>1.875</v>
+      </c>
+      <c r="V562">
+        <v>1.975</v>
+      </c>
+      <c r="W562">
+        <v>0</v>
+      </c>
+      <c r="X562">
+        <v>0</v>
+      </c>
+      <c r="Y562">
+        <v>0</v>
+      </c>
+      <c r="Z562">
+        <v>0</v>
+      </c>
+      <c r="AA562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:27">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>8072425</v>
+      </c>
+      <c r="C563" t="s">
+        <v>28</v>
+      </c>
+      <c r="D563" t="s">
+        <v>28</v>
+      </c>
+      <c r="E563" s="2">
+        <v>45396.875</v>
+      </c>
+      <c r="F563" t="s">
+        <v>51</v>
+      </c>
+      <c r="G563" t="s">
+        <v>58</v>
+      </c>
+      <c r="K563">
+        <v>1.727</v>
+      </c>
+      <c r="L563">
+        <v>3.4</v>
+      </c>
+      <c r="M563">
+        <v>4.333</v>
+      </c>
+      <c r="N563">
+        <v>2.1</v>
+      </c>
+      <c r="O563">
+        <v>3.1</v>
+      </c>
+      <c r="P563">
+        <v>3.3</v>
+      </c>
+      <c r="Q563">
+        <v>-0.25</v>
+      </c>
+      <c r="R563">
+        <v>1.85</v>
+      </c>
+      <c r="S563">
+        <v>2</v>
+      </c>
+      <c r="T563">
+        <v>1.75</v>
+      </c>
+      <c r="U563">
+        <v>1.775</v>
+      </c>
+      <c r="V563">
+        <v>2.1</v>
+      </c>
+      <c r="W563">
+        <v>0</v>
+      </c>
+      <c r="X563">
+        <v>0</v>
+      </c>
+      <c r="Y563">
+        <v>0</v>
+      </c>
+      <c r="Z563">
+        <v>0</v>
+      </c>
+      <c r="AA563">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC587"/>
+  <dimension ref="A1:AC581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3987,7 +3987,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6150462</v>
+        <v>6150541</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3999,76 +3999,76 @@
         <v>45095.64583333334</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="O39">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4076,7 +4076,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6150541</v>
+        <v>6150462</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4088,76 +4088,76 @@
         <v>45095.64583333334</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4343,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6150858</v>
+        <v>6150461</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4355,31 +4355,31 @@
         <v>45096.625</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>71</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N43">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O43">
         <v>3.1</v>
@@ -4391,22 +4391,22 @@
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
         <v>1.75</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4415,16 +4415,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4432,7 +4432,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150461</v>
+        <v>6150858</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4444,31 +4444,31 @@
         <v>45096.625</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>71</v>
       </c>
       <c r="K44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
+        <v>2.9</v>
+      </c>
+      <c r="M44">
         <v>3</v>
       </c>
-      <c r="M44">
-        <v>3.3</v>
-      </c>
       <c r="N44">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O44">
         <v>3.1</v>
@@ -4480,22 +4480,22 @@
         <v>-0.25</v>
       </c>
       <c r="R44">
+        <v>1.9</v>
+      </c>
+      <c r="S44">
         <v>1.95</v>
-      </c>
-      <c r="S44">
-        <v>1.85</v>
       </c>
       <c r="T44">
         <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4504,16 +4504,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -5767,7 +5767,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6150463</v>
+        <v>6150861</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5779,46 +5779,46 @@
         <v>45102.625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="L59">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="M59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
         <v>2</v>
@@ -5833,16 +5833,16 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>1.075</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6150861</v>
+        <v>6150463</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5868,46 +5868,46 @@
         <v>45102.625</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="M60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T60">
         <v>2</v>
@@ -5922,16 +5922,16 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.5249999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6150886</v>
+        <v>6150885</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11297,76 +11297,76 @@
         <v>45129.625</v>
       </c>
       <c r="F121" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K121">
         <v>2.5</v>
       </c>
       <c r="L121">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
+        <v>1.95</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>1.8</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>2.025</v>
-      </c>
-      <c r="S121">
-        <v>1.775</v>
-      </c>
-      <c r="T121">
-        <v>2</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
-      <c r="V121">
-        <v>1.875</v>
-      </c>
-      <c r="W121">
-        <v>1.05</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>1.025</v>
-      </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11374,7 +11374,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6150885</v>
+        <v>6150886</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11386,76 +11386,76 @@
         <v>45129.625</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K122">
         <v>2.5</v>
       </c>
       <c r="L122">
+        <v>2.875</v>
+      </c>
+      <c r="M122">
+        <v>2.75</v>
+      </c>
+      <c r="N122">
+        <v>2.05</v>
+      </c>
+      <c r="O122">
         <v>3</v>
       </c>
-      <c r="M122">
-        <v>2.625</v>
-      </c>
-      <c r="N122">
-        <v>2.15</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
       <c r="P122">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -15023,7 +15023,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150563</v>
+        <v>6150900</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -15035,13 +15035,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -15050,43 +15050,43 @@
         <v>71</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15095,16 +15095,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15112,7 +15112,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150900</v>
+        <v>6150563</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15124,13 +15124,13 @@
         <v>45144.66666666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15139,43 +15139,43 @@
         <v>71</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15184,16 +15184,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA164">
         <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15379,7 +15379,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6150485</v>
+        <v>6150724</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15391,76 +15391,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>71</v>
+      </c>
+      <c r="K167">
         <v>3</v>
       </c>
-      <c r="J167" t="s">
-        <v>73</v>
-      </c>
-      <c r="K167">
-        <v>2</v>
-      </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="O167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q167">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
         <v>1.75</v>
       </c>
       <c r="U167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15468,7 +15468,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6150724</v>
+        <v>6150485</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15480,76 +15480,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P168">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -21787,7 +21787,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6234807</v>
+        <v>6150926</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21799,76 +21799,76 @@
         <v>45179.625</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K239">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N239">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O239">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P239">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q239">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R239">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21876,7 +21876,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6234808</v>
+        <v>6234807</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21888,58 +21888,58 @@
         <v>45179.625</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>71</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L240">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N240">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O240">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V240">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W240">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21948,16 +21948,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21965,7 +21965,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6150926</v>
+        <v>6234808</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21977,76 +21977,76 @@
         <v>45179.625</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K241">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O241">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q241">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>2</v>
       </c>
       <c r="U241">
+        <v>1.825</v>
+      </c>
+      <c r="V241">
         <v>1.975</v>
       </c>
-      <c r="V241">
-        <v>1.825</v>
-      </c>
       <c r="W241">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X241">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA241">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22143,7 +22143,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6150923</v>
+        <v>6150927</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22155,76 +22155,76 @@
         <v>45179.64583333334</v>
       </c>
       <c r="F243" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G243" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K243">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N243">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
         <v>3.4</v>
       </c>
-      <c r="P243">
-        <v>4</v>
-      </c>
       <c r="Q243">
+        <v>-0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.925</v>
+      </c>
+      <c r="S243">
+        <v>1.875</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>2.025</v>
+      </c>
+      <c r="V243">
+        <v>1.775</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>2.2</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
         <v>-0.5</v>
       </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>2</v>
-      </c>
-      <c r="V243">
-        <v>1.8</v>
-      </c>
-      <c r="W243">
-        <v>0.909</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB243">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC243">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22232,7 +22232,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6150927</v>
+        <v>6150923</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22244,76 +22244,76 @@
         <v>45179.64583333334</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M244">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N244">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X244">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
         <v>-0.5</v>
       </c>
-      <c r="AA244">
-        <v>0.4375</v>
-      </c>
-      <c r="AB244">
-        <v>1.025</v>
-      </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -23122,7 +23122,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6264156</v>
+        <v>7200306</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23134,49 +23134,49 @@
         <v>45185.64583333334</v>
       </c>
       <c r="F254" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="s">
         <v>71</v>
       </c>
       <c r="K254">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L254">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M254">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N254">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O254">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
         <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S254">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T254">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U254">
         <v>1.85</v>
@@ -23185,7 +23185,7 @@
         <v>1.95</v>
       </c>
       <c r="W254">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23194,16 +23194,16 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA254">
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23300,7 +23300,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7200306</v>
+        <v>6264156</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23312,49 +23312,49 @@
         <v>45185.64583333334</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G256" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
         <v>71</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
+        <v>2.75</v>
+      </c>
+      <c r="M256">
+        <v>2.625</v>
+      </c>
+      <c r="N256">
+        <v>2.25</v>
+      </c>
+      <c r="O256">
         <v>2.875</v>
       </c>
-      <c r="M256">
-        <v>3.5</v>
-      </c>
-      <c r="N256">
-        <v>2.2</v>
-      </c>
-      <c r="O256">
-        <v>3.25</v>
-      </c>
       <c r="P256">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q256">
         <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U256">
         <v>1.85</v>
@@ -23363,7 +23363,7 @@
         <v>1.95</v>
       </c>
       <c r="W256">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X256">
         <v>-1</v>
@@ -23372,16 +23372,16 @@
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA256">
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -27572,7 +27572,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6290536</v>
+        <v>6296003</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27584,73 +27584,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G304" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H304">
+        <v>2</v>
+      </c>
+      <c r="I304">
         <v>3</v>
       </c>
-      <c r="I304">
-        <v>0</v>
-      </c>
       <c r="J304" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K304">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M304">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N304">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P304">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R304">
+        <v>2.1</v>
+      </c>
+      <c r="S304">
         <v>1.775</v>
-      </c>
-      <c r="S304">
-        <v>2.025</v>
       </c>
       <c r="T304">
         <v>2.25</v>
       </c>
       <c r="U304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V304">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W304">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z304">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB304">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC304">
         <v>-1</v>
@@ -27661,7 +27661,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6296003</v>
+        <v>6290536</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27673,73 +27673,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G305" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K305">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L305">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
+        <v>4.5</v>
+      </c>
+      <c r="N305">
         <v>1.615</v>
       </c>
-      <c r="N305">
+      <c r="O305">
+        <v>3.6</v>
+      </c>
+      <c r="P305">
         <v>6.5</v>
       </c>
-      <c r="O305">
-        <v>3.75</v>
-      </c>
-      <c r="P305">
-        <v>1.6</v>
-      </c>
       <c r="Q305">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T305">
         <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W305">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X305">
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA305">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC305">
         <v>-1</v>
@@ -28818,7 +28818,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6323477</v>
+        <v>6330566</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28830,10 +28830,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F318" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G318" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -28845,61 +28845,61 @@
         <v>72</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L318">
         <v>3.2</v>
       </c>
       <c r="M318">
+        <v>1.727</v>
+      </c>
+      <c r="N318">
+        <v>3.1</v>
+      </c>
+      <c r="O318">
         <v>3.2</v>
       </c>
-      <c r="N318">
-        <v>1.909</v>
-      </c>
-      <c r="O318">
-        <v>3.3</v>
-      </c>
       <c r="P318">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q318">
+        <v>0.25</v>
+      </c>
+      <c r="R318">
+        <v>1.775</v>
+      </c>
+      <c r="S318">
+        <v>2.025</v>
+      </c>
+      <c r="T318">
+        <v>2.25</v>
+      </c>
+      <c r="U318">
+        <v>1.9</v>
+      </c>
+      <c r="V318">
+        <v>1.9</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
+        <v>2.2</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
+        <v>0.3875</v>
+      </c>
+      <c r="AA318">
         <v>-0.5</v>
       </c>
-      <c r="R318">
-        <v>1.825</v>
-      </c>
-      <c r="S318">
-        <v>1.975</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>1.775</v>
-      </c>
-      <c r="V318">
-        <v>2.025</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>2.3</v>
-      </c>
-      <c r="Y318">
-        <v>-1</v>
-      </c>
-      <c r="Z318">
-        <v>-1</v>
-      </c>
-      <c r="AA318">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB318">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC318">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28996,7 +28996,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6330566</v>
+        <v>6323477</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29008,10 +29008,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G320" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -29023,61 +29023,61 @@
         <v>72</v>
       </c>
       <c r="K320">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L320">
         <v>3.2</v>
       </c>
       <c r="M320">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N320">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
+        <v>1.825</v>
+      </c>
+      <c r="S320">
+        <v>1.975</v>
+      </c>
+      <c r="T320">
+        <v>2</v>
+      </c>
+      <c r="U320">
         <v>1.775</v>
       </c>
-      <c r="S320">
+      <c r="V320">
         <v>2.025</v>
       </c>
-      <c r="T320">
-        <v>2.25</v>
-      </c>
-      <c r="U320">
-        <v>1.9</v>
-      </c>
-      <c r="V320">
-        <v>1.9</v>
-      </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC320">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29708,7 +29708,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7323531</v>
+        <v>6360015</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29720,76 +29720,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F328" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G328" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H328">
         <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K328">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L328">
         <v>3.2</v>
       </c>
       <c r="M328">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N328">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O328">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T328">
         <v>2.25</v>
       </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W328">
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB328">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC328">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29797,7 +29797,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6360015</v>
+        <v>7323531</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29809,76 +29809,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F329" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G329" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H329">
         <v>1</v>
       </c>
       <c r="I329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K329">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L329">
         <v>3.2</v>
       </c>
       <c r="M329">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N329">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P329">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R329">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
       </c>
       <c r="U329">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V329">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W329">
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y329">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29886,7 +29886,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6356449</v>
+        <v>7323530</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29898,19 +29898,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F330" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G330" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K330">
         <v>1.8</v>
@@ -29922,16 +29922,16 @@
         <v>4</v>
       </c>
       <c r="N330">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O330">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P330">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R330">
         <v>1.775</v>
@@ -29940,34 +29940,34 @@
         <v>2.025</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W330">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X330">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
+        <v>0.3875</v>
+      </c>
+      <c r="AA330">
         <v>-0.5</v>
       </c>
-      <c r="AA330">
-        <v>0.5125</v>
-      </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC330">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29975,7 +29975,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7323530</v>
+        <v>6355608</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29987,76 +29987,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F331" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G331" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K331">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S331">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T331">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V331">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z331">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
+        <v>1.075</v>
+      </c>
+      <c r="AB331">
         <v>-0.5</v>
       </c>
-      <c r="AB331">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30064,7 +30064,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6355608</v>
+        <v>6356449</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30076,76 +30076,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G332" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H332">
         <v>0</v>
       </c>
       <c r="I332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K332">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L332">
         <v>3.2</v>
       </c>
       <c r="M332">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N332">
+        <v>2.05</v>
+      </c>
+      <c r="O332">
         <v>3.1</v>
       </c>
-      <c r="O332">
-        <v>3.2</v>
-      </c>
       <c r="P332">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q332">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S332">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
+        <v>1.925</v>
+      </c>
+      <c r="V332">
         <v>1.875</v>
       </c>
-      <c r="V332">
-        <v>1.925</v>
-      </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y332">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA332">
-        <v>1.075</v>
+        <v>0.5125</v>
       </c>
       <c r="AB332">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30598,7 +30598,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7323855</v>
+        <v>6390737</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30610,76 +30610,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F338" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G338" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H338">
         <v>1</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J338" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K338">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L338">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N338">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O338">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P338">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q338">
         <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S338">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T338">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U338">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V338">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X338">
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z338">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -30687,7 +30687,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7311908</v>
+        <v>7323855</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30699,76 +30699,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F339" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G339" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H339">
         <v>1</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K339">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L339">
         <v>3.2</v>
       </c>
       <c r="M339">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N339">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O339">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P339">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q339">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T339">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U339">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V339">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA339">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC339">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30776,7 +30776,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6390738</v>
+        <v>7311908</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30788,73 +30788,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F340" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G340" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H340">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K340">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L340">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M340">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N340">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O340">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P340">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="Q340">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R340">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S340">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T340">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U340">
+        <v>1.925</v>
+      </c>
+      <c r="V340">
         <v>1.875</v>
       </c>
-      <c r="V340">
-        <v>1.925</v>
-      </c>
       <c r="W340">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z340">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB340">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC340">
         <v>-1</v>
@@ -30865,7 +30865,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6390737</v>
+        <v>6390738</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30877,73 +30877,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="F341" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G341" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I341">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K341">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L341">
+        <v>3</v>
+      </c>
+      <c r="M341">
         <v>4</v>
       </c>
-      <c r="M341">
-        <v>5</v>
-      </c>
       <c r="N341">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="O341">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P341">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="Q341">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R341">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S341">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U341">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V341">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA341">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC341">
         <v>-1</v>
@@ -32467,7 +32467,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7514267</v>
+        <v>7503697</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32479,52 +32479,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F359" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G359" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K359">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L359">
         <v>3</v>
       </c>
       <c r="M359">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N359">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O359">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P359">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q359">
         <v>-0.25</v>
       </c>
       <c r="R359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S359">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T359">
         <v>1.75</v>
       </c>
       <c r="U359">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V359">
         <v>2.025</v>
@@ -32533,19 +32533,19 @@
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y359">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB359">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC359">
         <v>-0.5</v>
@@ -32556,7 +32556,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7503697</v>
+        <v>7514267</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32568,52 +32568,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="F360" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G360" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K360">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L360">
         <v>3</v>
       </c>
       <c r="M360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N360">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O360">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P360">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q360">
         <v>-0.25</v>
       </c>
       <c r="R360">
+        <v>1.825</v>
+      </c>
+      <c r="S360">
         <v>1.975</v>
-      </c>
-      <c r="S360">
-        <v>1.875</v>
       </c>
       <c r="T360">
         <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V360">
         <v>2.025</v>
@@ -32622,19 +32622,19 @@
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y360">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB360">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AC360">
         <v>-0.5</v>
@@ -33535,7 +33535,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7698649</v>
+        <v>7698542</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33547,76 +33547,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G371" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K371">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L371">
         <v>2.75</v>
       </c>
       <c r="M371">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N371">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P371">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S371">
         <v>1.775</v>
       </c>
       <c r="T371">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U371">
+        <v>1.775</v>
+      </c>
+      <c r="V371">
         <v>2.025</v>
       </c>
-      <c r="V371">
-        <v>1.825</v>
-      </c>
       <c r="W371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X371">
         <v>-1</v>
       </c>
       <c r="Y371">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA371">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33624,7 +33624,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7698542</v>
+        <v>7698649</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33636,76 +33636,76 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F372" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K372">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L372">
         <v>2.75</v>
       </c>
       <c r="M372">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N372">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O372">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P372">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R372">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S372">
         <v>1.775</v>
       </c>
       <c r="T372">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U372">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z372">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33802,7 +33802,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7698543</v>
+        <v>7698358</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33814,76 +33814,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G374" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K374">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L374">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M374">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N374">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O374">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P374">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q374">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R374">
+        <v>2.05</v>
+      </c>
+      <c r="S374">
         <v>1.75</v>
       </c>
-      <c r="S374">
-        <v>2.05</v>
-      </c>
       <c r="T374">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U374">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V374">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X374">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA374">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC374">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33891,7 +33891,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7719052</v>
+        <v>7698641</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33903,76 +33903,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G375" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K375">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L375">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M375">
         <v>4.5</v>
       </c>
       <c r="N375">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O375">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P375">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R375">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S375">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T375">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U375">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y375">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
         <v>-1</v>
       </c>
       <c r="AA375">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC375">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33980,7 +33980,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7698358</v>
+        <v>7698543</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33992,76 +33992,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G376" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K376">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L376">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M376">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N376">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O376">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P376">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q376">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R376">
+        <v>1.75</v>
+      </c>
+      <c r="S376">
         <v>2.05</v>
       </c>
-      <c r="S376">
-        <v>1.75</v>
-      </c>
       <c r="T376">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U376">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V376">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W376">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X376">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y376">
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB376">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC376">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34069,7 +34069,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7698641</v>
+        <v>7719052</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34081,76 +34081,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G377" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377">
         <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K377">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L377">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M377">
         <v>4.5</v>
       </c>
       <c r="N377">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="O377">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P377">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q377">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
+        <v>2.025</v>
+      </c>
+      <c r="S377">
+        <v>1.775</v>
+      </c>
+      <c r="T377">
+        <v>1.75</v>
+      </c>
+      <c r="U377">
+        <v>1.95</v>
+      </c>
+      <c r="V377">
         <v>1.85</v>
       </c>
-      <c r="S377">
-        <v>1.95</v>
-      </c>
-      <c r="T377">
-        <v>2</v>
-      </c>
-      <c r="U377">
-        <v>2</v>
-      </c>
-      <c r="V377">
-        <v>1.8</v>
-      </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z377">
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB377">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34514,7 +34514,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7702211</v>
+        <v>7698357</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34526,55 +34526,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F382" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G382" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382" t="s">
         <v>72</v>
       </c>
       <c r="K382">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L382">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M382">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N382">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="O382">
         <v>2.875</v>
       </c>
       <c r="P382">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q382">
         <v>0</v>
       </c>
       <c r="R382">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S382">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T382">
         <v>1.75</v>
       </c>
       <c r="U382">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V382">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34592,10 +34592,10 @@
         <v>-0</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC382">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34603,7 +34603,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7702210</v>
+        <v>7698659</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34615,76 +34615,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G383" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H383">
         <v>0</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J383" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K383">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L383">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M383">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N383">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O383">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P383">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q383">
         <v>-0.75</v>
       </c>
       <c r="R383">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S383">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T383">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U383">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V383">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W383">
         <v>-1</v>
       </c>
       <c r="X383">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB383">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC383">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34781,7 +34781,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7698659</v>
+        <v>7702210</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34793,76 +34793,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G385" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="H385">
         <v>0</v>
       </c>
       <c r="I385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J385" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K385">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L385">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M385">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N385">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O385">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q385">
         <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S385">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T385">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U385">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V385">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W385">
         <v>-1</v>
       </c>
       <c r="X385">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y385">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB385">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC385">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34870,7 +34870,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7698357</v>
+        <v>7702211</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34882,55 +34882,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F386" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G386" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="s">
         <v>72</v>
       </c>
       <c r="K386">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L386">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M386">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N386">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O386">
         <v>2.875</v>
       </c>
       <c r="P386">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q386">
         <v>0</v>
       </c>
       <c r="R386">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S386">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
         <v>1.75</v>
       </c>
       <c r="U386">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V386">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W386">
         <v>-1</v>
@@ -34948,10 +34948,10 @@
         <v>-0</v>
       </c>
       <c r="AB386">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC386">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="387" spans="1:29">
@@ -35137,7 +35137,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698658</v>
+        <v>7698657</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35149,76 +35149,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F389" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G389" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389">
         <v>0</v>
       </c>
       <c r="J389" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K389">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L389">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M389">
+        <v>2.375</v>
+      </c>
+      <c r="N389">
+        <v>2.9</v>
+      </c>
+      <c r="O389">
+        <v>3.3</v>
+      </c>
+      <c r="P389">
         <v>2.5</v>
       </c>
-      <c r="N389">
-        <v>2.8</v>
-      </c>
-      <c r="O389">
-        <v>2.9</v>
-      </c>
-      <c r="P389">
-        <v>2.8</v>
-      </c>
       <c r="Q389">
         <v>0</v>
       </c>
       <c r="R389">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S389">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T389">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U389">
         <v>1.9</v>
       </c>
       <c r="V389">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W389">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X389">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB389">
         <v>-1</v>
       </c>
       <c r="AC389">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35226,7 +35226,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698657</v>
+        <v>7698658</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35238,76 +35238,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F390" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G390" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I390">
         <v>0</v>
       </c>
       <c r="J390" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K390">
+        <v>3</v>
+      </c>
+      <c r="L390">
         <v>2.75</v>
       </c>
-      <c r="L390">
-        <v>3.1</v>
-      </c>
       <c r="M390">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N390">
+        <v>2.8</v>
+      </c>
+      <c r="O390">
         <v>2.9</v>
       </c>
-      <c r="O390">
-        <v>3.3</v>
-      </c>
       <c r="P390">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q390">
         <v>0</v>
       </c>
       <c r="R390">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S390">
+        <v>1.95</v>
+      </c>
+      <c r="T390">
         <v>1.75</v>
-      </c>
-      <c r="T390">
-        <v>2</v>
       </c>
       <c r="U390">
         <v>1.9</v>
       </c>
       <c r="V390">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X390">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
       </c>
       <c r="Z390">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA390">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB390">
         <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="391" spans="1:29">
@@ -35404,7 +35404,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698662</v>
+        <v>7698545</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35416,10 +35416,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F392" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G392" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -35431,31 +35431,31 @@
         <v>71</v>
       </c>
       <c r="K392">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L392">
+        <v>3</v>
+      </c>
+      <c r="M392">
         <v>2.75</v>
-      </c>
-      <c r="M392">
-        <v>3.75</v>
       </c>
       <c r="N392">
         <v>2.1</v>
       </c>
       <c r="O392">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P392">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q392">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R392">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="S392">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T392">
         <v>1.75</v>
@@ -35464,7 +35464,7 @@
         <v>1.775</v>
       </c>
       <c r="V392">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W392">
         <v>1.1</v>
@@ -35476,7 +35476,7 @@
         <v>-1</v>
       </c>
       <c r="Z392">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA392">
         <v>-1</v>
@@ -35485,7 +35485,7 @@
         <v>-1</v>
       </c>
       <c r="AC392">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="393" spans="1:29">
@@ -35493,7 +35493,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698545</v>
+        <v>7698662</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35505,10 +35505,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="F393" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G393" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="H393">
         <v>1</v>
@@ -35520,31 +35520,31 @@
         <v>71</v>
       </c>
       <c r="K393">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L393">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M393">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N393">
         <v>2.1</v>
       </c>
       <c r="O393">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P393">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q393">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R393">
+        <v>2.1</v>
+      </c>
+      <c r="S393">
         <v>1.775</v>
-      </c>
-      <c r="S393">
-        <v>2.025</v>
       </c>
       <c r="T393">
         <v>1.75</v>
@@ -35553,7 +35553,7 @@
         <v>1.775</v>
       </c>
       <c r="V393">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W393">
         <v>1.1</v>
@@ -35565,7 +35565,7 @@
         <v>-1</v>
       </c>
       <c r="Z393">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA393">
         <v>-1</v>
@@ -35574,7 +35574,7 @@
         <v>-1</v>
       </c>
       <c r="AC393">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="394" spans="1:29">
@@ -35671,7 +35671,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35683,76 +35683,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H395">
         <v>1</v>
       </c>
       <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395" t="s">
+        <v>72</v>
+      </c>
+      <c r="K395">
+        <v>2.5</v>
+      </c>
+      <c r="L395">
+        <v>2.75</v>
+      </c>
+      <c r="M395">
         <v>3</v>
       </c>
-      <c r="J395" t="s">
-        <v>73</v>
-      </c>
-      <c r="K395">
-        <v>3.4</v>
-      </c>
-      <c r="L395">
+      <c r="N395">
+        <v>2.55</v>
+      </c>
+      <c r="O395">
         <v>2.875</v>
       </c>
-      <c r="M395">
-        <v>2.2</v>
-      </c>
-      <c r="N395">
-        <v>2.45</v>
-      </c>
-      <c r="O395">
-        <v>2.8</v>
-      </c>
       <c r="P395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q395">
         <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S395">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T395">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U395">
+        <v>1.8</v>
+      </c>
+      <c r="V395">
         <v>2.05</v>
       </c>
-      <c r="V395">
-        <v>1.8</v>
-      </c>
       <c r="W395">
         <v>-1</v>
       </c>
       <c r="X395">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA395">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB395">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35760,7 +35760,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35772,76 +35772,76 @@
         <v>45333.79166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G396" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H396">
         <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J396" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K396">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L396">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M396">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N396">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P396">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q396">
         <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="S396">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U396">
+        <v>2.05</v>
+      </c>
+      <c r="V396">
         <v>1.8</v>
       </c>
-      <c r="V396">
-        <v>2.05</v>
-      </c>
       <c r="W396">
         <v>-1</v>
       </c>
       <c r="X396">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB396">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35849,7 +35849,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35861,76 +35861,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G397" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K397">
         <v>2.2</v>
       </c>
       <c r="L397">
+        <v>3.1</v>
+      </c>
+      <c r="M397">
         <v>3</v>
       </c>
-      <c r="M397">
-        <v>3.2</v>
-      </c>
       <c r="N397">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O397">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P397">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q397">
         <v>-0.5</v>
       </c>
       <c r="R397">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S397">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T397">
         <v>2</v>
       </c>
       <c r="U397">
+        <v>1.875</v>
+      </c>
+      <c r="V397">
         <v>1.925</v>
       </c>
-      <c r="V397">
-        <v>1.875</v>
-      </c>
       <c r="W397">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X397">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y397">
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB397">
+        <v>-1</v>
+      </c>
+      <c r="AC397">
         <v>0.925</v>
-      </c>
-      <c r="AC397">
-        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35938,7 +35938,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35950,76 +35950,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G398" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K398">
         <v>2.2</v>
       </c>
       <c r="L398">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M398">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N398">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O398">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P398">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q398">
         <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S398">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T398">
         <v>2</v>
       </c>
       <c r="U398">
+        <v>1.925</v>
+      </c>
+      <c r="V398">
         <v>1.875</v>
       </c>
-      <c r="V398">
-        <v>1.925</v>
-      </c>
       <c r="W398">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X398">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA398">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC398">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36383,7 +36383,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7698666</v>
+        <v>7702208</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36395,76 +36395,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F403" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G403" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J403" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K403">
         <v>2.5</v>
       </c>
       <c r="L403">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M403">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N403">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O403">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P403">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q403">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R403">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S403">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T403">
         <v>1.75</v>
       </c>
       <c r="U403">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V403">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W403">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X403">
         <v>-1</v>
       </c>
       <c r="Y403">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z403">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA403">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB403">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC403">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36472,7 +36472,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7702208</v>
+        <v>7698666</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36484,76 +36484,76 @@
         <v>45339.72916666666</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G404" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K404">
         <v>2.5</v>
       </c>
       <c r="L404">
+        <v>2.875</v>
+      </c>
+      <c r="M404">
+        <v>2.875</v>
+      </c>
+      <c r="N404">
+        <v>2.7</v>
+      </c>
+      <c r="O404">
+        <v>2.875</v>
+      </c>
+      <c r="P404">
         <v>3</v>
       </c>
-      <c r="M404">
-        <v>2.75</v>
-      </c>
-      <c r="N404">
-        <v>2.3</v>
-      </c>
-      <c r="O404">
-        <v>3</v>
-      </c>
-      <c r="P404">
-        <v>3.5</v>
-      </c>
       <c r="Q404">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R404">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S404">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T404">
         <v>1.75</v>
       </c>
       <c r="U404">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V404">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W404">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X404">
         <v>-1</v>
       </c>
       <c r="Y404">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z404">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB404">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC404">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36917,7 +36917,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698668</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36929,10 +36929,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F409" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G409" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -36944,43 +36944,43 @@
         <v>71</v>
       </c>
       <c r="K409">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L409">
         <v>2.9</v>
       </c>
       <c r="M409">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N409">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="O409">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P409">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S409">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U409">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V409">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W409">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X409">
         <v>-1</v>
@@ -36989,7 +36989,7 @@
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA409">
         <v>-1</v>
@@ -36998,7 +36998,7 @@
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37006,7 +37006,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698668</v>
+        <v>7698667</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -37018,13 +37018,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F410" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G410" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410">
         <v>0</v>
@@ -37033,43 +37033,43 @@
         <v>71</v>
       </c>
       <c r="K410">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L410">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M410">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N410">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O410">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P410">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q410">
         <v>-0.25</v>
       </c>
       <c r="R410">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S410">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T410">
         <v>2</v>
       </c>
       <c r="U410">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V410">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W410">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X410">
         <v>-1</v>
@@ -37078,16 +37078,16 @@
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA410">
         <v>-1</v>
       </c>
       <c r="AB410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC410">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37095,7 +37095,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698667</v>
+        <v>7698356</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37107,13 +37107,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="F411" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G411" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411">
         <v>0</v>
@@ -37122,43 +37122,43 @@
         <v>71</v>
       </c>
       <c r="K411">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L411">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M411">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N411">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O411">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P411">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q411">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S411">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T411">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U411">
+        <v>2</v>
+      </c>
+      <c r="V411">
         <v>1.8</v>
       </c>
-      <c r="V411">
-        <v>2</v>
-      </c>
       <c r="W411">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="X411">
         <v>-1</v>
@@ -37167,16 +37167,16 @@
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA411">
         <v>-1</v>
       </c>
       <c r="AB411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37273,7 +37273,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37285,16 +37285,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F413" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>71</v>
@@ -37309,34 +37309,34 @@
         <v>4</v>
       </c>
       <c r="N413">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O413">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P413">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S413">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T413">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U413">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V413">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37345,16 +37345,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC413">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37362,7 +37362,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37374,16 +37374,16 @@
         <v>45340.79166666666</v>
       </c>
       <c r="F414" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G414" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="s">
         <v>71</v>
@@ -37398,34 +37398,34 @@
         <v>4</v>
       </c>
       <c r="N414">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O414">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P414">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q414">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S414">
+        <v>2</v>
+      </c>
+      <c r="T414">
         <v>1.75</v>
       </c>
-      <c r="T414">
-        <v>2</v>
-      </c>
       <c r="U414">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V414">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W414">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X414">
         <v>-1</v>
@@ -37434,16 +37434,16 @@
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA414">
         <v>-1</v>
       </c>
       <c r="AB414">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -39587,7 +39587,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7698703</v>
+        <v>7698693</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39599,76 +39599,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F439" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G439" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J439" t="s">
         <v>72</v>
       </c>
       <c r="K439">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L439">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M439">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N439">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O439">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P439">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q439">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R439">
+        <v>2</v>
+      </c>
+      <c r="S439">
         <v>1.8</v>
-      </c>
-      <c r="S439">
-        <v>2</v>
       </c>
       <c r="T439">
         <v>1.75</v>
       </c>
       <c r="U439">
+        <v>1.95</v>
+      </c>
+      <c r="V439">
         <v>1.85</v>
       </c>
-      <c r="V439">
-        <v>1.95</v>
-      </c>
       <c r="W439">
         <v>-1</v>
       </c>
       <c r="X439">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y439">
         <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB439">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC439">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39676,7 +39676,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698693</v>
+        <v>7698703</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39688,76 +39688,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G440" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J440" t="s">
         <v>72</v>
       </c>
       <c r="K440">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L440">
+        <v>3</v>
+      </c>
+      <c r="M440">
+        <v>4</v>
+      </c>
+      <c r="N440">
+        <v>2.2</v>
+      </c>
+      <c r="O440">
         <v>2.875</v>
       </c>
-      <c r="M440">
-        <v>3.75</v>
-      </c>
-      <c r="N440">
-        <v>2</v>
-      </c>
-      <c r="O440">
-        <v>2.9</v>
-      </c>
       <c r="P440">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q440">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R440">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S440">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T440">
         <v>1.75</v>
       </c>
       <c r="U440">
+        <v>1.85</v>
+      </c>
+      <c r="V440">
         <v>1.95</v>
       </c>
-      <c r="V440">
-        <v>1.85</v>
-      </c>
       <c r="W440">
         <v>-1</v>
       </c>
       <c r="X440">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="Y440">
         <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA440">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB440">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC440">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39854,7 +39854,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7698354</v>
+        <v>7698696</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39866,34 +39866,34 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G442" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H442">
         <v>1</v>
       </c>
       <c r="I442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J442" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K442">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L442">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M442">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N442">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O442">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P442">
         <v>4.75</v>
@@ -39902,40 +39902,40 @@
         <v>-0.5</v>
       </c>
       <c r="R442">
+        <v>1.925</v>
+      </c>
+      <c r="S442">
+        <v>1.875</v>
+      </c>
+      <c r="T442">
+        <v>2</v>
+      </c>
+      <c r="U442">
+        <v>2</v>
+      </c>
+      <c r="V442">
         <v>1.8</v>
       </c>
-      <c r="S442">
-        <v>2</v>
-      </c>
-      <c r="T442">
-        <v>1.75</v>
-      </c>
-      <c r="U442">
-        <v>1.75</v>
-      </c>
-      <c r="V442">
-        <v>2.05</v>
-      </c>
       <c r="W442">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X442">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y442">
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA442">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB442">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC442">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -40032,7 +40032,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7698697</v>
+        <v>7698354</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40044,76 +40044,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F444" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G444" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H444">
         <v>1</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J444" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K444">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L444">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M444">
         <v>4.5</v>
       </c>
       <c r="N444">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O444">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P444">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q444">
         <v>-0.5</v>
       </c>
       <c r="R444">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S444">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T444">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U444">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V444">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA444">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40121,7 +40121,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698700</v>
+        <v>7698697</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40133,49 +40133,49 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F445" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G445" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K445">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L445">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M445">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N445">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O445">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="P445">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q445">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R445">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S445">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T445">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U445">
         <v>1.8</v>
@@ -40187,22 +40187,22 @@
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC445">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40210,7 +40210,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698696</v>
+        <v>7698700</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40222,76 +40222,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="F446" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G446" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446" t="s">
         <v>72</v>
       </c>
       <c r="K446">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L446">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M446">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N446">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O446">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P446">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q446">
+        <v>-0.25</v>
+      </c>
+      <c r="R446">
+        <v>1.75</v>
+      </c>
+      <c r="S446">
+        <v>2.05</v>
+      </c>
+      <c r="T446">
+        <v>1.75</v>
+      </c>
+      <c r="U446">
+        <v>1.8</v>
+      </c>
+      <c r="V446">
+        <v>2</v>
+      </c>
+      <c r="W446">
+        <v>-1</v>
+      </c>
+      <c r="X446">
+        <v>1.8</v>
+      </c>
+      <c r="Y446">
+        <v>-1</v>
+      </c>
+      <c r="Z446">
         <v>-0.5</v>
       </c>
-      <c r="R446">
-        <v>1.925</v>
-      </c>
-      <c r="S446">
-        <v>1.875</v>
-      </c>
-      <c r="T446">
-        <v>2</v>
-      </c>
-      <c r="U446">
-        <v>2</v>
-      </c>
-      <c r="V446">
-        <v>1.8</v>
-      </c>
-      <c r="W446">
-        <v>-1</v>
-      </c>
-      <c r="X446">
-        <v>2.1</v>
-      </c>
-      <c r="Y446">
-        <v>-1</v>
-      </c>
-      <c r="Z446">
-        <v>-1</v>
-      </c>
       <c r="AA446">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB446">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC446">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -41100,7 +41100,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>7698712</v>
+        <v>7702203</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41112,76 +41112,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F456" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G456" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="s">
         <v>72</v>
       </c>
       <c r="K456">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L456">
         <v>3</v>
       </c>
       <c r="M456">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N456">
+        <v>2.625</v>
+      </c>
+      <c r="O456">
+        <v>3.1</v>
+      </c>
+      <c r="P456">
+        <v>2.875</v>
+      </c>
+      <c r="Q456">
+        <v>0</v>
+      </c>
+      <c r="R456">
+        <v>1.825</v>
+      </c>
+      <c r="S456">
+        <v>1.975</v>
+      </c>
+      <c r="T456">
+        <v>2</v>
+      </c>
+      <c r="U456">
+        <v>1.95</v>
+      </c>
+      <c r="V456">
         <v>1.85</v>
       </c>
-      <c r="O456">
-        <v>3.2</v>
-      </c>
-      <c r="P456">
-        <v>4.75</v>
-      </c>
-      <c r="Q456">
-        <v>-0.5</v>
-      </c>
-      <c r="R456">
-        <v>1.85</v>
-      </c>
-      <c r="S456">
-        <v>1.95</v>
-      </c>
-      <c r="T456">
-        <v>1.75</v>
-      </c>
-      <c r="U456">
-        <v>1.925</v>
-      </c>
-      <c r="V456">
-        <v>1.875</v>
-      </c>
       <c r="W456">
         <v>-1</v>
       </c>
       <c r="X456">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA456">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC456">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="457" spans="1:29">
@@ -41189,7 +41189,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7702203</v>
+        <v>7698712</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41201,76 +41201,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="F457" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G457" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>72</v>
       </c>
       <c r="K457">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L457">
         <v>3</v>
       </c>
       <c r="M457">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N457">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O457">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P457">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q457">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R457">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S457">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T457">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U457">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V457">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W457">
         <v>-1</v>
       </c>
       <c r="X457">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y457">
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA457">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41812,7 +41812,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698705</v>
+        <v>7698711</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41824,34 +41824,34 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G464" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K464">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L464">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M464">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N464">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P464">
         <v>3.4</v>
@@ -41860,10 +41860,10 @@
         <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
         <v>1.75</v>
@@ -41875,19 +41875,19 @@
         <v>2.025</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X464">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA464">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
         <v>0.7749999999999999</v>
@@ -41901,7 +41901,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698711</v>
+        <v>7698558</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41913,76 +41913,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F465" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G465" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H465">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465">
         <v>1</v>
       </c>
       <c r="J465" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K465">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L465">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M465">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N465">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O465">
         <v>3.1</v>
       </c>
       <c r="P465">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S465">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T465">
         <v>1.75</v>
       </c>
       <c r="U465">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W465">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X465">
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z465">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA465">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB465">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41990,7 +41990,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698558</v>
+        <v>7698705</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -42002,40 +42002,40 @@
         <v>45361.70833333334</v>
       </c>
       <c r="F466" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G466" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J466" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K466">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L466">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M466">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N466">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O466">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P466">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q466">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R466">
         <v>1.925</v>
@@ -42047,31 +42047,31 @@
         <v>1.75</v>
       </c>
       <c r="U466">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V466">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W466">
         <v>-1</v>
       </c>
       <c r="X466">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y466">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA466">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC466">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -44482,7 +44482,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7698731</v>
+        <v>7698735</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44494,13 +44494,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F494" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G494" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494">
         <v>0</v>
@@ -44509,43 +44509,43 @@
         <v>71</v>
       </c>
       <c r="K494">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L494">
+        <v>2.8</v>
+      </c>
+      <c r="M494">
         <v>2.875</v>
       </c>
-      <c r="M494">
-        <v>2.5</v>
-      </c>
       <c r="N494">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O494">
         <v>2.875</v>
       </c>
       <c r="P494">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q494">
         <v>0</v>
       </c>
       <c r="R494">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S494">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T494">
         <v>1.75</v>
       </c>
       <c r="U494">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W494">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="X494">
         <v>-1</v>
@@ -44554,16 +44554,16 @@
         <v>-1</v>
       </c>
       <c r="Z494">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA494">
         <v>-1</v>
       </c>
       <c r="AB494">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC494">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -44571,7 +44571,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7698735</v>
+        <v>7702199</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -44583,73 +44583,73 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F495" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G495" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J495" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K495">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L495">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M495">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N495">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O495">
         <v>2.875</v>
       </c>
       <c r="P495">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q495">
         <v>0</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S495">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T495">
         <v>1.75</v>
       </c>
       <c r="U495">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V495">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W495">
+        <v>-1</v>
+      </c>
+      <c r="X495">
         <v>1.875</v>
       </c>
-      <c r="X495">
-        <v>-1</v>
-      </c>
       <c r="Y495">
         <v>-1</v>
       </c>
       <c r="Z495">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA495">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB495">
-        <v>0.4125</v>
+        <v>0.375</v>
       </c>
       <c r="AC495">
         <v>-0.5</v>
@@ -44660,7 +44660,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7702199</v>
+        <v>7698731</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -44672,76 +44672,76 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F496" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G496" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H496">
         <v>1</v>
       </c>
       <c r="I496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J496" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K496">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L496">
         <v>2.875</v>
       </c>
       <c r="M496">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N496">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O496">
         <v>2.875</v>
       </c>
       <c r="P496">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q496">
         <v>0</v>
       </c>
       <c r="R496">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S496">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T496">
         <v>1.75</v>
       </c>
       <c r="U496">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V496">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W496">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X496">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y496">
         <v>-1</v>
       </c>
       <c r="Z496">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA496">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB496">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC496">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="497" spans="1:29">
@@ -49021,7 +49021,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7698765</v>
+        <v>7698349</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -49033,76 +49033,76 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F545" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G545" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H545">
         <v>2</v>
       </c>
       <c r="I545">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J545" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K545">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L545">
         <v>2.75</v>
       </c>
       <c r="M545">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N545">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O545">
         <v>3</v>
       </c>
       <c r="P545">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q545">
         <v>-0.25</v>
       </c>
       <c r="R545">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S545">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T545">
         <v>1.75</v>
       </c>
       <c r="U545">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V545">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W545">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X545">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y545">
         <v>-1</v>
       </c>
       <c r="Z545">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA545">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB545">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC545">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:29">
@@ -49110,7 +49110,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7698349</v>
+        <v>7698765</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49122,76 +49122,76 @@
         <v>45389.70833333334</v>
       </c>
       <c r="F546" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G546" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H546">
         <v>2</v>
       </c>
       <c r="I546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J546" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K546">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L546">
         <v>2.75</v>
       </c>
       <c r="M546">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N546">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O546">
         <v>3</v>
       </c>
       <c r="P546">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q546">
         <v>-0.25</v>
       </c>
       <c r="R546">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S546">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T546">
         <v>1.75</v>
       </c>
       <c r="U546">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V546">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W546">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X546">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y546">
         <v>-1</v>
       </c>
       <c r="Z546">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA546">
+        <v>-1</v>
+      </c>
+      <c r="AB546">
+        <v>0.4875</v>
+      </c>
+      <c r="AC546">
         <v>-0.5</v>
-      </c>
-      <c r="AA546">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB546">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC546">
-        <v>-1</v>
       </c>
     </row>
     <row r="547" spans="1:29">
@@ -50623,7 +50623,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8072432</v>
+        <v>8072421</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50635,76 +50635,76 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G563" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H563">
         <v>1</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J563" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K563">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L563">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M563">
         <v>3.5</v>
       </c>
       <c r="N563">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O563">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P563">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q563">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R563">
+        <v>1.775</v>
+      </c>
+      <c r="S563">
+        <v>2.1</v>
+      </c>
+      <c r="T563">
+        <v>2</v>
+      </c>
+      <c r="U563">
+        <v>2.05</v>
+      </c>
+      <c r="V563">
         <v>1.8</v>
       </c>
-      <c r="S563">
-        <v>2</v>
-      </c>
-      <c r="T563">
-        <v>1.75</v>
-      </c>
-      <c r="U563">
-        <v>1.975</v>
-      </c>
-      <c r="V563">
-        <v>1.825</v>
-      </c>
       <c r="W563">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y563">
         <v>-1</v>
       </c>
       <c r="Z563">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA563">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC563">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50712,7 +50712,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>8072421</v>
+        <v>8072432</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50724,76 +50724,76 @@
         <v>45396.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G564" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H564">
         <v>1</v>
       </c>
       <c r="I564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J564" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K564">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L564">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M564">
         <v>3.5</v>
       </c>
       <c r="N564">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O564">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P564">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q564">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R564">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S564">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T564">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U564">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V564">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W564">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X564">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y564">
         <v>-1</v>
       </c>
       <c r="Z564">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA564">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB564">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC564">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -51246,7 +51246,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>7698789</v>
+        <v>7702191</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51255,49 +51255,49 @@
         <v>28</v>
       </c>
       <c r="E570" s="2">
-        <v>45402.58333333334</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F570" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G570" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K570">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L570">
         <v>2.75</v>
       </c>
       <c r="M570">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N570">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O570">
         <v>3</v>
       </c>
       <c r="P570">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q570">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R570">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S570">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T570">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U570">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V570">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W570">
         <v>0</v>
@@ -51320,7 +51320,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>7698781</v>
+        <v>7698791</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51329,49 +51329,49 @@
         <v>28</v>
       </c>
       <c r="E571" s="2">
-        <v>45402.625</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F571" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G571" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K571">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L571">
         <v>2.75</v>
       </c>
       <c r="M571">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N571">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O571">
         <v>3.1</v>
       </c>
       <c r="P571">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q571">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R571">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S571">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T571">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U571">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V571">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W571">
         <v>0</v>
@@ -51394,7 +51394,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>7698790</v>
+        <v>7698783</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51403,28 +51403,28 @@
         <v>28</v>
       </c>
       <c r="E572" s="2">
-        <v>45402.64583333334</v>
+        <v>45403.54166666666</v>
       </c>
       <c r="F572" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G572" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K572">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L572">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M572">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N572">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O572">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P572">
         <v>3</v>
@@ -51442,10 +51442,10 @@
         <v>1.75</v>
       </c>
       <c r="U572">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V572">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W572">
         <v>0</v>
@@ -51468,7 +51468,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>7698787</v>
+        <v>7698782</v>
       </c>
       <c r="C573" t="s">
         <v>28</v>
@@ -51477,49 +51477,49 @@
         <v>28</v>
       </c>
       <c r="E573" s="2">
-        <v>45402.79513888889</v>
+        <v>45403.64583333334</v>
       </c>
       <c r="F573" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G573" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K573">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L573">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M573">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N573">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O573">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P573">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q573">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R573">
+        <v>1.775</v>
+      </c>
+      <c r="S573">
+        <v>2.1</v>
+      </c>
+      <c r="T573">
+        <v>2</v>
+      </c>
+      <c r="U573">
         <v>1.95</v>
       </c>
-      <c r="S573">
+      <c r="V573">
         <v>1.9</v>
-      </c>
-      <c r="T573">
-        <v>2</v>
-      </c>
-      <c r="U573">
-        <v>1.9</v>
-      </c>
-      <c r="V573">
-        <v>1.95</v>
       </c>
       <c r="W573">
         <v>0</v>
@@ -51542,7 +51542,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>7702190</v>
+        <v>7698785</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51551,49 +51551,49 @@
         <v>28</v>
       </c>
       <c r="E574" s="2">
-        <v>45402.83333333334</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F574" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G574" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K574">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L574">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M574">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N574">
         <v>2.2</v>
       </c>
       <c r="O574">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P574">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q574">
         <v>-0.25</v>
       </c>
       <c r="R574">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S574">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T574">
         <v>2</v>
       </c>
       <c r="U574">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V574">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W574">
         <v>0</v>
@@ -51616,7 +51616,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>7698784</v>
+        <v>7698347</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51625,49 +51625,49 @@
         <v>28</v>
       </c>
       <c r="E575" s="2">
-        <v>45403.47916666666</v>
+        <v>45403.66666666666</v>
       </c>
       <c r="F575" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G575" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K575">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L575">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M575">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N575">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O575">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P575">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q575">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R575">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S575">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T575">
         <v>1.75</v>
       </c>
       <c r="U575">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V575">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W575">
         <v>0</v>
@@ -51690,7 +51690,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>7702191</v>
+        <v>7698792</v>
       </c>
       <c r="C576" t="s">
         <v>28</v>
@@ -51699,28 +51699,28 @@
         <v>28</v>
       </c>
       <c r="E576" s="2">
-        <v>45403.54166666666</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F576" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G576" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K576">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L576">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M576">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N576">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O576">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P576">
         <v>3.6</v>
@@ -51729,19 +51729,19 @@
         <v>-0.25</v>
       </c>
       <c r="R576">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S576">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T576">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U576">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V576">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W576">
         <v>0</v>
@@ -51764,7 +51764,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>7698791</v>
+        <v>7698786</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51773,49 +51773,49 @@
         <v>28</v>
       </c>
       <c r="E577" s="2">
-        <v>45403.54166666666</v>
+        <v>45403.83333333334</v>
       </c>
       <c r="F577" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G577" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K577">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L577">
         <v>2.75</v>
       </c>
       <c r="M577">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N577">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O577">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P577">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q577">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R577">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S577">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T577">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U577">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V577">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W577">
         <v>0</v>
@@ -51838,7 +51838,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>7698783</v>
+        <v>7698788</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51847,40 +51847,40 @@
         <v>28</v>
       </c>
       <c r="E578" s="2">
-        <v>45403.54166666666</v>
+        <v>45404.625</v>
       </c>
       <c r="F578" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G578" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K578">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L578">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M578">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N578">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="O578">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P578">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q578">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R578">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S578">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T578">
         <v>1.75</v>
@@ -51912,7 +51912,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7698782</v>
+        <v>7698779</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51921,49 +51921,49 @@
         <v>28</v>
       </c>
       <c r="E579" s="2">
-        <v>45403.64583333334</v>
+        <v>45404.625</v>
       </c>
       <c r="F579" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G579" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K579">
         <v>1.909</v>
       </c>
       <c r="L579">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M579">
+        <v>4.2</v>
+      </c>
+      <c r="N579">
+        <v>2.2</v>
+      </c>
+      <c r="O579">
+        <v>3</v>
+      </c>
+      <c r="P579">
         <v>4</v>
-      </c>
-      <c r="N579">
-        <v>2.25</v>
-      </c>
-      <c r="O579">
-        <v>3.1</v>
-      </c>
-      <c r="P579">
-        <v>3.6</v>
       </c>
       <c r="Q579">
         <v>-0.25</v>
       </c>
       <c r="R579">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S579">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T579">
         <v>2</v>
       </c>
       <c r="U579">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V579">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W579">
         <v>0</v>
@@ -51986,7 +51986,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>7698785</v>
+        <v>7698780</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -51995,49 +51995,49 @@
         <v>28</v>
       </c>
       <c r="E580" s="2">
-        <v>45403.66666666666</v>
+        <v>45404.88194444445</v>
       </c>
       <c r="F580" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G580" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K580">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L580">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M580">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N580">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O580">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P580">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q580">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R580">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S580">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T580">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U580">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V580">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W580">
         <v>0</v>
@@ -52060,7 +52060,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>7698347</v>
+        <v>8090085</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52069,49 +52069,49 @@
         <v>28</v>
       </c>
       <c r="E581" s="2">
-        <v>45403.66666666666</v>
+        <v>45405.79166666666</v>
       </c>
       <c r="F581" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G581" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K581">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L581">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M581">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N581">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O581">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P581">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q581">
         <v>-0.5</v>
       </c>
       <c r="R581">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S581">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T581">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U581">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V581">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W581">
         <v>0</v>
@@ -52126,450 +52126,6 @@
         <v>0</v>
       </c>
       <c r="AA581">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:27">
-      <c r="A582" s="1">
-        <v>580</v>
-      </c>
-      <c r="B582">
-        <v>7698792</v>
-      </c>
-      <c r="C582" t="s">
-        <v>28</v>
-      </c>
-      <c r="D582" t="s">
-        <v>28</v>
-      </c>
-      <c r="E582" s="2">
-        <v>45403.70833333334</v>
-      </c>
-      <c r="F582" t="s">
-        <v>63</v>
-      </c>
-      <c r="G582" t="s">
-        <v>38</v>
-      </c>
-      <c r="K582">
-        <v>2.6</v>
-      </c>
-      <c r="L582">
-        <v>2.875</v>
-      </c>
-      <c r="M582">
-        <v>2.6</v>
-      </c>
-      <c r="N582">
-        <v>2.2</v>
-      </c>
-      <c r="O582">
-        <v>3.4</v>
-      </c>
-      <c r="P582">
-        <v>3.25</v>
-      </c>
-      <c r="Q582">
-        <v>-0.25</v>
-      </c>
-      <c r="R582">
-        <v>1.9</v>
-      </c>
-      <c r="S582">
-        <v>1.95</v>
-      </c>
-      <c r="T582">
-        <v>2.5</v>
-      </c>
-      <c r="U582">
-        <v>1.925</v>
-      </c>
-      <c r="V582">
-        <v>1.925</v>
-      </c>
-      <c r="W582">
-        <v>0</v>
-      </c>
-      <c r="X582">
-        <v>0</v>
-      </c>
-      <c r="Y582">
-        <v>0</v>
-      </c>
-      <c r="Z582">
-        <v>0</v>
-      </c>
-      <c r="AA582">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:27">
-      <c r="A583" s="1">
-        <v>581</v>
-      </c>
-      <c r="B583">
-        <v>7698786</v>
-      </c>
-      <c r="C583" t="s">
-        <v>28</v>
-      </c>
-      <c r="D583" t="s">
-        <v>28</v>
-      </c>
-      <c r="E583" s="2">
-        <v>45403.83333333334</v>
-      </c>
-      <c r="F583" t="s">
-        <v>48</v>
-      </c>
-      <c r="G583" t="s">
-        <v>49</v>
-      </c>
-      <c r="K583">
-        <v>2.3</v>
-      </c>
-      <c r="L583">
-        <v>2.75</v>
-      </c>
-      <c r="M583">
-        <v>3.2</v>
-      </c>
-      <c r="N583">
-        <v>2.3</v>
-      </c>
-      <c r="O583">
-        <v>2.875</v>
-      </c>
-      <c r="P583">
-        <v>3.8</v>
-      </c>
-      <c r="Q583">
-        <v>-0.25</v>
-      </c>
-      <c r="R583">
-        <v>1.925</v>
-      </c>
-      <c r="S583">
-        <v>1.925</v>
-      </c>
-      <c r="T583">
-        <v>1.75</v>
-      </c>
-      <c r="U583">
-        <v>1.825</v>
-      </c>
-      <c r="V583">
-        <v>2.025</v>
-      </c>
-      <c r="W583">
-        <v>0</v>
-      </c>
-      <c r="X583">
-        <v>0</v>
-      </c>
-      <c r="Y583">
-        <v>0</v>
-      </c>
-      <c r="Z583">
-        <v>0</v>
-      </c>
-      <c r="AA583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:27">
-      <c r="A584" s="1">
-        <v>582</v>
-      </c>
-      <c r="B584">
-        <v>7698788</v>
-      </c>
-      <c r="C584" t="s">
-        <v>28</v>
-      </c>
-      <c r="D584" t="s">
-        <v>28</v>
-      </c>
-      <c r="E584" s="2">
-        <v>45404.625</v>
-      </c>
-      <c r="F584" t="s">
-        <v>56</v>
-      </c>
-      <c r="G584" t="s">
-        <v>60</v>
-      </c>
-      <c r="K584">
-        <v>2.375</v>
-      </c>
-      <c r="L584">
-        <v>2.75</v>
-      </c>
-      <c r="M584">
-        <v>3.1</v>
-      </c>
-      <c r="N584">
-        <v>2.05</v>
-      </c>
-      <c r="O584">
-        <v>2.8</v>
-      </c>
-      <c r="P584">
-        <v>3.75</v>
-      </c>
-      <c r="Q584">
-        <v>-0.25</v>
-      </c>
-      <c r="R584">
-        <v>1.8</v>
-      </c>
-      <c r="S584">
-        <v>2.05</v>
-      </c>
-      <c r="T584">
-        <v>1.75</v>
-      </c>
-      <c r="U584">
-        <v>1.8</v>
-      </c>
-      <c r="V584">
-        <v>2.05</v>
-      </c>
-      <c r="W584">
-        <v>0</v>
-      </c>
-      <c r="X584">
-        <v>0</v>
-      </c>
-      <c r="Y584">
-        <v>0</v>
-      </c>
-      <c r="Z584">
-        <v>0</v>
-      </c>
-      <c r="AA584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585" spans="1:27">
-      <c r="A585" s="1">
-        <v>583</v>
-      </c>
-      <c r="B585">
-        <v>7698779</v>
-      </c>
-      <c r="C585" t="s">
-        <v>28</v>
-      </c>
-      <c r="D585" t="s">
-        <v>28</v>
-      </c>
-      <c r="E585" s="2">
-        <v>45404.625</v>
-      </c>
-      <c r="F585" t="s">
-        <v>62</v>
-      </c>
-      <c r="G585" t="s">
-        <v>53</v>
-      </c>
-      <c r="K585">
-        <v>1.909</v>
-      </c>
-      <c r="L585">
-        <v>2.875</v>
-      </c>
-      <c r="M585">
-        <v>4.2</v>
-      </c>
-      <c r="N585">
-        <v>2.05</v>
-      </c>
-      <c r="O585">
-        <v>2.9</v>
-      </c>
-      <c r="P585">
-        <v>3.6</v>
-      </c>
-      <c r="Q585">
-        <v>-0.25</v>
-      </c>
-      <c r="R585">
-        <v>1.85</v>
-      </c>
-      <c r="S585">
-        <v>2</v>
-      </c>
-      <c r="T585">
-        <v>2</v>
-      </c>
-      <c r="U585">
-        <v>1.925</v>
-      </c>
-      <c r="V585">
-        <v>1.925</v>
-      </c>
-      <c r="W585">
-        <v>0</v>
-      </c>
-      <c r="X585">
-        <v>0</v>
-      </c>
-      <c r="Y585">
-        <v>0</v>
-      </c>
-      <c r="Z585">
-        <v>0</v>
-      </c>
-      <c r="AA585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:27">
-      <c r="A586" s="1">
-        <v>584</v>
-      </c>
-      <c r="B586">
-        <v>7698780</v>
-      </c>
-      <c r="C586" t="s">
-        <v>28</v>
-      </c>
-      <c r="D586" t="s">
-        <v>28</v>
-      </c>
-      <c r="E586" s="2">
-        <v>45404.88194444445</v>
-      </c>
-      <c r="F586" t="s">
-        <v>59</v>
-      </c>
-      <c r="G586" t="s">
-        <v>47</v>
-      </c>
-      <c r="K586">
-        <v>1.533</v>
-      </c>
-      <c r="L586">
-        <v>4</v>
-      </c>
-      <c r="M586">
-        <v>5</v>
-      </c>
-      <c r="N586">
-        <v>1.65</v>
-      </c>
-      <c r="O586">
-        <v>4</v>
-      </c>
-      <c r="P586">
-        <v>5</v>
-      </c>
-      <c r="Q586">
-        <v>-0.75</v>
-      </c>
-      <c r="R586">
-        <v>1.85</v>
-      </c>
-      <c r="S586">
-        <v>2</v>
-      </c>
-      <c r="T586">
-        <v>2</v>
-      </c>
-      <c r="U586">
-        <v>1.9</v>
-      </c>
-      <c r="V586">
-        <v>1.95</v>
-      </c>
-      <c r="W586">
-        <v>0</v>
-      </c>
-      <c r="X586">
-        <v>0</v>
-      </c>
-      <c r="Y586">
-        <v>0</v>
-      </c>
-      <c r="Z586">
-        <v>0</v>
-      </c>
-      <c r="AA586">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587" spans="1:27">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587">
-        <v>8090085</v>
-      </c>
-      <c r="C587" t="s">
-        <v>28</v>
-      </c>
-      <c r="D587" t="s">
-        <v>28</v>
-      </c>
-      <c r="E587" s="2">
-        <v>45405.79166666666</v>
-      </c>
-      <c r="F587" t="s">
-        <v>54</v>
-      </c>
-      <c r="G587" t="s">
-        <v>50</v>
-      </c>
-      <c r="K587">
-        <v>2.15</v>
-      </c>
-      <c r="L587">
-        <v>2.875</v>
-      </c>
-      <c r="M587">
-        <v>3.3</v>
-      </c>
-      <c r="N587">
-        <v>1.85</v>
-      </c>
-      <c r="O587">
-        <v>2.9</v>
-      </c>
-      <c r="P587">
-        <v>4.333</v>
-      </c>
-      <c r="Q587">
-        <v>-0.5</v>
-      </c>
-      <c r="R587">
-        <v>1.975</v>
-      </c>
-      <c r="S587">
-        <v>1.875</v>
-      </c>
-      <c r="T587">
-        <v>2</v>
-      </c>
-      <c r="U587">
-        <v>2.025</v>
-      </c>
-      <c r="V587">
-        <v>1.825</v>
-      </c>
-      <c r="W587">
-        <v>0</v>
-      </c>
-      <c r="X587">
-        <v>0</v>
-      </c>
-      <c r="Y587">
-        <v>0</v>
-      </c>
-      <c r="Z587">
-        <v>0</v>
-      </c>
-      <c r="AA587">
         <v>0</v>
       </c>
     </row>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7698812</t>
+    <t>7698813</t>
   </si>
   <si>
-    <t>7698813</t>
+    <t>7698812</t>
   </si>
   <si>
     <t>7698816</t>
@@ -124,7 +124,7 @@
     <t>7698806</t>
   </si>
   <si>
-    <t>8165223</t>
+    <t>8165224</t>
   </si>
   <si>
     <t>7698810</t>
@@ -142,7 +142,7 @@
     <t>8165210</t>
   </si>
   <si>
-    <t>8165224</t>
+    <t>8165223</t>
   </si>
   <si>
     <t>7698585</t>
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6150859</v>
+        <v>6150461</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -4277,76 +4277,76 @@
         <v>45096.625</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="M43">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N43">
         <v>3.1</v>
       </c>
       <c r="O43">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150461</v>
+        <v>6150859</v>
       </c>
       <c r="C44" t="s">
         <v>45</v>
@@ -4363,76 +4363,76 @@
         <v>45096.625</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J44">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="M44">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N44">
         <v>3.1</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -5644,7 +5644,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6150463</v>
+        <v>6150861</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
@@ -5653,46 +5653,46 @@
         <v>45102.625</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="R59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
         <v>2</v>
@@ -5707,16 +5707,16 @@
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z59">
-        <v>1.075</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6150861</v>
+        <v>6150463</v>
       </c>
       <c r="C60" t="s">
         <v>45</v>
@@ -5739,46 +5739,46 @@
         <v>45102.625</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J60">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="K60">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5793,16 +5793,16 @@
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.5249999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6150697</v>
+        <v>6150467</v>
       </c>
       <c r="C77" t="s">
         <v>45</v>
@@ -7201,58 +7201,58 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
         <v>88</v>
       </c>
       <c r="J77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K77">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L77">
         <v>3.5</v>
       </c>
       <c r="M77">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O77">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q77">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T77">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7261,16 +7261,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7278,7 +7278,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6150467</v>
+        <v>6150697</v>
       </c>
       <c r="C78" t="s">
         <v>45</v>
@@ -7287,58 +7287,58 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="s">
         <v>88</v>
       </c>
       <c r="J78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L78">
         <v>3.5</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N78">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P78">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7347,16 +7347,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -8138,7 +8138,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6150704</v>
+        <v>6870444</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
@@ -8147,10 +8147,10 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F88" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8162,40 +8162,40 @@
         <v>90</v>
       </c>
       <c r="J88">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="K88">
         <v>2.875</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="M88">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="P88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
         <v>2</v>
       </c>
       <c r="T88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
         <v>-1</v>
@@ -8204,13 +8204,13 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6870414</v>
+        <v>6150704</v>
       </c>
       <c r="C89" t="s">
         <v>45</v>
@@ -8233,55 +8233,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
         <v>90</v>
       </c>
       <c r="J89">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L89">
+        <v>2.875</v>
+      </c>
+      <c r="M89">
+        <v>2.5</v>
+      </c>
+      <c r="N89">
+        <v>2.875</v>
+      </c>
+      <c r="O89">
         <v>3.3</v>
-      </c>
-      <c r="M89">
-        <v>2.25</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>3.6</v>
       </c>
       <c r="P89">
         <v>-0.25</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
         <v>2</v>
       </c>
       <c r="T89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8290,19 +8290,19 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8310,7 +8310,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6870444</v>
+        <v>6870414</v>
       </c>
       <c r="C90" t="s">
         <v>45</v>
@@ -8319,55 +8319,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>90</v>
       </c>
       <c r="J90">
+        <v>2.15</v>
+      </c>
+      <c r="K90">
         <v>2.9</v>
       </c>
-      <c r="K90">
-        <v>2.875</v>
-      </c>
       <c r="L90">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
         <v>3</v>
       </c>
       <c r="O90">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
         <v>2</v>
       </c>
       <c r="T90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V90">
         <v>-1</v>
@@ -8376,19 +8376,19 @@
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>1.375</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -22414,7 +22414,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6150931</v>
+        <v>6264156</v>
       </c>
       <c r="C254" t="s">
         <v>45</v>
@@ -22423,13 +22423,13 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F254" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -22438,43 +22438,43 @@
         <v>88</v>
       </c>
       <c r="J254">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="K254">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="M254">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N254">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O254">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="P254">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q254">
+        <v>1.95</v>
+      </c>
+      <c r="R254">
         <v>1.85</v>
       </c>
-      <c r="R254">
+      <c r="S254">
+        <v>1.75</v>
+      </c>
+      <c r="T254">
+        <v>1.85</v>
+      </c>
+      <c r="U254">
         <v>1.95</v>
       </c>
-      <c r="S254">
-        <v>2.25</v>
-      </c>
-      <c r="T254">
-        <v>1.825</v>
-      </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
       <c r="V254">
-        <v>0.363</v>
+        <v>1.25</v>
       </c>
       <c r="W254">
         <v>-1</v>
@@ -22483,16 +22483,16 @@
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22500,7 +22500,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6264156</v>
+        <v>6150931</v>
       </c>
       <c r="C255" t="s">
         <v>45</v>
@@ -22509,13 +22509,13 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E255" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F255" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -22524,43 +22524,43 @@
         <v>88</v>
       </c>
       <c r="J255">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="K255">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L255">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="M255">
+        <v>1.363</v>
+      </c>
+      <c r="N255">
+        <v>4.5</v>
+      </c>
+      <c r="O255">
+        <v>10</v>
+      </c>
+      <c r="P255">
+        <v>-1.25</v>
+      </c>
+      <c r="Q255">
+        <v>1.85</v>
+      </c>
+      <c r="R255">
+        <v>1.95</v>
+      </c>
+      <c r="S255">
         <v>2.25</v>
       </c>
-      <c r="N255">
-        <v>2.875</v>
-      </c>
-      <c r="O255">
-        <v>3.75</v>
-      </c>
-      <c r="P255">
-        <v>-0.25</v>
-      </c>
-      <c r="Q255">
-        <v>1.95</v>
-      </c>
-      <c r="R255">
-        <v>1.85</v>
-      </c>
-      <c r="S255">
-        <v>1.75</v>
-      </c>
       <c r="T255">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>1.25</v>
+        <v>0.363</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -22569,16 +22569,16 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -23446,7 +23446,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6256581</v>
+        <v>6150576</v>
       </c>
       <c r="C266" t="s">
         <v>45</v>
@@ -23455,76 +23455,76 @@
         <v>45186.75</v>
       </c>
       <c r="E266" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F266" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I266" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J266">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="K266">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M266">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N266">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O266">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P266">
         <v>-0.75</v>
       </c>
       <c r="Q266">
+        <v>2</v>
+      </c>
+      <c r="R266">
+        <v>1.8</v>
+      </c>
+      <c r="S266">
+        <v>2</v>
+      </c>
+      <c r="T266">
         <v>1.925</v>
       </c>
-      <c r="R266">
+      <c r="U266">
         <v>1.875</v>
       </c>
-      <c r="S266">
-        <v>2.25</v>
-      </c>
-      <c r="T266">
-        <v>1.9</v>
-      </c>
-      <c r="U266">
-        <v>1.9</v>
-      </c>
       <c r="V266">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W266">
         <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y266">
+        <v>-1</v>
+      </c>
+      <c r="Z266">
+        <v>0.8</v>
+      </c>
+      <c r="AA266">
         <v>0.925</v>
       </c>
-      <c r="Z266">
-        <v>-1</v>
-      </c>
-      <c r="AA266">
-        <v>-0.5</v>
-      </c>
       <c r="AB266">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23532,7 +23532,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6150576</v>
+        <v>6256581</v>
       </c>
       <c r="C267" t="s">
         <v>45</v>
@@ -23541,76 +23541,76 @@
         <v>45186.75</v>
       </c>
       <c r="E267" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F267" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>88</v>
+      </c>
+      <c r="J267">
+        <v>2.1</v>
+      </c>
+      <c r="K267">
+        <v>3.25</v>
+      </c>
+      <c r="L267">
         <v>3</v>
       </c>
-      <c r="I267" t="s">
-        <v>90</v>
-      </c>
-      <c r="J267">
-        <v>1.909</v>
-      </c>
-      <c r="K267">
-        <v>3</v>
-      </c>
-      <c r="L267">
-        <v>4</v>
-      </c>
       <c r="M267">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N267">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O267">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P267">
         <v>-0.75</v>
       </c>
       <c r="Q267">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V267">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z267">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -25768,7 +25768,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>6327517</v>
+        <v>6290533</v>
       </c>
       <c r="C293" t="s">
         <v>45</v>
@@ -25777,76 +25777,76 @@
         <v>45199.64583333334</v>
       </c>
       <c r="E293" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F293" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J293">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K293">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L293">
+        <v>3.6</v>
+      </c>
+      <c r="M293">
+        <v>2.25</v>
+      </c>
+      <c r="N293">
         <v>3</v>
       </c>
-      <c r="M293">
-        <v>2.5</v>
-      </c>
-      <c r="N293">
-        <v>2.9</v>
-      </c>
       <c r="O293">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
         <v>-0.25</v>
       </c>
       <c r="Q293">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="R293">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S293">
         <v>2</v>
       </c>
       <c r="T293">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U293">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W293">
         <v>-1</v>
       </c>
       <c r="X293">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y293">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA293">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:28">
@@ -25854,7 +25854,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>6290533</v>
+        <v>6327517</v>
       </c>
       <c r="C294" t="s">
         <v>45</v>
@@ -25863,76 +25863,76 @@
         <v>45199.64583333334</v>
       </c>
       <c r="E294" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F294" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J294">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K294">
+        <v>2.9</v>
+      </c>
+      <c r="L294">
         <v>3</v>
       </c>
-      <c r="L294">
-        <v>3.6</v>
-      </c>
       <c r="M294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N294">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P294">
         <v>-0.25</v>
       </c>
       <c r="Q294">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R294">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S294">
         <v>2</v>
       </c>
       <c r="T294">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U294">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V294">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W294">
         <v>-1</v>
       </c>
       <c r="X294">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y294">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z294">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB294">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -28606,7 +28606,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6356449</v>
+        <v>6360015</v>
       </c>
       <c r="C326" t="s">
         <v>45</v>
@@ -28615,19 +28615,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E326" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F326" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J326">
         <v>1.8</v>
@@ -28645,46 +28645,46 @@
         <v>3.1</v>
       </c>
       <c r="O326">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P326">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q326">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R326">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S326">
         <v>2.25</v>
       </c>
       <c r="T326">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U326">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V326">
         <v>-1</v>
       </c>
       <c r="W326">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB326">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -28778,7 +28778,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6360015</v>
+        <v>6356449</v>
       </c>
       <c r="C328" t="s">
         <v>45</v>
@@ -28787,19 +28787,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F328" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J328">
         <v>1.8</v>
@@ -28817,46 +28817,46 @@
         <v>3.1</v>
       </c>
       <c r="O328">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P328">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q328">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R328">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S328">
         <v>2.25</v>
       </c>
       <c r="T328">
+        <v>1.925</v>
+      </c>
+      <c r="U328">
+        <v>1.875</v>
+      </c>
+      <c r="V328">
+        <v>-1</v>
+      </c>
+      <c r="W328">
         <v>2.1</v>
       </c>
-      <c r="U328">
-        <v>1.775</v>
-      </c>
-      <c r="V328">
-        <v>-1</v>
-      </c>
-      <c r="W328">
-        <v>-1</v>
-      </c>
       <c r="X328">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z328">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AA328">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -28864,7 +28864,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323531</v>
+        <v>7323530</v>
       </c>
       <c r="C329" t="s">
         <v>45</v>
@@ -28873,76 +28873,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E329" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F329" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H329">
         <v>1</v>
       </c>
       <c r="I329" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J329">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K329">
         <v>3.2</v>
       </c>
       <c r="L329">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="N329">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O329">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="P329">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q329">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R329">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S329">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T329">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V329">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W329">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA329">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB329">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:28">
@@ -28950,7 +28950,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7323533</v>
+        <v>7323531</v>
       </c>
       <c r="C330" t="s">
         <v>45</v>
@@ -28959,76 +28959,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E330" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F330" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330">
         <v>1</v>
       </c>
       <c r="I330" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J330">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K330">
         <v>3.2</v>
       </c>
       <c r="L330">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M330">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N330">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O330">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="P330">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q330">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
         <v>2.25</v>
       </c>
       <c r="T330">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V330">
         <v>-1</v>
       </c>
       <c r="W330">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X330">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z330">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB330">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29122,7 +29122,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7323530</v>
+        <v>7323533</v>
       </c>
       <c r="C332" t="s">
         <v>45</v>
@@ -29131,76 +29131,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E332" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F332" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H332">
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J332">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K332">
         <v>3.2</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="N332">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O332">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="P332">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q332">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="R332">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S332">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T332">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U332">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V332">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y332">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA332">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29208,7 +29208,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6390738</v>
+        <v>7323855</v>
       </c>
       <c r="C333" t="s">
         <v>45</v>
@@ -29217,13 +29217,13 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E333" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F333" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G333">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -29235,40 +29235,40 @@
         <v>1.909</v>
       </c>
       <c r="K333">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L333">
+        <v>3.75</v>
+      </c>
+      <c r="M333">
+        <v>2.05</v>
+      </c>
+      <c r="N333">
+        <v>3.2</v>
+      </c>
+      <c r="O333">
         <v>4</v>
       </c>
-      <c r="M333">
-        <v>1.363</v>
-      </c>
-      <c r="N333">
-        <v>4</v>
-      </c>
-      <c r="O333">
-        <v>13</v>
-      </c>
       <c r="P333">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q333">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R333">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S333">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T333">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V333">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="W333">
         <v>-1</v>
@@ -29277,16 +29277,16 @@
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z333">
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29294,7 +29294,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7323855</v>
+        <v>7323927</v>
       </c>
       <c r="C334" t="s">
         <v>45</v>
@@ -29303,76 +29303,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E334" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F334" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G334">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J334">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="K334">
         <v>3.2</v>
       </c>
       <c r="L334">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M334">
+        <v>3.8</v>
+      </c>
+      <c r="N334">
+        <v>3.3</v>
+      </c>
+      <c r="O334">
         <v>2.05</v>
       </c>
-      <c r="N334">
-        <v>3.2</v>
-      </c>
-      <c r="O334">
-        <v>4</v>
-      </c>
       <c r="P334">
+        <v>0.25</v>
+      </c>
+      <c r="Q334">
+        <v>1.975</v>
+      </c>
+      <c r="R334">
+        <v>1.875</v>
+      </c>
+      <c r="S334">
+        <v>2.25</v>
+      </c>
+      <c r="T334">
+        <v>1.825</v>
+      </c>
+      <c r="U334">
+        <v>2.025</v>
+      </c>
+      <c r="V334">
+        <v>-1</v>
+      </c>
+      <c r="W334">
+        <v>2.3</v>
+      </c>
+      <c r="X334">
+        <v>-1</v>
+      </c>
+      <c r="Y334">
+        <v>0.4875</v>
+      </c>
+      <c r="Z334">
         <v>-0.5</v>
       </c>
-      <c r="Q334">
-        <v>2.025</v>
-      </c>
-      <c r="R334">
-        <v>1.775</v>
-      </c>
-      <c r="S334">
-        <v>1.75</v>
-      </c>
-      <c r="T334">
-        <v>1.75</v>
-      </c>
-      <c r="U334">
-        <v>2.05</v>
-      </c>
-      <c r="V334">
-        <v>1.05</v>
-      </c>
-      <c r="W334">
-        <v>-1</v>
-      </c>
-      <c r="X334">
-        <v>-1</v>
-      </c>
-      <c r="Y334">
-        <v>1.025</v>
-      </c>
-      <c r="Z334">
-        <v>-1</v>
-      </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB334">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -29380,7 +29380,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7323927</v>
+        <v>7323841</v>
       </c>
       <c r="C335" t="s">
         <v>45</v>
@@ -29389,76 +29389,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E335" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F335" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G335">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J335">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="K335">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L335">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M335">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="N335">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O335">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="P335">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q335">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S335">
         <v>2.25</v>
       </c>
       <c r="T335">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V335">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W335">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:28">
@@ -29466,7 +29466,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7323841</v>
+        <v>7311908</v>
       </c>
       <c r="C336" t="s">
         <v>45</v>
@@ -29475,73 +29475,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E336" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F336" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G336">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H336">
         <v>2</v>
       </c>
       <c r="I336" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J336">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L336">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M336">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N336">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O336">
+        <v>4.75</v>
+      </c>
+      <c r="P336">
+        <v>-0.75</v>
+      </c>
+      <c r="Q336">
+        <v>1.975</v>
+      </c>
+      <c r="R336">
+        <v>1.825</v>
+      </c>
+      <c r="S336">
+        <v>2</v>
+      </c>
+      <c r="T336">
+        <v>1.925</v>
+      </c>
+      <c r="U336">
+        <v>1.875</v>
+      </c>
+      <c r="V336">
+        <v>-1</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
         <v>3.75</v>
       </c>
-      <c r="P336">
-        <v>-0.25</v>
-      </c>
-      <c r="Q336">
-        <v>1.775</v>
-      </c>
-      <c r="R336">
-        <v>2.025</v>
-      </c>
-      <c r="S336">
-        <v>2.25</v>
-      </c>
-      <c r="T336">
-        <v>1.95</v>
-      </c>
-      <c r="U336">
-        <v>1.85</v>
-      </c>
-      <c r="V336">
-        <v>1.05</v>
-      </c>
-      <c r="W336">
-        <v>-1</v>
-      </c>
-      <c r="X336">
-        <v>-1</v>
-      </c>
       <c r="Y336">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA336">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB336">
         <v>-1</v>
@@ -29552,7 +29552,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7311908</v>
+        <v>6390738</v>
       </c>
       <c r="C337" t="s">
         <v>45</v>
@@ -29561,73 +29561,73 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E337" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F337" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J337">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K337">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L337">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M337">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="N337">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O337">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="P337">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q337">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R337">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S337">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T337">
+        <v>1.875</v>
+      </c>
+      <c r="U337">
         <v>1.925</v>
       </c>
-      <c r="U337">
-        <v>1.875</v>
-      </c>
       <c r="V337">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W337">
         <v>-1</v>
       </c>
       <c r="X337">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z337">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB337">
         <v>-1</v>
@@ -46494,7 +46494,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7698761</v>
+        <v>7698764</v>
       </c>
       <c r="C534" t="s">
         <v>45</v>
@@ -46503,76 +46503,76 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E534" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F534" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J534">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L534">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M534">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N534">
         <v>3.1</v>
       </c>
       <c r="O534">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P534">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R534">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T534">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U534">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V534">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W534">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X534">
         <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z534">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA534">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB534">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:28">
@@ -46580,7 +46580,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7698764</v>
+        <v>7698761</v>
       </c>
       <c r="C535" t="s">
         <v>45</v>
@@ -46589,76 +46589,76 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E535" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F535" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G535">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I535" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J535">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="K535">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L535">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M535">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N535">
         <v>3.1</v>
       </c>
       <c r="O535">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P535">
+        <v>-0.25</v>
+      </c>
+      <c r="Q535">
+        <v>1.75</v>
+      </c>
+      <c r="R535">
+        <v>2.05</v>
+      </c>
+      <c r="S535">
+        <v>1.75</v>
+      </c>
+      <c r="T535">
+        <v>1.975</v>
+      </c>
+      <c r="U535">
+        <v>1.825</v>
+      </c>
+      <c r="V535">
+        <v>-1</v>
+      </c>
+      <c r="W535">
+        <v>2.1</v>
+      </c>
+      <c r="X535">
+        <v>-1</v>
+      </c>
+      <c r="Y535">
         <v>-0.5</v>
       </c>
-      <c r="Q535">
-        <v>2</v>
-      </c>
-      <c r="R535">
-        <v>1.8</v>
-      </c>
-      <c r="S535">
-        <v>2</v>
-      </c>
-      <c r="T535">
-        <v>2</v>
-      </c>
-      <c r="U535">
-        <v>1.8</v>
-      </c>
-      <c r="V535">
-        <v>0.95</v>
-      </c>
-      <c r="W535">
-        <v>-1</v>
-      </c>
-      <c r="X535">
-        <v>-1</v>
-      </c>
-      <c r="Y535">
-        <v>1</v>
-      </c>
       <c r="Z535">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA535">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB535">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="536" spans="1:28">
@@ -46924,7 +46924,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>7702194</v>
+        <v>7698755</v>
       </c>
       <c r="C539" t="s">
         <v>45</v>
@@ -46933,73 +46933,73 @@
         <v>45389.64583333334</v>
       </c>
       <c r="E539" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F539" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H539">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I539" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J539">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K539">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L539">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M539">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="N539">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O539">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P539">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q539">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R539">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S539">
         <v>1.75</v>
       </c>
       <c r="T539">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U539">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V539">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W539">
         <v>-1</v>
       </c>
       <c r="X539">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y539">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z539">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA539">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB539">
         <v>-1</v>
@@ -47010,7 +47010,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>7698755</v>
+        <v>7702194</v>
       </c>
       <c r="C540" t="s">
         <v>45</v>
@@ -47019,73 +47019,73 @@
         <v>45389.64583333334</v>
       </c>
       <c r="E540" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F540" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G540">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I540" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J540">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K540">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L540">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M540">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="N540">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O540">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P540">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q540">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R540">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S540">
         <v>1.75</v>
       </c>
       <c r="T540">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U540">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V540">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W540">
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y540">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA540">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB540">
         <v>-1</v>
@@ -50278,7 +50278,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>7698791</v>
+        <v>7702191</v>
       </c>
       <c r="C578" t="s">
         <v>45</v>
@@ -50287,13 +50287,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E578" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F578" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G578">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H578">
         <v>0</v>
@@ -50302,43 +50302,43 @@
         <v>88</v>
       </c>
       <c r="J578">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K578">
         <v>2.75</v>
       </c>
       <c r="L578">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M578">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="N578">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O578">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P578">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q578">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R578">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S578">
         <v>1.75</v>
       </c>
       <c r="T578">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U578">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V578">
-        <v>0.7270000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="W578">
         <v>-1</v>
@@ -50347,16 +50347,16 @@
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z578">
+        <v>-1</v>
+      </c>
+      <c r="AA578">
+        <v>0.45</v>
+      </c>
+      <c r="AB578">
         <v>-0.5</v>
-      </c>
-      <c r="AA578">
-        <v>-1</v>
-      </c>
-      <c r="AB578">
-        <v>1.025</v>
       </c>
     </row>
     <row r="579" spans="1:28">
@@ -50364,7 +50364,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7702191</v>
+        <v>7698791</v>
       </c>
       <c r="C579" t="s">
         <v>45</v>
@@ -50373,13 +50373,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E579" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F579" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G579">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H579">
         <v>0</v>
@@ -50388,43 +50388,43 @@
         <v>88</v>
       </c>
       <c r="J579">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="K579">
         <v>2.75</v>
       </c>
       <c r="L579">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M579">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N579">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O579">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P579">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q579">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R579">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S579">
         <v>1.75</v>
       </c>
       <c r="T579">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U579">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V579">
-        <v>1.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W579">
         <v>-1</v>
@@ -50433,16 +50433,16 @@
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA579">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB579">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="580" spans="1:28">
@@ -51826,7 +51826,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>8133935</v>
+        <v>8133801</v>
       </c>
       <c r="C596" t="s">
         <v>45</v>
@@ -51835,16 +51835,16 @@
         <v>45410.625</v>
       </c>
       <c r="E596" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F596" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G596">
         <v>2</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="s">
         <v>88</v>
@@ -51853,40 +51853,40 @@
         <v>2.75</v>
       </c>
       <c r="K596">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L596">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M596">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N596">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O596">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P596">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q596">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="R596">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S596">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T596">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U596">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V596">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W596">
         <v>-1</v>
@@ -51895,16 +51895,16 @@
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z596">
         <v>-1</v>
       </c>
       <c r="AA596">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB596">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="597" spans="1:28">
@@ -51912,7 +51912,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>8133801</v>
+        <v>8133935</v>
       </c>
       <c r="C597" t="s">
         <v>45</v>
@@ -51921,16 +51921,16 @@
         <v>45410.625</v>
       </c>
       <c r="E597" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F597" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G597">
         <v>2</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I597" t="s">
         <v>88</v>
@@ -51939,40 +51939,40 @@
         <v>2.75</v>
       </c>
       <c r="K597">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L597">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="M597">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N597">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O597">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P597">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q597">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R597">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S597">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T597">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U597">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V597">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W597">
         <v>-1</v>
@@ -51981,16 +51981,16 @@
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB597">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:28">
@@ -52864,49 +52864,49 @@
         <v>45</v>
       </c>
       <c r="D608" s="2">
-        <v>45415.875</v>
+        <v>45415.79861111111</v>
       </c>
       <c r="E608" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F608" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J608">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K608">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L608">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M608">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="N608">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O608">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="P608">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q608">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R608">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S608">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T608">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U608">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V608">
         <v>0</v>
@@ -52929,49 +52929,49 @@
         <v>45</v>
       </c>
       <c r="D609" s="2">
-        <v>45415.88194444445</v>
+        <v>45415.875</v>
       </c>
       <c r="E609" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F609" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="J609">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K609">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L609">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M609">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="N609">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="O609">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="P609">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q609">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R609">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S609">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T609">
+        <v>1.8</v>
+      </c>
+      <c r="U609">
         <v>2.05</v>
-      </c>
-      <c r="U609">
-        <v>1.8</v>
       </c>
       <c r="V609">
         <v>0</v>
@@ -53012,31 +53012,31 @@
         <v>2.75</v>
       </c>
       <c r="M610">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N610">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O610">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P610">
         <v>0</v>
       </c>
       <c r="Q610">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R610">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S610">
         <v>2</v>
       </c>
       <c r="T610">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U610">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V610">
         <v>0</v>
@@ -53080,10 +53080,10 @@
         <v>2</v>
       </c>
       <c r="N611">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O611">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P611">
         <v>-0.5</v>
@@ -53095,13 +53095,13 @@
         <v>1.8</v>
       </c>
       <c r="S611">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T611">
+        <v>1.825</v>
+      </c>
+      <c r="U611">
         <v>2.025</v>
-      </c>
-      <c r="U611">
-        <v>1.825</v>
       </c>
       <c r="V611">
         <v>0</v>
@@ -53142,31 +53142,31 @@
         <v>4</v>
       </c>
       <c r="M612">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="N612">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O612">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P612">
         <v>-0.5</v>
       </c>
       <c r="Q612">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R612">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S612">
         <v>1.75</v>
       </c>
       <c r="T612">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U612">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V612">
         <v>0</v>
@@ -53272,7 +53272,7 @@
         <v>2.5</v>
       </c>
       <c r="M614">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N614">
         <v>2.875</v>
@@ -53284,19 +53284,19 @@
         <v>0.25</v>
       </c>
       <c r="Q614">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R614">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S614">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T614">
+        <v>1.8</v>
+      </c>
+      <c r="U614">
         <v>2.05</v>
-      </c>
-      <c r="U614">
-        <v>1.8</v>
       </c>
       <c r="V614">
         <v>0</v>
@@ -53337,22 +53337,22 @@
         <v>2.9</v>
       </c>
       <c r="M615">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N615">
         <v>2.9</v>
       </c>
       <c r="O615">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P615">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q615">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="R615">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S615">
         <v>1.75</v>
@@ -53452,46 +53452,46 @@
         <v>45416.66666666666</v>
       </c>
       <c r="E617" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F617" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="J617">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K617">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L617">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M617">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N617">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O617">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P617">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q617">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R617">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S617">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T617">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U617">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V617">
         <v>0</v>
@@ -53544,19 +53544,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q618">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R618">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S618">
         <v>1.75</v>
       </c>
       <c r="T618">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U618">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V618">
         <v>0</v>
@@ -53597,7 +53597,7 @@
         <v>5</v>
       </c>
       <c r="M619">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="N619">
         <v>3.6</v>
@@ -53609,19 +53609,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q619">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R619">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S619">
         <v>2</v>
       </c>
       <c r="T619">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U619">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V619">
         <v>0</v>
@@ -53683,10 +53683,10 @@
         <v>2</v>
       </c>
       <c r="T620">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="U620">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V620">
         <v>0</v>
@@ -53727,31 +53727,31 @@
         <v>6</v>
       </c>
       <c r="M621">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="N621">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O621">
-        <v>5.75</v>
+        <v>9</v>
       </c>
       <c r="P621">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q621">
+        <v>1.95</v>
+      </c>
+      <c r="R621">
         <v>1.9</v>
-      </c>
-      <c r="R621">
-        <v>1.95</v>
       </c>
       <c r="S621">
         <v>1.75</v>
       </c>
       <c r="T621">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U621">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V621">
         <v>0</v>
@@ -53792,10 +53792,10 @@
         <v>5</v>
       </c>
       <c r="M622">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="N622">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O622">
         <v>5.25</v>
@@ -53804,10 +53804,10 @@
         <v>-0.75</v>
       </c>
       <c r="Q622">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R622">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S622">
         <v>2</v>
@@ -53839,49 +53839,49 @@
         <v>45</v>
       </c>
       <c r="D623" s="2">
-        <v>45417.6875</v>
+        <v>45417.66666666666</v>
       </c>
       <c r="E623" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F623" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J623">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K623">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L623">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M623">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N623">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O623">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P623">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q623">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R623">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S623">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T623">
+        <v>1.9</v>
+      </c>
+      <c r="U623">
         <v>1.95</v>
-      </c>
-      <c r="U623">
-        <v>1.9</v>
       </c>
       <c r="V623">
         <v>0</v>
@@ -53922,31 +53922,31 @@
         <v>4.5</v>
       </c>
       <c r="M624">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N624">
         <v>3.2</v>
       </c>
       <c r="O624">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P624">
         <v>-0.5</v>
       </c>
       <c r="Q624">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R624">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S624">
         <v>2.25</v>
       </c>
       <c r="T624">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U624">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V624">
         <v>0</v>
@@ -53987,31 +53987,31 @@
         <v>4.5</v>
       </c>
       <c r="M625">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="N625">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O625">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P625">
         <v>-0.75</v>
       </c>
       <c r="Q625">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R625">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S625">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T625">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U625">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V625">
         <v>0</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -100,19 +100,16 @@
     <t>7698343</t>
   </si>
   <si>
-    <t>8215001</t>
+    <t>8215000</t>
   </si>
   <si>
-    <t>8215000</t>
+    <t>8215001</t>
   </si>
   <si>
     <t>7698590</t>
   </si>
   <si>
     <t>7698832</t>
-  </si>
-  <si>
-    <t>8215002</t>
   </si>
   <si>
     <t>8215003</t>
@@ -124,7 +121,7 @@
     <t>8215004</t>
   </si>
   <si>
-    <t>8215020</t>
+    <t>8215011</t>
   </si>
   <si>
     <t>8215021</t>
@@ -133,7 +130,7 @@
     <t>8215025</t>
   </si>
   <si>
-    <t>8215011</t>
+    <t>8215020</t>
   </si>
   <si>
     <t>8215041</t>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>8215043</t>
+  </si>
+  <si>
+    <t>8215002</t>
   </si>
   <si>
     <t>Argentina Nacional B</t>
@@ -6249,7 +6249,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6150549</v>
+        <v>6150696</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -6258,76 +6258,76 @@
         <v>45107.875</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J66">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K66">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="M66">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O66">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q66">
+        <v>1.725</v>
+      </c>
+      <c r="R66">
+        <v>2.075</v>
+      </c>
+      <c r="S66">
+        <v>1.75</v>
+      </c>
+      <c r="T66">
+        <v>1.75</v>
+      </c>
+      <c r="U66">
         <v>2.05</v>
       </c>
-      <c r="R66">
-        <v>1.75</v>
-      </c>
-      <c r="S66">
-        <v>2</v>
-      </c>
-      <c r="T66">
-        <v>1.9</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
       <c r="V66">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
         <v>0.75</v>
       </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -6335,7 +6335,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6150696</v>
+        <v>6150549</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -6344,76 +6344,76 @@
         <v>45107.875</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J67">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K67">
+        <v>2.9</v>
+      </c>
+      <c r="L67">
         <v>2.75</v>
       </c>
-      <c r="L67">
-        <v>2.3</v>
-      </c>
       <c r="M67">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q67">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="R67">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V67">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y67">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -8141,7 +8141,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6870414</v>
+        <v>6870444</v>
       </c>
       <c r="C88" t="s">
         <v>46</v>
@@ -8150,55 +8150,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
         <v>91</v>
       </c>
       <c r="J88">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="K88">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L88">
+        <v>2.375</v>
+      </c>
+      <c r="M88">
         <v>3.3</v>
-      </c>
-      <c r="M88">
-        <v>2.25</v>
       </c>
       <c r="N88">
         <v>3</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q88">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
         <v>2</v>
       </c>
       <c r="T88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
         <v>-1</v>
@@ -8207,19 +8207,19 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>1.375</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8313,7 +8313,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6870444</v>
+        <v>6870414</v>
       </c>
       <c r="C90" t="s">
         <v>46</v>
@@ -8322,55 +8322,55 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>91</v>
       </c>
       <c r="J90">
+        <v>2.15</v>
+      </c>
+      <c r="K90">
         <v>2.9</v>
       </c>
-      <c r="K90">
-        <v>2.875</v>
-      </c>
       <c r="L90">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="M90">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="N90">
         <v>3</v>
       </c>
       <c r="O90">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
         <v>2</v>
       </c>
       <c r="T90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V90">
         <v>-1</v>
@@ -8379,19 +8379,19 @@
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>1.375</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -14591,7 +14591,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150561</v>
+        <v>6150563</v>
       </c>
       <c r="C163" t="s">
         <v>46</v>
@@ -14600,37 +14600,37 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J163">
         <v>2</v>
       </c>
       <c r="K163">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N163">
         <v>3</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
         <v>-0.25</v>
@@ -14645,31 +14645,31 @@
         <v>2</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z163">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB163">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14677,7 +14677,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150563</v>
+        <v>6150561</v>
       </c>
       <c r="C164" t="s">
         <v>46</v>
@@ -14686,37 +14686,37 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F164" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J164">
         <v>2</v>
       </c>
       <c r="K164">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L164">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N164">
         <v>3</v>
       </c>
       <c r="O164">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P164">
         <v>-0.25</v>
@@ -14731,31 +14731,31 @@
         <v>2</v>
       </c>
       <c r="T164">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15709,7 +15709,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C176" t="s">
         <v>46</v>
@@ -15718,76 +15718,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E176" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F176" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P176">
         <v>-0.5</v>
       </c>
       <c r="Q176">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15795,7 +15795,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C177" t="s">
         <v>46</v>
@@ -15804,76 +15804,76 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F177" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L177">
+        <v>2.3</v>
+      </c>
+      <c r="M177">
+        <v>1.85</v>
+      </c>
+      <c r="N177">
         <v>3.3</v>
       </c>
-      <c r="M177">
-        <v>2.05</v>
-      </c>
-      <c r="N177">
-        <v>3.2</v>
-      </c>
       <c r="O177">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
         <v>-0.5</v>
       </c>
       <c r="Q177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -18117,7 +18117,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7105149</v>
+        <v>7095668</v>
       </c>
       <c r="C204" t="s">
         <v>46</v>
@@ -18126,76 +18126,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F204" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J204">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="K204">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M204">
+        <v>4.2</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204">
+        <v>2.05</v>
+      </c>
+      <c r="P204">
+        <v>0.5</v>
+      </c>
+      <c r="Q204">
+        <v>1.8</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
         <v>1.75</v>
       </c>
-      <c r="N204">
-        <v>3.5</v>
-      </c>
-      <c r="O204">
-        <v>5</v>
-      </c>
-      <c r="P204">
-        <v>-0.75</v>
-      </c>
-      <c r="Q204">
-        <v>2</v>
-      </c>
-      <c r="R204">
+      <c r="T204">
         <v>1.8</v>
       </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>1.9</v>
-      </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V204">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA204">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18203,7 +18203,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7095668</v>
+        <v>7105149</v>
       </c>
       <c r="C205" t="s">
         <v>46</v>
@@ -18212,76 +18212,76 @@
         <v>45164.64583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F205" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J205">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="K205">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L205">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="M205">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="N205">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O205">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="P205">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q205">
+        <v>2</v>
+      </c>
+      <c r="R205">
         <v>1.8</v>
       </c>
-      <c r="R205">
-        <v>2.05</v>
-      </c>
       <c r="S205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U205">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -24739,7 +24739,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6301749</v>
+        <v>6296630</v>
       </c>
       <c r="C281" t="s">
         <v>46</v>
@@ -24748,76 +24748,76 @@
         <v>45193.64583333334</v>
       </c>
       <c r="E281" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F281" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J281">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="K281">
         <v>3.2</v>
       </c>
       <c r="L281">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="M281">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O281">
+        <v>4</v>
+      </c>
+      <c r="P281">
+        <v>-0.5</v>
+      </c>
+      <c r="Q281">
+        <v>2.025</v>
+      </c>
+      <c r="R281">
+        <v>1.825</v>
+      </c>
+      <c r="S281">
+        <v>1.75</v>
+      </c>
+      <c r="T281">
+        <v>1.825</v>
+      </c>
+      <c r="U281">
+        <v>2.025</v>
+      </c>
+      <c r="V281">
+        <v>-1</v>
+      </c>
+      <c r="W281">
         <v>2.3</v>
       </c>
-      <c r="P281">
-        <v>0.25</v>
-      </c>
-      <c r="Q281">
-        <v>1.825</v>
-      </c>
-      <c r="R281">
-        <v>2.025</v>
-      </c>
-      <c r="S281">
-        <v>2</v>
-      </c>
-      <c r="T281">
-        <v>1.925</v>
-      </c>
-      <c r="U281">
-        <v>1.925</v>
-      </c>
-      <c r="V281">
-        <v>2.4</v>
-      </c>
-      <c r="W281">
-        <v>-1</v>
-      </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
+        <v>-1</v>
+      </c>
+      <c r="Z281">
         <v>0.825</v>
       </c>
-      <c r="Z281">
-        <v>-1</v>
-      </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB281">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:28">
@@ -24825,7 +24825,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6296630</v>
+        <v>6301749</v>
       </c>
       <c r="C282" t="s">
         <v>46</v>
@@ -24834,76 +24834,76 @@
         <v>45193.64583333334</v>
       </c>
       <c r="E282" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F282" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G282">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J282">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="K282">
         <v>3.2</v>
       </c>
       <c r="L282">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="M282">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N282">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O282">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="P282">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q282">
+        <v>1.825</v>
+      </c>
+      <c r="R282">
         <v>2.025</v>
       </c>
-      <c r="R282">
-        <v>1.825</v>
-      </c>
       <c r="S282">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T282">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U282">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W282">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:28">
@@ -26287,7 +26287,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6290532</v>
+        <v>6296632</v>
       </c>
       <c r="C299" t="s">
         <v>46</v>
@@ -26296,70 +26296,70 @@
         <v>45200.66666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F299" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J299">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="K299">
+        <v>3</v>
+      </c>
+      <c r="L299">
+        <v>2.875</v>
+      </c>
+      <c r="M299">
+        <v>2.375</v>
+      </c>
+      <c r="N299">
+        <v>3.1</v>
+      </c>
+      <c r="O299">
         <v>3.2</v>
       </c>
-      <c r="L299">
-        <v>4</v>
-      </c>
-      <c r="M299">
-        <v>1.6</v>
-      </c>
-      <c r="N299">
-        <v>3.6</v>
-      </c>
-      <c r="O299">
-        <v>6</v>
-      </c>
       <c r="P299">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q299">
+        <v>2.025</v>
+      </c>
+      <c r="R299">
         <v>1.775</v>
       </c>
-      <c r="R299">
-        <v>2.025</v>
-      </c>
       <c r="S299">
         <v>2</v>
       </c>
       <c r="T299">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U299">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA299">
         <v>0</v>
@@ -26373,7 +26373,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6296632</v>
+        <v>6290532</v>
       </c>
       <c r="C300" t="s">
         <v>46</v>
@@ -26382,70 +26382,70 @@
         <v>45200.66666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F300" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J300">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="K300">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L300">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M300">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="N300">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P300">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q300">
+        <v>1.775</v>
+      </c>
+      <c r="R300">
         <v>2.025</v>
       </c>
-      <c r="R300">
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="T300">
         <v>1.775</v>
       </c>
-      <c r="S300">
-        <v>2</v>
-      </c>
-      <c r="T300">
-        <v>1.925</v>
-      </c>
       <c r="U300">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W300">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X300">
         <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z300">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
         <v>0</v>
@@ -26717,7 +26717,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6290536</v>
+        <v>6296003</v>
       </c>
       <c r="C304" t="s">
         <v>46</v>
@@ -26726,73 +26726,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="E304" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F304" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G304">
+        <v>2</v>
+      </c>
+      <c r="H304">
         <v>3</v>
       </c>
-      <c r="H304">
-        <v>0</v>
-      </c>
       <c r="I304" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J304">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="K304">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L304">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="M304">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N304">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O304">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="P304">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q304">
+        <v>2.1</v>
+      </c>
+      <c r="R304">
         <v>1.775</v>
-      </c>
-      <c r="R304">
-        <v>2.025</v>
       </c>
       <c r="S304">
         <v>2.25</v>
       </c>
       <c r="T304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U304">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y304">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA304">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB304">
         <v>-1</v>
@@ -26803,7 +26803,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6296003</v>
+        <v>6290536</v>
       </c>
       <c r="C305" t="s">
         <v>46</v>
@@ -26812,73 +26812,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="E305" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F305" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J305">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="K305">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L305">
+        <v>4.5</v>
+      </c>
+      <c r="M305">
         <v>1.615</v>
       </c>
-      <c r="M305">
+      <c r="N305">
+        <v>3.6</v>
+      </c>
+      <c r="O305">
         <v>6.5</v>
       </c>
-      <c r="N305">
-        <v>3.75</v>
-      </c>
-      <c r="O305">
-        <v>1.6</v>
-      </c>
       <c r="P305">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q305">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="R305">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
         <v>2.25</v>
       </c>
       <c r="T305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V305">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z305">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB305">
         <v>-1</v>
@@ -27921,7 +27921,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6359296</v>
+        <v>6323477</v>
       </c>
       <c r="C318" t="s">
         <v>46</v>
@@ -27930,76 +27930,76 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E318" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F318" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="s">
         <v>90</v>
       </c>
       <c r="J318">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K318">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L318">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M318">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N318">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O318">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q318">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R318">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S318">
         <v>2</v>
       </c>
       <c r="T318">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V318">
         <v>-1</v>
       </c>
       <c r="W318">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB318">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -28093,7 +28093,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6323477</v>
+        <v>6359296</v>
       </c>
       <c r="C320" t="s">
         <v>46</v>
@@ -28102,76 +28102,76 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E320" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F320" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="s">
         <v>90</v>
       </c>
       <c r="J320">
+        <v>1.5</v>
+      </c>
+      <c r="K320">
+        <v>4</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+      <c r="M320">
         <v>2.1</v>
       </c>
-      <c r="K320">
-        <v>3.2</v>
-      </c>
-      <c r="L320">
-        <v>3.2</v>
-      </c>
-      <c r="M320">
-        <v>1.909</v>
-      </c>
       <c r="N320">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O320">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P320">
+        <v>-0.25</v>
+      </c>
+      <c r="Q320">
+        <v>1.8</v>
+      </c>
+      <c r="R320">
+        <v>2</v>
+      </c>
+      <c r="S320">
+        <v>2</v>
+      </c>
+      <c r="T320">
+        <v>1.875</v>
+      </c>
+      <c r="U320">
+        <v>1.925</v>
+      </c>
+      <c r="V320">
+        <v>-1</v>
+      </c>
+      <c r="W320">
+        <v>2.5</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
         <v>-0.5</v>
       </c>
-      <c r="Q320">
-        <v>1.825</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
-      <c r="S320">
-        <v>2</v>
-      </c>
-      <c r="T320">
-        <v>1.775</v>
-      </c>
-      <c r="U320">
-        <v>2.025</v>
-      </c>
-      <c r="V320">
-        <v>-1</v>
-      </c>
-      <c r="W320">
-        <v>2.3</v>
-      </c>
-      <c r="X320">
-        <v>-1</v>
-      </c>
-      <c r="Y320">
-        <v>-1</v>
-      </c>
       <c r="Z320">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="321" spans="1:28">
@@ -28523,7 +28523,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>6356449</v>
+        <v>7323842</v>
       </c>
       <c r="C325" t="s">
         <v>46</v>
@@ -28532,76 +28532,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E325" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F325" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G325">
         <v>0</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J325">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K325">
         <v>3.2</v>
       </c>
       <c r="L325">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M325">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="N325">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O325">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="P325">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q325">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R325">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T325">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="U325">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="V325">
         <v>-1</v>
       </c>
       <c r="W325">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X325">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y325">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z325">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA325">
         <v>-1</v>
       </c>
       <c r="AB325">
-        <v>0.875</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -28695,7 +28695,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7323842</v>
+        <v>6356449</v>
       </c>
       <c r="C327" t="s">
         <v>46</v>
@@ -28704,76 +28704,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E327" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F327" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J327">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K327">
         <v>3.2</v>
       </c>
       <c r="L327">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M327">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="N327">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O327">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="P327">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q327">
+        <v>1.775</v>
+      </c>
+      <c r="R327">
+        <v>2.025</v>
+      </c>
+      <c r="S327">
+        <v>2.25</v>
+      </c>
+      <c r="T327">
         <v>1.925</v>
       </c>
-      <c r="R327">
-        <v>1.925</v>
-      </c>
-      <c r="S327">
-        <v>2</v>
-      </c>
-      <c r="T327">
-        <v>1.7</v>
-      </c>
       <c r="U327">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="V327">
         <v>-1</v>
       </c>
       <c r="W327">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X327">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z327">
-        <v>0.925</v>
+        <v>0.5125</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>1.2</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="328" spans="1:28">
@@ -28781,7 +28781,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7323531</v>
+        <v>7323533</v>
       </c>
       <c r="C328" t="s">
         <v>46</v>
@@ -28790,76 +28790,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F328" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328">
         <v>1</v>
       </c>
       <c r="I328" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J328">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="K328">
         <v>3.2</v>
       </c>
       <c r="L328">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="M328">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N328">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O328">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="P328">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q328">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="R328">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S328">
         <v>2.25</v>
       </c>
       <c r="T328">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V328">
         <v>-1</v>
       </c>
       <c r="W328">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y328">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA328">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -28867,7 +28867,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323532</v>
+        <v>7323530</v>
       </c>
       <c r="C329" t="s">
         <v>46</v>
@@ -28876,76 +28876,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E329" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F329" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J329">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K329">
         <v>3.2</v>
       </c>
       <c r="L329">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="N329">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O329">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P329">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q329">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R329">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S329">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T329">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V329">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W329">
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z329">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA329">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB329">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:28">
@@ -28953,7 +28953,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7323533</v>
+        <v>7323532</v>
       </c>
       <c r="C330" t="s">
         <v>46</v>
@@ -28962,55 +28962,55 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E330" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F330" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G330">
         <v>0</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" t="s">
         <v>91</v>
       </c>
       <c r="J330">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K330">
         <v>3.2</v>
       </c>
       <c r="L330">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M330">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N330">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O330">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="P330">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q330">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S330">
         <v>2.25</v>
       </c>
       <c r="T330">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V330">
         <v>-1</v>
@@ -29019,19 +29019,19 @@
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y330">
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB330">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -29039,7 +29039,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6360015</v>
+        <v>7323531</v>
       </c>
       <c r="C331" t="s">
         <v>46</v>
@@ -29048,76 +29048,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E331" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F331" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G331">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J331">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K331">
         <v>3.2</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M331">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="N331">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O331">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="P331">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q331">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R331">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S331">
         <v>2.25</v>
       </c>
       <c r="T331">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="U331">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V331">
         <v>-1</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X331">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z331">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29125,7 +29125,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7323530</v>
+        <v>6360015</v>
       </c>
       <c r="C332" t="s">
         <v>46</v>
@@ -29134,19 +29134,19 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E332" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F332" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J332">
         <v>1.8</v>
@@ -29158,49 +29158,49 @@
         <v>4</v>
       </c>
       <c r="M332">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N332">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O332">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P332">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q332">
+        <v>2.05</v>
+      </c>
+      <c r="R332">
+        <v>1.8</v>
+      </c>
+      <c r="S332">
+        <v>2.25</v>
+      </c>
+      <c r="T332">
+        <v>2.1</v>
+      </c>
+      <c r="U332">
         <v>1.775</v>
       </c>
-      <c r="R332">
-        <v>2.025</v>
-      </c>
-      <c r="S332">
-        <v>2</v>
-      </c>
-      <c r="T332">
-        <v>1.775</v>
-      </c>
-      <c r="U332">
-        <v>2.025</v>
-      </c>
       <c r="V332">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y332">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA332">
-        <v>0.7749999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AB332">
         <v>-1</v>
@@ -29641,7 +29641,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7323855</v>
+        <v>7323841</v>
       </c>
       <c r="C338" t="s">
         <v>46</v>
@@ -29650,55 +29650,55 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E338" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F338" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="s">
         <v>89</v>
       </c>
       <c r="J338">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K338">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L338">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M338">
         <v>2.05</v>
       </c>
       <c r="N338">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O338">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P338">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q338">
+        <v>1.775</v>
+      </c>
+      <c r="R338">
         <v>2.025</v>
       </c>
-      <c r="R338">
-        <v>1.775</v>
-      </c>
       <c r="S338">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T338">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U338">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V338">
         <v>1.05</v>
@@ -29710,16 +29710,16 @@
         <v>-1</v>
       </c>
       <c r="Y338">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z338">
         <v>-1</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB338">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:28">
@@ -29727,7 +29727,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7323841</v>
+        <v>7323927</v>
       </c>
       <c r="C339" t="s">
         <v>46</v>
@@ -29736,76 +29736,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E339" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F339" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
+        <v>90</v>
+      </c>
+      <c r="J339">
         <v>4</v>
       </c>
-      <c r="H339">
-        <v>2</v>
-      </c>
-      <c r="I339" t="s">
-        <v>89</v>
-      </c>
-      <c r="J339">
-        <v>2.375</v>
-      </c>
       <c r="K339">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L339">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M339">
+        <v>3.8</v>
+      </c>
+      <c r="N339">
+        <v>3.3</v>
+      </c>
+      <c r="O339">
         <v>2.05</v>
       </c>
-      <c r="N339">
-        <v>3.4</v>
-      </c>
-      <c r="O339">
-        <v>3.75</v>
-      </c>
       <c r="P339">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q339">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R339">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S339">
         <v>2.25</v>
       </c>
       <c r="T339">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V339">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W339">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA339">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -29813,7 +29813,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7323927</v>
+        <v>6387413</v>
       </c>
       <c r="C340" t="s">
         <v>46</v>
@@ -29822,10 +29822,10 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E340" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F340" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G340">
         <v>1</v>
@@ -29837,61 +29837,61 @@
         <v>90</v>
       </c>
       <c r="J340">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K340">
         <v>3.2</v>
       </c>
       <c r="L340">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M340">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="N340">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O340">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="P340">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q340">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R340">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S340">
         <v>2.25</v>
       </c>
       <c r="T340">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U340">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V340">
         <v>-1</v>
       </c>
       <c r="W340">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="Z340">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
         <v>-0.5</v>
       </c>
       <c r="AB340">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -29899,7 +29899,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6387413</v>
+        <v>7323855</v>
       </c>
       <c r="C341" t="s">
         <v>46</v>
@@ -29908,76 +29908,76 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E341" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F341" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G341">
         <v>1</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J341">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="K341">
         <v>3.2</v>
       </c>
       <c r="L341">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M341">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N341">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O341">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="P341">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q341">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R341">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S341">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T341">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U341">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V341">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W341">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X341">
         <v>-1</v>
       </c>
       <c r="Y341">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z341">
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB341">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="342" spans="1:28">
@@ -33683,7 +33683,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7702211</v>
+        <v>7698357</v>
       </c>
       <c r="C385" t="s">
         <v>46</v>
@@ -33692,55 +33692,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E385" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F385" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I385" t="s">
         <v>90</v>
       </c>
       <c r="J385">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K385">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L385">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M385">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N385">
         <v>2.875</v>
       </c>
       <c r="O385">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P385">
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R385">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S385">
         <v>1.75</v>
       </c>
       <c r="T385">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U385">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V385">
         <v>-1</v>
@@ -33758,10 +33758,10 @@
         <v>0</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB385">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="386" spans="1:28">
@@ -33769,7 +33769,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7698357</v>
+        <v>7702211</v>
       </c>
       <c r="C386" t="s">
         <v>46</v>
@@ -33778,55 +33778,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E386" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F386" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="s">
         <v>90</v>
       </c>
       <c r="J386">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K386">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L386">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M386">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N386">
         <v>2.875</v>
       </c>
       <c r="O386">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P386">
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R386">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S386">
         <v>1.75</v>
       </c>
       <c r="T386">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U386">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V386">
         <v>-1</v>
@@ -33844,10 +33844,10 @@
         <v>0</v>
       </c>
       <c r="AA386">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="387" spans="1:28">
@@ -34199,7 +34199,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698656</v>
+        <v>7698658</v>
       </c>
       <c r="C391" t="s">
         <v>46</v>
@@ -34208,10 +34208,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F391" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -34223,16 +34223,16 @@
         <v>89</v>
       </c>
       <c r="J391">
+        <v>3</v>
+      </c>
+      <c r="K391">
+        <v>2.75</v>
+      </c>
+      <c r="L391">
         <v>2.5</v>
       </c>
-      <c r="K391">
-        <v>2.875</v>
-      </c>
-      <c r="L391">
-        <v>2.75</v>
-      </c>
       <c r="M391">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N391">
         <v>2.9</v>
@@ -34244,22 +34244,22 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S391">
         <v>1.75</v>
       </c>
       <c r="T391">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U391">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V391">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -34268,7 +34268,7 @@
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z391">
         <v>-1</v>
@@ -34277,7 +34277,7 @@
         <v>-1</v>
       </c>
       <c r="AB391">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:28">
@@ -34285,7 +34285,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C392" t="s">
         <v>46</v>
@@ -34294,10 +34294,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F392" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -34312,28 +34312,28 @@
         <v>2.5</v>
       </c>
       <c r="K392">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L392">
         <v>2.75</v>
       </c>
       <c r="M392">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N392">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O392">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P392">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q392">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R392">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S392">
         <v>1.75</v>
@@ -34345,7 +34345,7 @@
         <v>2.025</v>
       </c>
       <c r="V392">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="W392">
         <v>-1</v>
@@ -34354,7 +34354,7 @@
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z392">
         <v>-1</v>
@@ -34371,7 +34371,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C393" t="s">
         <v>46</v>
@@ -34380,10 +34380,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F393" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -34395,43 +34395,43 @@
         <v>89</v>
       </c>
       <c r="J393">
+        <v>2.5</v>
+      </c>
+      <c r="K393">
         <v>3</v>
       </c>
-      <c r="K393">
+      <c r="L393">
         <v>2.75</v>
       </c>
-      <c r="L393">
-        <v>2.5</v>
-      </c>
       <c r="M393">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N393">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O393">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P393">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q393">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R393">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S393">
         <v>1.75</v>
       </c>
       <c r="T393">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V393">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="W393">
         <v>-1</v>
@@ -34440,7 +34440,7 @@
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z393">
         <v>-1</v>
@@ -34449,7 +34449,7 @@
         <v>-1</v>
       </c>
       <c r="AB393">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="394" spans="1:28">
@@ -34715,7 +34715,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C397" t="s">
         <v>46</v>
@@ -34724,76 +34724,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="E397" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F397" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J397">
         <v>2.2</v>
       </c>
       <c r="K397">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M397">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N397">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O397">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P397">
         <v>-0.5</v>
       </c>
       <c r="Q397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S397">
         <v>2</v>
       </c>
       <c r="T397">
+        <v>1.925</v>
+      </c>
+      <c r="U397">
         <v>1.875</v>
       </c>
-      <c r="U397">
-        <v>1.925</v>
-      </c>
       <c r="V397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W397">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X397">
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z397">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:28">
@@ -34801,7 +34801,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C398" t="s">
         <v>46</v>
@@ -34810,76 +34810,76 @@
         <v>45333.83333333334</v>
       </c>
       <c r="E398" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F398" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J398">
         <v>2.2</v>
       </c>
       <c r="K398">
+        <v>3.1</v>
+      </c>
+      <c r="L398">
         <v>3</v>
       </c>
-      <c r="L398">
-        <v>3.2</v>
-      </c>
       <c r="M398">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="N398">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O398">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P398">
         <v>-0.5</v>
       </c>
       <c r="Q398">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R398">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S398">
         <v>2</v>
       </c>
       <c r="T398">
+        <v>1.875</v>
+      </c>
+      <c r="U398">
         <v>1.925</v>
       </c>
-      <c r="U398">
-        <v>1.875</v>
-      </c>
       <c r="V398">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W398">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X398">
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA398">
+        <v>-1</v>
+      </c>
+      <c r="AB398">
         <v>0.925</v>
-      </c>
-      <c r="AB398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:28">
@@ -35833,7 +35833,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698668</v>
+        <v>7698667</v>
       </c>
       <c r="C410" t="s">
         <v>46</v>
@@ -35842,13 +35842,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F410" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -35857,43 +35857,43 @@
         <v>89</v>
       </c>
       <c r="J410">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K410">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L410">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M410">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N410">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O410">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P410">
         <v>-0.25</v>
       </c>
       <c r="Q410">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R410">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S410">
         <v>2</v>
       </c>
       <c r="T410">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U410">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V410">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W410">
         <v>-1</v>
@@ -35902,16 +35902,16 @@
         <v>-1</v>
       </c>
       <c r="Y410">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="Z410">
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB410">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -35919,7 +35919,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698667</v>
+        <v>7698668</v>
       </c>
       <c r="C411" t="s">
         <v>46</v>
@@ -35928,13 +35928,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F411" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -35943,43 +35943,43 @@
         <v>89</v>
       </c>
       <c r="J411">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K411">
+        <v>2.9</v>
+      </c>
+      <c r="L411">
+        <v>3</v>
+      </c>
+      <c r="M411">
+        <v>2.3</v>
+      </c>
+      <c r="N411">
+        <v>3</v>
+      </c>
+      <c r="O411">
         <v>3.5</v>
-      </c>
-      <c r="L411">
-        <v>4</v>
-      </c>
-      <c r="M411">
-        <v>2.1</v>
-      </c>
-      <c r="N411">
-        <v>3.1</v>
-      </c>
-      <c r="O411">
-        <v>3.8</v>
       </c>
       <c r="P411">
         <v>-0.25</v>
       </c>
       <c r="Q411">
+        <v>1.925</v>
+      </c>
+      <c r="R411">
+        <v>1.925</v>
+      </c>
+      <c r="S411">
+        <v>2</v>
+      </c>
+      <c r="T411">
+        <v>2.025</v>
+      </c>
+      <c r="U411">
         <v>1.825</v>
       </c>
-      <c r="R411">
-        <v>1.975</v>
-      </c>
-      <c r="S411">
-        <v>2</v>
-      </c>
-      <c r="T411">
-        <v>1.8</v>
-      </c>
-      <c r="U411">
-        <v>2</v>
-      </c>
       <c r="V411">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W411">
         <v>-1</v>
@@ -35988,16 +35988,16 @@
         <v>-1</v>
       </c>
       <c r="Y411">
+        <v>0.925</v>
+      </c>
+      <c r="Z411">
+        <v>-1</v>
+      </c>
+      <c r="AA411">
+        <v>-1</v>
+      </c>
+      <c r="AB411">
         <v>0.825</v>
-      </c>
-      <c r="Z411">
-        <v>-1</v>
-      </c>
-      <c r="AA411">
-        <v>0</v>
-      </c>
-      <c r="AB411">
-        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:28">
@@ -37553,7 +37553,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698686</v>
+        <v>7698691</v>
       </c>
       <c r="C430" t="s">
         <v>46</v>
@@ -37562,58 +37562,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E430" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F430" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G430">
         <v>4</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="s">
         <v>89</v>
       </c>
       <c r="J430">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K430">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L430">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M430">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N430">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O430">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P430">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q430">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R430">
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T430">
         <v>1.8</v>
       </c>
       <c r="U430">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V430">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W430">
         <v>-1</v>
@@ -37622,7 +37622,7 @@
         <v>-1</v>
       </c>
       <c r="Y430">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z430">
         <v>-1</v>
@@ -37725,7 +37725,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698691</v>
+        <v>7698686</v>
       </c>
       <c r="C432" t="s">
         <v>46</v>
@@ -37734,58 +37734,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E432" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F432" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G432">
         <v>4</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="s">
         <v>89</v>
       </c>
       <c r="J432">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K432">
+        <v>2.9</v>
+      </c>
+      <c r="L432">
         <v>3.5</v>
       </c>
-      <c r="L432">
-        <v>4</v>
-      </c>
       <c r="M432">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N432">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O432">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P432">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q432">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R432">
         <v>1.875</v>
       </c>
       <c r="S432">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T432">
         <v>1.8</v>
       </c>
       <c r="U432">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V432">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W432">
         <v>-1</v>
@@ -37794,7 +37794,7 @@
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z432">
         <v>-1</v>
@@ -38671,7 +38671,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7702204</v>
+        <v>7702205</v>
       </c>
       <c r="C443" t="s">
         <v>46</v>
@@ -38680,19 +38680,19 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E443" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F443" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J443">
         <v>1.8</v>
@@ -38704,52 +38704,52 @@
         <v>4.5</v>
       </c>
       <c r="M443">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="N443">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O443">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P443">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q443">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R443">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S443">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T443">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U443">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V443">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W443">
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y443">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA443">
         <v>-1</v>
       </c>
       <c r="AB443">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="444" spans="1:28">
@@ -38757,7 +38757,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7698700</v>
+        <v>7698701</v>
       </c>
       <c r="C444" t="s">
         <v>46</v>
@@ -38766,10 +38766,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E444" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F444" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G444">
         <v>0</v>
@@ -38781,61 +38781,61 @@
         <v>90</v>
       </c>
       <c r="J444">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K444">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L444">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M444">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="N444">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O444">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P444">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q444">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R444">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S444">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T444">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U444">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V444">
         <v>-1</v>
       </c>
       <c r="W444">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA444">
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="445" spans="1:28">
@@ -38843,7 +38843,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698697</v>
+        <v>7698700</v>
       </c>
       <c r="C445" t="s">
         <v>46</v>
@@ -38852,49 +38852,49 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E445" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F445" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J445">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K445">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L445">
+        <v>4</v>
+      </c>
+      <c r="M445">
+        <v>2.1</v>
+      </c>
+      <c r="N445">
+        <v>2.8</v>
+      </c>
+      <c r="O445">
         <v>4.5</v>
       </c>
-      <c r="M445">
-        <v>1.8</v>
-      </c>
-      <c r="N445">
-        <v>3.3</v>
-      </c>
-      <c r="O445">
-        <v>5.25</v>
-      </c>
       <c r="P445">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q445">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R445">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S445">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T445">
         <v>1.8</v>
@@ -38906,22 +38906,22 @@
         <v>-1</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X445">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z445">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA445">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:28">
@@ -38929,7 +38929,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698696</v>
+        <v>7698697</v>
       </c>
       <c r="C446" t="s">
         <v>46</v>
@@ -38938,76 +38938,76 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E446" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F446" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G446">
         <v>1</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J446">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K446">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L446">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M446">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N446">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O446">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P446">
         <v>-0.5</v>
       </c>
       <c r="Q446">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R446">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S446">
         <v>2</v>
       </c>
       <c r="T446">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U446">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V446">
         <v>-1</v>
       </c>
       <c r="W446">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X446">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y446">
         <v>-1</v>
       </c>
       <c r="Z446">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA446">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB446">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447" spans="1:28">
@@ -39015,7 +39015,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7698701</v>
+        <v>7698696</v>
       </c>
       <c r="C447" t="s">
         <v>46</v>
@@ -39024,61 +39024,61 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E447" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F447" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447" t="s">
         <v>90</v>
       </c>
       <c r="J447">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K447">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L447">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M447">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="N447">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O447">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="P447">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q447">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R447">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S447">
         <v>2</v>
       </c>
       <c r="T447">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U447">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V447">
         <v>-1</v>
       </c>
       <c r="W447">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="X447">
         <v>-1</v>
@@ -39087,13 +39087,13 @@
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA447">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB447">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:28">
@@ -39101,7 +39101,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7702205</v>
+        <v>7702204</v>
       </c>
       <c r="C448" t="s">
         <v>46</v>
@@ -39110,19 +39110,19 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E448" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F448" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G448">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J448">
         <v>1.8</v>
@@ -39134,52 +39134,52 @@
         <v>4.5</v>
       </c>
       <c r="M448">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="N448">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O448">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P448">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q448">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R448">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S448">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T448">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U448">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V448">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W448">
         <v>-1</v>
       </c>
       <c r="X448">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z448">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
         <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="449" spans="1:28">
@@ -39789,7 +39789,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>7698708</v>
+        <v>7698712</v>
       </c>
       <c r="C456" t="s">
         <v>46</v>
@@ -39798,10 +39798,10 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E456" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F456" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -39813,61 +39813,61 @@
         <v>90</v>
       </c>
       <c r="J456">
+        <v>1.909</v>
+      </c>
+      <c r="K456">
         <v>3</v>
       </c>
-      <c r="K456">
-        <v>2.8</v>
-      </c>
       <c r="L456">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="M456">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="N456">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O456">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P456">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q456">
+        <v>1.85</v>
+      </c>
+      <c r="R456">
         <v>1.95</v>
-      </c>
-      <c r="R456">
-        <v>1.85</v>
       </c>
       <c r="S456">
         <v>1.75</v>
       </c>
       <c r="T456">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U456">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V456">
         <v>-1</v>
       </c>
       <c r="W456">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA456">
         <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="457" spans="1:28">
@@ -39875,7 +39875,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7698712</v>
+        <v>7698716</v>
       </c>
       <c r="C457" t="s">
         <v>46</v>
@@ -39884,10 +39884,10 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E457" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F457" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -39899,19 +39899,19 @@
         <v>90</v>
       </c>
       <c r="J457">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K457">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L457">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M457">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="N457">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O457">
         <v>4.75</v>
@@ -39920,25 +39920,25 @@
         <v>-0.5</v>
       </c>
       <c r="Q457">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R457">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S457">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T457">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U457">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V457">
         <v>-1</v>
       </c>
       <c r="W457">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -39947,13 +39947,13 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA457">
         <v>-1</v>
       </c>
       <c r="AB457">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="458" spans="1:28">
@@ -39961,7 +39961,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7698716</v>
+        <v>7702203</v>
       </c>
       <c r="C458" t="s">
         <v>46</v>
@@ -39970,76 +39970,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E458" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F458" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I458" t="s">
         <v>90</v>
       </c>
       <c r="J458">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K458">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L458">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="M458">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="N458">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O458">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P458">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q458">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R458">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S458">
         <v>2</v>
       </c>
       <c r="T458">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U458">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V458">
         <v>-1</v>
       </c>
       <c r="W458">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="X458">
         <v>-1</v>
       </c>
       <c r="Y458">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA458">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB458">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:28">
@@ -40047,7 +40047,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7702203</v>
+        <v>7698708</v>
       </c>
       <c r="C459" t="s">
         <v>46</v>
@@ -40056,61 +40056,61 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E459" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F459" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="s">
         <v>90</v>
       </c>
       <c r="J459">
+        <v>3</v>
+      </c>
+      <c r="K459">
+        <v>2.8</v>
+      </c>
+      <c r="L459">
+        <v>2.45</v>
+      </c>
+      <c r="M459">
+        <v>2.9</v>
+      </c>
+      <c r="N459">
+        <v>2.875</v>
+      </c>
+      <c r="O459">
         <v>2.75</v>
       </c>
-      <c r="K459">
-        <v>3</v>
-      </c>
-      <c r="L459">
-        <v>2.375</v>
-      </c>
-      <c r="M459">
-        <v>2.625</v>
-      </c>
-      <c r="N459">
-        <v>3.1</v>
-      </c>
-      <c r="O459">
-        <v>2.875</v>
-      </c>
       <c r="P459">
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R459">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S459">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T459">
+        <v>1.85</v>
+      </c>
+      <c r="U459">
         <v>1.95</v>
       </c>
-      <c r="U459">
-        <v>1.85</v>
-      </c>
       <c r="V459">
         <v>-1</v>
       </c>
       <c r="W459">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -40122,10 +40122,10 @@
         <v>0</v>
       </c>
       <c r="AA459">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB459">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="460" spans="1:28">
@@ -40391,7 +40391,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>7698710</v>
+        <v>7698705</v>
       </c>
       <c r="C463" t="s">
         <v>46</v>
@@ -40400,76 +40400,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E463" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F463" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G463">
         <v>2</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J463">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="K463">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L463">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M463">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N463">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O463">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P463">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q463">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R463">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S463">
         <v>1.75</v>
       </c>
       <c r="T463">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U463">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V463">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X463">
         <v>-1</v>
       </c>
       <c r="Y463">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z463">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA463">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:28">
@@ -40649,7 +40649,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698705</v>
+        <v>7698710</v>
       </c>
       <c r="C466" t="s">
         <v>46</v>
@@ -40658,76 +40658,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E466" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F466" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G466">
         <v>2</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J466">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="K466">
+        <v>2.75</v>
+      </c>
+      <c r="L466">
+        <v>2.875</v>
+      </c>
+      <c r="M466">
+        <v>2.75</v>
+      </c>
+      <c r="N466">
+        <v>2.8</v>
+      </c>
+      <c r="O466">
         <v>3</v>
       </c>
-      <c r="L466">
-        <v>3.6</v>
-      </c>
-      <c r="M466">
-        <v>2.375</v>
-      </c>
-      <c r="N466">
-        <v>3</v>
-      </c>
-      <c r="O466">
-        <v>3.4</v>
-      </c>
       <c r="P466">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q466">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R466">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S466">
         <v>1.75</v>
       </c>
       <c r="T466">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U466">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V466">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W466">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X466">
         <v>-1</v>
       </c>
       <c r="Y466">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z466">
+        <v>-1</v>
+      </c>
+      <c r="AA466">
+        <v>0.45</v>
+      </c>
+      <c r="AB466">
         <v>-0.5</v>
-      </c>
-      <c r="Z466">
-        <v>0.4375</v>
-      </c>
-      <c r="AA466">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB466">
-        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:28">
@@ -43143,7 +43143,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7698735</v>
+        <v>7698731</v>
       </c>
       <c r="C495" t="s">
         <v>46</v>
@@ -43152,13 +43152,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="E495" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F495" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H495">
         <v>0</v>
@@ -43167,43 +43167,43 @@
         <v>89</v>
       </c>
       <c r="J495">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="K495">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L495">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M495">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N495">
         <v>2.875</v>
       </c>
       <c r="O495">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P495">
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S495">
         <v>1.75</v>
       </c>
       <c r="T495">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U495">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V495">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="W495">
         <v>-1</v>
@@ -43212,16 +43212,16 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Z495">
         <v>-1</v>
       </c>
       <c r="AA495">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB495">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="496" spans="1:28">
@@ -43229,7 +43229,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7698731</v>
+        <v>7698735</v>
       </c>
       <c r="C496" t="s">
         <v>46</v>
@@ -43238,13 +43238,13 @@
         <v>45374.64583333334</v>
       </c>
       <c r="E496" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F496" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H496">
         <v>0</v>
@@ -43253,43 +43253,43 @@
         <v>89</v>
       </c>
       <c r="J496">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K496">
+        <v>2.8</v>
+      </c>
+      <c r="L496">
         <v>2.875</v>
       </c>
-      <c r="L496">
-        <v>2.5</v>
-      </c>
       <c r="M496">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N496">
         <v>2.875</v>
       </c>
       <c r="O496">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P496">
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R496">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S496">
         <v>1.75</v>
       </c>
       <c r="T496">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U496">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V496">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="W496">
         <v>-1</v>
@@ -43298,16 +43298,16 @@
         <v>-1</v>
       </c>
       <c r="Y496">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z496">
         <v>-1</v>
       </c>
       <c r="AA496">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB496">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="497" spans="1:28">
@@ -50281,7 +50281,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>7702191</v>
+        <v>7698791</v>
       </c>
       <c r="C578" t="s">
         <v>46</v>
@@ -50290,13 +50290,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E578" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F578" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G578">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H578">
         <v>0</v>
@@ -50305,43 +50305,43 @@
         <v>89</v>
       </c>
       <c r="J578">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="K578">
         <v>2.75</v>
       </c>
       <c r="L578">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M578">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N578">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O578">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P578">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q578">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R578">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S578">
         <v>1.75</v>
       </c>
       <c r="T578">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U578">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V578">
-        <v>1.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W578">
         <v>-1</v>
@@ -50350,16 +50350,16 @@
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA578">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="579" spans="1:28">
@@ -50367,7 +50367,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7698791</v>
+        <v>7702191</v>
       </c>
       <c r="C579" t="s">
         <v>46</v>
@@ -50376,13 +50376,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E579" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F579" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H579">
         <v>0</v>
@@ -50391,43 +50391,43 @@
         <v>89</v>
       </c>
       <c r="J579">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K579">
         <v>2.75</v>
       </c>
       <c r="L579">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M579">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="N579">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O579">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P579">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q579">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R579">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S579">
         <v>1.75</v>
       </c>
       <c r="T579">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U579">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V579">
-        <v>0.7270000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="W579">
         <v>-1</v>
@@ -50436,16 +50436,16 @@
         <v>-1</v>
       </c>
       <c r="Y579">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z579">
+        <v>-1</v>
+      </c>
+      <c r="AA579">
+        <v>0.45</v>
+      </c>
+      <c r="AB579">
         <v>-0.5</v>
-      </c>
-      <c r="AA579">
-        <v>-1</v>
-      </c>
-      <c r="AB579">
-        <v>1.025</v>
       </c>
     </row>
     <row r="580" spans="1:28">
@@ -51829,7 +51829,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>8133801</v>
+        <v>8133935</v>
       </c>
       <c r="C596" t="s">
         <v>46</v>
@@ -51838,16 +51838,16 @@
         <v>45410.625</v>
       </c>
       <c r="E596" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F596" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G596">
         <v>2</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I596" t="s">
         <v>89</v>
@@ -51856,40 +51856,40 @@
         <v>2.75</v>
       </c>
       <c r="K596">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L596">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="M596">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N596">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O596">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P596">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q596">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R596">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S596">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T596">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U596">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V596">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W596">
         <v>-1</v>
@@ -51898,16 +51898,16 @@
         <v>-1</v>
       </c>
       <c r="Y596">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z596">
         <v>-1</v>
       </c>
       <c r="AA596">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB596">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:28">
@@ -51915,7 +51915,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>8133935</v>
+        <v>8133801</v>
       </c>
       <c r="C597" t="s">
         <v>46</v>
@@ -51924,16 +51924,16 @@
         <v>45410.625</v>
       </c>
       <c r="E597" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F597" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G597">
         <v>2</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="s">
         <v>89</v>
@@ -51942,40 +51942,40 @@
         <v>2.75</v>
       </c>
       <c r="K597">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L597">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M597">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N597">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O597">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P597">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q597">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="R597">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S597">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T597">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V597">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W597">
         <v>-1</v>
@@ -51984,16 +51984,16 @@
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z597">
         <v>-1</v>
       </c>
       <c r="AA597">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB597">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="598" spans="1:28">
@@ -52001,7 +52001,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>8133934</v>
+        <v>8133806</v>
       </c>
       <c r="C598" t="s">
         <v>46</v>
@@ -52010,76 +52010,76 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E598" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F598" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G598">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J598">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K598">
         <v>2.75</v>
       </c>
       <c r="L598">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M598">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N598">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O598">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P598">
         <v>-0.25</v>
       </c>
       <c r="Q598">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="R598">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S598">
         <v>1.75</v>
       </c>
       <c r="T598">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U598">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V598">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W598">
         <v>-1</v>
       </c>
       <c r="X598">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y598">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="Z598">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="599" spans="1:28">
@@ -52087,7 +52087,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>8133929</v>
+        <v>8133934</v>
       </c>
       <c r="C599" t="s">
         <v>46</v>
@@ -52096,34 +52096,34 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E599" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F599" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G599">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H599">
         <v>1</v>
       </c>
       <c r="I599" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J599">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="K599">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L599">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M599">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N599">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O599">
         <v>3.6</v>
@@ -52132,40 +52132,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q599">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R599">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S599">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T599">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U599">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V599">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W599">
         <v>-1</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y599">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z599">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA599">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:28">
@@ -52173,7 +52173,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>8133806</v>
+        <v>8133929</v>
       </c>
       <c r="C600" t="s">
         <v>46</v>
@@ -52182,58 +52182,58 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E600" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F600" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600" t="s">
         <v>89</v>
       </c>
       <c r="J600">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K600">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L600">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M600">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N600">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O600">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P600">
         <v>-0.25</v>
       </c>
       <c r="Q600">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="R600">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S600">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T600">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U600">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V600">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W600">
         <v>-1</v>
@@ -52242,16 +52242,16 @@
         <v>-1</v>
       </c>
       <c r="Y600">
-        <v>1.125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z600">
         <v>-1</v>
       </c>
       <c r="AA600">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB600">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:28">
@@ -52259,7 +52259,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>8133938</v>
+        <v>8133808</v>
       </c>
       <c r="C601" t="s">
         <v>46</v>
@@ -52268,58 +52268,58 @@
         <v>45410.66666666666</v>
       </c>
       <c r="E601" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F601" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G601">
         <v>2</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="s">
         <v>89</v>
       </c>
       <c r="J601">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K601">
+        <v>2.9</v>
+      </c>
+      <c r="L601">
+        <v>3.5</v>
+      </c>
+      <c r="M601">
+        <v>1.95</v>
+      </c>
+      <c r="N601">
         <v>3.4</v>
       </c>
-      <c r="L601">
-        <v>5</v>
-      </c>
-      <c r="M601">
-        <v>2.1</v>
-      </c>
-      <c r="N601">
-        <v>3.2</v>
-      </c>
       <c r="O601">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P601">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q601">
+        <v>1.9</v>
+      </c>
+      <c r="R601">
+        <v>1.9</v>
+      </c>
+      <c r="S601">
+        <v>2</v>
+      </c>
+      <c r="T601">
         <v>1.775</v>
       </c>
-      <c r="R601">
+      <c r="U601">
         <v>2.025</v>
       </c>
-      <c r="S601">
-        <v>2</v>
-      </c>
-      <c r="T601">
-        <v>1.75</v>
-      </c>
-      <c r="U601">
-        <v>2.05</v>
-      </c>
       <c r="V601">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="W601">
         <v>-1</v>
@@ -52328,16 +52328,16 @@
         <v>-1</v>
       </c>
       <c r="Y601">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z601">
         <v>-1</v>
       </c>
       <c r="AA601">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB601">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:28">
@@ -52345,7 +52345,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>8133808</v>
+        <v>8133938</v>
       </c>
       <c r="C602" t="s">
         <v>46</v>
@@ -52354,58 +52354,58 @@
         <v>45410.66666666666</v>
       </c>
       <c r="E602" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F602" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G602">
         <v>2</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I602" t="s">
         <v>89</v>
       </c>
       <c r="J602">
+        <v>1.615</v>
+      </c>
+      <c r="K602">
+        <v>3.4</v>
+      </c>
+      <c r="L602">
+        <v>5</v>
+      </c>
+      <c r="M602">
         <v>2.1</v>
       </c>
-      <c r="K602">
-        <v>2.9</v>
-      </c>
-      <c r="L602">
-        <v>3.5</v>
-      </c>
-      <c r="M602">
-        <v>1.95</v>
-      </c>
       <c r="N602">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O602">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P602">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q602">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R602">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S602">
         <v>2</v>
       </c>
       <c r="T602">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U602">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V602">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="W602">
         <v>-1</v>
@@ -52414,16 +52414,16 @@
         <v>-1</v>
       </c>
       <c r="Y602">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z602">
         <v>-1</v>
       </c>
       <c r="AA602">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB602">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603" spans="1:28">
@@ -53205,7 +53205,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>8165190</v>
+        <v>8165224</v>
       </c>
       <c r="C612" t="s">
         <v>46</v>
@@ -53214,76 +53214,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E612" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F612" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H612">
         <v>1</v>
       </c>
       <c r="I612" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J612">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K612">
         <v>3</v>
       </c>
       <c r="L612">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M612">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="N612">
         <v>3</v>
       </c>
       <c r="O612">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P612">
         <v>-0.5</v>
       </c>
       <c r="Q612">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R612">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S612">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T612">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U612">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V612">
         <v>-1</v>
       </c>
       <c r="W612">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X612">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y612">
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA612">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB612">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="613" spans="1:28">
@@ -53291,7 +53291,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>8165224</v>
+        <v>8165190</v>
       </c>
       <c r="C613" t="s">
         <v>46</v>
@@ -53300,76 +53300,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E613" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F613" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613">
         <v>1</v>
       </c>
       <c r="I613" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J613">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K613">
         <v>3</v>
       </c>
       <c r="L613">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M613">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N613">
         <v>3</v>
       </c>
       <c r="O613">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P613">
         <v>-0.5</v>
       </c>
       <c r="Q613">
+        <v>1.875</v>
+      </c>
+      <c r="R613">
         <v>1.975</v>
       </c>
-      <c r="R613">
-        <v>1.825</v>
-      </c>
       <c r="S613">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T613">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U613">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V613">
         <v>-1</v>
       </c>
       <c r="W613">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X613">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y613">
         <v>-1</v>
       </c>
       <c r="Z613">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA613">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB613">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="614" spans="1:28">
@@ -53549,7 +53549,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>7698806</v>
+        <v>7698808</v>
       </c>
       <c r="C616" t="s">
         <v>46</v>
@@ -53558,76 +53558,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E616" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F616" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G616">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H616">
         <v>0</v>
       </c>
       <c r="I616" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J616">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K616">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L616">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M616">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N616">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O616">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P616">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q616">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R616">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S616">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T616">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U616">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V616">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W616">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X616">
         <v>-1</v>
       </c>
       <c r="Y616">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z616">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA616">
         <v>-1</v>
       </c>
       <c r="AB616">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="617" spans="1:28">
@@ -53635,7 +53635,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>7698808</v>
+        <v>7698806</v>
       </c>
       <c r="C617" t="s">
         <v>46</v>
@@ -53644,76 +53644,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E617" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F617" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H617">
         <v>0</v>
       </c>
       <c r="I617" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J617">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K617">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L617">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M617">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N617">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O617">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P617">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q617">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R617">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S617">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T617">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U617">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V617">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W617">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X617">
         <v>-1</v>
       </c>
       <c r="Y617">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z617">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA617">
         <v>-1</v>
       </c>
       <c r="AB617">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="618" spans="1:28">
@@ -56153,31 +56153,31 @@
         <v>4</v>
       </c>
       <c r="M646">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N646">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O646">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P646">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q646">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R646">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S646">
         <v>1.75</v>
       </c>
       <c r="T646">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U646">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V646">
         <v>0</v>
@@ -56203,46 +56203,46 @@
         <v>45430.64583333334</v>
       </c>
       <c r="E647" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F647" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J647">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K647">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L647">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M647">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N647">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O647">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="P647">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q647">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R647">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S647">
         <v>1.75</v>
       </c>
       <c r="T647">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U647">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V647">
         <v>0</v>
@@ -56268,46 +56268,46 @@
         <v>45430.64583333334</v>
       </c>
       <c r="E648" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F648" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J648">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K648">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L648">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M648">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N648">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O648">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="P648">
         <v>-0.25</v>
       </c>
       <c r="Q648">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R648">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S648">
         <v>1.75</v>
       </c>
       <c r="T648">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U648">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V648">
         <v>0</v>
@@ -56348,31 +56348,31 @@
         <v>3.5</v>
       </c>
       <c r="M649">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N649">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O649">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="P649">
         <v>-0.5</v>
       </c>
       <c r="Q649">
+        <v>1.875</v>
+      </c>
+      <c r="R649">
         <v>1.975</v>
       </c>
-      <c r="R649">
-        <v>1.875</v>
-      </c>
       <c r="S649">
         <v>2</v>
       </c>
       <c r="T649">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U649">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V649">
         <v>0</v>
@@ -56460,34 +56460,34 @@
         <v>46</v>
       </c>
       <c r="D651" s="2">
-        <v>45431.5625</v>
+        <v>45431.57291666666</v>
       </c>
       <c r="E651" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F651" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J651">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="K651">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L651">
+        <v>4.333</v>
+      </c>
+      <c r="M651">
+        <v>2</v>
+      </c>
+      <c r="N651">
+        <v>3.4</v>
+      </c>
+      <c r="O651">
         <v>3.75</v>
       </c>
-      <c r="M651">
-        <v>2.5</v>
-      </c>
-      <c r="N651">
-        <v>2.8</v>
-      </c>
-      <c r="O651">
-        <v>3.3</v>
-      </c>
       <c r="P651">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q651">
         <v>2.025</v>
@@ -56499,10 +56499,10 @@
         <v>2</v>
       </c>
       <c r="T651">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U651">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V651">
         <v>0</v>
@@ -56525,49 +56525,49 @@
         <v>46</v>
       </c>
       <c r="D652" s="2">
-        <v>45431.58333333334</v>
+        <v>45431.625</v>
       </c>
       <c r="E652" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F652" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J652">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="K652">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L652">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="M652">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N652">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O652">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="P652">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q652">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="R652">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S652">
         <v>2</v>
       </c>
       <c r="T652">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U652">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V652">
         <v>0</v>
@@ -56593,46 +56593,46 @@
         <v>45431.625</v>
       </c>
       <c r="E653" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F653" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J653">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="K653">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L653">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M653">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N653">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O653">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P653">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q653">
+        <v>1.775</v>
+      </c>
+      <c r="R653">
         <v>2.1</v>
       </c>
-      <c r="R653">
-        <v>1.775</v>
-      </c>
       <c r="S653">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T653">
+        <v>1.8</v>
+      </c>
+      <c r="U653">
         <v>2.05</v>
-      </c>
-      <c r="U653">
-        <v>1.8</v>
       </c>
       <c r="V653">
         <v>0</v>
@@ -56655,49 +56655,49 @@
         <v>46</v>
       </c>
       <c r="D654" s="2">
-        <v>45431.625</v>
+        <v>45431.64583333334</v>
       </c>
       <c r="E654" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F654" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J654">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="K654">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L654">
         <v>4.5</v>
       </c>
       <c r="M654">
+        <v>1.75</v>
+      </c>
+      <c r="N654">
+        <v>3.5</v>
+      </c>
+      <c r="O654">
+        <v>4.75</v>
+      </c>
+      <c r="P654">
+        <v>-0.75</v>
+      </c>
+      <c r="Q654">
         <v>2.05</v>
       </c>
-      <c r="N654">
-        <v>3.2</v>
-      </c>
-      <c r="O654">
-        <v>3.75</v>
-      </c>
-      <c r="P654">
-        <v>-0.25</v>
-      </c>
-      <c r="Q654">
-        <v>1.775</v>
-      </c>
       <c r="R654">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S654">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T654">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U654">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V654">
         <v>0</v>
@@ -56723,46 +56723,46 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E655" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F655" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J655">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K655">
         <v>3</v>
       </c>
       <c r="L655">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M655">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N655">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O655">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P655">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q655">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R655">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S655">
         <v>1.75</v>
       </c>
       <c r="T655">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U655">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V655">
         <v>0</v>
@@ -56788,46 +56788,46 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E656" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F656" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J656">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K656">
         <v>3</v>
       </c>
       <c r="L656">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M656">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N656">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O656">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P656">
         <v>-0.25</v>
       </c>
       <c r="Q656">
-        <v>2.125</v>
+        <v>1.825</v>
       </c>
       <c r="R656">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S656">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T656">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U656">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V656">
         <v>0</v>
@@ -56853,46 +56853,46 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E657" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F657" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J657">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K657">
         <v>3</v>
       </c>
       <c r="L657">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M657">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N657">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O657">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="P657">
         <v>-0.25</v>
       </c>
       <c r="Q657">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R657">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S657">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T657">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U657">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V657">
         <v>0</v>
@@ -56915,49 +56915,49 @@
         <v>46</v>
       </c>
       <c r="D658" s="2">
-        <v>45431.64583333334</v>
+        <v>45431.65625</v>
       </c>
       <c r="E658" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F658" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J658">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="K658">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L658">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M658">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="N658">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O658">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P658">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q658">
+        <v>1.825</v>
+      </c>
+      <c r="R658">
+        <v>2.025</v>
+      </c>
+      <c r="S658">
+        <v>2.25</v>
+      </c>
+      <c r="T658">
         <v>2.05</v>
       </c>
-      <c r="R658">
+      <c r="U658">
         <v>1.8</v>
-      </c>
-      <c r="S658">
-        <v>2</v>
-      </c>
-      <c r="T658">
-        <v>1.875</v>
-      </c>
-      <c r="U658">
-        <v>1.975</v>
       </c>
       <c r="V658">
         <v>0</v>
@@ -56980,49 +56980,49 @@
         <v>46</v>
       </c>
       <c r="D659" s="2">
-        <v>45431.65625</v>
+        <v>45431.66666666666</v>
       </c>
       <c r="E659" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F659" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="J659">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="K659">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L659">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M659">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="N659">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O659">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="P659">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q659">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R659">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S659">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T659">
+        <v>1.8</v>
+      </c>
+      <c r="U659">
         <v>2.05</v>
-      </c>
-      <c r="U659">
-        <v>1.8</v>
       </c>
       <c r="V659">
         <v>0</v>
@@ -57045,49 +57045,49 @@
         <v>46</v>
       </c>
       <c r="D660" s="2">
-        <v>45431.66666666666</v>
+        <v>45431.75</v>
       </c>
       <c r="E660" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F660" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J660">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K660">
+        <v>2.875</v>
+      </c>
+      <c r="L660">
         <v>3.5</v>
       </c>
-      <c r="L660">
-        <v>3.75</v>
-      </c>
       <c r="M660">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N660">
+        <v>2.875</v>
+      </c>
+      <c r="O660">
         <v>3.8</v>
       </c>
-      <c r="O660">
-        <v>4.1</v>
-      </c>
       <c r="P660">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q660">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R660">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S660">
         <v>1.75</v>
       </c>
       <c r="T660">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U660">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V660">
         <v>0</v>
@@ -57110,49 +57110,49 @@
         <v>46</v>
       </c>
       <c r="D661" s="2">
-        <v>45431.75</v>
+        <v>45432.64583333334</v>
       </c>
       <c r="E661" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F661" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J661">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="K661">
         <v>2.875</v>
       </c>
       <c r="L661">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M661">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N661">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O661">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P661">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q661">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R661">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S661">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T661">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U661">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V661">
         <v>0</v>
@@ -57175,49 +57175,49 @@
         <v>46</v>
       </c>
       <c r="D662" s="2">
-        <v>45432.64583333334</v>
+        <v>45432.88194444445</v>
       </c>
       <c r="E662" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F662" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J662">
+        <v>1.727</v>
+      </c>
+      <c r="K662">
         <v>3.5</v>
       </c>
-      <c r="K662">
-        <v>2.875</v>
-      </c>
       <c r="L662">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="M662">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="N662">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="O662">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="P662">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q662">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R662">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S662">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T662">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U662">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V662">
         <v>0</v>
@@ -57240,49 +57240,49 @@
         <v>46</v>
       </c>
       <c r="D663" s="2">
-        <v>45432.88194444445</v>
+        <v>45432.89583333334</v>
       </c>
       <c r="E663" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F663" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J663">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="K663">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L663">
         <v>5</v>
       </c>
       <c r="M663">
+        <v>1.8</v>
+      </c>
+      <c r="N663">
+        <v>3.1</v>
+      </c>
+      <c r="O663">
+        <v>5</v>
+      </c>
+      <c r="P663">
+        <v>-0.5</v>
+      </c>
+      <c r="Q663">
+        <v>1.825</v>
+      </c>
+      <c r="R663">
+        <v>2.025</v>
+      </c>
+      <c r="S663">
         <v>1.75</v>
       </c>
-      <c r="N663">
-        <v>3.6</v>
-      </c>
-      <c r="O663">
-        <v>4.75</v>
-      </c>
-      <c r="P663">
-        <v>-0.75</v>
-      </c>
-      <c r="Q663">
+      <c r="T663">
+        <v>1.825</v>
+      </c>
+      <c r="U663">
         <v>2.025</v>
-      </c>
-      <c r="R663">
-        <v>1.825</v>
-      </c>
-      <c r="S663">
-        <v>2.25</v>
-      </c>
-      <c r="T663">
-        <v>2.1</v>
-      </c>
-      <c r="U663">
-        <v>1.775</v>
       </c>
       <c r="V663">
         <v>0</v>
@@ -57305,49 +57305,49 @@
         <v>46</v>
       </c>
       <c r="D664" s="2">
-        <v>45432.89583333334</v>
+        <v>45433.67013888889</v>
       </c>
       <c r="E664" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F664" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J664">
+        <v>2.15</v>
+      </c>
+      <c r="K664">
+        <v>2.875</v>
+      </c>
+      <c r="L664">
+        <v>3.75</v>
+      </c>
+      <c r="M664">
+        <v>2.5</v>
+      </c>
+      <c r="N664">
+        <v>2.8</v>
+      </c>
+      <c r="O664">
+        <v>3.3</v>
+      </c>
+      <c r="P664">
+        <v>-0.25</v>
+      </c>
+      <c r="Q664">
+        <v>2.025</v>
+      </c>
+      <c r="R664">
+        <v>1.825</v>
+      </c>
+      <c r="S664">
+        <v>2</v>
+      </c>
+      <c r="T664">
+        <v>2.05</v>
+      </c>
+      <c r="U664">
         <v>1.8</v>
-      </c>
-      <c r="K664">
-        <v>3.1</v>
-      </c>
-      <c r="L664">
-        <v>5</v>
-      </c>
-      <c r="M664">
-        <v>1.8</v>
-      </c>
-      <c r="N664">
-        <v>3.1</v>
-      </c>
-      <c r="O664">
-        <v>5</v>
-      </c>
-      <c r="P664">
-        <v>-0.5</v>
-      </c>
-      <c r="Q664">
-        <v>1.825</v>
-      </c>
-      <c r="R664">
-        <v>2.025</v>
-      </c>
-      <c r="S664">
-        <v>1.75</v>
-      </c>
-      <c r="T664">
-        <v>1.825</v>
-      </c>
-      <c r="U664">
-        <v>2.025</v>
       </c>
       <c r="V664">
         <v>0</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -136,13 +136,13 @@
     <t>8243343</t>
   </si>
   <si>
-    <t>8243344</t>
+    <t>8243342</t>
   </si>
   <si>
     <t>8243339</t>
   </si>
   <si>
-    <t>8243342</t>
+    <t>8243344</t>
   </si>
   <si>
     <t>7698594</t>
@@ -274,10 +274,10 @@
     <t>Colon</t>
   </si>
   <si>
-    <t>Gimnasia y Tiro</t>
+    <t>Arsenal de Sarandi</t>
   </si>
   <si>
-    <t>Arsenal de Sarandi</t>
+    <t>Gimnasia y Tiro</t>
   </si>
   <si>
     <t>CA San Miguel</t>
@@ -5647,7 +5647,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6150463</v>
+        <v>6150861</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -5656,46 +5656,46 @@
         <v>45102.625</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J59">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="K59">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="L59">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N59">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="R59">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
         <v>2</v>
@@ -5710,16 +5710,16 @@
         <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z59">
-        <v>1.075</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA59">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6150861</v>
+        <v>6150463</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
@@ -5742,46 +5742,46 @@
         <v>45102.625</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J60">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="K60">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5796,16 +5796,16 @@
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.5249999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA60">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6150467</v>
+        <v>6150697</v>
       </c>
       <c r="C77" t="s">
         <v>46</v>
@@ -7204,58 +7204,58 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
         <v>89</v>
       </c>
       <c r="J77">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L77">
         <v>3.5</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P77">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q77">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7264,16 +7264,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7281,7 +7281,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6150697</v>
+        <v>6150467</v>
       </c>
       <c r="C78" t="s">
         <v>46</v>
@@ -7290,58 +7290,58 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
         <v>89</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K78">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
         <v>3.5</v>
       </c>
       <c r="M78">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O78">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P78">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T78">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7350,16 +7350,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -10463,7 +10463,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6903682</v>
+        <v>6903653</v>
       </c>
       <c r="C115" t="s">
         <v>46</v>
@@ -10472,13 +10472,13 @@
         <v>45124.625</v>
       </c>
       <c r="E115" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F115" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10487,34 +10487,34 @@
         <v>91</v>
       </c>
       <c r="J115">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K115">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="N115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P115">
         <v>-0.75</v>
       </c>
       <c r="Q115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
         <v>1.8</v>
@@ -10529,19 +10529,19 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10549,7 +10549,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6903653</v>
+        <v>6903682</v>
       </c>
       <c r="C116" t="s">
         <v>46</v>
@@ -10558,13 +10558,13 @@
         <v>45124.625</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F116" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10573,34 +10573,34 @@
         <v>91</v>
       </c>
       <c r="J116">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P116">
         <v>-0.75</v>
       </c>
       <c r="Q116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>1.8</v>
@@ -10615,19 +10615,19 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10979,7 +10979,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6150886</v>
+        <v>6150885</v>
       </c>
       <c r="C121" t="s">
         <v>46</v>
@@ -10988,76 +10988,76 @@
         <v>45129.625</v>
       </c>
       <c r="E121" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F121" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J121">
         <v>2.5</v>
       </c>
       <c r="K121">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M121">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O121">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
+        <v>-0.25</v>
+      </c>
+      <c r="Q121">
+        <v>1.85</v>
+      </c>
+      <c r="R121">
+        <v>1.95</v>
+      </c>
+      <c r="S121">
+        <v>2</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>1.8</v>
+      </c>
+      <c r="V121">
+        <v>-1</v>
+      </c>
+      <c r="W121">
+        <v>2.1</v>
+      </c>
+      <c r="X121">
+        <v>-1</v>
+      </c>
+      <c r="Y121">
         <v>-0.5</v>
       </c>
-      <c r="Q121">
-        <v>2.025</v>
-      </c>
-      <c r="R121">
-        <v>1.775</v>
-      </c>
-      <c r="S121">
-        <v>2</v>
-      </c>
-      <c r="T121">
-        <v>1.925</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.05</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>1.025</v>
-      </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB121">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -11065,7 +11065,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6150885</v>
+        <v>6150886</v>
       </c>
       <c r="C122" t="s">
         <v>46</v>
@@ -11074,76 +11074,76 @@
         <v>45129.625</v>
       </c>
       <c r="E122" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F122" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122">
         <v>2.5</v>
       </c>
       <c r="K122">
+        <v>2.875</v>
+      </c>
+      <c r="L122">
+        <v>2.75</v>
+      </c>
+      <c r="M122">
+        <v>2.05</v>
+      </c>
+      <c r="N122">
         <v>3</v>
       </c>
-      <c r="L122">
-        <v>2.625</v>
-      </c>
-      <c r="M122">
-        <v>2.15</v>
-      </c>
-      <c r="N122">
-        <v>3.1</v>
-      </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
         <v>2</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11495,7 +11495,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150888</v>
+        <v>6150557</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -11504,73 +11504,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J127">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="K127">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M127">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q127">
+        <v>1.95</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
         <v>1.75</v>
       </c>
-      <c r="R127">
+      <c r="T127">
+        <v>1.75</v>
+      </c>
+      <c r="U127">
         <v>2.05</v>
       </c>
-      <c r="S127">
-        <v>2.25</v>
-      </c>
-      <c r="T127">
-        <v>2.025</v>
-      </c>
-      <c r="U127">
-        <v>1.775</v>
-      </c>
       <c r="V127">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y127">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB127">
         <v>-1</v>
@@ -11581,7 +11581,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150887</v>
+        <v>6150711</v>
       </c>
       <c r="C128" t="s">
         <v>46</v>
@@ -11590,56 +11590,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
         <v>91</v>
       </c>
       <c r="J128">
+        <v>1.8</v>
+      </c>
+      <c r="K128">
+        <v>3.2</v>
+      </c>
+      <c r="L128">
         <v>4</v>
       </c>
-      <c r="K128">
-        <v>3</v>
-      </c>
-      <c r="L128">
+      <c r="M128">
         <v>1.909</v>
       </c>
-      <c r="M128">
-        <v>4.75</v>
-      </c>
       <c r="N128">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O128">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T128">
+        <v>1.825</v>
+      </c>
+      <c r="U128">
         <v>1.975</v>
       </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
       <c r="V128">
         <v>-1</v>
       </c>
@@ -11647,19 +11647,19 @@
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>0.909</v>
+        <v>3.5</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11667,7 +11667,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150711</v>
+        <v>6150887</v>
       </c>
       <c r="C129" t="s">
         <v>46</v>
@@ -11676,56 +11676,56 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F129" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="s">
         <v>91</v>
       </c>
       <c r="J129">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="K129">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="M129">
+        <v>4.75</v>
+      </c>
+      <c r="N129">
+        <v>3.1</v>
+      </c>
+      <c r="O129">
         <v>1.909</v>
       </c>
-      <c r="N129">
-        <v>3.2</v>
-      </c>
-      <c r="O129">
-        <v>4.5</v>
-      </c>
       <c r="P129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T129">
+        <v>1.975</v>
+      </c>
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="U129">
-        <v>1.975</v>
-      </c>
       <c r="V129">
         <v>-1</v>
       </c>
@@ -11733,19 +11733,19 @@
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>3.5</v>
+        <v>0.909</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11753,7 +11753,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6150557</v>
+        <v>6150888</v>
       </c>
       <c r="C130" t="s">
         <v>46</v>
@@ -11762,73 +11762,73 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J130">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L130">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N130">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q130">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S130">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T130">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U130">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
         <v>-1</v>
@@ -14935,7 +14935,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6150485</v>
+        <v>6150724</v>
       </c>
       <c r="C167" t="s">
         <v>46</v>
@@ -14944,76 +14944,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>89</v>
+      </c>
+      <c r="J167">
         <v>3</v>
       </c>
-      <c r="I167" t="s">
-        <v>91</v>
-      </c>
-      <c r="J167">
-        <v>2</v>
-      </c>
       <c r="K167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="L167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="M167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="P167">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
         <v>1.75</v>
       </c>
       <c r="T167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -15021,7 +15021,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6150724</v>
+        <v>6150485</v>
       </c>
       <c r="C168" t="s">
         <v>46</v>
@@ -15030,76 +15030,76 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F168" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K168">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="L168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O168">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="P168">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S168">
         <v>1.75</v>
       </c>
       <c r="T168">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -22417,7 +22417,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6150931</v>
+        <v>7200306</v>
       </c>
       <c r="C254" t="s">
         <v>46</v>
@@ -22426,58 +22426,58 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F254" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="s">
         <v>89</v>
       </c>
       <c r="J254">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K254">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M254">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="N254">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O254">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q254">
+        <v>1.8</v>
+      </c>
+      <c r="R254">
+        <v>2</v>
+      </c>
+      <c r="S254">
+        <v>2</v>
+      </c>
+      <c r="T254">
         <v>1.85</v>
       </c>
-      <c r="R254">
+      <c r="U254">
         <v>1.95</v>
       </c>
-      <c r="S254">
-        <v>2.25</v>
-      </c>
-      <c r="T254">
-        <v>1.825</v>
-      </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
       <c r="V254">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="W254">
         <v>-1</v>
@@ -22486,13 +22486,13 @@
         <v>-1</v>
       </c>
       <c r="Y254">
+        <v>0.8</v>
+      </c>
+      <c r="Z254">
+        <v>-1</v>
+      </c>
+      <c r="AA254">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z254">
-        <v>-1</v>
-      </c>
-      <c r="AA254">
-        <v>0.825</v>
       </c>
       <c r="AB254">
         <v>-1</v>
@@ -22503,7 +22503,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6264156</v>
+        <v>6268951</v>
       </c>
       <c r="C255" t="s">
         <v>46</v>
@@ -22512,10 +22512,10 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E255" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F255" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22527,43 +22527,43 @@
         <v>89</v>
       </c>
       <c r="J255">
+        <v>2.2</v>
+      </c>
+      <c r="K255">
+        <v>3.2</v>
+      </c>
+      <c r="L255">
+        <v>2.9</v>
+      </c>
+      <c r="M255">
+        <v>2.9</v>
+      </c>
+      <c r="N255">
         <v>2.75</v>
       </c>
-      <c r="K255">
-        <v>2.75</v>
-      </c>
-      <c r="L255">
-        <v>2.625</v>
-      </c>
-      <c r="M255">
-        <v>2.25</v>
-      </c>
-      <c r="N255">
+      <c r="O255">
         <v>2.875</v>
       </c>
-      <c r="O255">
-        <v>3.75</v>
-      </c>
       <c r="P255">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q255">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R255">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S255">
         <v>1.75</v>
       </c>
       <c r="T255">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V255">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
         <v>-1</v>
@@ -22572,7 +22572,7 @@
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z255">
         <v>-1</v>
@@ -22581,7 +22581,7 @@
         <v>-1</v>
       </c>
       <c r="AB255">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22589,7 +22589,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6268951</v>
+        <v>6264156</v>
       </c>
       <c r="C256" t="s">
         <v>46</v>
@@ -22598,10 +22598,10 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E256" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F256" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22613,43 +22613,43 @@
         <v>89</v>
       </c>
       <c r="J256">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K256">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L256">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="M256">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N256">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O256">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q256">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R256">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S256">
         <v>1.75</v>
       </c>
       <c r="T256">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U256">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V256">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="W256">
         <v>-1</v>
@@ -22658,7 +22658,7 @@
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z256">
         <v>-1</v>
@@ -22667,7 +22667,7 @@
         <v>-1</v>
       </c>
       <c r="AB256">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="257" spans="1:28">
@@ -22675,7 +22675,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7200306</v>
+        <v>6150931</v>
       </c>
       <c r="C257" t="s">
         <v>46</v>
@@ -22684,58 +22684,58 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E257" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="s">
         <v>89</v>
       </c>
       <c r="J257">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K257">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L257">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M257">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="N257">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O257">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="P257">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q257">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R257">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T257">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U257">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V257">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -22744,13 +22744,13 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB257">
         <v>-1</v>
@@ -26717,7 +26717,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6290536</v>
+        <v>6296003</v>
       </c>
       <c r="C304" t="s">
         <v>46</v>
@@ -26726,73 +26726,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="E304" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F304" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G304">
+        <v>2</v>
+      </c>
+      <c r="H304">
         <v>3</v>
       </c>
-      <c r="H304">
-        <v>0</v>
-      </c>
       <c r="I304" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J304">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="K304">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L304">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="M304">
-        <v>1.615</v>
+        <v>6.5</v>
       </c>
       <c r="N304">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O304">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="P304">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="Q304">
+        <v>2.1</v>
+      </c>
+      <c r="R304">
         <v>1.775</v>
-      </c>
-      <c r="R304">
-        <v>2.025</v>
       </c>
       <c r="S304">
         <v>2.25</v>
       </c>
       <c r="T304">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U304">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V304">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W304">
         <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y304">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z304">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA304">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB304">
         <v>-1</v>
@@ -26803,7 +26803,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6296003</v>
+        <v>6290536</v>
       </c>
       <c r="C305" t="s">
         <v>46</v>
@@ -26812,73 +26812,73 @@
         <v>45201.64583333334</v>
       </c>
       <c r="E305" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F305" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J305">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="K305">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L305">
+        <v>4.5</v>
+      </c>
+      <c r="M305">
         <v>1.615</v>
       </c>
-      <c r="M305">
+      <c r="N305">
+        <v>3.6</v>
+      </c>
+      <c r="O305">
         <v>6.5</v>
       </c>
-      <c r="N305">
-        <v>3.75</v>
-      </c>
-      <c r="O305">
-        <v>1.6</v>
-      </c>
       <c r="P305">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q305">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="R305">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
         <v>2.25</v>
       </c>
       <c r="T305">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V305">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z305">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB305">
         <v>-1</v>
@@ -28523,7 +28523,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7323531</v>
+        <v>7323530</v>
       </c>
       <c r="C325" t="s">
         <v>46</v>
@@ -28532,76 +28532,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E325" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F325" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325">
         <v>1</v>
       </c>
       <c r="I325" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J325">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="K325">
         <v>3.2</v>
       </c>
       <c r="L325">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M325">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="N325">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O325">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="P325">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q325">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R325">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S325">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T325">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U325">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V325">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W325">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="Z325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA325">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB325">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -28609,7 +28609,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6360015</v>
+        <v>6355608</v>
       </c>
       <c r="C326" t="s">
         <v>46</v>
@@ -28618,13 +28618,13 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E326" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F326" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326">
         <v>2</v>
@@ -28633,40 +28633,40 @@
         <v>91</v>
       </c>
       <c r="J326">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K326">
         <v>3.2</v>
       </c>
       <c r="L326">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M326">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N326">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O326">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="P326">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q326">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="R326">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S326">
         <v>2.25</v>
       </c>
       <c r="T326">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="U326">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V326">
         <v>-1</v>
@@ -28675,19 +28675,19 @@
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="Y326">
         <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0.8</v>
+        <v>1.075</v>
       </c>
       <c r="AA326">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB326">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -28695,7 +28695,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7323530</v>
+        <v>7323531</v>
       </c>
       <c r="C327" t="s">
         <v>46</v>
@@ -28704,76 +28704,76 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E327" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F327" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J327">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K327">
         <v>3.2</v>
       </c>
       <c r="L327">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="M327">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="N327">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O327">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="P327">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q327">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R327">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S327">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T327">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U327">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V327">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W327">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X327">
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="Z327">
+        <v>-1</v>
+      </c>
+      <c r="AA327">
         <v>-0.5</v>
       </c>
-      <c r="AA327">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="328" spans="1:28">
@@ -28781,7 +28781,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6355608</v>
+        <v>7323532</v>
       </c>
       <c r="C328" t="s">
         <v>46</v>
@@ -28790,10 +28790,10 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F328" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -28805,40 +28805,40 @@
         <v>91</v>
       </c>
       <c r="J328">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="K328">
         <v>3.2</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M328">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N328">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O328">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P328">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q328">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R328">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S328">
         <v>2.25</v>
       </c>
       <c r="T328">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
         <v>-1</v>
@@ -28847,19 +28847,19 @@
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AA328">
         <v>-0.5</v>
       </c>
       <c r="AB328">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="329" spans="1:28">
@@ -28867,7 +28867,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7323533</v>
+        <v>6360015</v>
       </c>
       <c r="C329" t="s">
         <v>46</v>
@@ -28876,55 +28876,55 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E329" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F329" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="s">
         <v>91</v>
       </c>
       <c r="J329">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="K329">
         <v>3.2</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M329">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="N329">
         <v>3.1</v>
       </c>
       <c r="O329">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q329">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="R329">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S329">
         <v>2.25</v>
       </c>
       <c r="T329">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U329">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V329">
         <v>-1</v>
@@ -28933,19 +28933,19 @@
         <v>-1</v>
       </c>
       <c r="X329">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="Y329">
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB329">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:28">
@@ -29125,7 +29125,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7323532</v>
+        <v>7323533</v>
       </c>
       <c r="C332" t="s">
         <v>46</v>
@@ -29134,55 +29134,55 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E332" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F332" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G332">
         <v>0</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="s">
         <v>91</v>
       </c>
       <c r="J332">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K332">
         <v>3.2</v>
       </c>
       <c r="L332">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N332">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O332">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="P332">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q332">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S332">
         <v>2.25</v>
       </c>
       <c r="T332">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V332">
         <v>-1</v>
@@ -29191,19 +29191,19 @@
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Y332">
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA332">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -31447,7 +31447,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7514267</v>
+        <v>7503697</v>
       </c>
       <c r="C359" t="s">
         <v>46</v>
@@ -31456,52 +31456,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="E359" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F359" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J359">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K359">
         <v>3</v>
       </c>
       <c r="L359">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M359">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="N359">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O359">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P359">
         <v>-0.25</v>
       </c>
       <c r="Q359">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="R359">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S359">
         <v>1.75</v>
       </c>
       <c r="T359">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U359">
         <v>2.025</v>
@@ -31510,19 +31510,19 @@
         <v>-1</v>
       </c>
       <c r="W359">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X359">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y359">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA359">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB359">
         <v>-0.5</v>
@@ -31533,7 +31533,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7503697</v>
+        <v>7514267</v>
       </c>
       <c r="C360" t="s">
         <v>46</v>
@@ -31542,52 +31542,52 @@
         <v>45256.70833333334</v>
       </c>
       <c r="E360" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F360" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J360">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K360">
         <v>3</v>
       </c>
       <c r="L360">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M360">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="N360">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O360">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P360">
         <v>-0.25</v>
       </c>
       <c r="Q360">
+        <v>1.825</v>
+      </c>
+      <c r="R360">
         <v>1.975</v>
-      </c>
-      <c r="R360">
-        <v>1.875</v>
       </c>
       <c r="S360">
         <v>1.75</v>
       </c>
       <c r="T360">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U360">
         <v>2.025</v>
@@ -31596,19 +31596,19 @@
         <v>-1</v>
       </c>
       <c r="W360">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X360">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z360">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA360">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AB360">
         <v>-0.5</v>
@@ -31963,7 +31963,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698644</v>
+        <v>7698640</v>
       </c>
       <c r="C365" t="s">
         <v>46</v>
@@ -31972,13 +31972,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F365" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>89</v>
       </c>
       <c r="J365">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="K365">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L365">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M365">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="N365">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O365">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P365">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q365">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S365">
         <v>2</v>
       </c>
       <c r="T365">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U365">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V365">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="W365">
         <v>-1</v>
@@ -32032,16 +32032,16 @@
         <v>-1</v>
       </c>
       <c r="Y365">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="Z365">
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB365">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:28">
@@ -32049,7 +32049,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C366" t="s">
         <v>46</v>
@@ -32058,13 +32058,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E366" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F366" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -32073,61 +32073,61 @@
         <v>89</v>
       </c>
       <c r="J366">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="K366">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L366">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M366">
+        <v>2.625</v>
+      </c>
+      <c r="N366">
+        <v>2.75</v>
+      </c>
+      <c r="O366">
+        <v>3.25</v>
+      </c>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="Q366">
+        <v>1.75</v>
+      </c>
+      <c r="R366">
+        <v>2.05</v>
+      </c>
+      <c r="S366">
+        <v>2</v>
+      </c>
+      <c r="T366">
+        <v>2</v>
+      </c>
+      <c r="U366">
         <v>1.8</v>
       </c>
-      <c r="N366">
-        <v>3.4</v>
-      </c>
-      <c r="O366">
-        <v>5</v>
-      </c>
-      <c r="P366">
-        <v>-0.75</v>
-      </c>
-      <c r="Q366">
-        <v>2.025</v>
-      </c>
-      <c r="R366">
-        <v>1.825</v>
-      </c>
-      <c r="S366">
-        <v>2</v>
-      </c>
-      <c r="T366">
-        <v>1.925</v>
-      </c>
-      <c r="U366">
-        <v>1.925</v>
-      </c>
       <c r="V366">
+        <v>1.625</v>
+      </c>
+      <c r="W366">
+        <v>-1</v>
+      </c>
+      <c r="X366">
+        <v>-1</v>
+      </c>
+      <c r="Y366">
+        <v>0.75</v>
+      </c>
+      <c r="Z366">
+        <v>-1</v>
+      </c>
+      <c r="AA366">
+        <v>-1</v>
+      </c>
+      <c r="AB366">
         <v>0.8</v>
-      </c>
-      <c r="W366">
-        <v>-1</v>
-      </c>
-      <c r="X366">
-        <v>-1</v>
-      </c>
-      <c r="Y366">
-        <v>1.025</v>
-      </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
-      <c r="AA366">
-        <v>0</v>
-      </c>
-      <c r="AB366">
-        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:28">
@@ -32135,7 +32135,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C367" t="s">
         <v>46</v>
@@ -32144,76 +32144,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E367" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F367" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H367">
         <v>0</v>
       </c>
       <c r="I367" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J367">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K367">
+        <v>2.75</v>
+      </c>
+      <c r="L367">
         <v>3</v>
       </c>
-      <c r="L367">
-        <v>3.3</v>
-      </c>
       <c r="M367">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N367">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O367">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P367">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q367">
+        <v>1.875</v>
+      </c>
+      <c r="R367">
         <v>1.975</v>
-      </c>
-      <c r="R367">
-        <v>1.825</v>
       </c>
       <c r="S367">
         <v>1.75</v>
       </c>
       <c r="T367">
+        <v>1.85</v>
+      </c>
+      <c r="U367">
+        <v>2</v>
+      </c>
+      <c r="V367">
         <v>1.9</v>
       </c>
-      <c r="U367">
-        <v>1.9</v>
-      </c>
-      <c r="V367">
-        <v>-1</v>
-      </c>
       <c r="W367">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z367">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:28">
@@ -32221,7 +32221,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C368" t="s">
         <v>46</v>
@@ -32230,76 +32230,76 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E368" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F368" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H368">
         <v>0</v>
       </c>
       <c r="I368" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J368">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K368">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L368">
+        <v>3.3</v>
+      </c>
+      <c r="M368">
+        <v>2.3</v>
+      </c>
+      <c r="N368">
         <v>3</v>
       </c>
-      <c r="M368">
-        <v>2.9</v>
-      </c>
-      <c r="N368">
-        <v>2.8</v>
-      </c>
       <c r="O368">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P368">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q368">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R368">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S368">
         <v>1.75</v>
       </c>
       <c r="T368">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U368">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:28">
@@ -32737,7 +32737,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7698358</v>
+        <v>7719052</v>
       </c>
       <c r="C374" t="s">
         <v>46</v>
@@ -32746,76 +32746,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="E374" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F374" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G374">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J374">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K374">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L374">
+        <v>4.5</v>
+      </c>
+      <c r="M374">
+        <v>2.45</v>
+      </c>
+      <c r="N374">
+        <v>2.8</v>
+      </c>
+      <c r="O374">
         <v>3.5</v>
       </c>
-      <c r="M374">
-        <v>2.1</v>
-      </c>
-      <c r="N374">
-        <v>2.875</v>
-      </c>
-      <c r="O374">
-        <v>4.333</v>
-      </c>
       <c r="P374">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q374">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R374">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S374">
         <v>1.75</v>
       </c>
       <c r="T374">
+        <v>1.95</v>
+      </c>
+      <c r="U374">
         <v>1.85</v>
       </c>
-      <c r="U374">
-        <v>1.95</v>
-      </c>
       <c r="V374">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W374">
         <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y374">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA374">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="375" spans="1:28">
@@ -32832,7 +32832,7 @@
         <v>45326.70833333334</v>
       </c>
       <c r="E375" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F375" t="s">
         <v>71</v>
@@ -32909,7 +32909,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>7719052</v>
+        <v>7698358</v>
       </c>
       <c r="C376" t="s">
         <v>46</v>
@@ -32918,76 +32918,76 @@
         <v>45326.70833333334</v>
       </c>
       <c r="E376" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F376" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G376">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J376">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K376">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L376">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M376">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N376">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O376">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P376">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q376">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R376">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S376">
         <v>1.75</v>
       </c>
       <c r="T376">
+        <v>1.85</v>
+      </c>
+      <c r="U376">
         <v>1.95</v>
       </c>
-      <c r="U376">
-        <v>1.85</v>
-      </c>
       <c r="V376">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W376">
         <v>-1</v>
       </c>
       <c r="X376">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y376">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z376">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA376">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB376">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="377" spans="1:28">
@@ -33425,7 +33425,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7702211</v>
+        <v>7698357</v>
       </c>
       <c r="C382" t="s">
         <v>46</v>
@@ -33434,55 +33434,55 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E382" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F382" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382" t="s">
         <v>90</v>
       </c>
       <c r="J382">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K382">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L382">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M382">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N382">
         <v>2.875</v>
       </c>
       <c r="O382">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P382">
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R382">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S382">
         <v>1.75</v>
       </c>
       <c r="T382">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U382">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V382">
         <v>-1</v>
@@ -33500,10 +33500,10 @@
         <v>0</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB382">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="383" spans="1:28">
@@ -33511,7 +33511,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7698357</v>
+        <v>7698663</v>
       </c>
       <c r="C383" t="s">
         <v>46</v>
@@ -33520,76 +33520,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E383" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F383" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383">
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J383">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K383">
         <v>2.875</v>
       </c>
       <c r="L383">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M383">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="N383">
         <v>2.875</v>
       </c>
       <c r="O383">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P383">
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R383">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S383">
         <v>1.75</v>
       </c>
       <c r="T383">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U383">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V383">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB383">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:28">
@@ -33683,7 +33683,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7702210</v>
+        <v>7702211</v>
       </c>
       <c r="C385" t="s">
         <v>46</v>
@@ -33692,10 +33692,10 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E385" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F385" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G385">
         <v>0</v>
@@ -33707,61 +33707,61 @@
         <v>90</v>
       </c>
       <c r="J385">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="K385">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L385">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M385">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="N385">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O385">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="P385">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q385">
+        <v>1.875</v>
+      </c>
+      <c r="R385">
         <v>1.975</v>
       </c>
-      <c r="R385">
-        <v>1.825</v>
-      </c>
       <c r="S385">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T385">
+        <v>1.975</v>
+      </c>
+      <c r="U385">
         <v>1.875</v>
       </c>
-      <c r="U385">
-        <v>1.925</v>
-      </c>
       <c r="V385">
         <v>-1</v>
       </c>
       <c r="W385">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z385">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA385">
         <v>-1</v>
       </c>
       <c r="AB385">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="386" spans="1:28">
@@ -33769,7 +33769,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7698663</v>
+        <v>7702210</v>
       </c>
       <c r="C386" t="s">
         <v>46</v>
@@ -33778,76 +33778,76 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E386" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F386" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="G386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J386">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K386">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L386">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M386">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="N386">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O386">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="P386">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q386">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R386">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S386">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T386">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U386">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V386">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W386">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z386">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA386">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB386">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="387" spans="1:28">
@@ -34039,7 +34039,7 @@
         <v>83</v>
       </c>
       <c r="F389" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -34113,7 +34113,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698656</v>
+        <v>7698657</v>
       </c>
       <c r="C390" t="s">
         <v>46</v>
@@ -34122,76 +34122,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E390" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F390" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H390">
         <v>0</v>
       </c>
       <c r="I390" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J390">
+        <v>2.75</v>
+      </c>
+      <c r="K390">
+        <v>3.1</v>
+      </c>
+      <c r="L390">
+        <v>2.375</v>
+      </c>
+      <c r="M390">
+        <v>2.9</v>
+      </c>
+      <c r="N390">
+        <v>3.3</v>
+      </c>
+      <c r="O390">
         <v>2.5</v>
       </c>
-      <c r="K390">
-        <v>2.875</v>
-      </c>
-      <c r="L390">
-        <v>2.75</v>
-      </c>
-      <c r="M390">
-        <v>2.875</v>
-      </c>
-      <c r="N390">
-        <v>2.9</v>
-      </c>
-      <c r="O390">
-        <v>2.8</v>
-      </c>
       <c r="P390">
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="R390">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S390">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T390">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U390">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V390">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W390">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X390">
         <v>-1</v>
       </c>
       <c r="Y390">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z390">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA390">
         <v>-1</v>
       </c>
       <c r="AB390">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="391" spans="1:28">
@@ -34199,7 +34199,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698657</v>
+        <v>7698656</v>
       </c>
       <c r="C391" t="s">
         <v>46</v>
@@ -34208,76 +34208,76 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F391" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391">
         <v>0</v>
       </c>
       <c r="I391" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J391">
+        <v>2.5</v>
+      </c>
+      <c r="K391">
+        <v>2.875</v>
+      </c>
+      <c r="L391">
         <v>2.75</v>
       </c>
-      <c r="K391">
-        <v>3.1</v>
-      </c>
-      <c r="L391">
-        <v>2.375</v>
-      </c>
       <c r="M391">
+        <v>2.875</v>
+      </c>
+      <c r="N391">
         <v>2.9</v>
       </c>
-      <c r="N391">
-        <v>3.3</v>
-      </c>
       <c r="O391">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P391">
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="R391">
+        <v>1.875</v>
+      </c>
+      <c r="S391">
         <v>1.75</v>
       </c>
-      <c r="S391">
-        <v>2</v>
-      </c>
       <c r="T391">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V391">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W391">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X391">
         <v>-1</v>
       </c>
       <c r="Y391">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="Z391">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA391">
         <v>-1</v>
       </c>
       <c r="AB391">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="392" spans="1:28">
@@ -35403,7 +35403,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7698676</v>
+        <v>7698673</v>
       </c>
       <c r="C405" t="s">
         <v>46</v>
@@ -35412,10 +35412,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E405" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F405" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G405">
         <v>1</v>
@@ -35427,43 +35427,43 @@
         <v>89</v>
       </c>
       <c r="J405">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="K405">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L405">
         <v>3.2</v>
       </c>
       <c r="M405">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N405">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O405">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P405">
         <v>-0.25</v>
       </c>
       <c r="Q405">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="R405">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S405">
         <v>1.75</v>
       </c>
       <c r="T405">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U405">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V405">
-        <v>1.1</v>
+        <v>1.375</v>
       </c>
       <c r="W405">
         <v>-1</v>
@@ -35472,7 +35472,7 @@
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="Z405">
         <v>-1</v>
@@ -35481,7 +35481,7 @@
         <v>-1</v>
       </c>
       <c r="AB405">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:28">
@@ -35489,7 +35489,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7698673</v>
+        <v>7698676</v>
       </c>
       <c r="C406" t="s">
         <v>46</v>
@@ -35498,10 +35498,10 @@
         <v>45339.79166666666</v>
       </c>
       <c r="E406" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F406" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G406">
         <v>1</v>
@@ -35513,43 +35513,43 @@
         <v>89</v>
       </c>
       <c r="J406">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="K406">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L406">
         <v>3.2</v>
       </c>
       <c r="M406">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N406">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O406">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P406">
         <v>-0.25</v>
       </c>
       <c r="Q406">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="R406">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S406">
         <v>1.75</v>
       </c>
       <c r="T406">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U406">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V406">
-        <v>1.375</v>
+        <v>1.1</v>
       </c>
       <c r="W406">
         <v>-1</v>
@@ -35558,7 +35558,7 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="Z406">
         <v>-1</v>
@@ -35567,7 +35567,7 @@
         <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:28">
@@ -35747,7 +35747,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698667</v>
       </c>
       <c r="C409" t="s">
         <v>46</v>
@@ -35759,10 +35759,10 @@
         <v>86</v>
       </c>
       <c r="F409" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -35771,43 +35771,43 @@
         <v>89</v>
       </c>
       <c r="J409">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K409">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L409">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M409">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N409">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O409">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q409">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R409">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T409">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U409">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V409">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="W409">
         <v>-1</v>
@@ -35816,16 +35816,16 @@
         <v>-1</v>
       </c>
       <c r="Y409">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z409">
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB409">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:28">
@@ -35833,7 +35833,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698668</v>
+        <v>7698356</v>
       </c>
       <c r="C410" t="s">
         <v>46</v>
@@ -35842,10 +35842,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F410" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G410">
         <v>1</v>
@@ -35857,43 +35857,43 @@
         <v>89</v>
       </c>
       <c r="J410">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K410">
         <v>2.9</v>
       </c>
       <c r="L410">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M410">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N410">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O410">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q410">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R410">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S410">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T410">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U410">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V410">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W410">
         <v>-1</v>
@@ -35902,7 +35902,7 @@
         <v>-1</v>
       </c>
       <c r="Y410">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z410">
         <v>-1</v>
@@ -35911,7 +35911,7 @@
         <v>-1</v>
       </c>
       <c r="AB410">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:28">
@@ -35919,7 +35919,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698667</v>
+        <v>7698668</v>
       </c>
       <c r="C411" t="s">
         <v>46</v>
@@ -35928,13 +35928,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F411" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -35943,43 +35943,43 @@
         <v>89</v>
       </c>
       <c r="J411">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K411">
+        <v>2.9</v>
+      </c>
+      <c r="L411">
+        <v>3</v>
+      </c>
+      <c r="M411">
+        <v>2.3</v>
+      </c>
+      <c r="N411">
+        <v>3</v>
+      </c>
+      <c r="O411">
         <v>3.5</v>
-      </c>
-      <c r="L411">
-        <v>4</v>
-      </c>
-      <c r="M411">
-        <v>2.1</v>
-      </c>
-      <c r="N411">
-        <v>3.1</v>
-      </c>
-      <c r="O411">
-        <v>3.8</v>
       </c>
       <c r="P411">
         <v>-0.25</v>
       </c>
       <c r="Q411">
+        <v>1.925</v>
+      </c>
+      <c r="R411">
+        <v>1.925</v>
+      </c>
+      <c r="S411">
+        <v>2</v>
+      </c>
+      <c r="T411">
+        <v>2.025</v>
+      </c>
+      <c r="U411">
         <v>1.825</v>
       </c>
-      <c r="R411">
-        <v>1.975</v>
-      </c>
-      <c r="S411">
-        <v>2</v>
-      </c>
-      <c r="T411">
-        <v>1.8</v>
-      </c>
-      <c r="U411">
-        <v>2</v>
-      </c>
       <c r="V411">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="W411">
         <v>-1</v>
@@ -35988,16 +35988,16 @@
         <v>-1</v>
       </c>
       <c r="Y411">
+        <v>0.925</v>
+      </c>
+      <c r="Z411">
+        <v>-1</v>
+      </c>
+      <c r="AA411">
+        <v>-1</v>
+      </c>
+      <c r="AB411">
         <v>0.825</v>
-      </c>
-      <c r="Z411">
-        <v>-1</v>
-      </c>
-      <c r="AA411">
-        <v>0</v>
-      </c>
-      <c r="AB411">
-        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:28">
@@ -36877,7 +36877,7 @@
         <v>76</v>
       </c>
       <c r="F422" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -37049,7 +37049,7 @@
         <v>72</v>
       </c>
       <c r="F424" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G424">
         <v>1</v>
@@ -37553,7 +37553,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698686</v>
+        <v>7698691</v>
       </c>
       <c r="C430" t="s">
         <v>46</v>
@@ -37562,58 +37562,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E430" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F430" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G430">
         <v>4</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="s">
         <v>89</v>
       </c>
       <c r="J430">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K430">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L430">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M430">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N430">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O430">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P430">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q430">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R430">
         <v>1.875</v>
       </c>
       <c r="S430">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T430">
         <v>1.8</v>
       </c>
       <c r="U430">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V430">
-        <v>0.909</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W430">
         <v>-1</v>
@@ -37622,7 +37622,7 @@
         <v>-1</v>
       </c>
       <c r="Y430">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z430">
         <v>-1</v>
@@ -37725,7 +37725,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698691</v>
+        <v>7698686</v>
       </c>
       <c r="C432" t="s">
         <v>46</v>
@@ -37734,58 +37734,58 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E432" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F432" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G432">
         <v>4</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I432" t="s">
         <v>89</v>
       </c>
       <c r="J432">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K432">
+        <v>2.9</v>
+      </c>
+      <c r="L432">
         <v>3.5</v>
       </c>
-      <c r="L432">
-        <v>4</v>
-      </c>
       <c r="M432">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N432">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O432">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P432">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q432">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R432">
         <v>1.875</v>
       </c>
       <c r="S432">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T432">
         <v>1.8</v>
       </c>
       <c r="U432">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V432">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W432">
         <v>-1</v>
@@ -37794,7 +37794,7 @@
         <v>-1</v>
       </c>
       <c r="Y432">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z432">
         <v>-1</v>
@@ -38155,7 +38155,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7698556</v>
+        <v>7698703</v>
       </c>
       <c r="C437" t="s">
         <v>46</v>
@@ -38164,76 +38164,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E437" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F437" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G437">
         <v>1</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J437">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K437">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L437">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M437">
+        <v>2.2</v>
+      </c>
+      <c r="N437">
+        <v>2.875</v>
+      </c>
+      <c r="O437">
+        <v>4.2</v>
+      </c>
+      <c r="P437">
+        <v>-0.25</v>
+      </c>
+      <c r="Q437">
         <v>1.8</v>
       </c>
-      <c r="N437">
-        <v>3.25</v>
-      </c>
-      <c r="O437">
-        <v>5.5</v>
-      </c>
-      <c r="P437">
+      <c r="R437">
+        <v>2</v>
+      </c>
+      <c r="S437">
+        <v>1.75</v>
+      </c>
+      <c r="T437">
+        <v>1.85</v>
+      </c>
+      <c r="U437">
+        <v>1.95</v>
+      </c>
+      <c r="V437">
+        <v>-1</v>
+      </c>
+      <c r="W437">
+        <v>1.875</v>
+      </c>
+      <c r="X437">
+        <v>-1</v>
+      </c>
+      <c r="Y437">
         <v>-0.5</v>
       </c>
-      <c r="Q437">
-        <v>1.775</v>
-      </c>
-      <c r="R437">
-        <v>2.025</v>
-      </c>
-      <c r="S437">
-        <v>2</v>
-      </c>
-      <c r="T437">
-        <v>1.975</v>
-      </c>
-      <c r="U437">
-        <v>1.825</v>
-      </c>
-      <c r="V437">
-        <v>-1</v>
-      </c>
-      <c r="W437">
-        <v>-1</v>
-      </c>
-      <c r="X437">
-        <v>4.5</v>
-      </c>
-      <c r="Y437">
-        <v>-1</v>
-      </c>
       <c r="Z437">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AA437">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB437">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="438" spans="1:28">
@@ -38241,7 +38241,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698703</v>
+        <v>7698556</v>
       </c>
       <c r="C438" t="s">
         <v>46</v>
@@ -38250,76 +38250,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E438" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F438" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G438">
         <v>1</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J438">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K438">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L438">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M438">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="N438">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O438">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P438">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q438">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R438">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S438">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T438">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U438">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V438">
         <v>-1</v>
       </c>
       <c r="W438">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X438">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA438">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:28">
@@ -38327,7 +38327,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7698693</v>
+        <v>7698694</v>
       </c>
       <c r="C439" t="s">
         <v>46</v>
@@ -38336,76 +38336,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E439" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F439" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="s">
         <v>90</v>
       </c>
       <c r="J439">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K439">
         <v>2.875</v>
       </c>
       <c r="L439">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M439">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N439">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O439">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P439">
+        <v>-0.25</v>
+      </c>
+      <c r="Q439">
+        <v>2.025</v>
+      </c>
+      <c r="R439">
+        <v>1.775</v>
+      </c>
+      <c r="S439">
+        <v>2</v>
+      </c>
+      <c r="T439">
+        <v>2.025</v>
+      </c>
+      <c r="U439">
+        <v>1.775</v>
+      </c>
+      <c r="V439">
+        <v>-1</v>
+      </c>
+      <c r="W439">
+        <v>2</v>
+      </c>
+      <c r="X439">
+        <v>-1</v>
+      </c>
+      <c r="Y439">
         <v>-0.5</v>
       </c>
-      <c r="Q439">
-        <v>2</v>
-      </c>
-      <c r="R439">
-        <v>1.8</v>
-      </c>
-      <c r="S439">
-        <v>1.75</v>
-      </c>
-      <c r="T439">
-        <v>1.95</v>
-      </c>
-      <c r="U439">
-        <v>1.85</v>
-      </c>
-      <c r="V439">
-        <v>-1</v>
-      </c>
-      <c r="W439">
-        <v>1.9</v>
-      </c>
-      <c r="X439">
-        <v>-1</v>
-      </c>
-      <c r="Y439">
-        <v>-1</v>
-      </c>
       <c r="Z439">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AA439">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB439">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:28">
@@ -38413,7 +38413,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698694</v>
+        <v>7698693</v>
       </c>
       <c r="C440" t="s">
         <v>46</v>
@@ -38422,76 +38422,76 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E440" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F440" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G440">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="s">
         <v>90</v>
       </c>
       <c r="J440">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K440">
         <v>2.875</v>
       </c>
       <c r="L440">
+        <v>3.75</v>
+      </c>
+      <c r="M440">
+        <v>2</v>
+      </c>
+      <c r="N440">
         <v>2.9</v>
       </c>
-      <c r="M440">
-        <v>2.4</v>
-      </c>
-      <c r="N440">
-        <v>3</v>
-      </c>
       <c r="O440">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P440">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q440">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R440">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S440">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T440">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U440">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V440">
         <v>-1</v>
       </c>
       <c r="W440">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z440">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AA440">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB440">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="441" spans="1:28">
@@ -38938,7 +38938,7 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E446" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F446" t="s">
         <v>88</v>
@@ -39024,7 +39024,7 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E447" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F447" t="s">
         <v>58</v>
@@ -39875,7 +39875,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>7702203</v>
+        <v>7698712</v>
       </c>
       <c r="C457" t="s">
         <v>46</v>
@@ -39884,76 +39884,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E457" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F457" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="s">
         <v>90</v>
       </c>
       <c r="J457">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K457">
         <v>3</v>
       </c>
       <c r="L457">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="M457">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N457">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O457">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P457">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q457">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R457">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S457">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T457">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
         <v>-1</v>
       </c>
       <c r="W457">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X457">
         <v>-1</v>
       </c>
       <c r="Y457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA457">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB457">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="458" spans="1:28">
@@ -39961,7 +39961,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>7698716</v>
+        <v>7702203</v>
       </c>
       <c r="C458" t="s">
         <v>46</v>
@@ -39970,76 +39970,76 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E458" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F458" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I458" t="s">
         <v>90</v>
       </c>
       <c r="J458">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="K458">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L458">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="M458">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="N458">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O458">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P458">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q458">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R458">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S458">
         <v>2</v>
       </c>
       <c r="T458">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U458">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V458">
         <v>-1</v>
       </c>
       <c r="W458">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="X458">
         <v>-1</v>
       </c>
       <c r="Y458">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA458">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB458">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:28">
@@ -40047,7 +40047,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>7698712</v>
+        <v>7698716</v>
       </c>
       <c r="C459" t="s">
         <v>46</v>
@@ -40056,10 +40056,10 @@
         <v>45360.70833333334</v>
       </c>
       <c r="E459" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F459" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -40071,19 +40071,19 @@
         <v>90</v>
       </c>
       <c r="J459">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K459">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L459">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M459">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="N459">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O459">
         <v>4.75</v>
@@ -40092,25 +40092,25 @@
         <v>-0.5</v>
       </c>
       <c r="Q459">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R459">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S459">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T459">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U459">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V459">
         <v>-1</v>
       </c>
       <c r="W459">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X459">
         <v>-1</v>
@@ -40119,13 +40119,13 @@
         <v>-1</v>
       </c>
       <c r="Z459">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA459">
         <v>-1</v>
       </c>
       <c r="AB459">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="460" spans="1:28">
@@ -40317,7 +40317,7 @@
         <v>77</v>
       </c>
       <c r="F462" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G462">
         <v>0</v>
@@ -40477,7 +40477,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>7698710</v>
+        <v>7698705</v>
       </c>
       <c r="C464" t="s">
         <v>46</v>
@@ -40486,76 +40486,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E464" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F464" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G464">
         <v>2</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J464">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="K464">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L464">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M464">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N464">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O464">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P464">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q464">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R464">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S464">
         <v>1.75</v>
       </c>
       <c r="T464">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V464">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X464">
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z464">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA464">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB464">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:28">
@@ -40563,7 +40563,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698705</v>
+        <v>7698710</v>
       </c>
       <c r="C465" t="s">
         <v>46</v>
@@ -40572,76 +40572,76 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E465" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F465" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G465">
         <v>2</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J465">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="K465">
+        <v>2.75</v>
+      </c>
+      <c r="L465">
+        <v>2.875</v>
+      </c>
+      <c r="M465">
+        <v>2.75</v>
+      </c>
+      <c r="N465">
+        <v>2.8</v>
+      </c>
+      <c r="O465">
         <v>3</v>
       </c>
-      <c r="L465">
-        <v>3.6</v>
-      </c>
-      <c r="M465">
-        <v>2.375</v>
-      </c>
-      <c r="N465">
-        <v>3</v>
-      </c>
-      <c r="O465">
-        <v>3.4</v>
-      </c>
       <c r="P465">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q465">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R465">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S465">
         <v>1.75</v>
       </c>
       <c r="T465">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U465">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V465">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W465">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X465">
         <v>-1</v>
       </c>
       <c r="Y465">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.45</v>
+      </c>
+      <c r="AB465">
         <v>-0.5</v>
-      </c>
-      <c r="Z465">
-        <v>0.4375</v>
-      </c>
-      <c r="AA465">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB465">
-        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:28">
@@ -40907,7 +40907,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C469" t="s">
         <v>46</v>
@@ -40916,76 +40916,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="E469" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F469" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G469">
         <v>1</v>
       </c>
       <c r="H469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I469" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J469">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K469">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L469">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M469">
+        <v>1.65</v>
+      </c>
+      <c r="N469">
+        <v>3.5</v>
+      </c>
+      <c r="O469">
+        <v>6</v>
+      </c>
+      <c r="P469">
+        <v>-0.75</v>
+      </c>
+      <c r="Q469">
+        <v>1.8</v>
+      </c>
+      <c r="R469">
+        <v>2</v>
+      </c>
+      <c r="S469">
         <v>2.25</v>
       </c>
-      <c r="N469">
-        <v>2.875</v>
-      </c>
-      <c r="O469">
-        <v>3.8</v>
-      </c>
-      <c r="P469">
-        <v>-0.25</v>
-      </c>
-      <c r="Q469">
+      <c r="T469">
+        <v>1.975</v>
+      </c>
+      <c r="U469">
         <v>1.825</v>
       </c>
-      <c r="R469">
-        <v>1.975</v>
-      </c>
-      <c r="S469">
-        <v>2</v>
-      </c>
-      <c r="T469">
-        <v>2.025</v>
-      </c>
-      <c r="U469">
-        <v>1.775</v>
-      </c>
       <c r="V469">
         <v>-1</v>
       </c>
       <c r="W469">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X469">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
         <v>-1</v>
       </c>
       <c r="Z469">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA469">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="470" spans="1:28">
@@ -40993,7 +40993,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C470" t="s">
         <v>46</v>
@@ -41002,76 +41002,76 @@
         <v>45361.79861111111</v>
       </c>
       <c r="E470" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F470" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G470">
         <v>1</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I470" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J470">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K470">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L470">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M470">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="N470">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="O470">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P470">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q470">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R470">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S470">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T470">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U470">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V470">
         <v>-1</v>
       </c>
       <c r="W470">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X470">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y470">
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA470">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB470">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471" spans="1:28">
@@ -41263,7 +41263,7 @@
         <v>63</v>
       </c>
       <c r="F473" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -41948,7 +41948,7 @@
         <v>45368.625</v>
       </c>
       <c r="E481" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F481" t="s">
         <v>84</v>
@@ -42894,7 +42894,7 @@
         <v>45370.66666666666</v>
       </c>
       <c r="E492" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F492" t="s">
         <v>74</v>
@@ -43057,7 +43057,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>7702199</v>
+        <v>7698735</v>
       </c>
       <c r="C494" t="s">
         <v>46</v>
@@ -43066,73 +43066,73 @@
         <v>45374.64583333334</v>
       </c>
       <c r="E494" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F494" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J494">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="K494">
+        <v>2.8</v>
+      </c>
+      <c r="L494">
         <v>2.875</v>
       </c>
-      <c r="L494">
-        <v>3</v>
-      </c>
       <c r="M494">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N494">
         <v>2.875</v>
       </c>
       <c r="O494">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P494">
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R494">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S494">
         <v>1.75</v>
       </c>
       <c r="T494">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U494">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V494">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W494">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X494">
         <v>-1</v>
       </c>
       <c r="Y494">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z494">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA494">
-        <v>0.375</v>
+        <v>0.4125</v>
       </c>
       <c r="AB494">
         <v>-0.5</v>
@@ -43143,7 +43143,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7698735</v>
+        <v>7702199</v>
       </c>
       <c r="C495" t="s">
         <v>46</v>
@@ -43152,73 +43152,73 @@
         <v>45374.64583333334</v>
       </c>
       <c r="E495" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F495" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I495" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J495">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="K495">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L495">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M495">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N495">
         <v>2.875</v>
       </c>
       <c r="O495">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P495">
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R495">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S495">
         <v>1.75</v>
       </c>
       <c r="T495">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U495">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V495">
+        <v>-1</v>
+      </c>
+      <c r="W495">
         <v>1.875</v>
       </c>
-      <c r="W495">
-        <v>-1</v>
-      </c>
       <c r="X495">
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z495">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA495">
-        <v>0.4125</v>
+        <v>0.375</v>
       </c>
       <c r="AB495">
         <v>-0.5</v>
@@ -43241,7 +43241,7 @@
         <v>79</v>
       </c>
       <c r="F496" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -43401,7 +43401,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7698738</v>
+        <v>7698736</v>
       </c>
       <c r="C498" t="s">
         <v>46</v>
@@ -43410,37 +43410,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="E498" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F498" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G498">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H498">
         <v>1</v>
       </c>
       <c r="I498" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J498">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K498">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L498">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M498">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N498">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O498">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P498">
         <v>-0.25</v>
@@ -43449,7 +43449,7 @@
         <v>1.85</v>
       </c>
       <c r="R498">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S498">
         <v>1.75</v>
@@ -43458,28 +43458,28 @@
         <v>1.8</v>
       </c>
       <c r="U498">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V498">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W498">
         <v>-1</v>
       </c>
       <c r="X498">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y498">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z498">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA498">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB498">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:28">
@@ -43487,7 +43487,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7698736</v>
+        <v>7698738</v>
       </c>
       <c r="C499" t="s">
         <v>46</v>
@@ -43496,37 +43496,37 @@
         <v>45374.66666666666</v>
       </c>
       <c r="E499" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F499" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G499">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H499">
         <v>1</v>
       </c>
       <c r="I499" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J499">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K499">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L499">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M499">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N499">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O499">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P499">
         <v>-0.25</v>
@@ -43535,7 +43535,7 @@
         <v>1.85</v>
       </c>
       <c r="R499">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S499">
         <v>1.75</v>
@@ -43544,28 +43544,28 @@
         <v>1.8</v>
       </c>
       <c r="U499">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V499">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W499">
         <v>-1</v>
       </c>
       <c r="X499">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y499">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z499">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA499">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB499">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:28">
@@ -44531,7 +44531,7 @@
         <v>85</v>
       </c>
       <c r="F511" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G511">
         <v>1</v>
@@ -44786,7 +44786,7 @@
         <v>45381.54513888889</v>
       </c>
       <c r="E514" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F514" t="s">
         <v>47</v>
@@ -45293,7 +45293,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7698745</v>
+        <v>7698350</v>
       </c>
       <c r="C520" t="s">
         <v>46</v>
@@ -45302,76 +45302,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="E520" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F520" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I520" t="s">
         <v>90</v>
       </c>
       <c r="J520">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="K520">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L520">
         <v>4</v>
       </c>
       <c r="M520">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N520">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O520">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P520">
+        <v>-0.25</v>
+      </c>
+      <c r="Q520">
+        <v>1.8</v>
+      </c>
+      <c r="R520">
+        <v>2.05</v>
+      </c>
+      <c r="S520">
+        <v>1.5</v>
+      </c>
+      <c r="T520">
+        <v>1.8</v>
+      </c>
+      <c r="U520">
+        <v>2.05</v>
+      </c>
+      <c r="V520">
+        <v>-1</v>
+      </c>
+      <c r="W520">
+        <v>1.8</v>
+      </c>
+      <c r="X520">
+        <v>-1</v>
+      </c>
+      <c r="Y520">
         <v>-0.5</v>
       </c>
-      <c r="Q520">
-        <v>1.875</v>
-      </c>
-      <c r="R520">
-        <v>1.925</v>
-      </c>
-      <c r="S520">
-        <v>1.75</v>
-      </c>
-      <c r="T520">
-        <v>1.775</v>
-      </c>
-      <c r="U520">
-        <v>2.025</v>
-      </c>
-      <c r="V520">
-        <v>-1</v>
-      </c>
-      <c r="W520">
-        <v>2.1</v>
-      </c>
-      <c r="X520">
-        <v>-1</v>
-      </c>
-      <c r="Y520">
-        <v>-1</v>
-      </c>
       <c r="Z520">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA520">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB520">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521" spans="1:28">
@@ -45379,7 +45379,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7698350</v>
+        <v>7698745</v>
       </c>
       <c r="C521" t="s">
         <v>46</v>
@@ -45388,76 +45388,76 @@
         <v>45382.66666666666</v>
       </c>
       <c r="E521" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F521" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="s">
         <v>90</v>
       </c>
       <c r="J521">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="K521">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L521">
         <v>4</v>
       </c>
       <c r="M521">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N521">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O521">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P521">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q521">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R521">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S521">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="T521">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U521">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V521">
         <v>-1</v>
       </c>
       <c r="W521">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z521">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA521">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="522" spans="1:28">
@@ -45723,7 +45723,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C525" t="s">
         <v>46</v>
@@ -45732,76 +45732,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="E525" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F525" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J525">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="K525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L525">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M525">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="N525">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O525">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q525">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R525">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S525">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U525">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V525">
         <v>-1</v>
       </c>
       <c r="W525">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X525">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA525">
         <v>-1</v>
       </c>
       <c r="AB525">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="526" spans="1:28">
@@ -45809,7 +45809,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C526" t="s">
         <v>46</v>
@@ -45818,76 +45818,76 @@
         <v>45382.79166666666</v>
       </c>
       <c r="E526" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F526" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G526">
         <v>0</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I526" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J526">
+        <v>2.625</v>
+      </c>
+      <c r="K526">
+        <v>2.75</v>
+      </c>
+      <c r="L526">
+        <v>2.75</v>
+      </c>
+      <c r="M526">
+        <v>2.7</v>
+      </c>
+      <c r="N526">
+        <v>2.875</v>
+      </c>
+      <c r="O526">
+        <v>3.1</v>
+      </c>
+      <c r="P526">
+        <v>0</v>
+      </c>
+      <c r="Q526">
+        <v>1.775</v>
+      </c>
+      <c r="R526">
+        <v>2.025</v>
+      </c>
+      <c r="S526">
+        <v>1.75</v>
+      </c>
+      <c r="T526">
+        <v>2</v>
+      </c>
+      <c r="U526">
         <v>1.8</v>
       </c>
-      <c r="K526">
-        <v>3</v>
-      </c>
-      <c r="L526">
-        <v>4.5</v>
-      </c>
-      <c r="M526">
-        <v>1.8</v>
-      </c>
-      <c r="N526">
-        <v>3.2</v>
-      </c>
-      <c r="O526">
-        <v>5.25</v>
-      </c>
-      <c r="P526">
-        <v>-0.5</v>
-      </c>
-      <c r="Q526">
-        <v>1.8</v>
-      </c>
-      <c r="R526">
-        <v>2.05</v>
-      </c>
-      <c r="S526">
-        <v>2</v>
-      </c>
-      <c r="T526">
-        <v>1.975</v>
-      </c>
-      <c r="U526">
-        <v>1.875</v>
-      </c>
       <c r="V526">
         <v>-1</v>
       </c>
       <c r="W526">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X526">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y526">
         <v>-1</v>
       </c>
       <c r="Z526">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA526">
         <v>-1</v>
       </c>
       <c r="AB526">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="527" spans="1:28">
@@ -46767,7 +46767,7 @@
         <v>61</v>
       </c>
       <c r="F537" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G537">
         <v>3</v>
@@ -47369,7 +47369,7 @@
         <v>60</v>
       </c>
       <c r="F544" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G544">
         <v>2</v>
@@ -48828,7 +48828,7 @@
         <v>45396.625</v>
       </c>
       <c r="E561" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F561" t="s">
         <v>57</v>
@@ -48991,7 +48991,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8072432</v>
+        <v>8072421</v>
       </c>
       <c r="C563" t="s">
         <v>46</v>
@@ -49000,76 +49000,76 @@
         <v>45396.66666666666</v>
       </c>
       <c r="E563" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F563" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G563">
         <v>1</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J563">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K563">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L563">
         <v>3.5</v>
       </c>
       <c r="M563">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N563">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O563">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P563">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q563">
+        <v>1.775</v>
+      </c>
+      <c r="R563">
+        <v>2.1</v>
+      </c>
+      <c r="S563">
+        <v>2</v>
+      </c>
+      <c r="T563">
+        <v>2.05</v>
+      </c>
+      <c r="U563">
         <v>1.8</v>
       </c>
-      <c r="R563">
-        <v>2</v>
-      </c>
-      <c r="S563">
-        <v>1.75</v>
-      </c>
-      <c r="T563">
-        <v>1.975</v>
-      </c>
-      <c r="U563">
-        <v>1.825</v>
-      </c>
       <c r="V563">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W563">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X563">
         <v>-1</v>
       </c>
       <c r="Y563">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Z563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA563">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB563">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:28">
@@ -49077,7 +49077,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>8072421</v>
+        <v>8072432</v>
       </c>
       <c r="C564" t="s">
         <v>46</v>
@@ -49086,76 +49086,76 @@
         <v>45396.66666666666</v>
       </c>
       <c r="E564" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F564" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G564">
         <v>1</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J564">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K564">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L564">
         <v>3.5</v>
       </c>
       <c r="M564">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="N564">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O564">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P564">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q564">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R564">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S564">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T564">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U564">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V564">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W564">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X564">
         <v>-1</v>
       </c>
       <c r="Y564">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z564">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA564">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB564">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="565" spans="1:28">
@@ -50376,7 +50376,7 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E579" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F579" t="s">
         <v>59</v>
@@ -50634,7 +50634,7 @@
         <v>45403.66666666666</v>
       </c>
       <c r="E582" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F582" t="s">
         <v>83</v>
@@ -51927,7 +51927,7 @@
         <v>56</v>
       </c>
       <c r="F597" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G597">
         <v>2</v>
@@ -52001,7 +52001,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>8133806</v>
+        <v>8133929</v>
       </c>
       <c r="C598" t="s">
         <v>46</v>
@@ -52010,58 +52010,58 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E598" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F598" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G598">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I598" t="s">
         <v>89</v>
       </c>
       <c r="J598">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="K598">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L598">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="M598">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N598">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O598">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P598">
         <v>-0.25</v>
       </c>
       <c r="Q598">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="R598">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S598">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T598">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U598">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V598">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W598">
         <v>-1</v>
@@ -52070,16 +52070,16 @@
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>1.125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z598">
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB598">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:28">
@@ -52087,7 +52087,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>8133929</v>
+        <v>8133806</v>
       </c>
       <c r="C599" t="s">
         <v>46</v>
@@ -52096,58 +52096,58 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E599" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F599" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="s">
         <v>89</v>
       </c>
       <c r="J599">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="K599">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L599">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="M599">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N599">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O599">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P599">
         <v>-0.25</v>
       </c>
       <c r="Q599">
+        <v>2.125</v>
+      </c>
+      <c r="R599">
+        <v>1.75</v>
+      </c>
+      <c r="S599">
+        <v>1.75</v>
+      </c>
+      <c r="T599">
         <v>1.9</v>
       </c>
-      <c r="R599">
+      <c r="U599">
         <v>1.95</v>
       </c>
-      <c r="S599">
-        <v>2</v>
-      </c>
-      <c r="T599">
-        <v>2.025</v>
-      </c>
-      <c r="U599">
-        <v>1.825</v>
-      </c>
       <c r="V599">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="W599">
         <v>-1</v>
@@ -52156,16 +52156,16 @@
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>0.8999999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="Z599">
         <v>-1</v>
       </c>
       <c r="AA599">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="600" spans="1:28">
@@ -52259,7 +52259,7 @@
         <v>599</v>
       </c>
       <c r="B601">
-        <v>8133808</v>
+        <v>8133938</v>
       </c>
       <c r="C601" t="s">
         <v>46</v>
@@ -52268,58 +52268,58 @@
         <v>45410.66666666666</v>
       </c>
       <c r="E601" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F601" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G601">
         <v>2</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I601" t="s">
         <v>89</v>
       </c>
       <c r="J601">
+        <v>1.615</v>
+      </c>
+      <c r="K601">
+        <v>3.4</v>
+      </c>
+      <c r="L601">
+        <v>5</v>
+      </c>
+      <c r="M601">
         <v>2.1</v>
       </c>
-      <c r="K601">
-        <v>2.9</v>
-      </c>
-      <c r="L601">
-        <v>3.5</v>
-      </c>
-      <c r="M601">
-        <v>1.95</v>
-      </c>
       <c r="N601">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O601">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P601">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q601">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R601">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S601">
         <v>2</v>
       </c>
       <c r="T601">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U601">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V601">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="W601">
         <v>-1</v>
@@ -52328,16 +52328,16 @@
         <v>-1</v>
       </c>
       <c r="Y601">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z601">
         <v>-1</v>
       </c>
       <c r="AA601">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB601">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="602" spans="1:28">
@@ -52345,7 +52345,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>8133938</v>
+        <v>8133808</v>
       </c>
       <c r="C602" t="s">
         <v>46</v>
@@ -52354,58 +52354,58 @@
         <v>45410.66666666666</v>
       </c>
       <c r="E602" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F602" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G602">
         <v>2</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="s">
         <v>89</v>
       </c>
       <c r="J602">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="K602">
+        <v>2.9</v>
+      </c>
+      <c r="L602">
+        <v>3.5</v>
+      </c>
+      <c r="M602">
+        <v>1.95</v>
+      </c>
+      <c r="N602">
         <v>3.4</v>
       </c>
-      <c r="L602">
-        <v>5</v>
-      </c>
-      <c r="M602">
-        <v>2.1</v>
-      </c>
-      <c r="N602">
-        <v>3.2</v>
-      </c>
       <c r="O602">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P602">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q602">
+        <v>1.9</v>
+      </c>
+      <c r="R602">
+        <v>1.9</v>
+      </c>
+      <c r="S602">
+        <v>2</v>
+      </c>
+      <c r="T602">
         <v>1.775</v>
       </c>
-      <c r="R602">
+      <c r="U602">
         <v>2.025</v>
       </c>
-      <c r="S602">
-        <v>2</v>
-      </c>
-      <c r="T602">
-        <v>1.75</v>
-      </c>
-      <c r="U602">
-        <v>2.05</v>
-      </c>
       <c r="V602">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="W602">
         <v>-1</v>
@@ -52414,16 +52414,16 @@
         <v>-1</v>
       </c>
       <c r="Y602">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z602">
         <v>-1</v>
       </c>
       <c r="AA602">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AB602">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:28">
@@ -52443,7 +52443,7 @@
         <v>70</v>
       </c>
       <c r="F603" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -52517,7 +52517,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>8133930</v>
+        <v>8133807</v>
       </c>
       <c r="C604" t="s">
         <v>46</v>
@@ -52526,73 +52526,73 @@
         <v>45410.6875</v>
       </c>
       <c r="E604" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F604" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G604">
+        <v>1</v>
+      </c>
+      <c r="H604">
         <v>3</v>
       </c>
-      <c r="H604">
-        <v>0</v>
-      </c>
       <c r="I604" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J604">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K604">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="L604">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M604">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N604">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O604">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="P604">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R604">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S604">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T604">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U604">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V604">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W604">
         <v>-1</v>
       </c>
       <c r="X604">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y604">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z604">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA604">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB604">
         <v>-1</v>
@@ -52603,7 +52603,7 @@
         <v>603</v>
       </c>
       <c r="B605">
-        <v>8133807</v>
+        <v>8133930</v>
       </c>
       <c r="C605" t="s">
         <v>46</v>
@@ -52612,73 +52612,73 @@
         <v>45410.6875</v>
       </c>
       <c r="E605" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F605" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G605">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H605">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J605">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K605">
+        <v>3.1</v>
+      </c>
+      <c r="L605">
         <v>2.875</v>
       </c>
-      <c r="L605">
-        <v>3.2</v>
-      </c>
       <c r="M605">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N605">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O605">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="P605">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q605">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R605">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S605">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T605">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U605">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V605">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W605">
         <v>-1</v>
       </c>
       <c r="X605">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y605">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z605">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA605">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB605">
         <v>-1</v>
@@ -53205,7 +53205,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>8165224</v>
+        <v>7698814</v>
       </c>
       <c r="C612" t="s">
         <v>46</v>
@@ -53214,55 +53214,55 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E612" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F612" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G612">
         <v>0</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="s">
         <v>91</v>
       </c>
       <c r="J612">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="K612">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L612">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M612">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N612">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O612">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="P612">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q612">
+        <v>1.825</v>
+      </c>
+      <c r="R612">
         <v>1.975</v>
       </c>
-      <c r="R612">
-        <v>1.825</v>
-      </c>
       <c r="S612">
         <v>2</v>
       </c>
       <c r="T612">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U612">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V612">
         <v>-1</v>
@@ -53271,19 +53271,19 @@
         <v>-1</v>
       </c>
       <c r="X612">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Y612">
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA612">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB612">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:28">
@@ -53291,7 +53291,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>7698806</v>
+        <v>7698808</v>
       </c>
       <c r="C613" t="s">
         <v>46</v>
@@ -53300,76 +53300,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E613" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F613" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613">
         <v>0</v>
       </c>
       <c r="I613" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J613">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K613">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L613">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="M613">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="N613">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O613">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P613">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q613">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R613">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S613">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T613">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U613">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V613">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W613">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X613">
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z613">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA613">
         <v>-1</v>
       </c>
       <c r="AB613">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="614" spans="1:28">
@@ -53377,7 +53377,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>7698808</v>
+        <v>8165224</v>
       </c>
       <c r="C614" t="s">
         <v>46</v>
@@ -53386,76 +53386,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E614" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F614" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I614" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J614">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K614">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L614">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M614">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N614">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O614">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P614">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q614">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R614">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S614">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T614">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U614">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V614">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W614">
         <v>-1</v>
       </c>
       <c r="X614">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y614">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z614">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA614">
         <v>-1</v>
       </c>
       <c r="AB614">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="615" spans="1:28">
@@ -53463,7 +53463,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>7698814</v>
+        <v>7698806</v>
       </c>
       <c r="C615" t="s">
         <v>46</v>
@@ -53472,76 +53472,76 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E615" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F615" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G615">
         <v>0</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J615">
+        <v>1.909</v>
+      </c>
+      <c r="K615">
         <v>3</v>
       </c>
-      <c r="K615">
-        <v>2.875</v>
-      </c>
       <c r="L615">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M615">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N615">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O615">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="P615">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q615">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R615">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S615">
         <v>2</v>
       </c>
       <c r="T615">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U615">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V615">
         <v>-1</v>
       </c>
       <c r="W615">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X615">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y615">
         <v>-1</v>
       </c>
       <c r="Z615">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA615">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB615">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="616" spans="1:28">
@@ -54160,7 +54160,7 @@
         <v>45417.66666666666</v>
       </c>
       <c r="E623" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F623" t="s">
         <v>55</v>
@@ -54593,7 +54593,7 @@
         <v>68</v>
       </c>
       <c r="F628" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -55969,7 +55969,7 @@
         <v>73</v>
       </c>
       <c r="F644" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G644">
         <v>1</v>
@@ -56138,7 +56138,7 @@
         <v>45429.64583333334</v>
       </c>
       <c r="E646" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F646" t="s">
         <v>54</v>
@@ -56215,7 +56215,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>8215000</v>
+        <v>8215001</v>
       </c>
       <c r="C647" t="s">
         <v>46</v>
@@ -56224,76 +56224,76 @@
         <v>45430.64583333334</v>
       </c>
       <c r="E647" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F647" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G647">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J647">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K647">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="L647">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M647">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N647">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O647">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="P647">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q647">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R647">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S647">
         <v>1.75</v>
       </c>
       <c r="T647">
+        <v>1.9</v>
+      </c>
+      <c r="U647">
+        <v>1.9</v>
+      </c>
+      <c r="V647">
+        <v>-1</v>
+      </c>
+      <c r="W647">
         <v>1.8</v>
       </c>
-      <c r="U647">
-        <v>2</v>
-      </c>
-      <c r="V647">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W647">
-        <v>-1</v>
-      </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z647">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA647">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:28">
@@ -56301,7 +56301,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>8215001</v>
+        <v>8215000</v>
       </c>
       <c r="C648" t="s">
         <v>46</v>
@@ -56310,76 +56310,76 @@
         <v>45430.64583333334</v>
       </c>
       <c r="E648" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F648" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G648">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J648">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K648">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="L648">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M648">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N648">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O648">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="P648">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q648">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R648">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S648">
         <v>1.75</v>
       </c>
       <c r="T648">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U648">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V648">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W648">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X648">
         <v>-1</v>
       </c>
       <c r="Y648">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z648">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA648">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB648">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="649" spans="1:28">
@@ -56740,7 +56740,7 @@
         <v>45431.625</v>
       </c>
       <c r="E653" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F653" t="s">
         <v>49</v>
@@ -56817,7 +56817,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>8215011</v>
+        <v>8215021</v>
       </c>
       <c r="C654" t="s">
         <v>46</v>
@@ -56826,70 +56826,70 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E654" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F654" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H654">
         <v>0</v>
       </c>
       <c r="I654" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J654">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K654">
+        <v>3</v>
+      </c>
+      <c r="L654">
         <v>3.5</v>
       </c>
-      <c r="L654">
-        <v>4.5</v>
-      </c>
       <c r="M654">
+        <v>2.7</v>
+      </c>
+      <c r="N654">
+        <v>2.875</v>
+      </c>
+      <c r="O654">
+        <v>2.9</v>
+      </c>
+      <c r="P654">
+        <v>0</v>
+      </c>
+      <c r="Q654">
+        <v>1.825</v>
+      </c>
+      <c r="R654">
+        <v>1.975</v>
+      </c>
+      <c r="S654">
         <v>1.75</v>
       </c>
-      <c r="N654">
-        <v>3.5</v>
-      </c>
-      <c r="O654">
-        <v>4.5</v>
-      </c>
-      <c r="P654">
-        <v>-0.75</v>
-      </c>
-      <c r="Q654">
-        <v>2.05</v>
-      </c>
-      <c r="R654">
-        <v>1.8</v>
-      </c>
-      <c r="S654">
-        <v>2</v>
-      </c>
       <c r="T654">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U654">
         <v>1.875</v>
       </c>
       <c r="V654">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W654">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X654">
         <v>-1</v>
       </c>
       <c r="Y654">
-        <v>0.5249999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z654">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA654">
         <v>-1</v>
@@ -56903,7 +56903,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>8215021</v>
+        <v>8215011</v>
       </c>
       <c r="C655" t="s">
         <v>46</v>
@@ -56912,70 +56912,70 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E655" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F655" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="G655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H655">
         <v>0</v>
       </c>
       <c r="I655" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J655">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K655">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L655">
+        <v>4.5</v>
+      </c>
+      <c r="M655">
+        <v>1.75</v>
+      </c>
+      <c r="N655">
         <v>3.5</v>
       </c>
-      <c r="M655">
-        <v>2.7</v>
-      </c>
-      <c r="N655">
-        <v>2.875</v>
-      </c>
       <c r="O655">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="P655">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q655">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R655">
+        <v>1.8</v>
+      </c>
+      <c r="S655">
+        <v>2</v>
+      </c>
+      <c r="T655">
         <v>1.975</v>
-      </c>
-      <c r="S655">
-        <v>1.75</v>
-      </c>
-      <c r="T655">
-        <v>1.925</v>
       </c>
       <c r="U655">
         <v>1.875</v>
       </c>
       <c r="V655">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W655">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X655">
         <v>-1</v>
       </c>
       <c r="Y655">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="Z655">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA655">
         <v>-1</v>
@@ -57852,31 +57852,31 @@
         <v>2.25</v>
       </c>
       <c r="M666">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N666">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O666">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P666">
         <v>0.25</v>
       </c>
       <c r="Q666">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R666">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S666">
         <v>2</v>
       </c>
       <c r="T666">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U666">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V666">
         <v>0</v>
@@ -58047,22 +58047,22 @@
         <v>3.1</v>
       </c>
       <c r="M669">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N669">
         <v>2.9</v>
       </c>
       <c r="O669">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P669">
         <v>-0.25</v>
       </c>
       <c r="Q669">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R669">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S669">
         <v>2</v>
@@ -58112,31 +58112,31 @@
         <v>2.75</v>
       </c>
       <c r="M670">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N670">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O670">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P670">
         <v>-0.25</v>
       </c>
       <c r="Q670">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R670">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S670">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T670">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U670">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V670">
         <v>0</v>
@@ -58165,7 +58165,7 @@
         <v>78</v>
       </c>
       <c r="F671" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J671">
         <v>2.9</v>
@@ -58242,22 +58242,22 @@
         <v>2.75</v>
       </c>
       <c r="M672">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N672">
         <v>2.9</v>
       </c>
       <c r="O672">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P672">
         <v>-0.25</v>
       </c>
       <c r="Q672">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R672">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S672">
         <v>1.75</v>
@@ -58310,28 +58310,28 @@
         <v>1.95</v>
       </c>
       <c r="N673">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O673">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P673">
         <v>-0.5</v>
       </c>
       <c r="Q673">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R673">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S673">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T673">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U673">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V673">
         <v>0</v>
@@ -58372,13 +58372,13 @@
         <v>3</v>
       </c>
       <c r="M674">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N674">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O674">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P674">
         <v>0</v>
@@ -58390,13 +58390,13 @@
         <v>2.125</v>
       </c>
       <c r="S674">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T674">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U674">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V674">
         <v>0</v>
@@ -58523,10 +58523,10 @@
         <v>1.75</v>
       </c>
       <c r="T676">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U676">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V676">
         <v>0</v>
@@ -58617,46 +58617,46 @@
         <v>45438.66666666666</v>
       </c>
       <c r="E678" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="F678" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J678">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="K678">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L678">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M678">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N678">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O678">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="P678">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q678">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R678">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S678">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T678">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="U678">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V678">
         <v>0</v>
@@ -58685,7 +58685,7 @@
         <v>65</v>
       </c>
       <c r="F679" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J679">
         <v>2.5</v>
@@ -58697,31 +58697,31 @@
         <v>2.75</v>
       </c>
       <c r="M679">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N679">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O679">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="P679">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q679">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R679">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S679">
         <v>1.75</v>
       </c>
       <c r="T679">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U679">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V679">
         <v>0</v>
@@ -58747,46 +58747,46 @@
         <v>45438.66666666666</v>
       </c>
       <c r="E680" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F680" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J680">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="K680">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L680">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M680">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="N680">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O680">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="P680">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q680">
+        <v>1.875</v>
+      </c>
+      <c r="R680">
+        <v>1.975</v>
+      </c>
+      <c r="S680">
+        <v>1.75</v>
+      </c>
+      <c r="T680">
         <v>1.925</v>
       </c>
-      <c r="R680">
+      <c r="U680">
         <v>1.925</v>
-      </c>
-      <c r="S680">
-        <v>2</v>
-      </c>
-      <c r="T680">
-        <v>2.1</v>
-      </c>
-      <c r="U680">
-        <v>1.775</v>
       </c>
       <c r="V680">
         <v>0</v>
@@ -58827,22 +58827,22 @@
         <v>2.5</v>
       </c>
       <c r="M681">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N681">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O681">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P681">
         <v>0</v>
       </c>
       <c r="Q681">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R681">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S681">
         <v>1.75</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -4523,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6150859</v>
+        <v>6150858</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -4532,82 +4532,82 @@
         <v>45096.625</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L43">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N43">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O43">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P43">
         <v>3.1</v>
       </c>
       <c r="Q43">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R43">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S43">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T43">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y43">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4615,7 +4615,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150858</v>
+        <v>6150859</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -4624,82 +4624,82 @@
         <v>45096.625</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L44">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="M44">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="P44">
         <v>3.1</v>
       </c>
       <c r="Q44">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R44">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X44">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC44">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -6639,7 +6639,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6150549</v>
+        <v>6150696</v>
       </c>
       <c r="C66" t="s">
         <v>46</v>
@@ -6648,82 +6648,82 @@
         <v>45107.875</v>
       </c>
       <c r="E66" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L66">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O66">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q66">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="R66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S66">
+        <v>1.725</v>
+      </c>
+      <c r="T66">
+        <v>2.075</v>
+      </c>
+      <c r="U66">
+        <v>1.75</v>
+      </c>
+      <c r="V66">
+        <v>1.75</v>
+      </c>
+      <c r="W66">
         <v>2.05</v>
       </c>
-      <c r="T66">
-        <v>1.75</v>
-      </c>
-      <c r="U66">
-        <v>2</v>
-      </c>
-      <c r="V66">
-        <v>1.9</v>
-      </c>
-      <c r="W66">
-        <v>1.9</v>
-      </c>
       <c r="X66">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.75</v>
       </c>
-      <c r="AC66">
-        <v>-1</v>
-      </c>
       <c r="AD66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6731,7 +6731,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6150696</v>
+        <v>6150549</v>
       </c>
       <c r="C67" t="s">
         <v>46</v>
@@ -6740,82 +6740,82 @@
         <v>45107.875</v>
       </c>
       <c r="E67" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L67">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M67">
+        <v>2.9</v>
+      </c>
+      <c r="N67">
         <v>2.75</v>
       </c>
-      <c r="N67">
-        <v>2.3</v>
-      </c>
       <c r="O67">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P67">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S67">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T67">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="U67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V67">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X67">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA67">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -7467,7 +7467,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6150866</v>
+        <v>6150698</v>
       </c>
       <c r="C75" t="s">
         <v>46</v>
@@ -7476,19 +7476,19 @@
         <v>45109.64583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7497,31 +7497,31 @@
         <v>89</v>
       </c>
       <c r="L75">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="M75">
         <v>2.9</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q75">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="R75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -7533,7 +7533,7 @@
         <v>1.775</v>
       </c>
       <c r="X75">
-        <v>1.3</v>
+        <v>0.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7542,7 +7542,7 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -7559,7 +7559,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6150698</v>
+        <v>6150866</v>
       </c>
       <c r="C76" t="s">
         <v>46</v>
@@ -7568,19 +7568,19 @@
         <v>45109.64583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -7589,31 +7589,31 @@
         <v>89</v>
       </c>
       <c r="L76">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="M76">
         <v>2.9</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O76">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="P76">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="R76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -7625,7 +7625,7 @@
         <v>1.775</v>
       </c>
       <c r="X76">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7634,7 +7634,7 @@
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
@@ -8663,7 +8663,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6150704</v>
+        <v>6870444</v>
       </c>
       <c r="C88" t="s">
         <v>46</v>
@@ -8672,10 +8672,10 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8693,40 +8693,40 @@
         <v>91</v>
       </c>
       <c r="L88">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
         <v>2.875</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="R88">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U88">
         <v>2</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8735,13 +8735,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6870444</v>
+        <v>6870414</v>
       </c>
       <c r="C89" t="s">
         <v>46</v>
@@ -8764,61 +8764,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
         <v>91</v>
       </c>
       <c r="L89">
+        <v>2.15</v>
+      </c>
+      <c r="M89">
         <v>2.9</v>
       </c>
-      <c r="M89">
-        <v>2.875</v>
-      </c>
       <c r="N89">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="O89">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="P89">
         <v>3</v>
       </c>
       <c r="Q89">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="R89">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
         <v>2</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8827,19 +8827,19 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.375</v>
+        <v>2.6</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8847,7 +8847,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6870414</v>
+        <v>6150704</v>
       </c>
       <c r="C90" t="s">
         <v>46</v>
@@ -8856,61 +8856,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>91</v>
       </c>
       <c r="L90">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M90">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N90">
+        <v>2.875</v>
+      </c>
+      <c r="O90">
+        <v>2.5</v>
+      </c>
+      <c r="P90">
+        <v>2.875</v>
+      </c>
+      <c r="Q90">
         <v>3.3</v>
-      </c>
-      <c r="O90">
-        <v>2.25</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>3.6</v>
       </c>
       <c r="R90">
         <v>-0.25</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
         <v>2</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8919,19 +8919,19 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -10779,7 +10779,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6150882</v>
+        <v>6903679</v>
       </c>
       <c r="C111" t="s">
         <v>46</v>
@@ -10788,10 +10788,10 @@
         <v>45123.64583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10809,46 +10809,46 @@
         <v>90</v>
       </c>
       <c r="L111">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M111">
+        <v>3.2</v>
+      </c>
+      <c r="N111">
         <v>4</v>
       </c>
-      <c r="N111">
-        <v>5</v>
-      </c>
       <c r="O111">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="P111">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="R111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S111">
+        <v>1.9</v>
+      </c>
+      <c r="T111">
         <v>1.95</v>
       </c>
-      <c r="T111">
-        <v>1.85</v>
-      </c>
       <c r="U111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10857,13 +10857,13 @@
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
         <v>-1</v>
       </c>
       <c r="AD111">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10871,7 +10871,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6903679</v>
+        <v>6150882</v>
       </c>
       <c r="C112" t="s">
         <v>46</v>
@@ -10880,10 +10880,10 @@
         <v>45123.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10901,46 +10901,46 @@
         <v>90</v>
       </c>
       <c r="L112">
+        <v>1.5</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112">
+        <v>1.533</v>
+      </c>
+      <c r="P112">
+        <v>4</v>
+      </c>
+      <c r="Q112">
+        <v>6.5</v>
+      </c>
+      <c r="R112">
+        <v>-1</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
+        <v>1.85</v>
+      </c>
+      <c r="U112">
+        <v>2.25</v>
+      </c>
+      <c r="V112">
+        <v>2</v>
+      </c>
+      <c r="W112">
         <v>1.8</v>
       </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>4</v>
-      </c>
-      <c r="O112">
-        <v>1.909</v>
-      </c>
-      <c r="P112">
-        <v>3.3</v>
-      </c>
-      <c r="Q112">
-        <v>4.5</v>
-      </c>
-      <c r="R112">
-        <v>-0.5</v>
-      </c>
-      <c r="S112">
-        <v>1.9</v>
-      </c>
-      <c r="T112">
-        <v>1.95</v>
-      </c>
-      <c r="U112">
-        <v>2</v>
-      </c>
-      <c r="V112">
-        <v>1.875</v>
-      </c>
-      <c r="W112">
-        <v>1.975</v>
-      </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
@@ -10949,13 +10949,13 @@
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
       </c>
       <c r="AD112">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -12343,7 +12343,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150888</v>
+        <v>6150887</v>
       </c>
       <c r="C128" t="s">
         <v>46</v>
@@ -12352,79 +12352,79 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F128" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L128">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="M128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>1.6</v>
+        <v>4.75</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R128">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S128">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W128">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X128">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA128">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD128">
         <v>-1</v>
@@ -12527,7 +12527,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6150887</v>
+        <v>6150888</v>
       </c>
       <c r="C130" t="s">
         <v>46</v>
@@ -12536,79 +12536,79 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E130" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q130">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="R130">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD130">
         <v>-1</v>
@@ -12619,7 +12619,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6150890</v>
+        <v>6150556</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
@@ -12628,25 +12628,25 @@
         <v>45130.66666666666</v>
       </c>
       <c r="E131" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="G131">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L131">
         <v>1.909</v>
@@ -12664,46 +12664,46 @@
         <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="R131">
         <v>-0.5</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
+        <v>1.775</v>
+      </c>
+      <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
         <v>1.9</v>
-      </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
       </c>
       <c r="W131">
         <v>1.9</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y131">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+      <c r="AD131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC131">
-        <v>0</v>
-      </c>
-      <c r="AD131">
-        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12711,7 +12711,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6150556</v>
+        <v>6150890</v>
       </c>
       <c r="C132" t="s">
         <v>46</v>
@@ -12720,25 +12720,25 @@
         <v>45130.66666666666</v>
       </c>
       <c r="E132" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F132" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L132">
         <v>1.909</v>
@@ -12756,46 +12756,46 @@
         <v>3.1</v>
       </c>
       <c r="Q132">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="R132">
         <v>-0.5</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
         <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
         <v>1.9</v>
       </c>
       <c r="X132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD132">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -34147,7 +34147,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698644</v>
+        <v>7698640</v>
       </c>
       <c r="C365" t="s">
         <v>46</v>
@@ -34156,19 +34156,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F365" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365">
         <v>0</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -34177,43 +34177,43 @@
         <v>89</v>
       </c>
       <c r="L365">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M365">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N365">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O365">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P365">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q365">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R365">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S365">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T365">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U365">
         <v>2</v>
       </c>
       <c r="V365">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W365">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X365">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="Y365">
         <v>-1</v>
@@ -34222,16 +34222,16 @@
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB365">
         <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD365">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34239,7 +34239,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C366" t="s">
         <v>46</v>
@@ -34248,19 +34248,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E366" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F366" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366">
         <v>0</v>
       </c>
       <c r="I366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -34269,61 +34269,61 @@
         <v>89</v>
       </c>
       <c r="L366">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M366">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N366">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O366">
+        <v>2.625</v>
+      </c>
+      <c r="P366">
+        <v>2.75</v>
+      </c>
+      <c r="Q366">
+        <v>3.25</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>1.75</v>
+      </c>
+      <c r="T366">
+        <v>2.05</v>
+      </c>
+      <c r="U366">
+        <v>2</v>
+      </c>
+      <c r="V366">
+        <v>2</v>
+      </c>
+      <c r="W366">
         <v>1.8</v>
       </c>
-      <c r="P366">
-        <v>3.4</v>
-      </c>
-      <c r="Q366">
-        <v>5</v>
-      </c>
-      <c r="R366">
-        <v>-0.75</v>
-      </c>
-      <c r="S366">
-        <v>2.025</v>
-      </c>
-      <c r="T366">
-        <v>1.825</v>
-      </c>
-      <c r="U366">
-        <v>2</v>
-      </c>
-      <c r="V366">
-        <v>1.925</v>
-      </c>
-      <c r="W366">
-        <v>1.925</v>
-      </c>
       <c r="X366">
+        <v>1.625</v>
+      </c>
+      <c r="Y366">
+        <v>-1</v>
+      </c>
+      <c r="Z366">
+        <v>-1</v>
+      </c>
+      <c r="AA366">
+        <v>0.75</v>
+      </c>
+      <c r="AB366">
+        <v>-1</v>
+      </c>
+      <c r="AC366">
+        <v>-1</v>
+      </c>
+      <c r="AD366">
         <v>0.8</v>
-      </c>
-      <c r="Y366">
-        <v>-1</v>
-      </c>
-      <c r="Z366">
-        <v>-1</v>
-      </c>
-      <c r="AA366">
-        <v>1.025</v>
-      </c>
-      <c r="AB366">
-        <v>-1</v>
-      </c>
-      <c r="AC366">
-        <v>0</v>
-      </c>
-      <c r="AD366">
-        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34331,7 +34331,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C367" t="s">
         <v>46</v>
@@ -34340,13 +34340,13 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E367" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F367" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367">
         <v>0</v>
@@ -34358,64 +34358,64 @@
         <v>0</v>
       </c>
       <c r="K367" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L367">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N367">
+        <v>3.3</v>
+      </c>
+      <c r="O367">
+        <v>2.3</v>
+      </c>
+      <c r="P367">
         <v>3</v>
       </c>
-      <c r="O367">
-        <v>2.9</v>
-      </c>
-      <c r="P367">
-        <v>2.8</v>
-      </c>
       <c r="Q367">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="R367">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S367">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T367">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U367">
         <v>1.75</v>
       </c>
       <c r="V367">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X367">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z367">
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC367">
         <v>-1</v>
       </c>
       <c r="AD367">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34423,7 +34423,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C368" t="s">
         <v>46</v>
@@ -34432,13 +34432,13 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E368" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F368" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368">
         <v>0</v>
@@ -34450,64 +34450,64 @@
         <v>0</v>
       </c>
       <c r="K368" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L368">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M368">
+        <v>2.75</v>
+      </c>
+      <c r="N368">
         <v>3</v>
       </c>
-      <c r="N368">
-        <v>3.3</v>
-      </c>
       <c r="O368">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="P368">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q368">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R368">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S368">
+        <v>1.875</v>
+      </c>
+      <c r="T368">
         <v>1.975</v>
-      </c>
-      <c r="T368">
-        <v>1.825</v>
       </c>
       <c r="U368">
         <v>1.75</v>
       </c>
       <c r="V368">
+        <v>1.85</v>
+      </c>
+      <c r="W368">
+        <v>2</v>
+      </c>
+      <c r="X368">
         <v>1.9</v>
       </c>
-      <c r="W368">
-        <v>1.9</v>
-      </c>
-      <c r="X368">
-        <v>-1</v>
-      </c>
       <c r="Y368">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB368">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
         <v>-1</v>
       </c>
       <c r="AD368">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:30">
@@ -34699,7 +34699,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7698542</v>
+        <v>7698649</v>
       </c>
       <c r="C371" t="s">
         <v>46</v>
@@ -34708,16 +34708,16 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E371" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F371" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -34726,64 +34726,64 @@
         <v>0</v>
       </c>
       <c r="K371" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L371">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M371">
         <v>2.75</v>
       </c>
       <c r="N371">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O371">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P371">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q371">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="R371">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S371">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T371">
         <v>1.775</v>
       </c>
       <c r="U371">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V371">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA371">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC371">
         <v>-1</v>
       </c>
       <c r="AD371">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="372" spans="1:30">
@@ -34791,7 +34791,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7698649</v>
+        <v>7698542</v>
       </c>
       <c r="C372" t="s">
         <v>46</v>
@@ -34800,16 +34800,16 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E372" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F372" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -34818,64 +34818,64 @@
         <v>0</v>
       </c>
       <c r="K372" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L372">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M372">
         <v>2.75</v>
       </c>
       <c r="N372">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P372">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q372">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="R372">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S372">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T372">
         <v>1.775</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V372">
+        <v>1.775</v>
+      </c>
+      <c r="W372">
         <v>2.025</v>
       </c>
-      <c r="W372">
-        <v>1.825</v>
-      </c>
       <c r="X372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB372">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
         <v>-1</v>
       </c>
       <c r="AD372">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="373" spans="1:30">
@@ -35803,7 +35803,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7702211</v>
+        <v>7698663</v>
       </c>
       <c r="C383" t="s">
         <v>46</v>
@@ -35812,82 +35812,82 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E383" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F383" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383">
         <v>0</v>
       </c>
       <c r="K383" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L383">
         <v>2.5</v>
       </c>
       <c r="M383">
+        <v>2.875</v>
+      </c>
+      <c r="N383">
         <v>2.9</v>
       </c>
-      <c r="N383">
-        <v>2.75</v>
-      </c>
       <c r="O383">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P383">
         <v>2.875</v>
       </c>
       <c r="Q383">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R383">
         <v>0</v>
       </c>
       <c r="S383">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T383">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U383">
         <v>1.75</v>
       </c>
       <c r="V383">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y383">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD383">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:30">
@@ -35987,7 +35987,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7698663</v>
+        <v>7698659</v>
       </c>
       <c r="C385" t="s">
         <v>46</v>
@@ -35996,82 +35996,82 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E385" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F385" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385">
         <v>0</v>
       </c>
       <c r="K385" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L385">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M385">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N385">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O385">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="P385">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q385">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="R385">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S385">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T385">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U385">
         <v>1.75</v>
       </c>
       <c r="V385">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W385">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X385">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA385">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC385">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AD385">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="386" spans="1:30">
@@ -36079,7 +36079,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7698659</v>
+        <v>7702211</v>
       </c>
       <c r="C386" t="s">
         <v>46</v>
@@ -36088,16 +36088,16 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E386" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F386" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G386">
         <v>0</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386">
         <v>0</v>
@@ -36106,64 +36106,64 @@
         <v>0</v>
       </c>
       <c r="K386" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L386">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M386">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N386">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O386">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="P386">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q386">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="R386">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T386">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U386">
         <v>1.75</v>
       </c>
       <c r="V386">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W386">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z386">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB386">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC386">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD386">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -36355,7 +36355,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C389" t="s">
         <v>46</v>
@@ -36364,10 +36364,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E389" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F389" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -36385,43 +36385,43 @@
         <v>89</v>
       </c>
       <c r="L389">
+        <v>2.5</v>
+      </c>
+      <c r="M389">
         <v>3</v>
       </c>
-      <c r="M389">
+      <c r="N389">
         <v>2.75</v>
       </c>
-      <c r="N389">
-        <v>2.5</v>
-      </c>
       <c r="O389">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P389">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q389">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="R389">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S389">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T389">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U389">
         <v>1.75</v>
       </c>
       <c r="V389">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W389">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X389">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y389">
         <v>-1</v>
@@ -36430,7 +36430,7 @@
         <v>-1</v>
       </c>
       <c r="AA389">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB389">
         <v>-1</v>
@@ -36439,7 +36439,7 @@
         <v>-1</v>
       </c>
       <c r="AD389">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36447,7 +36447,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698656</v>
+        <v>7698662</v>
       </c>
       <c r="C390" t="s">
         <v>46</v>
@@ -36456,10 +36456,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E390" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F390" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G390">
         <v>1</v>
@@ -36468,7 +36468,7 @@
         <v>0</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390">
         <v>0</v>
@@ -36477,31 +36477,31 @@
         <v>89</v>
       </c>
       <c r="L390">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M390">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N390">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O390">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P390">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q390">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R390">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S390">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T390">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U390">
         <v>1.75</v>
@@ -36510,10 +36510,10 @@
         <v>1.775</v>
       </c>
       <c r="W390">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="X390">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="Y390">
         <v>-1</v>
@@ -36522,7 +36522,7 @@
         <v>-1</v>
       </c>
       <c r="AA390">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB390">
         <v>-1</v>
@@ -36531,7 +36531,7 @@
         <v>-1</v>
       </c>
       <c r="AD390">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36539,7 +36539,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698657</v>
+        <v>7698656</v>
       </c>
       <c r="C391" t="s">
         <v>46</v>
@@ -36548,82 +36548,82 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F391" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="G391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H391">
         <v>0</v>
       </c>
       <c r="I391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391">
         <v>0</v>
       </c>
       <c r="K391" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L391">
+        <v>2.5</v>
+      </c>
+      <c r="M391">
+        <v>2.875</v>
+      </c>
+      <c r="N391">
         <v>2.75</v>
       </c>
-      <c r="M391">
-        <v>3.1</v>
-      </c>
-      <c r="N391">
-        <v>2.375</v>
-      </c>
       <c r="O391">
+        <v>2.875</v>
+      </c>
+      <c r="P391">
         <v>2.9</v>
       </c>
-      <c r="P391">
-        <v>3.3</v>
-      </c>
       <c r="Q391">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="R391">
         <v>0</v>
       </c>
       <c r="S391">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="T391">
+        <v>1.875</v>
+      </c>
+      <c r="U391">
         <v>1.75</v>
       </c>
-      <c r="U391">
-        <v>2</v>
-      </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W391">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y391">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z391">
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB391">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC391">
         <v>-1</v>
       </c>
       <c r="AD391">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36631,7 +36631,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698545</v>
+        <v>7698657</v>
       </c>
       <c r="C392" t="s">
         <v>46</v>
@@ -36640,82 +36640,82 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F392" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392">
         <v>0</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392">
         <v>0</v>
       </c>
       <c r="K392" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L392">
+        <v>2.75</v>
+      </c>
+      <c r="M392">
+        <v>3.1</v>
+      </c>
+      <c r="N392">
+        <v>2.375</v>
+      </c>
+      <c r="O392">
+        <v>2.9</v>
+      </c>
+      <c r="P392">
+        <v>3.3</v>
+      </c>
+      <c r="Q392">
         <v>2.5</v>
       </c>
-      <c r="M392">
-        <v>3</v>
-      </c>
-      <c r="N392">
-        <v>2.75</v>
-      </c>
-      <c r="O392">
-        <v>2.1</v>
-      </c>
-      <c r="P392">
-        <v>3.2</v>
-      </c>
-      <c r="Q392">
-        <v>3.8</v>
-      </c>
       <c r="R392">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S392">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="T392">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U392">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V392">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W392">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X392">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y392">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z392">
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB392">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC392">
         <v>-1</v>
       </c>
       <c r="AD392">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36723,7 +36723,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698662</v>
+        <v>7698658</v>
       </c>
       <c r="C393" t="s">
         <v>46</v>
@@ -36732,10 +36732,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F393" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393">
         <v>0</v>
@@ -36753,43 +36753,43 @@
         <v>89</v>
       </c>
       <c r="L393">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M393">
         <v>2.75</v>
       </c>
       <c r="N393">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O393">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P393">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q393">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R393">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S393">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T393">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U393">
         <v>1.75</v>
       </c>
       <c r="V393">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W393">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X393">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y393">
         <v>-1</v>
@@ -36798,7 +36798,7 @@
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB393">
         <v>-1</v>
@@ -36807,7 +36807,7 @@
         <v>-1</v>
       </c>
       <c r="AD393">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="394" spans="1:30">
@@ -36907,7 +36907,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C395" t="s">
         <v>46</v>
@@ -36916,82 +36916,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E395" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F395" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G395">
         <v>1</v>
       </c>
       <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395" t="s">
+        <v>90</v>
+      </c>
+      <c r="L395">
+        <v>2.5</v>
+      </c>
+      <c r="M395">
+        <v>2.75</v>
+      </c>
+      <c r="N395">
         <v>3</v>
       </c>
-      <c r="I395">
-        <v>1</v>
-      </c>
-      <c r="J395">
-        <v>0</v>
-      </c>
-      <c r="K395" t="s">
-        <v>91</v>
-      </c>
-      <c r="L395">
-        <v>3.4</v>
-      </c>
-      <c r="M395">
+      <c r="O395">
+        <v>2.55</v>
+      </c>
+      <c r="P395">
         <v>2.875</v>
       </c>
-      <c r="N395">
-        <v>2.2</v>
-      </c>
-      <c r="O395">
-        <v>2.45</v>
-      </c>
-      <c r="P395">
-        <v>2.8</v>
-      </c>
       <c r="Q395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R395">
         <v>-0.25</v>
       </c>
       <c r="S395">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="T395">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U395">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V395">
+        <v>1.8</v>
+      </c>
+      <c r="W395">
         <v>2.05</v>
       </c>
-      <c r="W395">
-        <v>1.8</v>
-      </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB395">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC395">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AD395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -36999,7 +36999,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C396" t="s">
         <v>46</v>
@@ -37008,82 +37008,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F396" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G396">
         <v>1</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I396">
         <v>1</v>
       </c>
       <c r="J396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L396">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M396">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N396">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O396">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="P396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q396">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R396">
         <v>-0.25</v>
       </c>
       <c r="S396">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V396">
+        <v>2.05</v>
+      </c>
+      <c r="W396">
         <v>1.8</v>
       </c>
-      <c r="W396">
-        <v>2.05</v>
-      </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC396">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AD396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -37091,7 +37091,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7698654</v>
+        <v>7698655</v>
       </c>
       <c r="C397" t="s">
         <v>46</v>
@@ -37100,82 +37100,82 @@
         <v>45333.83333333334</v>
       </c>
       <c r="E397" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F397" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397">
         <v>0</v>
       </c>
       <c r="K397" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L397">
         <v>2.2</v>
       </c>
       <c r="M397">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N397">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O397">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P397">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q397">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R397">
         <v>-0.5</v>
       </c>
       <c r="S397">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T397">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U397">
         <v>2</v>
       </c>
       <c r="V397">
+        <v>1.925</v>
+      </c>
+      <c r="W397">
         <v>1.875</v>
       </c>
-      <c r="W397">
-        <v>1.925</v>
-      </c>
       <c r="X397">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y397">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z397">
         <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB397">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD397">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37183,7 +37183,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7698655</v>
+        <v>7698654</v>
       </c>
       <c r="C398" t="s">
         <v>46</v>
@@ -37192,82 +37192,82 @@
         <v>45333.83333333334</v>
       </c>
       <c r="E398" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F398" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398">
         <v>0</v>
       </c>
       <c r="K398" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L398">
         <v>2.2</v>
       </c>
       <c r="M398">
+        <v>3.1</v>
+      </c>
+      <c r="N398">
         <v>3</v>
       </c>
-      <c r="N398">
-        <v>3.2</v>
-      </c>
       <c r="O398">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P398">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q398">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R398">
         <v>-0.5</v>
       </c>
       <c r="S398">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T398">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U398">
         <v>2</v>
       </c>
       <c r="V398">
+        <v>1.875</v>
+      </c>
+      <c r="W398">
         <v>1.925</v>
       </c>
-      <c r="W398">
-        <v>1.875</v>
-      </c>
       <c r="X398">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC398">
+        <v>-1</v>
+      </c>
+      <c r="AD398">
         <v>0.925</v>
-      </c>
-      <c r="AD398">
-        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -39661,7 +39661,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7698687</v>
+        <v>7864250</v>
       </c>
       <c r="C425" t="s">
         <v>46</v>
@@ -39670,10 +39670,10 @@
         <v>45347.70833333334</v>
       </c>
       <c r="E425" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F425" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -39691,43 +39691,43 @@
         <v>89</v>
       </c>
       <c r="L425">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="M425">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="N425">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="O425">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="P425">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q425">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R425">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S425">
+        <v>1.8</v>
+      </c>
+      <c r="T425">
+        <v>2</v>
+      </c>
+      <c r="U425">
+        <v>2</v>
+      </c>
+      <c r="V425">
+        <v>2.025</v>
+      </c>
+      <c r="W425">
         <v>1.775</v>
       </c>
-      <c r="T425">
-        <v>2.1</v>
-      </c>
-      <c r="U425">
-        <v>1.75</v>
-      </c>
-      <c r="V425">
-        <v>1.85</v>
-      </c>
-      <c r="W425">
-        <v>2</v>
-      </c>
       <c r="X425">
-        <v>1.625</v>
+        <v>0.833</v>
       </c>
       <c r="Y425">
         <v>-1</v>
@@ -39736,16 +39736,16 @@
         <v>-1</v>
       </c>
       <c r="AA425">
+        <v>0.8</v>
+      </c>
+      <c r="AB425">
+        <v>-1</v>
+      </c>
+      <c r="AC425">
+        <v>-1</v>
+      </c>
+      <c r="AD425">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
-      <c r="AC425">
-        <v>-1</v>
-      </c>
-      <c r="AD425">
-        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -39753,7 +39753,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>7864250</v>
+        <v>7698687</v>
       </c>
       <c r="C426" t="s">
         <v>46</v>
@@ -39762,10 +39762,10 @@
         <v>45347.70833333334</v>
       </c>
       <c r="E426" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F426" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G426">
         <v>1</v>
@@ -39783,43 +39783,43 @@
         <v>89</v>
       </c>
       <c r="L426">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="M426">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N426">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="O426">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="P426">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q426">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R426">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S426">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T426">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U426">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V426">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W426">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X426">
-        <v>0.833</v>
+        <v>1.625</v>
       </c>
       <c r="Y426">
         <v>-1</v>
@@ -39828,7 +39828,7 @@
         <v>-1</v>
       </c>
       <c r="AA426">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB426">
         <v>-1</v>
@@ -39837,7 +39837,7 @@
         <v>-1</v>
       </c>
       <c r="AD426">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:30">
@@ -40857,7 +40857,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698703</v>
+        <v>7698693</v>
       </c>
       <c r="C438" t="s">
         <v>46</v>
@@ -40866,16 +40866,16 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E438" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F438" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438">
         <v>0</v>
@@ -40887,61 +40887,61 @@
         <v>90</v>
       </c>
       <c r="L438">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M438">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N438">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O438">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P438">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q438">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="R438">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S438">
+        <v>2</v>
+      </c>
+      <c r="T438">
         <v>1.8</v>
-      </c>
-      <c r="T438">
-        <v>2</v>
       </c>
       <c r="U438">
         <v>1.75</v>
       </c>
       <c r="V438">
+        <v>1.95</v>
+      </c>
+      <c r="W438">
         <v>1.85</v>
       </c>
-      <c r="W438">
-        <v>1.95</v>
-      </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Z438">
         <v>-1</v>
       </c>
       <c r="AA438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB438">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC438">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD438">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:30">
@@ -40949,7 +40949,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7698693</v>
+        <v>7698703</v>
       </c>
       <c r="C439" t="s">
         <v>46</v>
@@ -40958,16 +40958,16 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E439" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F439" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I439">
         <v>0</v>
@@ -40979,61 +40979,61 @@
         <v>90</v>
       </c>
       <c r="L439">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M439">
+        <v>3</v>
+      </c>
+      <c r="N439">
+        <v>4</v>
+      </c>
+      <c r="O439">
+        <v>2.2</v>
+      </c>
+      <c r="P439">
         <v>2.875</v>
       </c>
-      <c r="N439">
-        <v>3.75</v>
-      </c>
-      <c r="O439">
-        <v>2</v>
-      </c>
-      <c r="P439">
-        <v>2.9</v>
-      </c>
       <c r="Q439">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="R439">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S439">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T439">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U439">
         <v>1.75</v>
       </c>
       <c r="V439">
+        <v>1.85</v>
+      </c>
+      <c r="W439">
         <v>1.95</v>
       </c>
-      <c r="W439">
-        <v>1.85</v>
-      </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="Z439">
         <v>-1</v>
       </c>
       <c r="AA439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB439">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC439">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AD439">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="440" spans="1:30">
@@ -48033,7 +48033,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7698569</v>
+        <v>7698749</v>
       </c>
       <c r="C516" t="s">
         <v>46</v>
@@ -48042,16 +48042,16 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E516" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F516" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516">
         <v>0</v>
@@ -48063,41 +48063,41 @@
         <v>90</v>
       </c>
       <c r="L516">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M516">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N516">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O516">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P516">
         <v>3</v>
       </c>
       <c r="Q516">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="R516">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S516">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T516">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U516">
         <v>2</v>
       </c>
       <c r="V516">
+        <v>2.025</v>
+      </c>
+      <c r="W516">
         <v>1.825</v>
       </c>
-      <c r="W516">
-        <v>2.025</v>
-      </c>
       <c r="X516">
         <v>-1</v>
       </c>
@@ -48108,16 +48108,16 @@
         <v>-1</v>
       </c>
       <c r="AA516">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB516">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC516">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD516">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="517" spans="1:30">
@@ -48125,7 +48125,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7698749</v>
+        <v>7698747</v>
       </c>
       <c r="C517" t="s">
         <v>46</v>
@@ -48134,13 +48134,13 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E517" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F517" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H517">
         <v>0</v>
@@ -48152,64 +48152,64 @@
         <v>0</v>
       </c>
       <c r="K517" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L517">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M517">
         <v>2.75</v>
       </c>
       <c r="N517">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O517">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P517">
+        <v>2.75</v>
+      </c>
+      <c r="Q517">
         <v>3</v>
       </c>
-      <c r="Q517">
-        <v>4.5</v>
-      </c>
       <c r="R517">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S517">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T517">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U517">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V517">
+        <v>1.825</v>
+      </c>
+      <c r="W517">
         <v>2.025</v>
       </c>
-      <c r="W517">
-        <v>1.825</v>
-      </c>
       <c r="X517">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y517">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB517">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC517">
         <v>-1</v>
       </c>
       <c r="AD517">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="518" spans="1:30">
@@ -48217,7 +48217,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>7698747</v>
+        <v>7698569</v>
       </c>
       <c r="C518" t="s">
         <v>46</v>
@@ -48226,16 +48226,16 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E518" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F518" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G518">
         <v>1</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I518">
         <v>0</v>
@@ -48244,37 +48244,37 @@
         <v>0</v>
       </c>
       <c r="K518" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L518">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M518">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N518">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O518">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P518">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q518">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R518">
         <v>0</v>
       </c>
       <c r="S518">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T518">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U518">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V518">
         <v>1.825</v>
@@ -48283,25 +48283,25 @@
         <v>2.025</v>
       </c>
       <c r="X518">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z518">
         <v>-1</v>
       </c>
       <c r="AA518">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC518">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD518">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:30">
@@ -48861,7 +48861,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>7698748</v>
+        <v>7698742</v>
       </c>
       <c r="C525" t="s">
         <v>46</v>
@@ -48870,16 +48870,16 @@
         <v>45382.79166666666</v>
       </c>
       <c r="E525" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F525" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G525">
         <v>0</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525">
         <v>0</v>
@@ -48888,64 +48888,64 @@
         <v>0</v>
       </c>
       <c r="K525" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L525">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N525">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O525">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="P525">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q525">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="R525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S525">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T525">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U525">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W525">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X525">
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z525">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA525">
         <v>-1</v>
       </c>
       <c r="AB525">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC525">
         <v>-1</v>
       </c>
       <c r="AD525">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="526" spans="1:30">
@@ -48953,7 +48953,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>7698742</v>
+        <v>7698748</v>
       </c>
       <c r="C526" t="s">
         <v>46</v>
@@ -48962,16 +48962,16 @@
         <v>45382.79166666666</v>
       </c>
       <c r="E526" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F526" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G526">
         <v>0</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I526">
         <v>0</v>
@@ -48980,64 +48980,64 @@
         <v>0</v>
       </c>
       <c r="K526" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L526">
+        <v>2.625</v>
+      </c>
+      <c r="M526">
+        <v>2.75</v>
+      </c>
+      <c r="N526">
+        <v>2.75</v>
+      </c>
+      <c r="O526">
+        <v>2.7</v>
+      </c>
+      <c r="P526">
+        <v>2.875</v>
+      </c>
+      <c r="Q526">
+        <v>3.1</v>
+      </c>
+      <c r="R526">
+        <v>0</v>
+      </c>
+      <c r="S526">
+        <v>1.775</v>
+      </c>
+      <c r="T526">
+        <v>2.025</v>
+      </c>
+      <c r="U526">
+        <v>1.75</v>
+      </c>
+      <c r="V526">
+        <v>2</v>
+      </c>
+      <c r="W526">
         <v>1.8</v>
       </c>
-      <c r="M526">
-        <v>3</v>
-      </c>
-      <c r="N526">
-        <v>4.5</v>
-      </c>
-      <c r="O526">
-        <v>1.8</v>
-      </c>
-      <c r="P526">
-        <v>3.2</v>
-      </c>
-      <c r="Q526">
-        <v>5.25</v>
-      </c>
-      <c r="R526">
-        <v>-0.5</v>
-      </c>
-      <c r="S526">
-        <v>1.8</v>
-      </c>
-      <c r="T526">
-        <v>2.05</v>
-      </c>
-      <c r="U526">
-        <v>2</v>
-      </c>
-      <c r="V526">
-        <v>1.975</v>
-      </c>
-      <c r="W526">
-        <v>1.875</v>
-      </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA526">
         <v>-1</v>
       </c>
       <c r="AB526">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC526">
         <v>-1</v>
       </c>
       <c r="AD526">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="527" spans="1:30">
@@ -49137,7 +49137,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>7698746</v>
+        <v>8015923</v>
       </c>
       <c r="C528" t="s">
         <v>46</v>
@@ -49146,10 +49146,10 @@
         <v>45383.64583333334</v>
       </c>
       <c r="E528" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F528" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -49161,46 +49161,46 @@
         <v>0</v>
       </c>
       <c r="J528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K528" t="s">
         <v>91</v>
       </c>
       <c r="L528">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M528">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N528">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O528">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="P528">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q528">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="R528">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S528">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T528">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U528">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V528">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W528">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X528">
         <v>-1</v>
@@ -49209,19 +49209,19 @@
         <v>-1</v>
       </c>
       <c r="Z528">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA528">
         <v>-1</v>
       </c>
       <c r="AB528">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC528">
         <v>-1</v>
       </c>
       <c r="AD528">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="529" spans="1:30">
@@ -49229,7 +49229,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>8015923</v>
+        <v>7698746</v>
       </c>
       <c r="C529" t="s">
         <v>46</v>
@@ -49238,10 +49238,10 @@
         <v>45383.64583333334</v>
       </c>
       <c r="E529" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F529" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -49253,46 +49253,46 @@
         <v>0</v>
       </c>
       <c r="J529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K529" t="s">
         <v>91</v>
       </c>
       <c r="L529">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M529">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N529">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O529">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="P529">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q529">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="R529">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S529">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T529">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U529">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V529">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W529">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X529">
         <v>-1</v>
@@ -49301,19 +49301,19 @@
         <v>-1</v>
       </c>
       <c r="Z529">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="AA529">
         <v>-1</v>
       </c>
       <c r="AB529">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC529">
         <v>-1</v>
       </c>
       <c r="AD529">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="530" spans="1:30">
@@ -49689,7 +49689,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7698761</v>
+        <v>7698764</v>
       </c>
       <c r="C534" t="s">
         <v>46</v>
@@ -49698,82 +49698,82 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E534" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F534" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K534" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L534">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N534">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O534">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P534">
         <v>3.1</v>
       </c>
       <c r="Q534">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R534">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T534">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W534">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y534">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
         <v>-1</v>
       </c>
       <c r="AA534">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB534">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AD534">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:30">
@@ -49781,7 +49781,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7698764</v>
+        <v>7698761</v>
       </c>
       <c r="C535" t="s">
         <v>46</v>
@@ -49790,82 +49790,82 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E535" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F535" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G535">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K535" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L535">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="M535">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N535">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O535">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P535">
         <v>3.1</v>
       </c>
       <c r="Q535">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R535">
+        <v>-0.25</v>
+      </c>
+      <c r="S535">
+        <v>1.75</v>
+      </c>
+      <c r="T535">
+        <v>2.05</v>
+      </c>
+      <c r="U535">
+        <v>1.75</v>
+      </c>
+      <c r="V535">
+        <v>1.975</v>
+      </c>
+      <c r="W535">
+        <v>1.825</v>
+      </c>
+      <c r="X535">
+        <v>-1</v>
+      </c>
+      <c r="Y535">
+        <v>2.1</v>
+      </c>
+      <c r="Z535">
+        <v>-1</v>
+      </c>
+      <c r="AA535">
         <v>-0.5</v>
       </c>
-      <c r="S535">
-        <v>2</v>
-      </c>
-      <c r="T535">
-        <v>1.8</v>
-      </c>
-      <c r="U535">
-        <v>2</v>
-      </c>
-      <c r="V535">
-        <v>2</v>
-      </c>
-      <c r="W535">
-        <v>1.8</v>
-      </c>
-      <c r="X535">
-        <v>0.95</v>
-      </c>
-      <c r="Y535">
-        <v>-1</v>
-      </c>
-      <c r="Z535">
-        <v>-1</v>
-      </c>
-      <c r="AA535">
-        <v>1</v>
-      </c>
       <c r="AB535">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC535">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AD535">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="536" spans="1:30">
@@ -50333,7 +50333,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>7698762</v>
+        <v>8041468</v>
       </c>
       <c r="C541" t="s">
         <v>46</v>
@@ -50342,19 +50342,19 @@
         <v>45389.66666666666</v>
       </c>
       <c r="E541" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F541" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G541">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H541">
         <v>0</v>
       </c>
       <c r="I541">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J541">
         <v>0</v>
@@ -50363,43 +50363,43 @@
         <v>89</v>
       </c>
       <c r="L541">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M541">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N541">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O541">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="P541">
         <v>3.1</v>
       </c>
       <c r="Q541">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R541">
         <v>-0.5</v>
       </c>
       <c r="S541">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T541">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U541">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V541">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W541">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X541">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Y541">
         <v>-1</v>
@@ -50408,16 +50408,16 @@
         <v>-1</v>
       </c>
       <c r="AA541">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB541">
         <v>-1</v>
       </c>
       <c r="AC541">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD541">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="542" spans="1:30">
@@ -50425,7 +50425,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>8041468</v>
+        <v>7698762</v>
       </c>
       <c r="C542" t="s">
         <v>46</v>
@@ -50434,19 +50434,19 @@
         <v>45389.66666666666</v>
       </c>
       <c r="E542" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F542" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H542">
         <v>0</v>
       </c>
       <c r="I542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J542">
         <v>0</v>
@@ -50455,43 +50455,43 @@
         <v>89</v>
       </c>
       <c r="L542">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M542">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N542">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O542">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="P542">
         <v>3.1</v>
       </c>
       <c r="Q542">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R542">
         <v>-0.5</v>
       </c>
       <c r="S542">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T542">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U542">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V542">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W542">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X542">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y542">
         <v>-1</v>
@@ -50500,16 +50500,16 @@
         <v>-1</v>
       </c>
       <c r="AA542">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB542">
         <v>-1</v>
       </c>
       <c r="AC542">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD542">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="543" spans="1:30">
@@ -50701,7 +50701,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7698573</v>
+        <v>7698349</v>
       </c>
       <c r="C545" t="s">
         <v>46</v>
@@ -50710,82 +50710,82 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E545" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F545" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K545" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L545">
+        <v>2.375</v>
+      </c>
+      <c r="M545">
         <v>2.75</v>
       </c>
-      <c r="M545">
-        <v>3.2</v>
-      </c>
       <c r="N545">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O545">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="P545">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q545">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R545">
         <v>-0.25</v>
       </c>
       <c r="S545">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T545">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U545">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V545">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W545">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X545">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y545">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z545">
         <v>-1</v>
       </c>
       <c r="AA545">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB545">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC545">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD545">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:30">
@@ -50793,7 +50793,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>7698349</v>
+        <v>7698573</v>
       </c>
       <c r="C546" t="s">
         <v>46</v>
@@ -50802,82 +50802,82 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E546" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F546" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="G546">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K546" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L546">
+        <v>2.75</v>
+      </c>
+      <c r="M546">
+        <v>3.2</v>
+      </c>
+      <c r="N546">
         <v>2.375</v>
       </c>
-      <c r="M546">
-        <v>2.75</v>
-      </c>
-      <c r="N546">
+      <c r="O546">
+        <v>2.375</v>
+      </c>
+      <c r="P546">
         <v>3.1</v>
       </c>
-      <c r="O546">
-        <v>2.15</v>
-      </c>
-      <c r="P546">
-        <v>3</v>
-      </c>
       <c r="Q546">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R546">
         <v>-0.25</v>
       </c>
       <c r="S546">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T546">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U546">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V546">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W546">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X546">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y546">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z546">
         <v>-1</v>
       </c>
       <c r="AA546">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB546">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC546">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD546">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="547" spans="1:30">
@@ -55571,7 +55571,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>8133929</v>
+        <v>8133934</v>
       </c>
       <c r="C598" t="s">
         <v>46</v>
@@ -55580,40 +55580,40 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E598" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F598" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G598">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H598">
         <v>1</v>
       </c>
       <c r="I598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J598">
         <v>0</v>
       </c>
       <c r="K598" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L598">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="M598">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N598">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O598">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P598">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q598">
         <v>3.6</v>
@@ -55622,40 +55622,40 @@
         <v>-0.25</v>
       </c>
       <c r="S598">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T598">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U598">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V598">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W598">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X598">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y598">
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA598">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB598">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC598">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD598">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:30">
@@ -55663,7 +55663,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>8133934</v>
+        <v>8133929</v>
       </c>
       <c r="C599" t="s">
         <v>46</v>
@@ -55672,40 +55672,40 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E599" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F599" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G599">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H599">
         <v>1</v>
       </c>
       <c r="I599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J599">
         <v>0</v>
       </c>
       <c r="K599" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L599">
+        <v>1.615</v>
+      </c>
+      <c r="M599">
+        <v>3.4</v>
+      </c>
+      <c r="N599">
+        <v>5</v>
+      </c>
+      <c r="O599">
         <v>2.2</v>
       </c>
-      <c r="M599">
-        <v>2.75</v>
-      </c>
-      <c r="N599">
-        <v>3.5</v>
-      </c>
-      <c r="O599">
-        <v>2.375</v>
-      </c>
       <c r="P599">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q599">
         <v>3.6</v>
@@ -55714,40 +55714,40 @@
         <v>-0.25</v>
       </c>
       <c r="S599">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T599">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U599">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V599">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W599">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA599">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB599">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD599">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:30">
@@ -60539,7 +60539,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>8215004</v>
+        <v>8215010</v>
       </c>
       <c r="C652" t="s">
         <v>46</v>
@@ -60548,10 +60548,10 @@
         <v>45431.625</v>
       </c>
       <c r="E652" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F652" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -60569,40 +60569,40 @@
         <v>91</v>
       </c>
       <c r="L652">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M652">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N652">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O652">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P652">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q652">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R652">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S652">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T652">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U652">
         <v>1.75</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W652">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X652">
         <v>-1</v>
@@ -60611,16 +60611,16 @@
         <v>-1</v>
       </c>
       <c r="Z652">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA652">
         <v>-1</v>
       </c>
       <c r="AB652">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC652">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AD652">
         <v>-0.5</v>
@@ -60631,7 +60631,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>8215010</v>
+        <v>8215004</v>
       </c>
       <c r="C653" t="s">
         <v>46</v>
@@ -60640,10 +60640,10 @@
         <v>45431.625</v>
       </c>
       <c r="E653" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F653" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -60661,40 +60661,40 @@
         <v>91</v>
       </c>
       <c r="L653">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M653">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N653">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O653">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="P653">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q653">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R653">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S653">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T653">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U653">
         <v>1.75</v>
       </c>
       <c r="V653">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W653">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X653">
         <v>-1</v>
@@ -60703,16 +60703,16 @@
         <v>-1</v>
       </c>
       <c r="Z653">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AA653">
         <v>-1</v>
       </c>
       <c r="AB653">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC653">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AD653">
         <v>-0.5</v>
@@ -63680,10 +63680,10 @@
         <v>1.833</v>
       </c>
       <c r="P688">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q688">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="R688">
         <v>-0.5</v>
@@ -63698,10 +63698,10 @@
         <v>2</v>
       </c>
       <c r="V688">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W688">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X688">
         <v>0</v>
@@ -63807,10 +63807,10 @@
         <v>2.5</v>
       </c>
       <c r="O690">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P690">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q690">
         <v>2.375</v>
@@ -63828,10 +63828,10 @@
         <v>2</v>
       </c>
       <c r="V690">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W690">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X690">
         <v>0</v>
@@ -64457,31 +64457,31 @@
         <v>3</v>
       </c>
       <c r="O700">
-        <v>1.833</v>
+        <v>1.9</v>
       </c>
       <c r="P700">
         <v>3.2</v>
       </c>
       <c r="Q700">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="R700">
         <v>-0.5</v>
       </c>
       <c r="S700">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T700">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U700">
         <v>1.75</v>
       </c>
       <c r="V700">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W700">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X700">
         <v>0</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -115,10 +115,10 @@
     <t>Deportivo Riestra</t>
   </si>
   <si>
-    <t>Almagro</t>
+    <t>Tristan Suarez</t>
   </si>
   <si>
-    <t>Tristan Suarez</t>
+    <t>Almagro</t>
   </si>
   <si>
     <t>Agropecuario</t>
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6150454</v>
+        <v>6150850</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -899,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -911,64 +911,64 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>74</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M4">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O4">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="R4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U4">
         <v>1.75</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AD4">
         <v>-0.5</v>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6150850</v>
+        <v>6150454</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -991,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1003,64 +1003,64 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>74</v>
       </c>
       <c r="L5">
+        <v>2.2</v>
+      </c>
+      <c r="M5">
+        <v>2.9</v>
+      </c>
+      <c r="N5">
+        <v>3.2</v>
+      </c>
+      <c r="O5">
         <v>2.375</v>
       </c>
-      <c r="M5">
-        <v>3.2</v>
-      </c>
-      <c r="N5">
-        <v>2.625</v>
-      </c>
-      <c r="O5">
-        <v>2.5</v>
-      </c>
       <c r="P5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U5">
         <v>1.75</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC5">
-        <v>0.45</v>
+        <v>0.4875</v>
       </c>
       <c r="AD5">
         <v>-0.5</v>
@@ -2828,7 +2828,7 @@
         <v>45087.64583333334</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
@@ -3380,7 +3380,7 @@
         <v>45094.625</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>65</v>
@@ -4567,7 +4567,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150461</v>
+        <v>6150858</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -4576,37 +4576,37 @@
         <v>45096.625</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="s">
         <v>73</v>
       </c>
       <c r="L44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M44">
+        <v>2.9</v>
+      </c>
+      <c r="N44">
         <v>3</v>
       </c>
-      <c r="N44">
-        <v>3.3</v>
-      </c>
       <c r="O44">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P44">
         <v>3.1</v>
@@ -4618,22 +4618,22 @@
         <v>-0.25</v>
       </c>
       <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>1.95</v>
-      </c>
-      <c r="T44">
-        <v>1.85</v>
       </c>
       <c r="U44">
         <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X44">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4642,16 +4642,16 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4659,7 +4659,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6150858</v>
+        <v>6150461</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -4668,37 +4668,37 @@
         <v>45096.625</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>73</v>
       </c>
       <c r="L45">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P45">
         <v>3.1</v>
@@ -4710,22 +4710,22 @@
         <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
         <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X45">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4734,16 +4734,16 @@
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5128,7 +5128,7 @@
         <v>45101.625</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -5223,7 +5223,7 @@
         <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -6591,7 +6591,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6150696</v>
+        <v>6150549</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -6600,82 +6600,82 @@
         <v>45107.875</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M66">
+        <v>2.9</v>
+      </c>
+      <c r="N66">
         <v>2.75</v>
       </c>
-      <c r="N66">
-        <v>2.3</v>
-      </c>
       <c r="O66">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P66">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q66">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S66">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T66">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="U66">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W66">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X66">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA66">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6683,7 +6683,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6150549</v>
+        <v>6150696</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -6692,82 +6692,82 @@
         <v>45107.875</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L67">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O67">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="P67">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q67">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="R67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S67">
+        <v>1.725</v>
+      </c>
+      <c r="T67">
+        <v>2.075</v>
+      </c>
+      <c r="U67">
+        <v>1.75</v>
+      </c>
+      <c r="V67">
+        <v>1.75</v>
+      </c>
+      <c r="W67">
         <v>2.05</v>
       </c>
-      <c r="T67">
-        <v>1.75</v>
-      </c>
-      <c r="U67">
-        <v>2</v>
-      </c>
-      <c r="V67">
-        <v>1.9</v>
-      </c>
-      <c r="W67">
-        <v>1.9</v>
-      </c>
       <c r="X67">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB67">
+        <v>-1</v>
+      </c>
+      <c r="AC67">
         <v>0.75</v>
       </c>
-      <c r="AC67">
-        <v>-1</v>
-      </c>
       <c r="AD67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6876,7 +6876,7 @@
         <v>45108.625</v>
       </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
         <v>59</v>
@@ -7707,7 +7707,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -8348,7 +8348,7 @@
         <v>45115.625</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
         <v>57</v>
@@ -8615,7 +8615,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6150704</v>
+        <v>6870414</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -8624,61 +8624,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>75</v>
       </c>
       <c r="L88">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="R88">
         <v>-0.25</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
         <v>2</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8687,19 +8687,19 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8707,7 +8707,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6870414</v>
+        <v>6150704</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -8716,61 +8716,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
         <v>75</v>
       </c>
       <c r="L89">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
+        <v>2.875</v>
+      </c>
+      <c r="O89">
+        <v>2.5</v>
+      </c>
+      <c r="P89">
+        <v>2.875</v>
+      </c>
+      <c r="Q89">
         <v>3.3</v>
-      </c>
-      <c r="O89">
-        <v>2.25</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>3.6</v>
       </c>
       <c r="R89">
         <v>-0.25</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
         <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8779,19 +8779,19 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -9363,7 +9363,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -9731,7 +9731,7 @@
         <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -10004,7 +10004,7 @@
         <v>45122.50694444445</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
         <v>37</v>
@@ -11099,7 +11099,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6903682</v>
+        <v>6903653</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -11108,55 +11108,55 @@
         <v>45124.625</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
         <v>75</v>
       </c>
       <c r="L115">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O115">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q115">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R115">
         <v>-0.75</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
         <v>1.8</v>
@@ -11171,19 +11171,19 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11191,7 +11191,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6903653</v>
+        <v>6903682</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -11200,55 +11200,55 @@
         <v>45124.625</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116" t="s">
         <v>75</v>
       </c>
       <c r="L116">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O116">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q116">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R116">
         <v>-0.75</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V116">
         <v>1.8</v>
@@ -11263,19 +11263,19 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA116">
         <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD116">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -12203,7 +12203,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150711</v>
+        <v>6150888</v>
       </c>
       <c r="C127" t="s">
         <v>30</v>
@@ -12212,82 +12212,82 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127">
         <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L127">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M127">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O127">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q127">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="R127">
+        <v>-0.75</v>
+      </c>
+      <c r="S127">
+        <v>1.75</v>
+      </c>
+      <c r="T127">
+        <v>2.05</v>
+      </c>
+      <c r="U127">
+        <v>2.25</v>
+      </c>
+      <c r="V127">
+        <v>2.025</v>
+      </c>
+      <c r="W127">
+        <v>1.775</v>
+      </c>
+      <c r="X127">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
+        <v>0.375</v>
+      </c>
+      <c r="AB127">
         <v>-0.5</v>
       </c>
-      <c r="S127">
-        <v>1.925</v>
-      </c>
-      <c r="T127">
-        <v>1.875</v>
-      </c>
-      <c r="U127">
-        <v>1.75</v>
-      </c>
-      <c r="V127">
-        <v>1.825</v>
-      </c>
-      <c r="W127">
-        <v>1.975</v>
-      </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>3.5</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>0.875</v>
-      </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12295,7 +12295,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6150888</v>
+        <v>6150557</v>
       </c>
       <c r="C128" t="s">
         <v>30</v>
@@ -12304,79 +12304,79 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L128">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M128">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q128">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="R128">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>1.85</v>
+      </c>
+      <c r="U128">
         <v>1.75</v>
       </c>
-      <c r="T128">
+      <c r="V128">
+        <v>1.75</v>
+      </c>
+      <c r="W128">
         <v>2.05</v>
       </c>
-      <c r="U128">
-        <v>2.25</v>
-      </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
-      <c r="W128">
-        <v>1.775</v>
-      </c>
       <c r="X128">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA128">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AD128">
         <v>-1</v>
@@ -12387,7 +12387,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150557</v>
+        <v>6150711</v>
       </c>
       <c r="C129" t="s">
         <v>30</v>
@@ -12396,19 +12396,19 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -12417,40 +12417,40 @@
         <v>75</v>
       </c>
       <c r="L129">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M129">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q129">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U129">
         <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12459,19 +12459,19 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12675,7 +12675,7 @@
         <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12764,7 +12764,7 @@
         <v>45130.71527777778</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
         <v>45</v>
@@ -13319,7 +13319,7 @@
         <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -13776,7 +13776,7 @@
         <v>45137.64583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
         <v>46</v>
@@ -14788,7 +14788,7 @@
         <v>45143.625</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
         <v>40</v>
@@ -14975,7 +14975,7 @@
         <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -15515,7 +15515,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150563</v>
+        <v>6150900</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -15524,19 +15524,19 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -15545,43 +15545,43 @@
         <v>73</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U163">
         <v>2</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15590,16 +15590,16 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15607,7 +15607,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150900</v>
+        <v>6150563</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -15616,19 +15616,19 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -15637,43 +15637,43 @@
         <v>73</v>
       </c>
       <c r="L164">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U164">
         <v>2</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X164">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15682,16 +15682,16 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD164">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15883,7 +15883,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6150485</v>
+        <v>6150724</v>
       </c>
       <c r="C167" t="s">
         <v>30</v>
@@ -15892,82 +15892,82 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>73</v>
+      </c>
+      <c r="L167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>1</v>
-      </c>
-      <c r="K167" t="s">
-        <v>75</v>
-      </c>
-      <c r="L167">
-        <v>2</v>
-      </c>
       <c r="M167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R167">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U167">
         <v>1.75</v>
       </c>
       <c r="V167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15975,7 +15975,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6150724</v>
+        <v>6150485</v>
       </c>
       <c r="C168" t="s">
         <v>30</v>
@@ -15984,82 +15984,82 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M168">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="R168">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
         <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16711,7 +16711,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C176" t="s">
         <v>30</v>
@@ -16720,82 +16720,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F176" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R176">
         <v>-0.5</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16803,7 +16803,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C177" t="s">
         <v>30</v>
@@ -16812,82 +16812,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>2.3</v>
+      </c>
+      <c r="O177">
+        <v>1.85</v>
+      </c>
+      <c r="P177">
         <v>3.3</v>
       </c>
-      <c r="O177">
-        <v>2.05</v>
-      </c>
-      <c r="P177">
-        <v>3.2</v>
-      </c>
       <c r="Q177">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
         <v>-0.5</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17263,7 +17263,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7068237</v>
+        <v>7068238</v>
       </c>
       <c r="C182" t="s">
         <v>30</v>
@@ -17272,82 +17272,82 @@
         <v>45157.625</v>
       </c>
       <c r="E182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F182" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182" t="s">
+        <v>74</v>
+      </c>
+      <c r="L182">
+        <v>2.5</v>
+      </c>
+      <c r="M182">
         <v>3</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <v>1</v>
-      </c>
-      <c r="K182" t="s">
-        <v>73</v>
-      </c>
-      <c r="L182">
-        <v>2.2</v>
-      </c>
-      <c r="M182">
-        <v>2.75</v>
-      </c>
       <c r="N182">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R182">
         <v>-0.25</v>
       </c>
       <c r="S182">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T182">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U182">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W182">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X182">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC182">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD182">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17355,7 +17355,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7068238</v>
+        <v>7068237</v>
       </c>
       <c r="C183" t="s">
         <v>30</v>
@@ -17364,82 +17364,82 @@
         <v>45157.625</v>
       </c>
       <c r="E183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F183" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183">
         <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L183">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O183">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="P183">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R183">
         <v>-0.25</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y183">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB183">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD183">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17456,7 +17456,7 @@
         <v>45157.625</v>
       </c>
       <c r="E184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
         <v>44</v>
@@ -17827,7 +17827,7 @@
         <v>35</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -19112,7 +19112,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
         <v>47</v>
@@ -20032,7 +20032,7 @@
         <v>45165.625</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F212" t="s">
         <v>41</v>
@@ -20575,7 +20575,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6150919</v>
+        <v>6226071</v>
       </c>
       <c r="C218" t="s">
         <v>30</v>
@@ -20584,10 +20584,10 @@
         <v>45171.625</v>
       </c>
       <c r="E218" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -20605,43 +20605,43 @@
         <v>73</v>
       </c>
       <c r="L218">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M218">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N218">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O218">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="P218">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q218">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R218">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X218">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Y218">
         <v>-1</v>
@@ -20650,16 +20650,16 @@
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB218">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20667,7 +20667,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6226071</v>
+        <v>6150919</v>
       </c>
       <c r="C219" t="s">
         <v>30</v>
@@ -20676,10 +20676,10 @@
         <v>45171.625</v>
       </c>
       <c r="E219" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20697,43 +20697,43 @@
         <v>73</v>
       </c>
       <c r="L219">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M219">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O219">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="P219">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R219">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U219">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X219">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Y219">
         <v>-1</v>
@@ -20742,16 +20742,16 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21127,7 +21127,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6150750</v>
+        <v>6150495</v>
       </c>
       <c r="C224" t="s">
         <v>30</v>
@@ -21136,37 +21136,37 @@
         <v>45172.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K224" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>3.1</v>
+      </c>
+      <c r="N224">
+        <v>2.2</v>
+      </c>
+      <c r="O224">
         <v>2.9</v>
-      </c>
-      <c r="M224">
-        <v>2.9</v>
-      </c>
-      <c r="N224">
-        <v>2.375</v>
-      </c>
-      <c r="O224">
-        <v>2.875</v>
       </c>
       <c r="P224">
         <v>3</v>
@@ -21178,40 +21178,40 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21219,7 +21219,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6150495</v>
+        <v>6150750</v>
       </c>
       <c r="C225" t="s">
         <v>30</v>
@@ -21228,37 +21228,37 @@
         <v>45172.64583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L225">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M225">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O225">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P225">
         <v>3</v>
@@ -21270,40 +21270,40 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U225">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21415,7 +21415,7 @@
         <v>48</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -22507,7 +22507,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6234808</v>
+        <v>6234807</v>
       </c>
       <c r="C239" t="s">
         <v>30</v>
@@ -22516,19 +22516,19 @@
         <v>45179.625</v>
       </c>
       <c r="E239" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G239">
         <v>2</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -22537,43 +22537,43 @@
         <v>73</v>
       </c>
       <c r="L239">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="O239">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P239">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="R239">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W239">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X239">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y239">
         <v>-1</v>
@@ -22582,16 +22582,16 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB239">
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AD239">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22599,7 +22599,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6234807</v>
+        <v>6234808</v>
       </c>
       <c r="C240" t="s">
         <v>30</v>
@@ -22608,19 +22608,19 @@
         <v>45179.625</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G240">
         <v>2</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -22629,43 +22629,43 @@
         <v>73</v>
       </c>
       <c r="L240">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="M240">
+        <v>3.2</v>
+      </c>
+      <c r="N240">
+        <v>3.2</v>
+      </c>
+      <c r="O240">
+        <v>2.2</v>
+      </c>
+      <c r="P240">
+        <v>3.3</v>
+      </c>
+      <c r="Q240">
         <v>3.4</v>
       </c>
-      <c r="N240">
-        <v>5</v>
-      </c>
-      <c r="O240">
-        <v>1.6</v>
-      </c>
-      <c r="P240">
-        <v>3.8</v>
-      </c>
-      <c r="Q240">
-        <v>6</v>
-      </c>
       <c r="R240">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S240">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U240">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V240">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X240">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="Y240">
         <v>-1</v>
@@ -22674,16 +22674,16 @@
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB240">
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AD240">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22700,7 +22700,7 @@
         <v>45179.625</v>
       </c>
       <c r="E241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F241" t="s">
         <v>32</v>
@@ -22875,7 +22875,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6150923</v>
+        <v>6150927</v>
       </c>
       <c r="C243" t="s">
         <v>30</v>
@@ -22884,82 +22884,82 @@
         <v>45179.64583333334</v>
       </c>
       <c r="E243" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F243" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G243">
         <v>2</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L243">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M243">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N243">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O243">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="P243">
+        <v>3.2</v>
+      </c>
+      <c r="Q243">
         <v>3.4</v>
       </c>
-      <c r="Q243">
-        <v>4</v>
-      </c>
       <c r="R243">
+        <v>-0.25</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>1.875</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>2.025</v>
+      </c>
+      <c r="W243">
+        <v>1.775</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>2.2</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
         <v>-0.5</v>
       </c>
-      <c r="S243">
-        <v>1.9</v>
-      </c>
-      <c r="T243">
-        <v>1.9</v>
-      </c>
-      <c r="U243">
-        <v>2.25</v>
-      </c>
-      <c r="V243">
-        <v>2</v>
-      </c>
-      <c r="W243">
-        <v>1.8</v>
-      </c>
-      <c r="X243">
-        <v>0.909</v>
-      </c>
-      <c r="Y243">
-        <v>-1</v>
-      </c>
-      <c r="Z243">
-        <v>-1</v>
-      </c>
-      <c r="AA243">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC243">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD243">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:30">
@@ -22967,7 +22967,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6150927</v>
+        <v>6150923</v>
       </c>
       <c r="C244" t="s">
         <v>30</v>
@@ -22976,82 +22976,82 @@
         <v>45179.64583333334</v>
       </c>
       <c r="E244" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G244">
         <v>2</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L244">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M244">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N244">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O244">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="P244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R244">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y244">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB244">
+        <v>-1</v>
+      </c>
+      <c r="AC244">
         <v>-0.5</v>
       </c>
-      <c r="AB244">
-        <v>0.4375</v>
-      </c>
-      <c r="AC244">
-        <v>1.025</v>
-      </c>
       <c r="AD244">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23899,7 +23899,7 @@
         <v>66</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -25279,7 +25279,7 @@
         <v>56</v>
       </c>
       <c r="F269" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -25368,7 +25368,7 @@
         <v>45189.64583333334</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F270" t="s">
         <v>43</v>
@@ -26288,7 +26288,7 @@
         <v>45193.625</v>
       </c>
       <c r="E280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F280" t="s">
         <v>67</v>
@@ -26371,7 +26371,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6301749</v>
+        <v>6296630</v>
       </c>
       <c r="C281" t="s">
         <v>30</v>
@@ -26380,82 +26380,82 @@
         <v>45193.64583333334</v>
       </c>
       <c r="E281" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F281" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281">
         <v>0</v>
       </c>
       <c r="K281" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L281">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="M281">
         <v>3.2</v>
       </c>
       <c r="N281">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O281">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P281">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q281">
+        <v>4</v>
+      </c>
+      <c r="R281">
+        <v>-0.5</v>
+      </c>
+      <c r="S281">
+        <v>2.025</v>
+      </c>
+      <c r="T281">
+        <v>1.825</v>
+      </c>
+      <c r="U281">
+        <v>1.75</v>
+      </c>
+      <c r="V281">
+        <v>1.825</v>
+      </c>
+      <c r="W281">
+        <v>2.025</v>
+      </c>
+      <c r="X281">
+        <v>-1</v>
+      </c>
+      <c r="Y281">
         <v>2.3</v>
       </c>
-      <c r="R281">
-        <v>0.25</v>
-      </c>
-      <c r="S281">
-        <v>1.825</v>
-      </c>
-      <c r="T281">
-        <v>2.025</v>
-      </c>
-      <c r="U281">
-        <v>2</v>
-      </c>
-      <c r="V281">
-        <v>1.925</v>
-      </c>
-      <c r="W281">
-        <v>1.925</v>
-      </c>
-      <c r="X281">
-        <v>2.4</v>
-      </c>
-      <c r="Y281">
-        <v>-1</v>
-      </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
+        <v>-1</v>
+      </c>
+      <c r="AB281">
         <v>0.825</v>
       </c>
-      <c r="AB281">
-        <v>-1</v>
-      </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD281">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26463,7 +26463,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6296630</v>
+        <v>6301749</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
@@ -26472,82 +26472,82 @@
         <v>45193.64583333334</v>
       </c>
       <c r="E282" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F282" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G282">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282">
         <v>0</v>
       </c>
       <c r="K282" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L282">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="M282">
         <v>3.2</v>
       </c>
       <c r="N282">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O282">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="P282">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q282">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R282">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S282">
+        <v>1.825</v>
+      </c>
+      <c r="T282">
         <v>2.025</v>
       </c>
-      <c r="T282">
-        <v>1.825</v>
-      </c>
       <c r="U282">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V282">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y282">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="283" spans="1:30">
@@ -27211,7 +27211,7 @@
         <v>61</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G290">
         <v>5</v>
@@ -28223,7 +28223,7 @@
         <v>54</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G301">
         <v>4</v>
@@ -29223,7 +29223,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>6351804</v>
+        <v>6323476</v>
       </c>
       <c r="C312" t="s">
         <v>30</v>
@@ -29235,13 +29235,13 @@
         <v>33</v>
       </c>
       <c r="F312" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G312">
         <v>2</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -29253,31 +29253,31 @@
         <v>73</v>
       </c>
       <c r="L312">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="M312">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N312">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O312">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="P312">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q312">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="R312">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S312">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T312">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U312">
         <v>2.25</v>
@@ -29289,7 +29289,7 @@
         <v>1.775</v>
       </c>
       <c r="X312">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="Y312">
         <v>-1</v>
@@ -29298,16 +29298,16 @@
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AB312">
+        <v>-1</v>
+      </c>
+      <c r="AC312">
         <v>-0.5</v>
       </c>
-      <c r="AC312">
-        <v>1.025</v>
-      </c>
       <c r="AD312">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="313" spans="1:30">
@@ -29315,7 +29315,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>6323476</v>
+        <v>6351804</v>
       </c>
       <c r="C313" t="s">
         <v>30</v>
@@ -29327,13 +29327,13 @@
         <v>34</v>
       </c>
       <c r="F313" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G313">
         <v>2</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313">
         <v>1</v>
@@ -29345,31 +29345,31 @@
         <v>73</v>
       </c>
       <c r="L313">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M313">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N313">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O313">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="P313">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q313">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="R313">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S313">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T313">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U313">
         <v>2.25</v>
@@ -29381,7 +29381,7 @@
         <v>1.775</v>
       </c>
       <c r="X313">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="Y313">
         <v>-1</v>
@@ -29390,16 +29390,16 @@
         <v>-1</v>
       </c>
       <c r="AA313">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="AB313">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC313">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD313">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:30">
@@ -31075,7 +31075,7 @@
         <v>63</v>
       </c>
       <c r="F332" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G332">
         <v>0</v>
@@ -31167,7 +31167,7 @@
         <v>55</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -34007,7 +34007,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7698644</v>
+        <v>7698645</v>
       </c>
       <c r="C364" t="s">
         <v>30</v>
@@ -34016,13 +34016,13 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E364" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F364" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H364">
         <v>0</v>
@@ -34037,43 +34037,43 @@
         <v>73</v>
       </c>
       <c r="L364">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M364">
         <v>2.75</v>
       </c>
       <c r="N364">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="O364">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="P364">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q364">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="R364">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S364">
+        <v>2.05</v>
+      </c>
+      <c r="T364">
         <v>1.75</v>
       </c>
-      <c r="T364">
-        <v>2.05</v>
-      </c>
       <c r="U364">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W364">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X364">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="Y364">
         <v>-1</v>
@@ -34082,16 +34082,16 @@
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD364">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34099,7 +34099,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C365" t="s">
         <v>30</v>
@@ -34108,19 +34108,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F365" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="G365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365">
         <v>0</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -34129,61 +34129,61 @@
         <v>73</v>
       </c>
       <c r="L365">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M365">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N365">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O365">
+        <v>2.625</v>
+      </c>
+      <c r="P365">
+        <v>2.75</v>
+      </c>
+      <c r="Q365">
+        <v>3.25</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>1.75</v>
+      </c>
+      <c r="T365">
+        <v>2.05</v>
+      </c>
+      <c r="U365">
+        <v>2</v>
+      </c>
+      <c r="V365">
+        <v>2</v>
+      </c>
+      <c r="W365">
         <v>1.8</v>
       </c>
-      <c r="P365">
-        <v>3.4</v>
-      </c>
-      <c r="Q365">
-        <v>5</v>
-      </c>
-      <c r="R365">
-        <v>-0.75</v>
-      </c>
-      <c r="S365">
-        <v>2.025</v>
-      </c>
-      <c r="T365">
-        <v>1.825</v>
-      </c>
-      <c r="U365">
-        <v>2</v>
-      </c>
-      <c r="V365">
-        <v>1.925</v>
-      </c>
-      <c r="W365">
-        <v>1.925</v>
-      </c>
       <c r="X365">
+        <v>1.625</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
+        <v>0.75</v>
+      </c>
+      <c r="AB365">
+        <v>-1</v>
+      </c>
+      <c r="AC365">
+        <v>-1</v>
+      </c>
+      <c r="AD365">
         <v>0.8</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>-1</v>
-      </c>
-      <c r="AA365">
-        <v>1.025</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
-      <c r="AC365">
-        <v>0</v>
-      </c>
-      <c r="AD365">
-        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34191,7 +34191,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7698645</v>
+        <v>7698640</v>
       </c>
       <c r="C366" t="s">
         <v>30</v>
@@ -34200,19 +34200,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E366" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F366" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H366">
         <v>0</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J366">
         <v>0</v>
@@ -34221,43 +34221,43 @@
         <v>73</v>
       </c>
       <c r="L366">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M366">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N366">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O366">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="P366">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q366">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R366">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S366">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T366">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U366">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V366">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X366">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34266,16 +34266,16 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD366">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -34571,7 +34571,7 @@
         <v>39</v>
       </c>
       <c r="F370" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -34651,7 +34651,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7698649</v>
+        <v>7698542</v>
       </c>
       <c r="C371" t="s">
         <v>30</v>
@@ -34660,16 +34660,16 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E371" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F371" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
         <v>0</v>
@@ -34678,64 +34678,64 @@
         <v>0</v>
       </c>
       <c r="K371" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L371">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="M371">
         <v>2.75</v>
       </c>
       <c r="N371">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O371">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P371">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q371">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="R371">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S371">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T371">
         <v>1.775</v>
       </c>
       <c r="U371">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V371">
+        <v>1.775</v>
+      </c>
+      <c r="W371">
         <v>2.025</v>
       </c>
-      <c r="W371">
-        <v>1.825</v>
-      </c>
       <c r="X371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB371">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
         <v>-1</v>
       </c>
       <c r="AD371">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="372" spans="1:30">
@@ -34743,7 +34743,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7698542</v>
+        <v>7698649</v>
       </c>
       <c r="C372" t="s">
         <v>30</v>
@@ -34752,16 +34752,16 @@
         <v>45325.83333333334</v>
       </c>
       <c r="E372" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F372" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372">
         <v>0</v>
@@ -34770,64 +34770,64 @@
         <v>0</v>
       </c>
       <c r="K372" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L372">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="M372">
         <v>2.75</v>
       </c>
       <c r="N372">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O372">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q372">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="R372">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S372">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T372">
         <v>1.775</v>
       </c>
       <c r="U372">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA372">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC372">
         <v>-1</v>
       </c>
       <c r="AD372">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="373" spans="1:30">
@@ -35755,7 +35755,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7698357</v>
+        <v>7698663</v>
       </c>
       <c r="C383" t="s">
         <v>30</v>
@@ -35764,13 +35764,13 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E383" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F383" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -35782,64 +35782,64 @@
         <v>0</v>
       </c>
       <c r="K383" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L383">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M383">
         <v>2.875</v>
       </c>
       <c r="N383">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O383">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P383">
         <v>2.875</v>
       </c>
       <c r="Q383">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="R383">
         <v>0</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T383">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U383">
         <v>1.75</v>
       </c>
       <c r="V383">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W383">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y383">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD383">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:30">
@@ -35847,7 +35847,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7702210</v>
+        <v>7698659</v>
       </c>
       <c r="C384" t="s">
         <v>30</v>
@@ -35856,16 +35856,16 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E384" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F384" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G384">
         <v>0</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384">
         <v>0</v>
@@ -35874,64 +35874,64 @@
         <v>0</v>
       </c>
       <c r="K384" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L384">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="M384">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N384">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O384">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P384">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q384">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="R384">
         <v>-0.75</v>
       </c>
       <c r="S384">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T384">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U384">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W384">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X384">
         <v>-1</v>
       </c>
       <c r="Y384">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA384">
         <v>-1</v>
       </c>
       <c r="AB384">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AD384">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="385" spans="1:30">
@@ -35939,7 +35939,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7698663</v>
+        <v>7698357</v>
       </c>
       <c r="C385" t="s">
         <v>30</v>
@@ -35948,13 +35948,13 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E385" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F385" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385">
         <v>1</v>
@@ -35966,64 +35966,64 @@
         <v>0</v>
       </c>
       <c r="K385" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L385">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M385">
         <v>2.875</v>
       </c>
       <c r="N385">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O385">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P385">
         <v>2.875</v>
       </c>
       <c r="Q385">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="R385">
         <v>0</v>
       </c>
       <c r="S385">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T385">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U385">
         <v>1.75</v>
       </c>
       <c r="V385">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W385">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X385">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y385">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z385">
         <v>-1</v>
       </c>
       <c r="AA385">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC385">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AD385">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="386" spans="1:30">
@@ -36031,7 +36031,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7698659</v>
+        <v>7702210</v>
       </c>
       <c r="C386" t="s">
         <v>30</v>
@@ -36040,16 +36040,16 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E386" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F386" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G386">
         <v>0</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386">
         <v>0</v>
@@ -36058,64 +36058,64 @@
         <v>0</v>
       </c>
       <c r="K386" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L386">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="M386">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N386">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O386">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P386">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q386">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="R386">
         <v>-0.75</v>
       </c>
       <c r="S386">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T386">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U386">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V386">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W386">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z386">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
         <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC386">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AD386">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="387" spans="1:30">
@@ -36135,7 +36135,7 @@
         <v>58</v>
       </c>
       <c r="F387" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G387">
         <v>1</v>
@@ -36307,7 +36307,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698662</v>
+        <v>7698658</v>
       </c>
       <c r="C389" t="s">
         <v>30</v>
@@ -36316,10 +36316,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E389" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F389" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -36328,7 +36328,7 @@
         <v>0</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389">
         <v>0</v>
@@ -36337,43 +36337,43 @@
         <v>73</v>
       </c>
       <c r="L389">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M389">
         <v>2.75</v>
       </c>
       <c r="N389">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O389">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P389">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q389">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R389">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S389">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T389">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U389">
         <v>1.75</v>
       </c>
       <c r="V389">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W389">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X389">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y389">
         <v>-1</v>
@@ -36382,7 +36382,7 @@
         <v>-1</v>
       </c>
       <c r="AA389">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB389">
         <v>-1</v>
@@ -36391,7 +36391,7 @@
         <v>-1</v>
       </c>
       <c r="AD389">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36491,7 +36491,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C391" t="s">
         <v>30</v>
@@ -36500,10 +36500,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F391" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -36521,43 +36521,43 @@
         <v>73</v>
       </c>
       <c r="L391">
+        <v>2.5</v>
+      </c>
+      <c r="M391">
         <v>3</v>
       </c>
-      <c r="M391">
+      <c r="N391">
         <v>2.75</v>
       </c>
-      <c r="N391">
-        <v>2.5</v>
-      </c>
       <c r="O391">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P391">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q391">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="R391">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S391">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T391">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U391">
         <v>1.75</v>
       </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W391">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X391">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y391">
         <v>-1</v>
@@ -36566,7 +36566,7 @@
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB391">
         <v>-1</v>
@@ -36575,7 +36575,7 @@
         <v>-1</v>
       </c>
       <c r="AD391">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36583,7 +36583,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698656</v>
+        <v>7698662</v>
       </c>
       <c r="C392" t="s">
         <v>30</v>
@@ -36592,10 +36592,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F392" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392">
         <v>0</v>
@@ -36613,31 +36613,31 @@
         <v>73</v>
       </c>
       <c r="L392">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M392">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N392">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O392">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P392">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q392">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R392">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T392">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U392">
         <v>1.75</v>
@@ -36646,10 +36646,10 @@
         <v>1.775</v>
       </c>
       <c r="W392">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="X392">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="Y392">
         <v>-1</v>
@@ -36658,7 +36658,7 @@
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB392">
         <v>-1</v>
@@ -36667,7 +36667,7 @@
         <v>-1</v>
       </c>
       <c r="AD392">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36675,7 +36675,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C393" t="s">
         <v>30</v>
@@ -36684,10 +36684,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F393" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -36708,28 +36708,28 @@
         <v>2.5</v>
       </c>
       <c r="M393">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N393">
         <v>2.75</v>
       </c>
       <c r="O393">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="P393">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q393">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R393">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S393">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T393">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U393">
         <v>1.75</v>
@@ -36741,7 +36741,7 @@
         <v>2.025</v>
       </c>
       <c r="X393">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="Y393">
         <v>-1</v>
@@ -36750,7 +36750,7 @@
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB393">
         <v>-1</v>
@@ -37423,7 +37423,7 @@
         <v>38</v>
       </c>
       <c r="F401" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G401">
         <v>4</v>
@@ -37512,7 +37512,7 @@
         <v>45339.70833333334</v>
       </c>
       <c r="E402" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F402" t="s">
         <v>49</v>
@@ -38141,7 +38141,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698668</v>
       </c>
       <c r="C409" t="s">
         <v>30</v>
@@ -38150,10 +38150,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F409" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -38162,7 +38162,7 @@
         <v>0</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J409">
         <v>0</v>
@@ -38171,43 +38171,43 @@
         <v>73</v>
       </c>
       <c r="L409">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M409">
         <v>2.9</v>
       </c>
       <c r="N409">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O409">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P409">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q409">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S409">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T409">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="U409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V409">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X409">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Y409">
         <v>-1</v>
@@ -38216,7 +38216,7 @@
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB409">
         <v>-1</v>
@@ -38225,7 +38225,7 @@
         <v>-1</v>
       </c>
       <c r="AD409">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="410" spans="1:30">
@@ -38233,7 +38233,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698667</v>
+        <v>7698356</v>
       </c>
       <c r="C410" t="s">
         <v>30</v>
@@ -38242,19 +38242,19 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F410" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410">
         <v>0</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410">
         <v>0</v>
@@ -38263,43 +38263,43 @@
         <v>73</v>
       </c>
       <c r="L410">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M410">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N410">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O410">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="P410">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q410">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="R410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S410">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T410">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V410">
+        <v>2</v>
+      </c>
+      <c r="W410">
         <v>1.8</v>
       </c>
-      <c r="W410">
-        <v>2</v>
-      </c>
       <c r="X410">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="Y410">
         <v>-1</v>
@@ -38308,16 +38308,16 @@
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD410">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -38325,7 +38325,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698668</v>
+        <v>7698667</v>
       </c>
       <c r="C411" t="s">
         <v>30</v>
@@ -38334,13 +38334,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F411" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -38355,43 +38355,43 @@
         <v>73</v>
       </c>
       <c r="L411">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M411">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O411">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P411">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q411">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="R411">
         <v>-0.25</v>
       </c>
       <c r="S411">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T411">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U411">
         <v>2</v>
       </c>
       <c r="V411">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W411">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X411">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
@@ -38400,16 +38400,16 @@
         <v>-1</v>
       </c>
       <c r="AA411">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB411">
         <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD411">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -38509,7 +38509,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C413" t="s">
         <v>30</v>
@@ -38518,19 +38518,19 @@
         <v>45340.79166666666</v>
       </c>
       <c r="E413" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F413" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413">
         <v>0</v>
@@ -38548,34 +38548,34 @@
         <v>4</v>
       </c>
       <c r="O413">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P413">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q413">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R413">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S413">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T413">
+        <v>2</v>
+      </c>
+      <c r="U413">
         <v>1.75</v>
       </c>
-      <c r="U413">
-        <v>2</v>
-      </c>
       <c r="V413">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W413">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="X413">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y413">
         <v>-1</v>
@@ -38584,16 +38584,16 @@
         <v>-1</v>
       </c>
       <c r="AA413">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD413">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="414" spans="1:30">
@@ -38601,7 +38601,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C414" t="s">
         <v>30</v>
@@ -38610,19 +38610,19 @@
         <v>45340.79166666666</v>
       </c>
       <c r="E414" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F414" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414">
         <v>0</v>
@@ -38640,34 +38640,34 @@
         <v>4</v>
       </c>
       <c r="O414">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P414">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q414">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R414">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S414">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T414">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U414">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V414">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W414">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="X414">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y414">
         <v>-1</v>
@@ -38676,16 +38676,16 @@
         <v>-1</v>
       </c>
       <c r="AA414">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB414">
         <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD414">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:30">
@@ -39346,7 +39346,7 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E422" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F422" t="s">
         <v>62</v>
@@ -39901,7 +39901,7 @@
         <v>48</v>
       </c>
       <c r="F428" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G428">
         <v>1</v>
@@ -40729,7 +40729,7 @@
         <v>63</v>
       </c>
       <c r="F437" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -40818,7 +40818,7 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E438" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F438" t="s">
         <v>52</v>
@@ -42569,7 +42569,7 @@
         <v>53</v>
       </c>
       <c r="F457" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G457">
         <v>0</v>
@@ -43397,7 +43397,7 @@
         <v>55</v>
       </c>
       <c r="F466" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G466">
         <v>2</v>
@@ -44314,7 +44314,7 @@
         <v>45367.66666666666</v>
       </c>
       <c r="E476" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F476" t="s">
         <v>67</v>
@@ -44866,7 +44866,7 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E482" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F482" t="s">
         <v>36</v>
@@ -46341,7 +46341,7 @@
         <v>40</v>
       </c>
       <c r="F498" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G498">
         <v>4</v>
@@ -46525,7 +46525,7 @@
         <v>64</v>
       </c>
       <c r="F500" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G500">
         <v>1</v>
@@ -47341,7 +47341,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>7960576</v>
+        <v>7958332</v>
       </c>
       <c r="C509" t="s">
         <v>30</v>
@@ -47350,10 +47350,10 @@
         <v>45376.875</v>
       </c>
       <c r="E509" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F509" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -47371,61 +47371,61 @@
         <v>74</v>
       </c>
       <c r="L509">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="M509">
+        <v>2.9</v>
+      </c>
+      <c r="N509">
         <v>3.6</v>
       </c>
-      <c r="N509">
-        <v>6</v>
-      </c>
       <c r="O509">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="P509">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q509">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="R509">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S509">
+        <v>1.825</v>
+      </c>
+      <c r="T509">
+        <v>1.975</v>
+      </c>
+      <c r="U509">
         <v>1.75</v>
       </c>
-      <c r="T509">
-        <v>2.05</v>
-      </c>
-      <c r="U509">
-        <v>2</v>
-      </c>
       <c r="V509">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W509">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X509">
         <v>-1</v>
       </c>
       <c r="Y509">
-        <v>2.6</v>
+        <v>1.875</v>
       </c>
       <c r="Z509">
         <v>-1</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB509">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC509">
         <v>-1</v>
       </c>
       <c r="AD509">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="510" spans="1:30">
@@ -47433,7 +47433,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7958332</v>
+        <v>7960576</v>
       </c>
       <c r="C510" t="s">
         <v>30</v>
@@ -47442,10 +47442,10 @@
         <v>45376.875</v>
       </c>
       <c r="E510" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F510" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G510">
         <v>0</v>
@@ -47463,61 +47463,61 @@
         <v>74</v>
       </c>
       <c r="L510">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="M510">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N510">
+        <v>6</v>
+      </c>
+      <c r="O510">
+        <v>1.6</v>
+      </c>
+      <c r="P510">
         <v>3.6</v>
       </c>
-      <c r="O510">
-        <v>2.15</v>
-      </c>
-      <c r="P510">
-        <v>2.875</v>
-      </c>
       <c r="Q510">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="R510">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S510">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T510">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U510">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V510">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W510">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X510">
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>1.875</v>
+        <v>2.6</v>
       </c>
       <c r="Z510">
         <v>-1</v>
       </c>
       <c r="AA510">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC510">
         <v>-1</v>
       </c>
       <c r="AD510">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:30">
@@ -47994,7 +47994,7 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E516" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F516" t="s">
         <v>56</v>
@@ -48086,7 +48086,7 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E517" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F517" t="s">
         <v>65</v>
@@ -50021,7 +50021,7 @@
         <v>72</v>
       </c>
       <c r="F538" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G538">
         <v>3</v>
@@ -50297,7 +50297,7 @@
         <v>60</v>
       </c>
       <c r="F541" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G541">
         <v>2</v>
@@ -50561,7 +50561,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>7698573</v>
+        <v>7698765</v>
       </c>
       <c r="C544" t="s">
         <v>30</v>
@@ -50570,19 +50570,19 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E544" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F544" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H544">
         <v>0</v>
       </c>
       <c r="I544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544">
         <v>0</v>
@@ -50591,43 +50591,43 @@
         <v>73</v>
       </c>
       <c r="L544">
+        <v>2.3</v>
+      </c>
+      <c r="M544">
         <v>2.75</v>
       </c>
-      <c r="M544">
+      <c r="N544">
         <v>3.2</v>
       </c>
-      <c r="N544">
-        <v>2.375</v>
-      </c>
       <c r="O544">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="P544">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q544">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="R544">
         <v>-0.25</v>
       </c>
       <c r="S544">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T544">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U544">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V544">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W544">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X544">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Y544">
         <v>-1</v>
@@ -50636,16 +50636,16 @@
         <v>-1</v>
       </c>
       <c r="AA544">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB544">
         <v>-1</v>
       </c>
       <c r="AC544">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AD544">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="545" spans="1:30">
@@ -50653,7 +50653,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>7698765</v>
+        <v>7698573</v>
       </c>
       <c r="C545" t="s">
         <v>30</v>
@@ -50662,19 +50662,19 @@
         <v>45389.70833333334</v>
       </c>
       <c r="E545" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F545" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G545">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H545">
         <v>0</v>
       </c>
       <c r="I545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545">
         <v>0</v>
@@ -50683,43 +50683,43 @@
         <v>73</v>
       </c>
       <c r="L545">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="M545">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N545">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O545">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P545">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q545">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="R545">
         <v>-0.25</v>
       </c>
       <c r="S545">
+        <v>2.025</v>
+      </c>
+      <c r="T545">
+        <v>1.775</v>
+      </c>
+      <c r="U545">
+        <v>2</v>
+      </c>
+      <c r="V545">
         <v>1.9</v>
       </c>
-      <c r="T545">
+      <c r="W545">
         <v>1.9</v>
       </c>
-      <c r="U545">
-        <v>1.75</v>
-      </c>
-      <c r="V545">
-        <v>1.975</v>
-      </c>
-      <c r="W545">
-        <v>1.825</v>
-      </c>
       <c r="X545">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Y545">
         <v>-1</v>
@@ -50728,16 +50728,16 @@
         <v>-1</v>
       </c>
       <c r="AA545">
+        <v>1.025</v>
+      </c>
+      <c r="AB545">
+        <v>-1</v>
+      </c>
+      <c r="AC545">
+        <v>-1</v>
+      </c>
+      <c r="AD545">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB545">
-        <v>-1</v>
-      </c>
-      <c r="AC545">
-        <v>0.4875</v>
-      </c>
-      <c r="AD545">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="546" spans="1:30">
@@ -51398,7 +51398,7 @@
         <v>45395.64583333334</v>
       </c>
       <c r="E553" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F553" t="s">
         <v>42</v>
@@ -52042,7 +52042,7 @@
         <v>45396.60416666666</v>
       </c>
       <c r="E560" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F560" t="s">
         <v>61</v>
@@ -52309,7 +52309,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>8072421</v>
+        <v>8072432</v>
       </c>
       <c r="C563" t="s">
         <v>30</v>
@@ -52318,82 +52318,82 @@
         <v>45396.66666666666</v>
       </c>
       <c r="E563" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F563" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G563">
         <v>1</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J563">
         <v>0</v>
       </c>
       <c r="K563" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L563">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M563">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N563">
         <v>3.5</v>
       </c>
       <c r="O563">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="P563">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q563">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="R563">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S563">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T563">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U563">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V563">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W563">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y563">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB563">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC563">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD563">
-        <v>0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="564" spans="1:30">
@@ -52401,7 +52401,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>8072432</v>
+        <v>8072421</v>
       </c>
       <c r="C564" t="s">
         <v>30</v>
@@ -52410,82 +52410,82 @@
         <v>45396.66666666666</v>
       </c>
       <c r="E564" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F564" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G564">
         <v>1</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J564">
         <v>0</v>
       </c>
       <c r="K564" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L564">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M564">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N564">
         <v>3.5</v>
       </c>
       <c r="O564">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P564">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q564">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="R564">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S564">
+        <v>1.775</v>
+      </c>
+      <c r="T564">
+        <v>2.1</v>
+      </c>
+      <c r="U564">
+        <v>2</v>
+      </c>
+      <c r="V564">
+        <v>2.05</v>
+      </c>
+      <c r="W564">
         <v>1.8</v>
       </c>
-      <c r="T564">
-        <v>2</v>
-      </c>
-      <c r="U564">
-        <v>1.75</v>
-      </c>
-      <c r="V564">
-        <v>1.975</v>
-      </c>
-      <c r="W564">
-        <v>1.825</v>
-      </c>
       <c r="X564">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y564">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z564">
         <v>-1</v>
       </c>
       <c r="AA564">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB564">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC564">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD564">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:30">
@@ -53051,7 +53051,7 @@
         <v>47</v>
       </c>
       <c r="F571" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G571">
         <v>3</v>
@@ -53419,7 +53419,7 @@
         <v>68</v>
       </c>
       <c r="F575" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G575">
         <v>1</v>
@@ -53683,7 +53683,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>7698783</v>
+        <v>7698791</v>
       </c>
       <c r="C578" t="s">
         <v>30</v>
@@ -53692,13 +53692,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E578" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F578" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G578">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H578">
         <v>0</v>
@@ -53710,64 +53710,64 @@
         <v>0</v>
       </c>
       <c r="K578" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L578">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M578">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N578">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O578">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="P578">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q578">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="R578">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S578">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T578">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U578">
         <v>1.75</v>
       </c>
       <c r="V578">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W578">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X578">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y578">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
         <v>-1</v>
       </c>
       <c r="AA578">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB578">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC578">
         <v>-1</v>
       </c>
       <c r="AD578">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="579" spans="1:30">
@@ -53775,7 +53775,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>7698791</v>
+        <v>7698783</v>
       </c>
       <c r="C579" t="s">
         <v>30</v>
@@ -53784,13 +53784,13 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E579" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F579" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H579">
         <v>0</v>
@@ -53802,64 +53802,64 @@
         <v>0</v>
       </c>
       <c r="K579" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L579">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M579">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N579">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O579">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="P579">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q579">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="R579">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S579">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T579">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U579">
         <v>1.75</v>
       </c>
       <c r="V579">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W579">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X579">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y579">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z579">
         <v>-1</v>
       </c>
       <c r="AA579">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB579">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC579">
         <v>-1</v>
       </c>
       <c r="AD579">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="580" spans="1:30">
@@ -54704,7 +54704,7 @@
         <v>45409.60416666666</v>
       </c>
       <c r="E589" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F589" t="s">
         <v>63</v>
@@ -54796,7 +54796,7 @@
         <v>45409.64583333334</v>
       </c>
       <c r="E590" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F590" t="s">
         <v>58</v>
@@ -55523,7 +55523,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>8133929</v>
+        <v>8133806</v>
       </c>
       <c r="C598" t="s">
         <v>30</v>
@@ -55532,16 +55532,16 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E598" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F598" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G598">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -55553,43 +55553,43 @@
         <v>73</v>
       </c>
       <c r="L598">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="M598">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N598">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="O598">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P598">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q598">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="R598">
         <v>-0.25</v>
       </c>
       <c r="S598">
+        <v>2.125</v>
+      </c>
+      <c r="T598">
+        <v>1.75</v>
+      </c>
+      <c r="U598">
+        <v>1.75</v>
+      </c>
+      <c r="V598">
         <v>1.9</v>
       </c>
-      <c r="T598">
+      <c r="W598">
         <v>1.95</v>
       </c>
-      <c r="U598">
-        <v>2</v>
-      </c>
-      <c r="V598">
-        <v>2.025</v>
-      </c>
-      <c r="W598">
-        <v>1.825</v>
-      </c>
       <c r="X598">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y598">
         <v>-1</v>
@@ -55598,16 +55598,16 @@
         <v>-1</v>
       </c>
       <c r="AA598">
-        <v>0.8999999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="AB598">
         <v>-1</v>
       </c>
       <c r="AC598">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD598">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="599" spans="1:30">
@@ -55615,7 +55615,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>8133806</v>
+        <v>8133929</v>
       </c>
       <c r="C599" t="s">
         <v>30</v>
@@ -55624,16 +55624,16 @@
         <v>45410.64583333334</v>
       </c>
       <c r="E599" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F599" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -55645,43 +55645,43 @@
         <v>73</v>
       </c>
       <c r="L599">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="M599">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N599">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="O599">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P599">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q599">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="R599">
         <v>-0.25</v>
       </c>
       <c r="S599">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T599">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U599">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V599">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W599">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X599">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Y599">
         <v>-1</v>
@@ -55690,16 +55690,16 @@
         <v>-1</v>
       </c>
       <c r="AA599">
-        <v>1.125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB599">
         <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD599">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:30">
@@ -56455,7 +56455,7 @@
         <v>69</v>
       </c>
       <c r="F608" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G608">
         <v>3</v>
@@ -56811,7 +56811,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>7698808</v>
+        <v>7698814</v>
       </c>
       <c r="C612" t="s">
         <v>30</v>
@@ -56820,82 +56820,82 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E612" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F612" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K612" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L612">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M612">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N612">
+        <v>2.5</v>
+      </c>
+      <c r="O612">
+        <v>3.5</v>
+      </c>
+      <c r="P612">
         <v>2.9</v>
       </c>
-      <c r="O612">
-        <v>2.7</v>
-      </c>
-      <c r="P612">
-        <v>2.7</v>
-      </c>
       <c r="Q612">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="R612">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S612">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T612">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U612">
+        <v>2</v>
+      </c>
+      <c r="V612">
+        <v>2.05</v>
+      </c>
+      <c r="W612">
         <v>1.75</v>
       </c>
-      <c r="V612">
-        <v>1.775</v>
-      </c>
-      <c r="W612">
-        <v>2.025</v>
-      </c>
       <c r="X612">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y612">
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA612">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB612">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC612">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD612">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:30">
@@ -56903,7 +56903,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>7698814</v>
+        <v>8165190</v>
       </c>
       <c r="C613" t="s">
         <v>30</v>
@@ -56912,70 +56912,70 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E613" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F613" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J613">
         <v>1</v>
       </c>
       <c r="K613" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L613">
+        <v>2</v>
+      </c>
+      <c r="M613">
         <v>3</v>
       </c>
-      <c r="M613">
-        <v>2.875</v>
-      </c>
       <c r="N613">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O613">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="P613">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q613">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="R613">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S613">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T613">
         <v>1.975</v>
       </c>
       <c r="U613">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V613">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W613">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X613">
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z613">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA613">
         <v>-1</v>
@@ -56984,10 +56984,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AC613">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AD613">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="614" spans="1:30">
@@ -56995,7 +56995,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>8165190</v>
+        <v>7698808</v>
       </c>
       <c r="C614" t="s">
         <v>30</v>
@@ -57004,82 +57004,82 @@
         <v>45416.64583333334</v>
       </c>
       <c r="E614" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F614" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G614">
         <v>1</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614">
         <v>1</v>
       </c>
       <c r="J614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K614" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L614">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="M614">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N614">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O614">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="P614">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q614">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="R614">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S614">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T614">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U614">
         <v>1.75</v>
       </c>
       <c r="V614">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W614">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X614">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y614">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z614">
         <v>-1</v>
       </c>
       <c r="AA614">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB614">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC614">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AD614">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="615" spans="1:30">
@@ -57743,7 +57743,7 @@
         <v>31</v>
       </c>
       <c r="F622" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G622">
         <v>1</v>
@@ -58384,7 +58384,7 @@
         <v>45423.64583333334</v>
       </c>
       <c r="E629" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F629" t="s">
         <v>45</v>
@@ -59672,7 +59672,7 @@
         <v>45425.64583333334</v>
       </c>
       <c r="E643" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F643" t="s">
         <v>50</v>
@@ -60595,7 +60595,7 @@
         <v>71</v>
       </c>
       <c r="F653" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -60687,7 +60687,7 @@
         <v>44</v>
       </c>
       <c r="F654" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G654">
         <v>1</v>
@@ -60859,7 +60859,7 @@
         <v>654</v>
       </c>
       <c r="B656">
-        <v>8215025</v>
+        <v>8215020</v>
       </c>
       <c r="C656" t="s">
         <v>30</v>
@@ -60868,79 +60868,79 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E656" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F656" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G656">
         <v>2</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I656">
         <v>1</v>
       </c>
       <c r="J656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K656" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L656">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M656">
         <v>3</v>
       </c>
       <c r="N656">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O656">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P656">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q656">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R656">
         <v>-0.5</v>
       </c>
       <c r="S656">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T656">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U656">
         <v>2</v>
       </c>
       <c r="V656">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W656">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X656">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y656">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z656">
         <v>-1</v>
       </c>
       <c r="AA656">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB656">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC656">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AD656">
         <v>-1</v>
@@ -60951,7 +60951,7 @@
         <v>655</v>
       </c>
       <c r="B657">
-        <v>8215020</v>
+        <v>8215025</v>
       </c>
       <c r="C657" t="s">
         <v>30</v>
@@ -60960,79 +60960,79 @@
         <v>45431.64583333334</v>
       </c>
       <c r="E657" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F657" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G657">
         <v>2</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I657">
         <v>1</v>
       </c>
       <c r="J657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K657" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L657">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M657">
         <v>3</v>
       </c>
       <c r="N657">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O657">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P657">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q657">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R657">
         <v>-0.5</v>
       </c>
       <c r="S657">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T657">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U657">
         <v>2</v>
       </c>
       <c r="V657">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W657">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X657">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Y657">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z657">
         <v>-1</v>
       </c>
       <c r="AA657">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB657">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC657">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AD657">
         <v>-1</v>
@@ -61788,7 +61788,7 @@
         <v>45437.5625</v>
       </c>
       <c r="E666" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F666" t="s">
         <v>43</v>
@@ -62141,7 +62141,7 @@
         <v>668</v>
       </c>
       <c r="B670">
-        <v>7698342</v>
+        <v>8243341</v>
       </c>
       <c r="C670" t="s">
         <v>30</v>
@@ -62150,76 +62150,76 @@
         <v>45438.625</v>
       </c>
       <c r="E670" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F670" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H670">
         <v>0</v>
       </c>
       <c r="K670" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L670">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="M670">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N670">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O670">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P670">
         <v>2.625</v>
       </c>
       <c r="Q670">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R670">
         <v>0</v>
       </c>
       <c r="S670">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T670">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="U670">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V670">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W670">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X670">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y670">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z670">
         <v>-1</v>
       </c>
       <c r="AA670">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB670">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC670">
         <v>-1</v>
       </c>
       <c r="AD670">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="671" spans="1:30">
@@ -62227,7 +62227,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>8243330</v>
+        <v>7698342</v>
       </c>
       <c r="C671" t="s">
         <v>30</v>
@@ -62236,76 +62236,76 @@
         <v>45438.625</v>
       </c>
       <c r="E671" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F671" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G671">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H671">
         <v>0</v>
       </c>
       <c r="K671" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L671">
+        <v>2.9</v>
+      </c>
+      <c r="M671">
+        <v>2.875</v>
+      </c>
+      <c r="N671">
+        <v>2.5</v>
+      </c>
+      <c r="O671">
+        <v>3.2</v>
+      </c>
+      <c r="P671">
         <v>2.625</v>
       </c>
-      <c r="M671">
+      <c r="Q671">
         <v>2.75</v>
       </c>
-      <c r="N671">
-        <v>2.75</v>
-      </c>
-      <c r="O671">
-        <v>2.2</v>
-      </c>
-      <c r="P671">
-        <v>2.875</v>
-      </c>
-      <c r="Q671">
-        <v>3.8</v>
-      </c>
       <c r="R671">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S671">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T671">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U671">
         <v>1.75</v>
       </c>
       <c r="V671">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W671">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X671">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y671">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z671">
         <v>-1</v>
       </c>
       <c r="AA671">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB671">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC671">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD671">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="672" spans="1:30">
@@ -62313,7 +62313,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>8243341</v>
+        <v>8243330</v>
       </c>
       <c r="C672" t="s">
         <v>30</v>
@@ -62322,13 +62322,13 @@
         <v>45438.625</v>
       </c>
       <c r="E672" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F672" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G672">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H672">
         <v>0</v>
@@ -62337,34 +62337,34 @@
         <v>73</v>
       </c>
       <c r="L672">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="M672">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N672">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O672">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P672">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q672">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="R672">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S672">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T672">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U672">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V672">
         <v>1.825</v>
@@ -62373,7 +62373,7 @@
         <v>2.025</v>
       </c>
       <c r="X672">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y672">
         <v>-1</v>
@@ -62382,16 +62382,16 @@
         <v>-1</v>
       </c>
       <c r="AA672">
+        <v>0.875</v>
+      </c>
+      <c r="AB672">
+        <v>-1</v>
+      </c>
+      <c r="AC672">
         <v>0.825</v>
       </c>
-      <c r="AB672">
-        <v>-1</v>
-      </c>
-      <c r="AC672">
-        <v>-1</v>
-      </c>
       <c r="AD672">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="673" spans="1:30">
@@ -62580,7 +62580,7 @@
         <v>45438.64583333334</v>
       </c>
       <c r="E675" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F675" t="s">
         <v>46</v>
@@ -63627,22 +63627,22 @@
         <v>2.9</v>
       </c>
       <c r="O687">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P687">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q687">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R687">
         <v>-0.25</v>
       </c>
       <c r="S687">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T687">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U687">
         <v>2</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -4564,7 +4564,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6150461</v>
+        <v>6150858</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4573,37 +4573,37 @@
         <v>45096.625</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44" t="s">
         <v>72</v>
       </c>
       <c r="L44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M44">
+        <v>2.9</v>
+      </c>
+      <c r="N44">
         <v>3</v>
       </c>
-      <c r="N44">
-        <v>3.3</v>
-      </c>
       <c r="O44">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P44">
         <v>3.1</v>
@@ -4615,22 +4615,22 @@
         <v>-0.25</v>
       </c>
       <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>1.95</v>
-      </c>
-      <c r="T44">
-        <v>1.85</v>
       </c>
       <c r="U44">
         <v>1.75</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X44">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4639,16 +4639,16 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4656,7 +4656,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6150858</v>
+        <v>6150461</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4665,37 +4665,37 @@
         <v>45096.625</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>72</v>
       </c>
       <c r="L45">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P45">
         <v>3.1</v>
@@ -4707,22 +4707,22 @@
         <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
         <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X45">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4731,16 +4731,16 @@
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -8336,7 +8336,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6150471</v>
+        <v>6870410</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8345,13 +8345,13 @@
         <v>45115.625</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8363,28 +8363,28 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L85">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M85">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N85">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="O85">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P85">
         <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R85">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S85">
         <v>1.825</v>
@@ -8393,34 +8393,34 @@
         <v>1.975</v>
       </c>
       <c r="U85">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
         <v>-1</v>
       </c>
       <c r="AD85">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8428,7 +8428,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6870410</v>
+        <v>6150471</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8437,13 +8437,13 @@
         <v>45115.625</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L86">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O86">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="P86">
         <v>3.2</v>
       </c>
       <c r="Q86">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S86">
         <v>1.825</v>
@@ -8485,34 +8485,34 @@
         <v>1.975</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X86">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
         <v>-1</v>
       </c>
       <c r="AD86">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -11556,7 +11556,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6150886</v>
+        <v>6150714</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -11565,82 +11565,82 @@
         <v>45129.625</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L120">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M120">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N120">
         <v>2.75</v>
       </c>
       <c r="O120">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q120">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="R120">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T120">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X120">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
       </c>
       <c r="AD120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11648,7 +11648,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6150714</v>
+        <v>6150885</v>
       </c>
       <c r="C121" t="s">
         <v>29</v>
@@ -11657,13 +11657,13 @@
         <v>45129.625</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F121" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11672,67 +11672,67 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L121">
+        <v>2.5</v>
+      </c>
+      <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
         <v>2.625</v>
       </c>
-      <c r="M121">
-        <v>2.75</v>
-      </c>
-      <c r="N121">
-        <v>2.75</v>
-      </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="P121">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q121">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="R121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S121">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z121">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0.7250000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD121">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -11740,7 +11740,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6150885</v>
+        <v>6150886</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -11749,16 +11749,16 @@
         <v>45129.625</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11767,64 +11767,64 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L122">
         <v>2.5</v>
       </c>
       <c r="M122">
+        <v>2.875</v>
+      </c>
+      <c r="N122">
+        <v>2.75</v>
+      </c>
+      <c r="O122">
+        <v>2.05</v>
+      </c>
+      <c r="P122">
         <v>3</v>
       </c>
-      <c r="N122">
-        <v>2.625</v>
-      </c>
-      <c r="O122">
-        <v>2.15</v>
-      </c>
-      <c r="P122">
-        <v>3.1</v>
-      </c>
       <c r="Q122">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="R122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U122">
         <v>2</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -12200,7 +12200,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150557</v>
+        <v>6150711</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12209,19 +12209,19 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12230,40 +12230,40 @@
         <v>74</v>
       </c>
       <c r="L127">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M127">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N127">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P127">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="R127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U127">
         <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -12272,19 +12272,19 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD127">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12384,7 +12384,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150711</v>
+        <v>6150557</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12393,19 +12393,19 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -12414,40 +12414,40 @@
         <v>74</v>
       </c>
       <c r="L129">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N129">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O129">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q129">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="R129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
         <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W129">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12456,19 +12456,19 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -14040,7 +14040,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6150895</v>
+        <v>6150559</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14049,19 +14049,19 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -14070,44 +14070,44 @@
         <v>72</v>
       </c>
       <c r="L147">
+        <v>2.2</v>
+      </c>
+      <c r="M147">
+        <v>2.9</v>
+      </c>
+      <c r="N147">
+        <v>3.3</v>
+      </c>
+      <c r="O147">
+        <v>2.4</v>
+      </c>
+      <c r="P147">
+        <v>3</v>
+      </c>
+      <c r="Q147">
+        <v>3.3</v>
+      </c>
+      <c r="R147">
+        <v>-0.25</v>
+      </c>
+      <c r="S147">
+        <v>2</v>
+      </c>
+      <c r="T147">
+        <v>1.8</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>2.025</v>
+      </c>
+      <c r="W147">
+        <v>1.775</v>
+      </c>
+      <c r="X147">
         <v>1.4</v>
       </c>
-      <c r="M147">
-        <v>4</v>
-      </c>
-      <c r="N147">
-        <v>7</v>
-      </c>
-      <c r="O147">
-        <v>1.5</v>
-      </c>
-      <c r="P147">
-        <v>4</v>
-      </c>
-      <c r="Q147">
-        <v>7.5</v>
-      </c>
-      <c r="R147">
-        <v>-1</v>
-      </c>
-      <c r="S147">
-        <v>1.8</v>
-      </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>2.25</v>
-      </c>
-      <c r="V147">
-        <v>1.775</v>
-      </c>
-      <c r="W147">
-        <v>2.025</v>
-      </c>
-      <c r="X147">
-        <v>0.5</v>
-      </c>
       <c r="Y147">
         <v>-1</v>
       </c>
@@ -14115,16 +14115,16 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
+        <v>-1</v>
+      </c>
+      <c r="AD147">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AD147">
-        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14132,7 +14132,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6150559</v>
+        <v>6150895</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14141,19 +14141,19 @@
         <v>45137.66666666666</v>
       </c>
       <c r="E148" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F148" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -14162,43 +14162,43 @@
         <v>72</v>
       </c>
       <c r="L148">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M148">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N148">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="O148">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="P148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="R148">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S148">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U148">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V148">
+        <v>1.775</v>
+      </c>
+      <c r="W148">
         <v>2.025</v>
       </c>
-      <c r="W148">
-        <v>1.775</v>
-      </c>
       <c r="X148">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -14207,16 +14207,16 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD148">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -15880,7 +15880,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6150485</v>
+        <v>6150724</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15889,82 +15889,82 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>72</v>
+      </c>
+      <c r="L167">
         <v>3</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>1</v>
-      </c>
-      <c r="K167" t="s">
-        <v>74</v>
-      </c>
-      <c r="L167">
-        <v>2</v>
-      </c>
       <c r="M167">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N167">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="O167">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q167">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R167">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U167">
         <v>1.75</v>
       </c>
       <c r="V167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15972,7 +15972,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6150724</v>
+        <v>6150485</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15981,82 +15981,82 @@
         <v>45145.64583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F168" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M168">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="R168">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
         <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W168">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="X168">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA168">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD168">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16708,7 +16708,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16717,82 +16717,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R176">
         <v>-0.5</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16800,7 +16800,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16809,82 +16809,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>2.3</v>
+      </c>
+      <c r="O177">
+        <v>1.85</v>
+      </c>
+      <c r="P177">
         <v>3.3</v>
       </c>
-      <c r="O177">
-        <v>2.05</v>
-      </c>
-      <c r="P177">
-        <v>3.2</v>
-      </c>
       <c r="Q177">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
         <v>-0.5</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -20572,7 +20572,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6226071</v>
+        <v>6150919</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20581,10 +20581,10 @@
         <v>45171.625</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -20602,43 +20602,43 @@
         <v>72</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O218">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="P218">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q218">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R218">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S218">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U218">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X218">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Y218">
         <v>-1</v>
@@ -20647,16 +20647,16 @@
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20664,7 +20664,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6150919</v>
+        <v>6226071</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20673,10 +20673,10 @@
         <v>45171.625</v>
       </c>
       <c r="E219" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -20694,43 +20694,43 @@
         <v>72</v>
       </c>
       <c r="L219">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M219">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N219">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="P219">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q219">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R219">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T219">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U219">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W219">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X219">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Y219">
         <v>-1</v>
@@ -20739,16 +20739,16 @@
         <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB219">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21124,7 +21124,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6150750</v>
+        <v>6150495</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21133,37 +21133,37 @@
         <v>45172.64583333334</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K224" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>3.1</v>
+      </c>
+      <c r="N224">
+        <v>2.2</v>
+      </c>
+      <c r="O224">
         <v>2.9</v>
-      </c>
-      <c r="M224">
-        <v>2.9</v>
-      </c>
-      <c r="N224">
-        <v>2.375</v>
-      </c>
-      <c r="O224">
-        <v>2.875</v>
       </c>
       <c r="P224">
         <v>3</v>
@@ -21175,40 +21175,40 @@
         <v>0</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W224">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X224">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21216,7 +21216,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6150495</v>
+        <v>6150750</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21225,37 +21225,37 @@
         <v>45172.64583333334</v>
       </c>
       <c r="E225" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L225">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M225">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N225">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O225">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P225">
         <v>3</v>
@@ -21267,40 +21267,40 @@
         <v>0</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U225">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W225">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -23884,7 +23884,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6268951</v>
+        <v>7200306</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23893,16 +23893,16 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E254" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -23914,43 +23914,43 @@
         <v>72</v>
       </c>
       <c r="L254">
+        <v>2.1</v>
+      </c>
+      <c r="M254">
+        <v>2.875</v>
+      </c>
+      <c r="N254">
+        <v>3.5</v>
+      </c>
+      <c r="O254">
         <v>2.2</v>
       </c>
-      <c r="M254">
-        <v>3.2</v>
-      </c>
-      <c r="N254">
-        <v>2.9</v>
-      </c>
-      <c r="O254">
-        <v>2.9</v>
-      </c>
       <c r="P254">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q254">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="R254">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S254">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T254">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U254">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V254">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W254">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X254">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Y254">
         <v>-1</v>
@@ -23959,16 +23959,16 @@
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD254">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -23976,7 +23976,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7200306</v>
+        <v>6264156</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -23985,19 +23985,19 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E255" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -24006,34 +24006,34 @@
         <v>72</v>
       </c>
       <c r="L255">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="M255">
+        <v>2.75</v>
+      </c>
+      <c r="N255">
+        <v>2.625</v>
+      </c>
+      <c r="O255">
+        <v>2.25</v>
+      </c>
+      <c r="P255">
         <v>2.875</v>
       </c>
-      <c r="N255">
-        <v>3.5</v>
-      </c>
-      <c r="O255">
-        <v>2.2</v>
-      </c>
-      <c r="P255">
-        <v>3.25</v>
-      </c>
       <c r="Q255">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R255">
         <v>-0.25</v>
       </c>
       <c r="S255">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T255">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V255">
         <v>1.85</v>
@@ -24042,7 +24042,7 @@
         <v>1.95</v>
       </c>
       <c r="X255">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y255">
         <v>-1</v>
@@ -24051,16 +24051,16 @@
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB255">
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD255">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -24068,7 +24068,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>6264156</v>
+        <v>6268951</v>
       </c>
       <c r="C256" t="s">
         <v>29</v>
@@ -24077,10 +24077,10 @@
         <v>45185.64583333334</v>
       </c>
       <c r="E256" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F256" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -24098,43 +24098,43 @@
         <v>72</v>
       </c>
       <c r="L256">
+        <v>2.2</v>
+      </c>
+      <c r="M256">
+        <v>3.2</v>
+      </c>
+      <c r="N256">
+        <v>2.9</v>
+      </c>
+      <c r="O256">
+        <v>2.9</v>
+      </c>
+      <c r="P256">
         <v>2.75</v>
       </c>
-      <c r="M256">
-        <v>2.75</v>
-      </c>
-      <c r="N256">
-        <v>2.625</v>
-      </c>
-      <c r="O256">
-        <v>2.25</v>
-      </c>
-      <c r="P256">
+      <c r="Q256">
         <v>2.875</v>
       </c>
-      <c r="Q256">
-        <v>3.75</v>
-      </c>
       <c r="R256">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T256">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U256">
         <v>1.75</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X256">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Y256">
         <v>-1</v>
@@ -24143,7 +24143,7 @@
         <v>-1</v>
       </c>
       <c r="AA256">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB256">
         <v>-1</v>
@@ -24152,7 +24152,7 @@
         <v>-1</v>
       </c>
       <c r="AD256">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="257" spans="1:30">
@@ -28024,7 +28024,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6296632</v>
+        <v>6290532</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -28033,76 +28033,76 @@
         <v>45200.66666666666</v>
       </c>
       <c r="E299" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
         <v>0</v>
       </c>
       <c r="K299" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L299">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="M299">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N299">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O299">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="P299">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q299">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R299">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S299">
+        <v>1.775</v>
+      </c>
+      <c r="T299">
         <v>2.025</v>
       </c>
-      <c r="T299">
+      <c r="U299">
+        <v>2</v>
+      </c>
+      <c r="V299">
         <v>1.775</v>
       </c>
-      <c r="U299">
-        <v>2</v>
-      </c>
-      <c r="V299">
-        <v>1.925</v>
-      </c>
       <c r="W299">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y299">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB299">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
         <v>0</v>
@@ -28116,7 +28116,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6290532</v>
+        <v>6296632</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -28125,76 +28125,76 @@
         <v>45200.66666666666</v>
       </c>
       <c r="E300" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300">
         <v>0</v>
       </c>
       <c r="K300" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L300">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="M300">
+        <v>3</v>
+      </c>
+      <c r="N300">
+        <v>2.875</v>
+      </c>
+      <c r="O300">
+        <v>2.375</v>
+      </c>
+      <c r="P300">
+        <v>3.1</v>
+      </c>
+      <c r="Q300">
         <v>3.2</v>
       </c>
-      <c r="N300">
-        <v>4</v>
-      </c>
-      <c r="O300">
-        <v>1.6</v>
-      </c>
-      <c r="P300">
-        <v>3.6</v>
-      </c>
-      <c r="Q300">
-        <v>6</v>
-      </c>
       <c r="R300">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S300">
+        <v>2.025</v>
+      </c>
+      <c r="T300">
         <v>1.775</v>
       </c>
-      <c r="T300">
-        <v>2.025</v>
-      </c>
       <c r="U300">
         <v>2</v>
       </c>
       <c r="V300">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W300">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X300">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z300">
         <v>-1</v>
       </c>
       <c r="AA300">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC300">
         <v>0</v>
@@ -29772,7 +29772,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6323477</v>
+        <v>6359296</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -29781,16 +29781,16 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E318" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F318" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -29802,61 +29802,61 @@
         <v>73</v>
       </c>
       <c r="L318">
+        <v>1.5</v>
+      </c>
+      <c r="M318">
+        <v>4</v>
+      </c>
+      <c r="N318">
+        <v>5</v>
+      </c>
+      <c r="O318">
         <v>2.1</v>
       </c>
-      <c r="M318">
-        <v>3.2</v>
-      </c>
-      <c r="N318">
-        <v>3.2</v>
-      </c>
-      <c r="O318">
-        <v>1.909</v>
-      </c>
       <c r="P318">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q318">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="R318">
+        <v>-0.25</v>
+      </c>
+      <c r="S318">
+        <v>1.8</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
+        <v>1.875</v>
+      </c>
+      <c r="W318">
+        <v>1.925</v>
+      </c>
+      <c r="X318">
+        <v>-1</v>
+      </c>
+      <c r="Y318">
+        <v>2.5</v>
+      </c>
+      <c r="Z318">
+        <v>-1</v>
+      </c>
+      <c r="AA318">
         <v>-0.5</v>
       </c>
-      <c r="S318">
-        <v>1.825</v>
-      </c>
-      <c r="T318">
-        <v>1.975</v>
-      </c>
-      <c r="U318">
-        <v>2</v>
-      </c>
-      <c r="V318">
-        <v>1.775</v>
-      </c>
-      <c r="W318">
-        <v>2.025</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
-      <c r="Y318">
-        <v>2.3</v>
-      </c>
-      <c r="Z318">
-        <v>-1</v>
-      </c>
-      <c r="AA318">
-        <v>-1</v>
-      </c>
       <c r="AB318">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD318">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29864,7 +29864,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6359296</v>
+        <v>6330566</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29873,82 +29873,82 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E319" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F319" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>0</v>
       </c>
       <c r="J319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K319" t="s">
         <v>73</v>
       </c>
       <c r="L319">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="M319">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O319">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="P319">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q319">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R319">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S319">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T319">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U319">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W319">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
+        <v>0.3875</v>
+      </c>
+      <c r="AB319">
         <v>-0.5</v>
       </c>
-      <c r="AB319">
-        <v>0.5</v>
-      </c>
       <c r="AC319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD319">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -29956,7 +29956,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6330566</v>
+        <v>6323477</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -29965,10 +29965,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E320" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F320" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -29980,67 +29980,67 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K320" t="s">
         <v>73</v>
       </c>
       <c r="L320">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M320">
         <v>3.2</v>
       </c>
       <c r="N320">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O320">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="P320">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q320">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="R320">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S320">
+        <v>1.825</v>
+      </c>
+      <c r="T320">
+        <v>1.975</v>
+      </c>
+      <c r="U320">
+        <v>2</v>
+      </c>
+      <c r="V320">
         <v>1.775</v>
       </c>
-      <c r="T320">
+      <c r="W320">
         <v>2.025</v>
       </c>
-      <c r="U320">
-        <v>2.25</v>
-      </c>
-      <c r="V320">
-        <v>1.9</v>
-      </c>
-      <c r="W320">
-        <v>1.9</v>
-      </c>
       <c r="X320">
         <v>-1</v>
       </c>
       <c r="Y320">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD320">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -30600,7 +30600,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7323530</v>
+        <v>7323531</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -30609,82 +30609,82 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E327" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F327" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327">
         <v>1</v>
       </c>
       <c r="I327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K327" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L327">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M327">
         <v>3.2</v>
       </c>
       <c r="N327">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O327">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="P327">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q327">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="R327">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S327">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T327">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U327">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V327">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W327">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="X327">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z327">
         <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AB327">
+        <v>-1</v>
+      </c>
+      <c r="AC327">
         <v>-0.5</v>
       </c>
-      <c r="AC327">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AD327">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="328" spans="1:30">
@@ -30692,7 +30692,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7323531</v>
+        <v>6360015</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30701,16 +30701,16 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F328" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G328">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328">
         <v>0</v>
@@ -30719,64 +30719,64 @@
         <v>1</v>
       </c>
       <c r="K328" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L328">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M328">
         <v>3.2</v>
       </c>
       <c r="N328">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O328">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="P328">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q328">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="R328">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S328">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T328">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U328">
         <v>2.25</v>
       </c>
       <c r="V328">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W328">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X328">
         <v>-1</v>
       </c>
       <c r="Y328">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA328">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC328">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AD328">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:30">
@@ -30784,7 +30784,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6360015</v>
+        <v>6356449</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30793,25 +30793,25 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E329" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F329" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K329" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L329">
         <v>1.8</v>
@@ -30829,46 +30829,46 @@
         <v>3.1</v>
       </c>
       <c r="Q329">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R329">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S329">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T329">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U329">
         <v>2.25</v>
       </c>
       <c r="V329">
+        <v>1.925</v>
+      </c>
+      <c r="W329">
+        <v>1.875</v>
+      </c>
+      <c r="X329">
+        <v>-1</v>
+      </c>
+      <c r="Y329">
         <v>2.1</v>
       </c>
-      <c r="W329">
-        <v>1.775</v>
-      </c>
-      <c r="X329">
-        <v>-1</v>
-      </c>
-      <c r="Y329">
-        <v>-1</v>
-      </c>
       <c r="Z329">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB329">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AC329">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD329">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -30876,7 +30876,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6356449</v>
+        <v>7323842</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -30885,16 +30885,16 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E330" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F330" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G330">
         <v>0</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -30903,64 +30903,64 @@
         <v>0</v>
       </c>
       <c r="K330" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L330">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M330">
         <v>3.2</v>
       </c>
       <c r="N330">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O330">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q330">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R330">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S330">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T330">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U330">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V330">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="W330">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AC330">
         <v>-1</v>
       </c>
       <c r="AD330">
-        <v>0.875</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -30968,7 +30968,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6355608</v>
+        <v>7323530</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -30977,82 +30977,82 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E331" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F331" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K331" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L331">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="M331">
         <v>3.2</v>
       </c>
       <c r="N331">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O331">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q331">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="R331">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S331">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T331">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="U331">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W331">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X331">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB331">
-        <v>1.075</v>
+        <v>-0.5</v>
       </c>
       <c r="AC331">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD331">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:30">
@@ -31060,7 +31060,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7323842</v>
+        <v>6355608</v>
       </c>
       <c r="C332" t="s">
         <v>29</v>
@@ -31069,62 +31069,62 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E332" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F332" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G332">
         <v>0</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332">
         <v>0</v>
       </c>
       <c r="J332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K332" t="s">
         <v>74</v>
       </c>
       <c r="L332">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="M332">
         <v>3.2</v>
       </c>
       <c r="N332">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O332">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P332">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q332">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="R332">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S332">
+        <v>1.725</v>
+      </c>
+      <c r="T332">
+        <v>2.075</v>
+      </c>
+      <c r="U332">
+        <v>2.25</v>
+      </c>
+      <c r="V332">
+        <v>1.875</v>
+      </c>
+      <c r="W332">
         <v>1.925</v>
       </c>
-      <c r="T332">
-        <v>1.925</v>
-      </c>
-      <c r="U332">
-        <v>2</v>
-      </c>
-      <c r="V332">
-        <v>1.7</v>
-      </c>
-      <c r="W332">
-        <v>2.2</v>
-      </c>
       <c r="X332">
         <v>-1</v>
       </c>
@@ -31132,19 +31132,19 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="AA332">
         <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1.075</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD332">
-        <v>1.2</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="333" spans="1:30">
@@ -31152,7 +31152,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6390738</v>
+        <v>7323855</v>
       </c>
       <c r="C333" t="s">
         <v>29</v>
@@ -31161,19 +31161,19 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E333" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G333">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H333">
         <v>0</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J333">
         <v>0</v>
@@ -31185,40 +31185,40 @@
         <v>1.909</v>
       </c>
       <c r="M333">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N333">
+        <v>3.75</v>
+      </c>
+      <c r="O333">
+        <v>2.05</v>
+      </c>
+      <c r="P333">
+        <v>3.2</v>
+      </c>
+      <c r="Q333">
         <v>4</v>
       </c>
-      <c r="O333">
-        <v>1.363</v>
-      </c>
-      <c r="P333">
-        <v>4</v>
-      </c>
-      <c r="Q333">
-        <v>13</v>
-      </c>
       <c r="R333">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S333">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T333">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U333">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W333">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X333">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="Y333">
         <v>-1</v>
@@ -31227,16 +31227,16 @@
         <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD333">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="334" spans="1:30">
@@ -31244,7 +31244,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7311908</v>
+        <v>7323841</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31253,79 +31253,79 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F334" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H334">
         <v>2</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K334" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L334">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="M334">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N334">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O334">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P334">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q334">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R334">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V334">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W334">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X334">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB334">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD334">
         <v>-1</v>
@@ -31336,7 +31336,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7323855</v>
+        <v>7311908</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31345,82 +31345,82 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E335" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L335">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M335">
         <v>3.2</v>
       </c>
       <c r="N335">
+        <v>3.3</v>
+      </c>
+      <c r="O335">
+        <v>1.8</v>
+      </c>
+      <c r="P335">
+        <v>3.5</v>
+      </c>
+      <c r="Q335">
+        <v>4.75</v>
+      </c>
+      <c r="R335">
+        <v>-0.75</v>
+      </c>
+      <c r="S335">
+        <v>1.975</v>
+      </c>
+      <c r="T335">
+        <v>1.825</v>
+      </c>
+      <c r="U335">
+        <v>2</v>
+      </c>
+      <c r="V335">
+        <v>1.925</v>
+      </c>
+      <c r="W335">
+        <v>1.875</v>
+      </c>
+      <c r="X335">
+        <v>-1</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
         <v>3.75</v>
       </c>
-      <c r="O335">
-        <v>2.05</v>
-      </c>
-      <c r="P335">
-        <v>3.2</v>
-      </c>
-      <c r="Q335">
-        <v>4</v>
-      </c>
-      <c r="R335">
-        <v>-0.5</v>
-      </c>
-      <c r="S335">
-        <v>2.025</v>
-      </c>
-      <c r="T335">
-        <v>1.775</v>
-      </c>
-      <c r="U335">
-        <v>1.75</v>
-      </c>
-      <c r="V335">
-        <v>1.75</v>
-      </c>
-      <c r="W335">
-        <v>2.05</v>
-      </c>
-      <c r="X335">
-        <v>1.05</v>
-      </c>
-      <c r="Y335">
-        <v>-1</v>
-      </c>
-      <c r="Z335">
-        <v>-1</v>
-      </c>
       <c r="AA335">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD335">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:30">
@@ -31428,7 +31428,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7323841</v>
+        <v>6390738</v>
       </c>
       <c r="C336" t="s">
         <v>29</v>
@@ -31437,16 +31437,16 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E336" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G336">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336">
         <v>2</v>
@@ -31458,43 +31458,43 @@
         <v>72</v>
       </c>
       <c r="L336">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="M336">
         <v>3</v>
       </c>
       <c r="N336">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O336">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="P336">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q336">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="R336">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S336">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T336">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U336">
         <v>2.25</v>
       </c>
       <c r="V336">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W336">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X336">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="Y336">
         <v>-1</v>
@@ -31503,13 +31503,13 @@
         <v>-1</v>
       </c>
       <c r="AA336">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB336">
         <v>-1</v>
       </c>
       <c r="AC336">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AD336">
         <v>-1</v>
@@ -35660,7 +35660,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>7698659</v>
+        <v>7698357</v>
       </c>
       <c r="C382" t="s">
         <v>29</v>
@@ -35669,79 +35669,79 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E382" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F382" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382">
         <v>0</v>
       </c>
       <c r="K382" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L382">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M382">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N382">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O382">
+        <v>2.55</v>
+      </c>
+      <c r="P382">
+        <v>2.875</v>
+      </c>
+      <c r="Q382">
+        <v>3.2</v>
+      </c>
+      <c r="R382">
+        <v>0</v>
+      </c>
+      <c r="S382">
+        <v>2</v>
+      </c>
+      <c r="T382">
         <v>1.8</v>
-      </c>
-      <c r="P382">
-        <v>3.2</v>
-      </c>
-      <c r="Q382">
-        <v>6</v>
-      </c>
-      <c r="R382">
-        <v>-0.75</v>
-      </c>
-      <c r="S382">
-        <v>2.025</v>
-      </c>
-      <c r="T382">
-        <v>1.775</v>
       </c>
       <c r="U382">
         <v>1.75</v>
       </c>
       <c r="V382">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W382">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="X382">
         <v>-1</v>
       </c>
       <c r="Y382">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z382">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB382">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC382">
-        <v>0.375</v>
+        <v>0.3875</v>
       </c>
       <c r="AD382">
         <v>-0.5</v>
@@ -35752,7 +35752,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>7698357</v>
+        <v>7698659</v>
       </c>
       <c r="C383" t="s">
         <v>29</v>
@@ -35761,79 +35761,79 @@
         <v>45332.70833333334</v>
       </c>
       <c r="E383" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F383" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J383">
         <v>0</v>
       </c>
       <c r="K383" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L383">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M383">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N383">
+        <v>4</v>
+      </c>
+      <c r="O383">
+        <v>1.8</v>
+      </c>
+      <c r="P383">
         <v>3.2</v>
       </c>
-      <c r="O383">
-        <v>2.55</v>
-      </c>
-      <c r="P383">
-        <v>2.875</v>
-      </c>
       <c r="Q383">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R383">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S383">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T383">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U383">
         <v>1.75</v>
       </c>
       <c r="V383">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W383">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X383">
         <v>-1</v>
       </c>
       <c r="Y383">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA383">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC383">
-        <v>0.3875</v>
+        <v>0.375</v>
       </c>
       <c r="AD383">
         <v>-0.5</v>
@@ -36304,7 +36304,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698658</v>
+        <v>7698657</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -36313,82 +36313,82 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E389" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F389" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H389">
         <v>0</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389">
         <v>0</v>
       </c>
       <c r="K389" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L389">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M389">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N389">
+        <v>2.375</v>
+      </c>
+      <c r="O389">
+        <v>2.9</v>
+      </c>
+      <c r="P389">
+        <v>3.3</v>
+      </c>
+      <c r="Q389">
         <v>2.5</v>
       </c>
-      <c r="O389">
-        <v>2.8</v>
-      </c>
-      <c r="P389">
-        <v>2.9</v>
-      </c>
-      <c r="Q389">
-        <v>2.8</v>
-      </c>
       <c r="R389">
         <v>0</v>
       </c>
       <c r="S389">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="T389">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U389">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V389">
         <v>1.9</v>
       </c>
       <c r="W389">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X389">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y389">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z389">
         <v>-1</v>
       </c>
       <c r="AA389">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB389">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC389">
         <v>-1</v>
       </c>
       <c r="AD389">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36396,7 +36396,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7698657</v>
+        <v>7698545</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36405,82 +36405,82 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E390" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F390" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H390">
         <v>0</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390">
         <v>0</v>
       </c>
       <c r="K390" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L390">
+        <v>2.5</v>
+      </c>
+      <c r="M390">
+        <v>3</v>
+      </c>
+      <c r="N390">
         <v>2.75</v>
       </c>
-      <c r="M390">
-        <v>3.1</v>
-      </c>
-      <c r="N390">
-        <v>2.375</v>
-      </c>
       <c r="O390">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="P390">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q390">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="R390">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S390">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="T390">
+        <v>2.025</v>
+      </c>
+      <c r="U390">
         <v>1.75</v>
       </c>
-      <c r="U390">
-        <v>2</v>
-      </c>
       <c r="V390">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W390">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X390">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y390">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z390">
         <v>-1</v>
       </c>
       <c r="AA390">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB390">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC390">
         <v>-1</v>
       </c>
       <c r="AD390">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -36488,7 +36488,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698545</v>
+        <v>7698658</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -36497,10 +36497,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F391" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -36518,43 +36518,43 @@
         <v>72</v>
       </c>
       <c r="L391">
+        <v>3</v>
+      </c>
+      <c r="M391">
+        <v>2.75</v>
+      </c>
+      <c r="N391">
         <v>2.5</v>
       </c>
-      <c r="M391">
-        <v>3</v>
-      </c>
-      <c r="N391">
-        <v>2.75</v>
-      </c>
       <c r="O391">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P391">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q391">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S391">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T391">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U391">
         <v>1.75</v>
       </c>
       <c r="V391">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W391">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X391">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y391">
         <v>-1</v>
@@ -36563,7 +36563,7 @@
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB391">
         <v>-1</v>
@@ -36572,7 +36572,7 @@
         <v>-1</v>
       </c>
       <c r="AD391">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36856,7 +36856,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -36865,82 +36865,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E395" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G395">
         <v>1</v>
       </c>
       <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>1</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395" t="s">
+        <v>73</v>
+      </c>
+      <c r="L395">
+        <v>2.5</v>
+      </c>
+      <c r="M395">
+        <v>2.75</v>
+      </c>
+      <c r="N395">
         <v>3</v>
       </c>
-      <c r="I395">
-        <v>1</v>
-      </c>
-      <c r="J395">
-        <v>0</v>
-      </c>
-      <c r="K395" t="s">
-        <v>74</v>
-      </c>
-      <c r="L395">
-        <v>3.4</v>
-      </c>
-      <c r="M395">
+      <c r="O395">
+        <v>2.55</v>
+      </c>
+      <c r="P395">
         <v>2.875</v>
       </c>
-      <c r="N395">
-        <v>2.2</v>
-      </c>
-      <c r="O395">
-        <v>2.45</v>
-      </c>
-      <c r="P395">
-        <v>2.8</v>
-      </c>
       <c r="Q395">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R395">
         <v>-0.25</v>
       </c>
       <c r="S395">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="T395">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U395">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V395">
+        <v>1.8</v>
+      </c>
+      <c r="W395">
         <v>2.05</v>
       </c>
-      <c r="W395">
-        <v>1.8</v>
-      </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB395">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC395">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AD395">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -36948,7 +36948,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -36957,82 +36957,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F396" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G396">
         <v>1</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I396">
         <v>1</v>
       </c>
       <c r="J396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L396">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M396">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N396">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O396">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="P396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q396">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R396">
         <v>-0.25</v>
       </c>
       <c r="S396">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T396">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V396">
+        <v>2.05</v>
+      </c>
+      <c r="W396">
         <v>1.8</v>
       </c>
-      <c r="W396">
-        <v>2.05</v>
-      </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC396">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AD396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -38138,7 +38138,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698668</v>
+        <v>7698356</v>
       </c>
       <c r="C409" t="s">
         <v>29</v>
@@ -38147,10 +38147,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F409" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -38159,7 +38159,7 @@
         <v>0</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409">
         <v>0</v>
@@ -38168,43 +38168,43 @@
         <v>72</v>
       </c>
       <c r="L409">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M409">
         <v>2.9</v>
       </c>
       <c r="N409">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O409">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P409">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q409">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R409">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S409">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T409">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="U409">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V409">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W409">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X409">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Y409">
         <v>-1</v>
@@ -38213,7 +38213,7 @@
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB409">
         <v>-1</v>
@@ -38222,7 +38222,7 @@
         <v>-1</v>
       </c>
       <c r="AD409">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="410" spans="1:30">
@@ -38230,7 +38230,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698356</v>
+        <v>7698667</v>
       </c>
       <c r="C410" t="s">
         <v>29</v>
@@ -38239,19 +38239,19 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F410" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410">
         <v>0</v>
       </c>
       <c r="I410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J410">
         <v>0</v>
@@ -38260,43 +38260,43 @@
         <v>72</v>
       </c>
       <c r="L410">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M410">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N410">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O410">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="P410">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q410">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="R410">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S410">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T410">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="U410">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V410">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W410">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X410">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
@@ -38305,16 +38305,16 @@
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD410">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -38322,7 +38322,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698667</v>
+        <v>7698668</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -38331,13 +38331,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F411" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -38352,43 +38352,43 @@
         <v>72</v>
       </c>
       <c r="L411">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="M411">
+        <v>2.9</v>
+      </c>
+      <c r="N411">
+        <v>3</v>
+      </c>
+      <c r="O411">
+        <v>2.3</v>
+      </c>
+      <c r="P411">
+        <v>3</v>
+      </c>
+      <c r="Q411">
         <v>3.5</v>
-      </c>
-      <c r="N411">
-        <v>4</v>
-      </c>
-      <c r="O411">
-        <v>2.1</v>
-      </c>
-      <c r="P411">
-        <v>3.1</v>
-      </c>
-      <c r="Q411">
-        <v>3.8</v>
       </c>
       <c r="R411">
         <v>-0.25</v>
       </c>
       <c r="S411">
+        <v>1.925</v>
+      </c>
+      <c r="T411">
+        <v>1.925</v>
+      </c>
+      <c r="U411">
+        <v>2</v>
+      </c>
+      <c r="V411">
+        <v>2.025</v>
+      </c>
+      <c r="W411">
         <v>1.825</v>
       </c>
-      <c r="T411">
-        <v>1.975</v>
-      </c>
-      <c r="U411">
-        <v>2</v>
-      </c>
-      <c r="V411">
-        <v>1.8</v>
-      </c>
-      <c r="W411">
-        <v>2</v>
-      </c>
       <c r="X411">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y411">
         <v>-1</v>
@@ -38397,16 +38397,16 @@
         <v>-1</v>
       </c>
       <c r="AA411">
+        <v>0.925</v>
+      </c>
+      <c r="AB411">
+        <v>-1</v>
+      </c>
+      <c r="AC411">
+        <v>-1</v>
+      </c>
+      <c r="AD411">
         <v>0.825</v>
-      </c>
-      <c r="AB411">
-        <v>-1</v>
-      </c>
-      <c r="AC411">
-        <v>0</v>
-      </c>
-      <c r="AD411">
-        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -39150,7 +39150,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7698685</v>
+        <v>7698355</v>
       </c>
       <c r="C420" t="s">
         <v>29</v>
@@ -39159,10 +39159,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E420" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F420" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -39180,40 +39180,40 @@
         <v>73</v>
       </c>
       <c r="L420">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M420">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N420">
         <v>2.75</v>
       </c>
       <c r="O420">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="P420">
         <v>2.9</v>
       </c>
       <c r="Q420">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R420">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S420">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U420">
         <v>1.75</v>
       </c>
       <c r="V420">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W420">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -39225,16 +39225,16 @@
         <v>-1</v>
       </c>
       <c r="AA420">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB420">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC420">
         <v>-1</v>
       </c>
       <c r="AD420">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="421" spans="1:30">
@@ -39242,7 +39242,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7698690</v>
+        <v>7698685</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -39251,10 +39251,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E421" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F421" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -39272,40 +39272,40 @@
         <v>73</v>
       </c>
       <c r="L421">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M421">
         <v>2.75</v>
       </c>
       <c r="N421">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O421">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="P421">
         <v>2.9</v>
       </c>
       <c r="Q421">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R421">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S421">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T421">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U421">
         <v>1.75</v>
       </c>
       <c r="V421">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W421">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -39317,16 +39317,16 @@
         <v>-1</v>
       </c>
       <c r="AA421">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB421">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC421">
         <v>-1</v>
       </c>
       <c r="AD421">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="422" spans="1:30">
@@ -39334,7 +39334,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7698355</v>
+        <v>7698690</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -39343,10 +39343,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E422" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F422" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -39364,16 +39364,16 @@
         <v>73</v>
       </c>
       <c r="L422">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M422">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N422">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O422">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="P422">
         <v>2.9</v>
@@ -39394,10 +39394,10 @@
         <v>1.75</v>
       </c>
       <c r="V422">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W422">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X422">
         <v>-1</v>
@@ -39418,7 +39418,7 @@
         <v>-1</v>
       </c>
       <c r="AD422">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -40070,7 +40070,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>7698679</v>
+        <v>7698691</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -40079,19 +40079,19 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E430" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F430" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G430">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H430">
         <v>0</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J430">
         <v>0</v>
@@ -40100,43 +40100,43 @@
         <v>72</v>
       </c>
       <c r="L430">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M430">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N430">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O430">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P430">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q430">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="R430">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S430">
+        <v>1.975</v>
+      </c>
+      <c r="T430">
+        <v>1.875</v>
+      </c>
+      <c r="U430">
+        <v>2</v>
+      </c>
+      <c r="V430">
+        <v>1.8</v>
+      </c>
+      <c r="W430">
         <v>2.05</v>
       </c>
-      <c r="T430">
-        <v>1.75</v>
-      </c>
-      <c r="U430">
-        <v>1.75</v>
-      </c>
-      <c r="V430">
-        <v>1.825</v>
-      </c>
-      <c r="W430">
-        <v>1.975</v>
-      </c>
       <c r="X430">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y430">
         <v>-1</v>
@@ -40145,16 +40145,16 @@
         <v>-1</v>
       </c>
       <c r="AA430">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB430">
         <v>-1</v>
       </c>
       <c r="AC430">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD430">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431" spans="1:30">
@@ -40162,7 +40162,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>7698691</v>
+        <v>7698686</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -40171,19 +40171,19 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E431" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F431" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G431">
         <v>4</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J431">
         <v>0</v>
@@ -40192,43 +40192,43 @@
         <v>72</v>
       </c>
       <c r="L431">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M431">
+        <v>2.9</v>
+      </c>
+      <c r="N431">
         <v>3.5</v>
       </c>
-      <c r="N431">
-        <v>4</v>
-      </c>
       <c r="O431">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="P431">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q431">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="R431">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S431">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T431">
         <v>1.875</v>
       </c>
       <c r="U431">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V431">
         <v>1.8</v>
       </c>
       <c r="W431">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X431">
-        <v>0.6659999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="Y431">
         <v>-1</v>
@@ -40237,7 +40237,7 @@
         <v>-1</v>
       </c>
       <c r="AA431">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB431">
         <v>-1</v>
@@ -40254,7 +40254,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>7698686</v>
+        <v>7698679</v>
       </c>
       <c r="C432" t="s">
         <v>29</v>
@@ -40263,19 +40263,19 @@
         <v>45347.83333333334</v>
       </c>
       <c r="E432" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F432" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G432">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J432">
         <v>0</v>
@@ -40293,34 +40293,34 @@
         <v>3.5</v>
       </c>
       <c r="O432">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="P432">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q432">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R432">
         <v>-0.5</v>
       </c>
       <c r="S432">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T432">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U432">
         <v>1.75</v>
       </c>
       <c r="V432">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W432">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X432">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Y432">
         <v>-1</v>
@@ -40329,16 +40329,16 @@
         <v>-1</v>
       </c>
       <c r="AA432">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB432">
         <v>-1</v>
       </c>
       <c r="AC432">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD432">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:30">
@@ -40714,7 +40714,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7698703</v>
+        <v>7698694</v>
       </c>
       <c r="C437" t="s">
         <v>29</v>
@@ -40723,67 +40723,67 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E437" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F437" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K437" t="s">
         <v>73</v>
       </c>
       <c r="L437">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M437">
+        <v>2.875</v>
+      </c>
+      <c r="N437">
+        <v>2.9</v>
+      </c>
+      <c r="O437">
+        <v>2.4</v>
+      </c>
+      <c r="P437">
         <v>3</v>
       </c>
-      <c r="N437">
-        <v>4</v>
-      </c>
-      <c r="O437">
-        <v>2.2</v>
-      </c>
-      <c r="P437">
-        <v>2.875</v>
-      </c>
       <c r="Q437">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="R437">
         <v>-0.25</v>
       </c>
       <c r="S437">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T437">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U437">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V437">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W437">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X437">
         <v>-1</v>
       </c>
       <c r="Y437">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Z437">
         <v>-1</v>
@@ -40792,13 +40792,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB437">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AC437">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AD437">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438" spans="1:30">
@@ -40806,7 +40806,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7698694</v>
+        <v>7698703</v>
       </c>
       <c r="C438" t="s">
         <v>29</v>
@@ -40815,67 +40815,67 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E438" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F438" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K438" t="s">
         <v>73</v>
       </c>
       <c r="L438">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M438">
+        <v>3</v>
+      </c>
+      <c r="N438">
+        <v>4</v>
+      </c>
+      <c r="O438">
+        <v>2.2</v>
+      </c>
+      <c r="P438">
         <v>2.875</v>
       </c>
-      <c r="N438">
-        <v>2.9</v>
-      </c>
-      <c r="O438">
-        <v>2.4</v>
-      </c>
-      <c r="P438">
-        <v>3</v>
-      </c>
       <c r="Q438">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="R438">
         <v>-0.25</v>
       </c>
       <c r="S438">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T438">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U438">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V438">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W438">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Z438">
         <v>-1</v>
@@ -40884,13 +40884,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB438">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AC438">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
       <c r="AD438">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="439" spans="1:30">
@@ -40898,7 +40898,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7698556</v>
+        <v>7698693</v>
       </c>
       <c r="C439" t="s">
         <v>29</v>
@@ -40907,82 +40907,82 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E439" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F439" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439">
         <v>0</v>
       </c>
       <c r="J439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K439" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L439">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M439">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N439">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="O439">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P439">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q439">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="R439">
         <v>-0.5</v>
       </c>
       <c r="S439">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T439">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U439">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V439">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W439">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z439">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
         <v>-1</v>
       </c>
       <c r="AB439">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC439">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD439">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="440" spans="1:30">
@@ -40990,7 +40990,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7698693</v>
+        <v>7698556</v>
       </c>
       <c r="C440" t="s">
         <v>29</v>
@@ -40999,82 +40999,82 @@
         <v>45353.70833333334</v>
       </c>
       <c r="E440" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F440" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440">
         <v>0</v>
       </c>
       <c r="J440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K440" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L440">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M440">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N440">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="O440">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P440">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q440">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="R440">
         <v>-0.5</v>
       </c>
       <c r="S440">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T440">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U440">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V440">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W440">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="AA440">
         <v>-1</v>
       </c>
       <c r="AB440">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC440">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD440">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:30">
@@ -41266,7 +41266,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7702204</v>
+        <v>7698696</v>
       </c>
       <c r="C443" t="s">
         <v>29</v>
@@ -41275,82 +41275,82 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E443" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F443" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G443">
         <v>1</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
         <v>0</v>
       </c>
       <c r="J443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K443" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L443">
+        <v>1.909</v>
+      </c>
+      <c r="M443">
+        <v>3.1</v>
+      </c>
+      <c r="N443">
+        <v>4.333</v>
+      </c>
+      <c r="O443">
+        <v>1.95</v>
+      </c>
+      <c r="P443">
+        <v>3.1</v>
+      </c>
+      <c r="Q443">
+        <v>4.75</v>
+      </c>
+      <c r="R443">
+        <v>-0.5</v>
+      </c>
+      <c r="S443">
+        <v>1.925</v>
+      </c>
+      <c r="T443">
+        <v>1.875</v>
+      </c>
+      <c r="U443">
+        <v>2</v>
+      </c>
+      <c r="V443">
+        <v>2</v>
+      </c>
+      <c r="W443">
         <v>1.8</v>
       </c>
-      <c r="M443">
-        <v>3.2</v>
-      </c>
-      <c r="N443">
-        <v>4.5</v>
-      </c>
-      <c r="O443">
-        <v>2.2</v>
-      </c>
-      <c r="P443">
-        <v>3</v>
-      </c>
-      <c r="Q443">
-        <v>3.8</v>
-      </c>
-      <c r="R443">
-        <v>-0.25</v>
-      </c>
-      <c r="S443">
-        <v>1.825</v>
-      </c>
-      <c r="T443">
-        <v>1.975</v>
-      </c>
-      <c r="U443">
-        <v>1.75</v>
-      </c>
-      <c r="V443">
-        <v>1.75</v>
-      </c>
-      <c r="W443">
-        <v>2.05</v>
-      </c>
       <c r="X443">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD443">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:30">
@@ -41358,7 +41358,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7698701</v>
+        <v>7702205</v>
       </c>
       <c r="C444" t="s">
         <v>29</v>
@@ -41367,16 +41367,16 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E444" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F444" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G444">
         <v>0</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444">
         <v>0</v>
@@ -41385,64 +41385,64 @@
         <v>0</v>
       </c>
       <c r="K444" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L444">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M444">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N444">
         <v>4.5</v>
       </c>
       <c r="O444">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="P444">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q444">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="R444">
         <v>-0.75</v>
       </c>
       <c r="S444">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T444">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U444">
         <v>2</v>
       </c>
       <c r="V444">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W444">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA444">
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC444">
         <v>-1</v>
       </c>
       <c r="AD444">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="445" spans="1:30">
@@ -41450,7 +41450,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698700</v>
+        <v>7698701</v>
       </c>
       <c r="C445" t="s">
         <v>29</v>
@@ -41459,10 +41459,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E445" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F445" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -41480,61 +41480,61 @@
         <v>73</v>
       </c>
       <c r="L445">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M445">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N445">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O445">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P445">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q445">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R445">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S445">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T445">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U445">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V445">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W445">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z445">
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC445">
         <v>-1</v>
       </c>
       <c r="AD445">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="446" spans="1:30">
@@ -41542,7 +41542,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698697</v>
+        <v>7698700</v>
       </c>
       <c r="C446" t="s">
         <v>29</v>
@@ -41551,55 +41551,55 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E446" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F446" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K446" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L446">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M446">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N446">
+        <v>4</v>
+      </c>
+      <c r="O446">
+        <v>2.1</v>
+      </c>
+      <c r="P446">
+        <v>2.8</v>
+      </c>
+      <c r="Q446">
         <v>4.5</v>
       </c>
-      <c r="O446">
-        <v>1.8</v>
-      </c>
-      <c r="P446">
-        <v>3.3</v>
-      </c>
-      <c r="Q446">
-        <v>5.25</v>
-      </c>
       <c r="R446">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S446">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T446">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U446">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V446">
         <v>1.8</v>
@@ -41611,22 +41611,22 @@
         <v>-1</v>
       </c>
       <c r="Y446">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z446">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA446">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB446">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC446">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD446">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:30">
@@ -41634,7 +41634,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7702205</v>
+        <v>7698697</v>
       </c>
       <c r="C447" t="s">
         <v>29</v>
@@ -41643,22 +41643,22 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E447" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F447" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K447" t="s">
         <v>74</v>
@@ -41673,31 +41673,31 @@
         <v>4.5</v>
       </c>
       <c r="O447">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P447">
         <v>3.3</v>
       </c>
       <c r="Q447">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="R447">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S447">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T447">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U447">
         <v>2</v>
       </c>
       <c r="V447">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W447">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X447">
         <v>-1</v>
@@ -41706,19 +41706,19 @@
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AA447">
         <v>-1</v>
       </c>
       <c r="AB447">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC447">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD447">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:30">
@@ -41726,7 +41726,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7698692</v>
+        <v>7702204</v>
       </c>
       <c r="C448" t="s">
         <v>29</v>
@@ -41735,16 +41735,16 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E448" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F448" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G448">
         <v>1</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448">
         <v>0</v>
@@ -41753,64 +41753,64 @@
         <v>0</v>
       </c>
       <c r="K448" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L448">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M448">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N448">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O448">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P448">
         <v>3</v>
       </c>
       <c r="Q448">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R448">
         <v>-0.25</v>
       </c>
       <c r="S448">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T448">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U448">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V448">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W448">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="X448">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y448">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
         <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB448">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD448">
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="449" spans="1:30">
@@ -41818,7 +41818,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7698696</v>
+        <v>7698692</v>
       </c>
       <c r="C449" t="s">
         <v>29</v>
@@ -41827,10 +41827,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E449" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F449" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -41842,61 +41842,61 @@
         <v>0</v>
       </c>
       <c r="J449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K449" t="s">
         <v>73</v>
       </c>
       <c r="L449">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M449">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N449">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O449">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="P449">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q449">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="R449">
+        <v>-0.25</v>
+      </c>
+      <c r="S449">
+        <v>2.025</v>
+      </c>
+      <c r="T449">
+        <v>1.825</v>
+      </c>
+      <c r="U449">
+        <v>2</v>
+      </c>
+      <c r="V449">
+        <v>2.1</v>
+      </c>
+      <c r="W449">
+        <v>1.775</v>
+      </c>
+      <c r="X449">
+        <v>-1</v>
+      </c>
+      <c r="Y449">
+        <v>2</v>
+      </c>
+      <c r="Z449">
+        <v>-1</v>
+      </c>
+      <c r="AA449">
         <v>-0.5</v>
       </c>
-      <c r="S449">
-        <v>1.925</v>
-      </c>
-      <c r="T449">
-        <v>1.875</v>
-      </c>
-      <c r="U449">
-        <v>2</v>
-      </c>
-      <c r="V449">
-        <v>2</v>
-      </c>
-      <c r="W449">
-        <v>1.8</v>
-      </c>
-      <c r="X449">
-        <v>-1</v>
-      </c>
-      <c r="Y449">
-        <v>2.1</v>
-      </c>
-      <c r="Z449">
-        <v>-1</v>
-      </c>
-      <c r="AA449">
-        <v>-1</v>
-      </c>
       <c r="AB449">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC449">
         <v>0</v>
@@ -43290,7 +43290,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7698710</v>
+        <v>7698705</v>
       </c>
       <c r="C465" t="s">
         <v>29</v>
@@ -43299,82 +43299,82 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E465" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F465" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G465">
         <v>2</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465">
         <v>1</v>
       </c>
       <c r="J465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K465" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L465">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="M465">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N465">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O465">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P465">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q465">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R465">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S465">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T465">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U465">
         <v>1.75</v>
       </c>
       <c r="V465">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W465">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X465">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y465">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z465">
         <v>-1</v>
       </c>
       <c r="AA465">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC465">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD465">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466" spans="1:30">
@@ -43382,7 +43382,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698705</v>
+        <v>7698710</v>
       </c>
       <c r="C466" t="s">
         <v>29</v>
@@ -43391,82 +43391,82 @@
         <v>45361.70833333334</v>
       </c>
       <c r="E466" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F466" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G466">
         <v>2</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466">
         <v>1</v>
       </c>
       <c r="J466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K466" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L466">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="M466">
+        <v>2.75</v>
+      </c>
+      <c r="N466">
+        <v>2.875</v>
+      </c>
+      <c r="O466">
+        <v>2.75</v>
+      </c>
+      <c r="P466">
+        <v>2.8</v>
+      </c>
+      <c r="Q466">
         <v>3</v>
       </c>
-      <c r="N466">
-        <v>3.6</v>
-      </c>
-      <c r="O466">
-        <v>2.375</v>
-      </c>
-      <c r="P466">
-        <v>3</v>
-      </c>
-      <c r="Q466">
-        <v>3.4</v>
-      </c>
       <c r="R466">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S466">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T466">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U466">
         <v>1.75</v>
       </c>
       <c r="V466">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W466">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X466">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y466">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z466">
         <v>-1</v>
       </c>
       <c r="AA466">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB466">
+        <v>-1</v>
+      </c>
+      <c r="AC466">
+        <v>0.45</v>
+      </c>
+      <c r="AD466">
         <v>-0.5</v>
-      </c>
-      <c r="AB466">
-        <v>0.4375</v>
-      </c>
-      <c r="AC466">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AD466">
-        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:30">
@@ -44854,7 +44854,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7698720</v>
+        <v>7698723</v>
       </c>
       <c r="C482" t="s">
         <v>29</v>
@@ -44863,10 +44863,10 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E482" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F482" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G482">
         <v>0</v>
@@ -44884,46 +44884,46 @@
         <v>73</v>
       </c>
       <c r="L482">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="M482">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N482">
         <v>4</v>
       </c>
       <c r="O482">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P482">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q482">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="R482">
         <v>-0.25</v>
       </c>
       <c r="S482">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T482">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U482">
         <v>1.75</v>
       </c>
       <c r="V482">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W482">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X482">
         <v>-1</v>
       </c>
       <c r="Y482">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Z482">
         <v>-1</v>
@@ -44932,13 +44932,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB482">
-        <v>0.4875</v>
+        <v>0.5</v>
       </c>
       <c r="AC482">
         <v>-1</v>
       </c>
       <c r="AD482">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="483" spans="1:30">
@@ -44946,7 +44946,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7947447</v>
+        <v>7698720</v>
       </c>
       <c r="C483" t="s">
         <v>29</v>
@@ -44955,22 +44955,22 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E483" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F483" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483">
         <v>0</v>
       </c>
       <c r="J483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K483" t="s">
         <v>73</v>
@@ -44979,37 +44979,37 @@
         <v>2.1</v>
       </c>
       <c r="M483">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N483">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O483">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P483">
         <v>2.8</v>
       </c>
       <c r="Q483">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R483">
         <v>-0.25</v>
       </c>
       <c r="S483">
+        <v>1.825</v>
+      </c>
+      <c r="T483">
         <v>1.975</v>
       </c>
-      <c r="T483">
-        <v>1.825</v>
-      </c>
       <c r="U483">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V483">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W483">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X483">
         <v>-1</v>
@@ -45024,13 +45024,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB483">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AC483">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD483">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="484" spans="1:30">
@@ -45038,7 +45038,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7698723</v>
+        <v>7947447</v>
       </c>
       <c r="C484" t="s">
         <v>29</v>
@@ -45047,67 +45047,67 @@
         <v>45368.66666666666</v>
       </c>
       <c r="E484" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F484" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484">
         <v>0</v>
       </c>
       <c r="J484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K484" t="s">
         <v>73</v>
       </c>
       <c r="L484">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="M484">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N484">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O484">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="P484">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q484">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="R484">
         <v>-0.25</v>
       </c>
       <c r="S484">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T484">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U484">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V484">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W484">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z484">
         <v>-1</v>
@@ -45116,13 +45116,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB484">
-        <v>0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AC484">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD484">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:30">
@@ -47982,7 +47982,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>7698569</v>
+        <v>7698747</v>
       </c>
       <c r="C516" t="s">
         <v>29</v>
@@ -47991,16 +47991,16 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E516" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F516" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G516">
         <v>1</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516">
         <v>0</v>
@@ -48009,37 +48009,37 @@
         <v>0</v>
       </c>
       <c r="K516" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L516">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="M516">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N516">
+        <v>2.75</v>
+      </c>
+      <c r="O516">
+        <v>2.8</v>
+      </c>
+      <c r="P516">
+        <v>2.75</v>
+      </c>
+      <c r="Q516">
         <v>3</v>
       </c>
-      <c r="O516">
-        <v>2.9</v>
-      </c>
-      <c r="P516">
-        <v>3</v>
-      </c>
-      <c r="Q516">
-        <v>2.7</v>
-      </c>
       <c r="R516">
         <v>0</v>
       </c>
       <c r="S516">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T516">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U516">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V516">
         <v>1.825</v>
@@ -48048,25 +48048,25 @@
         <v>2.025</v>
       </c>
       <c r="X516">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y516">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z516">
         <v>-1</v>
       </c>
       <c r="AA516">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB516">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD516">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="517" spans="1:30">
@@ -48074,7 +48074,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>7698747</v>
+        <v>7698569</v>
       </c>
       <c r="C517" t="s">
         <v>29</v>
@@ -48083,16 +48083,16 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E517" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F517" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G517">
         <v>1</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I517">
         <v>0</v>
@@ -48101,37 +48101,37 @@
         <v>0</v>
       </c>
       <c r="K517" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L517">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="M517">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N517">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O517">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P517">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q517">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R517">
         <v>0</v>
       </c>
       <c r="S517">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T517">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U517">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V517">
         <v>1.825</v>
@@ -48140,25 +48140,25 @@
         <v>2.025</v>
       </c>
       <c r="X517">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y517">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z517">
         <v>-1</v>
       </c>
       <c r="AA517">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB517">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC517">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD517">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:30">
@@ -48350,7 +48350,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>7698745</v>
+        <v>7698350</v>
       </c>
       <c r="C520" t="s">
         <v>29</v>
@@ -48359,16 +48359,16 @@
         <v>45382.66666666666</v>
       </c>
       <c r="E520" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F520" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I520">
         <v>0</v>
@@ -48380,61 +48380,61 @@
         <v>73</v>
       </c>
       <c r="L520">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="M520">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N520">
         <v>4</v>
       </c>
       <c r="O520">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="P520">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q520">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="R520">
+        <v>-0.25</v>
+      </c>
+      <c r="S520">
+        <v>1.8</v>
+      </c>
+      <c r="T520">
+        <v>2.05</v>
+      </c>
+      <c r="U520">
+        <v>1.5</v>
+      </c>
+      <c r="V520">
+        <v>1.8</v>
+      </c>
+      <c r="W520">
+        <v>2.05</v>
+      </c>
+      <c r="X520">
+        <v>-1</v>
+      </c>
+      <c r="Y520">
+        <v>1.8</v>
+      </c>
+      <c r="Z520">
+        <v>-1</v>
+      </c>
+      <c r="AA520">
         <v>-0.5</v>
       </c>
-      <c r="S520">
-        <v>1.875</v>
-      </c>
-      <c r="T520">
-        <v>1.925</v>
-      </c>
-      <c r="U520">
-        <v>1.75</v>
-      </c>
-      <c r="V520">
-        <v>1.775</v>
-      </c>
-      <c r="W520">
-        <v>2.025</v>
-      </c>
-      <c r="X520">
-        <v>-1</v>
-      </c>
-      <c r="Y520">
-        <v>2.1</v>
-      </c>
-      <c r="Z520">
-        <v>-1</v>
-      </c>
-      <c r="AA520">
-        <v>-1</v>
-      </c>
       <c r="AB520">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC520">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD520">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521" spans="1:30">
@@ -48442,7 +48442,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7698350</v>
+        <v>7698745</v>
       </c>
       <c r="C521" t="s">
         <v>29</v>
@@ -48451,16 +48451,16 @@
         <v>45382.66666666666</v>
       </c>
       <c r="E521" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F521" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521">
         <v>0</v>
@@ -48472,61 +48472,61 @@
         <v>73</v>
       </c>
       <c r="L521">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="M521">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N521">
         <v>4</v>
       </c>
       <c r="O521">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="P521">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q521">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="R521">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S521">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T521">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U521">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V521">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W521">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z521">
         <v>-1</v>
       </c>
       <c r="AA521">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC521">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD521">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="522" spans="1:30">
@@ -49638,7 +49638,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>7698764</v>
+        <v>7698761</v>
       </c>
       <c r="C534" t="s">
         <v>29</v>
@@ -49647,82 +49647,82 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E534" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F534" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G534">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K534" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L534">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="M534">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N534">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O534">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P534">
         <v>3.1</v>
       </c>
       <c r="Q534">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R534">
+        <v>-0.25</v>
+      </c>
+      <c r="S534">
+        <v>1.75</v>
+      </c>
+      <c r="T534">
+        <v>2.05</v>
+      </c>
+      <c r="U534">
+        <v>1.75</v>
+      </c>
+      <c r="V534">
+        <v>1.975</v>
+      </c>
+      <c r="W534">
+        <v>1.825</v>
+      </c>
+      <c r="X534">
+        <v>-1</v>
+      </c>
+      <c r="Y534">
+        <v>2.1</v>
+      </c>
+      <c r="Z534">
+        <v>-1</v>
+      </c>
+      <c r="AA534">
         <v>-0.5</v>
       </c>
-      <c r="S534">
-        <v>2</v>
-      </c>
-      <c r="T534">
-        <v>1.8</v>
-      </c>
-      <c r="U534">
-        <v>2</v>
-      </c>
-      <c r="V534">
-        <v>2</v>
-      </c>
-      <c r="W534">
-        <v>1.8</v>
-      </c>
-      <c r="X534">
-        <v>0.95</v>
-      </c>
-      <c r="Y534">
-        <v>-1</v>
-      </c>
-      <c r="Z534">
-        <v>-1</v>
-      </c>
-      <c r="AA534">
-        <v>1</v>
-      </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC534">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AD534">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="535" spans="1:30">
@@ -49730,7 +49730,7 @@
         <v>533</v>
       </c>
       <c r="B535">
-        <v>7698761</v>
+        <v>7698764</v>
       </c>
       <c r="C535" t="s">
         <v>29</v>
@@ -49739,82 +49739,82 @@
         <v>45388.64583333334</v>
       </c>
       <c r="E535" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F535" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G535">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K535" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L535">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M535">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N535">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="O535">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P535">
         <v>3.1</v>
       </c>
       <c r="Q535">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R535">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S535">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T535">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U535">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V535">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W535">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X535">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y535">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z535">
         <v>-1</v>
       </c>
       <c r="AA535">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB535">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC535">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AD535">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:30">
@@ -53956,7 +53956,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>7698347</v>
+        <v>7698785</v>
       </c>
       <c r="C581" t="s">
         <v>29</v>
@@ -53965,10 +53965,10 @@
         <v>45403.66666666666</v>
       </c>
       <c r="E581" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F581" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -53986,46 +53986,46 @@
         <v>73</v>
       </c>
       <c r="L581">
+        <v>2.1</v>
+      </c>
+      <c r="M581">
+        <v>3</v>
+      </c>
+      <c r="N581">
+        <v>3.5</v>
+      </c>
+      <c r="O581">
         <v>2.3</v>
       </c>
-      <c r="M581">
-        <v>2.75</v>
-      </c>
-      <c r="N581">
-        <v>3.2</v>
-      </c>
-      <c r="O581">
-        <v>2.15</v>
-      </c>
       <c r="P581">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q581">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="R581">
         <v>-0.25</v>
       </c>
       <c r="S581">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T581">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U581">
+        <v>2</v>
+      </c>
+      <c r="V581">
+        <v>2.05</v>
+      </c>
+      <c r="W581">
         <v>1.75</v>
       </c>
-      <c r="V581">
-        <v>1.925</v>
-      </c>
-      <c r="W581">
-        <v>1.875</v>
-      </c>
       <c r="X581">
         <v>-1</v>
       </c>
       <c r="Y581">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Z581">
         <v>-1</v>
@@ -54034,13 +54034,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB581">
-        <v>0.5125</v>
+        <v>0.425</v>
       </c>
       <c r="AC581">
         <v>-1</v>
       </c>
       <c r="AD581">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="582" spans="1:30">
@@ -54048,7 +54048,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>7698785</v>
+        <v>7698347</v>
       </c>
       <c r="C582" t="s">
         <v>29</v>
@@ -54057,10 +54057,10 @@
         <v>45403.66666666666</v>
       </c>
       <c r="E582" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F582" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -54078,46 +54078,46 @@
         <v>73</v>
       </c>
       <c r="L582">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M582">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N582">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O582">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P582">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q582">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="R582">
         <v>-0.25</v>
       </c>
       <c r="S582">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T582">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U582">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V582">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W582">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X582">
         <v>-1</v>
       </c>
       <c r="Y582">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="Z582">
         <v>-1</v>
@@ -54126,13 +54126,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB582">
-        <v>0.425</v>
+        <v>0.5125</v>
       </c>
       <c r="AC582">
         <v>-1</v>
       </c>
       <c r="AD582">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="583" spans="1:30">
@@ -54324,7 +54324,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>7698788</v>
+        <v>7698779</v>
       </c>
       <c r="C585" t="s">
         <v>29</v>
@@ -54333,82 +54333,82 @@
         <v>45404.625</v>
       </c>
       <c r="E585" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F585" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G585">
         <v>1</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585">
         <v>0</v>
       </c>
       <c r="J585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K585" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L585">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="M585">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N585">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O585">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P585">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q585">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R585">
         <v>-0.25</v>
       </c>
       <c r="S585">
+        <v>1.95</v>
+      </c>
+      <c r="T585">
         <v>1.85</v>
-      </c>
-      <c r="T585">
-        <v>1.95</v>
       </c>
       <c r="U585">
         <v>1.75</v>
       </c>
       <c r="V585">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W585">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="X585">
         <v>-1</v>
       </c>
       <c r="Y585">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z585">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA585">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB585">
-        <v>0.95</v>
+        <v>0.425</v>
       </c>
       <c r="AC585">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AD585">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="586" spans="1:30">
@@ -54416,7 +54416,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>7698779</v>
+        <v>7698788</v>
       </c>
       <c r="C586" t="s">
         <v>29</v>
@@ -54425,82 +54425,82 @@
         <v>45404.625</v>
       </c>
       <c r="E586" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F586" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G586">
         <v>1</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586">
         <v>0</v>
       </c>
       <c r="J586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K586" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L586">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="M586">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N586">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O586">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P586">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q586">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R586">
         <v>-0.25</v>
       </c>
       <c r="S586">
+        <v>1.85</v>
+      </c>
+      <c r="T586">
         <v>1.95</v>
-      </c>
-      <c r="T586">
-        <v>1.85</v>
       </c>
       <c r="U586">
         <v>1.75</v>
       </c>
       <c r="V586">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W586">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X586">
         <v>-1</v>
       </c>
       <c r="Y586">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z586">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA586">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB586">
-        <v>0.425</v>
+        <v>0.95</v>
       </c>
       <c r="AC586">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AD586">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="587" spans="1:30">
@@ -60488,7 +60488,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>8215004</v>
+        <v>8215010</v>
       </c>
       <c r="C652" t="s">
         <v>29</v>
@@ -60497,10 +60497,10 @@
         <v>45431.625</v>
       </c>
       <c r="E652" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F652" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G652">
         <v>0</v>
@@ -60518,40 +60518,40 @@
         <v>74</v>
       </c>
       <c r="L652">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M652">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N652">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O652">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="P652">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q652">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R652">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S652">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T652">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U652">
         <v>1.75</v>
       </c>
       <c r="V652">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W652">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X652">
         <v>-1</v>
@@ -60560,16 +60560,16 @@
         <v>-1</v>
       </c>
       <c r="Z652">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AA652">
         <v>-1</v>
       </c>
       <c r="AB652">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC652">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AD652">
         <v>-0.5</v>
@@ -60580,7 +60580,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>8215010</v>
+        <v>8215004</v>
       </c>
       <c r="C653" t="s">
         <v>29</v>
@@ -60589,10 +60589,10 @@
         <v>45431.625</v>
       </c>
       <c r="E653" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F653" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G653">
         <v>0</v>
@@ -60610,40 +60610,40 @@
         <v>74</v>
       </c>
       <c r="L653">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M653">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N653">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O653">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="P653">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q653">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R653">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S653">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T653">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U653">
         <v>1.75</v>
       </c>
       <c r="V653">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W653">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X653">
         <v>-1</v>
@@ -60652,16 +60652,16 @@
         <v>-1</v>
       </c>
       <c r="Z653">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AA653">
         <v>-1</v>
       </c>
       <c r="AB653">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC653">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AD653">
         <v>-0.5</v>

--- a/Argentina Nacional B/Argentina Nacional B.xlsx
+++ b/Argentina Nacional B/Argentina Nacional B.xlsx
@@ -4104,7 +4104,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6150462</v>
+        <v>6150541</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4113,82 +4113,82 @@
         <v>45095.64583333334</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L39">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O39">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q39">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="R39">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U39">
         <v>2</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4196,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6150541</v>
+        <v>6150462</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4205,82 +4205,82 @@
         <v>45095.64583333334</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="N40">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="P40">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U40">
         <v>2</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X40">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC40">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -7600,7 +7600,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6150697</v>
+        <v>6150467</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7609,19 +7609,19 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -7630,43 +7630,43 @@
         <v>72</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
         <v>3.5</v>
       </c>
       <c r="O77">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q77">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="R77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T77">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X77">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
@@ -7675,16 +7675,16 @@
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD77">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7692,7 +7692,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6150467</v>
+        <v>6150697</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7701,19 +7701,19 @@
         <v>45109.70833333334</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -7722,43 +7722,43 @@
         <v>72</v>
       </c>
       <c r="L78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
         <v>3.5</v>
       </c>
       <c r="O78">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="P78">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="R78">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X78">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y78">
         <v>-1</v>
@@ -7767,16 +7767,16 @@
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -8612,7 +8612,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6150704</v>
+        <v>6870414</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8621,61 +8621,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="s">
         <v>74</v>
       </c>
       <c r="L88">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="P88">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="R88">
         <v>-0.25</v>
       </c>
       <c r="S88">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U88">
         <v>2</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8684,19 +8684,19 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8704,7 +8704,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6870414</v>
+        <v>6150704</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8713,61 +8713,61 @@
         <v>45115.64583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
         <v>74</v>
       </c>
       <c r="L89">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
+        <v>2.875</v>
+      </c>
+      <c r="O89">
+        <v>2.5</v>
+      </c>
+      <c r="P89">
+        <v>2.875</v>
+      </c>
+      <c r="Q89">
         <v>3.3</v>
-      </c>
-      <c r="O89">
-        <v>2.25</v>
-      </c>
-      <c r="P89">
-        <v>3</v>
-      </c>
-      <c r="Q89">
-        <v>3.6</v>
       </c>
       <c r="R89">
         <v>-0.25</v>
       </c>
       <c r="S89">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U89">
         <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8776,19 +8776,19 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -10728,7 +10728,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6903679</v>
+        <v>6150882</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10737,10 +10737,10 @@
         <v>45123.64583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10758,46 +10758,46 @@
         <v>73</v>
       </c>
       <c r="L111">
+        <v>1.5</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>1.533</v>
+      </c>
+      <c r="P111">
+        <v>4</v>
+      </c>
+      <c r="Q111">
+        <v>6.5</v>
+      </c>
+      <c r="R111">
+        <v>-1</v>
+      </c>
+      <c r="S111">
+        <v>1.95</v>
+      </c>
+      <c r="T111">
+        <v>1.85</v>
+      </c>
+      <c r="U111">
+        <v>2.25</v>
+      </c>
+      <c r="V111">
+        <v>2</v>
+      </c>
+      <c r="W111">
         <v>1.8</v>
       </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>4</v>
-      </c>
-      <c r="O111">
-        <v>1.909</v>
-      </c>
-      <c r="P111">
-        <v>3.3</v>
-      </c>
-      <c r="Q111">
-        <v>4.5</v>
-      </c>
-      <c r="R111">
-        <v>-0.5</v>
-      </c>
-      <c r="S111">
-        <v>1.9</v>
-      </c>
-      <c r="T111">
-        <v>1.95</v>
-      </c>
-      <c r="U111">
-        <v>2</v>
-      </c>
-      <c r="V111">
-        <v>1.875</v>
-      </c>
-      <c r="W111">
-        <v>1.975</v>
-      </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10806,13 +10806,13 @@
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
       </c>
       <c r="AD111">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -10820,7 +10820,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6150882</v>
+        <v>6903679</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -10829,10 +10829,10 @@
         <v>45123.64583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -10850,46 +10850,46 @@
         <v>73</v>
       </c>
       <c r="L112">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M112">
+        <v>3.2</v>
+      </c>
+      <c r="N112">
         <v>4</v>
       </c>
-      <c r="N112">
-        <v>5</v>
-      </c>
       <c r="O112">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="P112">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q112">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="R112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S112">
+        <v>1.9</v>
+      </c>
+      <c r="T112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>1.85</v>
-      </c>
       <c r="U112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Z112">
         <v>-1</v>
@@ -10898,13 +10898,13 @@
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
         <v>-1</v>
       </c>
       <c r="AD112">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -12200,7 +12200,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6150711</v>
+        <v>6150557</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12209,19 +12209,19 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12230,40 +12230,40 @@
         <v>74</v>
       </c>
       <c r="L127">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M127">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O127">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q127">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="R127">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U127">
         <v>1.75</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W127">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -12272,19 +12272,19 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD127">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12384,7 +12384,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6150557</v>
+        <v>6150711</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12393,19 +12393,19 @@
         <v>45130.64583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -12414,40 +12414,40 @@
         <v>74</v>
       </c>
       <c r="L129">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="M129">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q129">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="R129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U129">
         <v>1.75</v>
       </c>
       <c r="V129">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12456,19 +12456,19 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC129">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -15512,7 +15512,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6150563</v>
+        <v>6150900</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15521,19 +15521,19 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E163" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -15542,43 +15542,43 @@
         <v>72</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q163">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U163">
         <v>2</v>
       </c>
       <c r="V163">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W163">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X163">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15587,16 +15587,16 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15604,7 +15604,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6150900</v>
+        <v>6150563</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15613,19 +15613,19 @@
         <v>45144.66666666666</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -15634,43 +15634,43 @@
         <v>72</v>
       </c>
       <c r="L164">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P164">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U164">
         <v>2</v>
       </c>
       <c r="V164">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X164">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
@@ -15679,16 +15679,16 @@
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD164">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -16708,7 +16708,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6150487</v>
+        <v>6150730</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16717,82 +16717,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q176">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="R176">
         <v>-0.5</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y176">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
       </c>
       <c r="AD176">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16800,7 +16800,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6150730</v>
+        <v>6150487</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16809,82 +16809,82 @@
         <v>45153.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>2.3</v>
+      </c>
+      <c r="O177">
+        <v>1.85</v>
+      </c>
+      <c r="P177">
         <v>3.3</v>
       </c>
-      <c r="O177">
-        <v>2.05</v>
-      </c>
-      <c r="P177">
-        <v>3.2</v>
-      </c>
       <c r="Q177">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R177">
         <v>-0.5</v>
       </c>
       <c r="S177">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
       </c>
       <c r="AD177">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -19284,7 +19284,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7095668</v>
+        <v>7105149</v>
       </c>
       <c r="C204" t="s">
         <v>29</v>
@@ -19293,82 +19293,82 @@
         <v>45164.64583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F204" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204">
         <v>0</v>
       </c>
       <c r="K204" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L204">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="M204">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="O204">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="P204">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q204">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="R204">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S204">
+        <v>2</v>
+      </c>
+      <c r="T204">
         <v>1.8</v>
       </c>
-      <c r="T204">
-        <v>2.05</v>
-      </c>
       <c r="U204">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19376,7 +19376,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7105149</v>
+        <v>7095668</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19385,82 +19385,82 @@
         <v>45164.64583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F205" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G205">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L205">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N205">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="O205">
+        <v>4.2</v>
+      </c>
+      <c r="P205">
+        <v>3</v>
+      </c>
+      <c r="Q205">
+        <v>2.05</v>
+      </c>
+      <c r="R205">
+        <v>0.5</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>2.05</v>
+      </c>
+      <c r="U205">
         <v>1.75</v>
       </c>
-      <c r="P205">
-        <v>3.5</v>
-      </c>
-      <c r="Q205">
-        <v>5</v>
-      </c>
-      <c r="R205">
-        <v>-0.75</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
+      <c r="V205">
         <v>1.8</v>
       </c>
-      <c r="U205">
-        <v>2</v>
-      </c>
-      <c r="V205">
-        <v>1.9</v>
-      </c>
       <c r="W205">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X205">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -29772,7 +29772,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6359296</v>
+        <v>6323477</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -29781,16 +29781,16 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E318" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F318" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -29802,61 +29802,61 @@
         <v>73</v>
       </c>
       <c r="L318">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="M318">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N318">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O318">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="P318">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q318">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S318">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U318">
         <v>2</v>
       </c>
       <c r="V318">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W318">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Z318">
         <v>-1</v>
       </c>
       <c r="AA318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD318">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -29864,7 +29864,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6330566</v>
+        <v>6359296</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -29873,82 +29873,82 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E319" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F319" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319">
         <v>0</v>
       </c>
       <c r="J319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K319" t="s">
         <v>73</v>
       </c>
       <c r="L319">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="M319">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="P319">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q319">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R319">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S319">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T319">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V319">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z319">
         <v>-1</v>
       </c>
       <c r="AA319">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB319">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AC319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD319">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -29956,7 +29956,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6323477</v>
+        <v>6330566</v>
       </c>
       <c r="C320" t="s">
         <v>29</v>
@@ -29965,10 +29965,10 @@
         <v>45207.64583333334</v>
       </c>
       <c r="E320" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F320" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G320">
         <v>1</v>
@@ -29980,67 +29980,67 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" t="s">
         <v>73</v>
       </c>
       <c r="L320">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M320">
         <v>3.2</v>
       </c>
       <c r="N320">
+        <v>1.727</v>
+      </c>
+      <c r="O320">
+        <v>3.1</v>
+      </c>
+      <c r="P320">
         <v>3.2</v>
       </c>
-      <c r="O320">
-        <v>1.909</v>
-      </c>
-      <c r="P320">
-        <v>3.3</v>
-      </c>
       <c r="Q320">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R320">
+        <v>0.25</v>
+      </c>
+      <c r="S320">
+        <v>1.775</v>
+      </c>
+      <c r="T320">
+        <v>2.025</v>
+      </c>
+      <c r="U320">
+        <v>2.25</v>
+      </c>
+      <c r="V320">
+        <v>1.9</v>
+      </c>
+      <c r="W320">
+        <v>1.9</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>2.2</v>
+      </c>
+      <c r="Z320">
+        <v>-1</v>
+      </c>
+      <c r="AA320">
+        <v>0.3875</v>
+      </c>
+      <c r="AB320">
         <v>-0.5</v>
       </c>
-      <c r="S320">
-        <v>1.825</v>
-      </c>
-      <c r="T320">
-        <v>1.975</v>
-      </c>
-      <c r="U320">
-        <v>2</v>
-      </c>
-      <c r="V320">
-        <v>1.775</v>
-      </c>
-      <c r="W320">
-        <v>2.025</v>
-      </c>
-      <c r="X320">
-        <v>-1</v>
-      </c>
-      <c r="Y320">
-        <v>2.3</v>
-      </c>
-      <c r="Z320">
-        <v>-1</v>
-      </c>
-      <c r="AA320">
-        <v>-1</v>
-      </c>
-      <c r="AB320">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC320">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD320">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="321" spans="1:30">
@@ -30416,7 +30416,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7323533</v>
+        <v>6356449</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
@@ -30425,16 +30425,16 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E325" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F325" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G325">
         <v>0</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -30443,64 +30443,64 @@
         <v>0</v>
       </c>
       <c r="K325" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L325">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M325">
         <v>3.2</v>
       </c>
       <c r="N325">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O325">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="P325">
         <v>3.1</v>
       </c>
       <c r="Q325">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="R325">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S325">
-        <v>2.125</v>
+        <v>1.775</v>
       </c>
       <c r="T325">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U325">
         <v>2.25</v>
       </c>
       <c r="V325">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W325">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z325">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB325">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
       <c r="AC325">
         <v>-1</v>
       </c>
       <c r="AD325">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="326" spans="1:30">
@@ -30600,7 +30600,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7323531</v>
+        <v>7323533</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -30609,13 +30609,13 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E327" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H327">
         <v>1</v>
@@ -30624,67 +30624,67 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K327" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L327">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M327">
         <v>3.2</v>
       </c>
       <c r="N327">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O327">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P327">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q327">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="R327">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S327">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="T327">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U327">
         <v>2.25</v>
       </c>
       <c r="V327">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W327">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X327">
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="AA327">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC327">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD327">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="328" spans="1:30">
@@ -30692,7 +30692,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6360015</v>
+        <v>7323530</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -30701,25 +30701,25 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F328" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K328" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L328">
         <v>1.8</v>
@@ -30731,49 +30731,49 @@
         <v>4</v>
       </c>
       <c r="O328">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q328">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="R328">
+        <v>-0.75</v>
+      </c>
+      <c r="S328">
+        <v>1.775</v>
+      </c>
+      <c r="T328">
+        <v>2.025</v>
+      </c>
+      <c r="U328">
+        <v>2</v>
+      </c>
+      <c r="V328">
+        <v>1.775</v>
+      </c>
+      <c r="W328">
+        <v>2.025</v>
+      </c>
+      <c r="X328">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Y328">
+        <v>-1</v>
+      </c>
+      <c r="Z328">
+        <v>-1</v>
+      </c>
+      <c r="AA328">
+        <v>0.3875</v>
+      </c>
+      <c r="AB328">
         <v>-0.5</v>
       </c>
-      <c r="S328">
-        <v>2.05</v>
-      </c>
-      <c r="T328">
-        <v>1.8</v>
-      </c>
-      <c r="U328">
-        <v>2.25</v>
-      </c>
-      <c r="V328">
-        <v>2.1</v>
-      </c>
-      <c r="W328">
-        <v>1.775</v>
-      </c>
-      <c r="X328">
-        <v>-1</v>
-      </c>
-      <c r="Y328">
-        <v>-1</v>
-      </c>
-      <c r="Z328">
-        <v>3.2</v>
-      </c>
-      <c r="AA328">
-        <v>-1</v>
-      </c>
-      <c r="AB328">
-        <v>0.8</v>
-      </c>
       <c r="AC328">
-        <v>1.1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD328">
         <v>-1</v>
@@ -30784,7 +30784,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6356449</v>
+        <v>7323531</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -30793,82 +30793,82 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E329" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F329" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329">
         <v>0</v>
       </c>
       <c r="J329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329" t="s">
         <v>73</v>
       </c>
       <c r="L329">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M329">
         <v>3.2</v>
       </c>
       <c r="N329">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O329">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="P329">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q329">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="R329">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S329">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U329">
         <v>2.25</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W329">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Z329">
         <v>-1</v>
       </c>
       <c r="AA329">
+        <v>0.825</v>
+      </c>
+      <c r="AB329">
+        <v>-1</v>
+      </c>
+      <c r="AC329">
         <v>-0.5</v>
       </c>
-      <c r="AB329">
-        <v>0.5125</v>
-      </c>
-      <c r="AC329">
-        <v>-1</v>
-      </c>
       <c r="AD329">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="330" spans="1:30">
@@ -30876,7 +30876,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7323842</v>
+        <v>6360015</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -30885,61 +30885,61 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E330" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F330" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330">
         <v>0</v>
       </c>
       <c r="J330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330" t="s">
         <v>74</v>
       </c>
       <c r="L330">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M330">
         <v>3.2</v>
       </c>
       <c r="N330">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O330">
+        <v>2.05</v>
+      </c>
+      <c r="P330">
+        <v>3.1</v>
+      </c>
+      <c r="Q330">
         <v>4.2</v>
       </c>
-      <c r="P330">
-        <v>3.5</v>
-      </c>
-      <c r="Q330">
-        <v>1.909</v>
-      </c>
       <c r="R330">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S330">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T330">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U330">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V330">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="W330">
-        <v>2.2</v>
+        <v>1.775</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -30948,19 +30948,19 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.909</v>
+        <v>3.2</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AD330">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:30">
@@ -30968,7 +30968,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7323530</v>
+        <v>7323842</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -30977,82 +30977,82 @@
         <v>45214.64583333334</v>
       </c>
       <c r="E331" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F331" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H331">
         <v>1</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J331">
         <v>0</v>
       </c>
       <c r="K331" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L331">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M331">
         <v>3.2</v>
       </c>
       <c r="N331">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O331">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="P331">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q331">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="R331">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S331">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T331">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U331">
         <v>2</v>
       </c>
       <c r="V331">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="W331">
-        <v>2.025</v>
+        <v>2.2</v>
       </c>
       <c r="X331">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA331">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC331">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD331">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="332" spans="1:30">
@@ -31520,7 +31520,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7323927</v>
+        <v>6387410</v>
       </c>
       <c r="C337" t="s">
         <v>29</v>
@@ -31529,13 +31529,13 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E337" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F337" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337">
         <v>1</v>
@@ -31544,67 +31544,67 @@
         <v>0</v>
       </c>
       <c r="J337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K337" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="M337">
         <v>3.2</v>
       </c>
       <c r="N337">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O337">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="P337">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q337">
+        <v>3</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <v>1.75</v>
+      </c>
+      <c r="T337">
         <v>2.05</v>
       </c>
-      <c r="R337">
-        <v>0.25</v>
-      </c>
-      <c r="S337">
-        <v>1.975</v>
-      </c>
-      <c r="T337">
-        <v>1.875</v>
-      </c>
       <c r="U337">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V337">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W337">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y337">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
         <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0.4875</v>
+        <v>0.75</v>
       </c>
       <c r="AB337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD337">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:30">
@@ -31612,7 +31612,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>6390737</v>
+        <v>7323927</v>
       </c>
       <c r="C338" t="s">
         <v>29</v>
@@ -31621,16 +31621,16 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E338" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F338" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G338">
         <v>1</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -31639,64 +31639,64 @@
         <v>0</v>
       </c>
       <c r="K338" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L338">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="M338">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N338">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O338">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="P338">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q338">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="R338">
+        <v>0.25</v>
+      </c>
+      <c r="S338">
+        <v>1.975</v>
+      </c>
+      <c r="T338">
+        <v>1.875</v>
+      </c>
+      <c r="U338">
+        <v>2.25</v>
+      </c>
+      <c r="V338">
+        <v>1.825</v>
+      </c>
+      <c r="W338">
+        <v>2.025</v>
+      </c>
+      <c r="X338">
+        <v>-1</v>
+      </c>
+      <c r="Y338">
+        <v>2.3</v>
+      </c>
+      <c r="Z338">
+        <v>-1</v>
+      </c>
+      <c r="AA338">
+        <v>0.4875</v>
+      </c>
+      <c r="AB338">
         <v>-0.5</v>
       </c>
-      <c r="S338">
-        <v>1.8</v>
-      </c>
-      <c r="T338">
-        <v>2</v>
-      </c>
-      <c r="U338">
-        <v>2.5</v>
-      </c>
-      <c r="V338">
-        <v>1.95</v>
-      </c>
-      <c r="W338">
-        <v>1.85</v>
-      </c>
-      <c r="X338">
-        <v>-1</v>
-      </c>
-      <c r="Y338">
-        <v>-1</v>
-      </c>
-      <c r="Z338">
-        <v>3.5</v>
-      </c>
-      <c r="AA338">
-        <v>-1</v>
-      </c>
-      <c r="AB338">
-        <v>1</v>
-      </c>
       <c r="AC338">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD338">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="339" spans="1:30">
@@ -31704,7 +31704,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>6387413</v>
+        <v>6390737</v>
       </c>
       <c r="C339" t="s">
         <v>29</v>
@@ -31713,58 +31713,58 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E339" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G339">
         <v>1</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K339" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L339">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="M339">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N339">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="O339">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="P339">
         <v>3.6</v>
       </c>
       <c r="Q339">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="R339">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S339">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T339">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U339">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V339">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W339">
         <v>1.85</v>
@@ -31773,22 +31773,22 @@
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA339">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC339">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AD339">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:30">
@@ -31796,7 +31796,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>6387411</v>
+        <v>6387413</v>
       </c>
       <c r="C340" t="s">
         <v>29</v>
@@ -31805,82 +31805,82 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E340" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F340" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I340">
         <v>1</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L340">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M340">
         <v>3.2</v>
       </c>
       <c r="N340">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="O340">
-        <v>1.95</v>
+        <v>5.75</v>
       </c>
       <c r="P340">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q340">
-        <v>4.333</v>
+        <v>1.65</v>
       </c>
       <c r="R340">
+        <v>0.75</v>
+      </c>
+      <c r="S340">
+        <v>2</v>
+      </c>
+      <c r="T340">
+        <v>1.85</v>
+      </c>
+      <c r="U340">
+        <v>2.25</v>
+      </c>
+      <c r="V340">
+        <v>2</v>
+      </c>
+      <c r="W340">
+        <v>1.85</v>
+      </c>
+      <c r="X340">
+        <v>-1</v>
+      </c>
+      <c r="Y340">
+        <v>2.6</v>
+      </c>
+      <c r="Z340">
+        <v>-1</v>
+      </c>
+      <c r="AA340">
+        <v>1</v>
+      </c>
+      <c r="AB340">
+        <v>-1</v>
+      </c>
+      <c r="AC340">
         <v>-0.5</v>
       </c>
-      <c r="S340">
-        <v>1.95</v>
-      </c>
-      <c r="T340">
-        <v>1.9</v>
-      </c>
-      <c r="U340">
-        <v>2</v>
-      </c>
-      <c r="V340">
-        <v>1.875</v>
-      </c>
-      <c r="W340">
-        <v>1.975</v>
-      </c>
-      <c r="X340">
-        <v>0.95</v>
-      </c>
-      <c r="Y340">
-        <v>-1</v>
-      </c>
-      <c r="Z340">
-        <v>-1</v>
-      </c>
-      <c r="AA340">
-        <v>0.95</v>
-      </c>
-      <c r="AB340">
-        <v>-1</v>
-      </c>
-      <c r="AC340">
-        <v>0</v>
-      </c>
       <c r="AD340">
-        <v>0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="341" spans="1:30">
@@ -31888,7 +31888,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>6387410</v>
+        <v>6387411</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -31897,64 +31897,64 @@
         <v>45215.64583333334</v>
       </c>
       <c r="E341" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F341" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G341">
         <v>2</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" t="s">
         <v>72</v>
       </c>
       <c r="L341">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M341">
         <v>3.2</v>
       </c>
       <c r="N341">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O341">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="P341">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q341">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="R341">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S341">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T341">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U341">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V341">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W341">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="X341">
-        <v>1.55</v>
+        <v>0.95</v>
       </c>
       <c r="Y341">
         <v>-1</v>
@@ -31963,16 +31963,16 @@
         <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB341">
         <v>-1</v>
       </c>
       <c r="AC341">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD341">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:30">
@@ -34004,7 +34004,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7698644</v>
+        <v>7698640</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34013,19 +34013,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E364" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364">
         <v>0</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J364">
         <v>0</v>
@@ -34034,43 +34034,43 @@
         <v>72</v>
       </c>
       <c r="L364">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="M364">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N364">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="O364">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P364">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q364">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="R364">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S364">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T364">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U364">
         <v>2</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X364">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="Y364">
         <v>-1</v>
@@ -34079,16 +34079,16 @@
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD364">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34096,7 +34096,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7698640</v>
+        <v>7698644</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34105,19 +34105,19 @@
         <v>45325.70833333334</v>
       </c>
       <c r="E365" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F365" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365">
         <v>0</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -34126,61 +34126,61 @@
         <v>72</v>
       </c>
       <c r="L365">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="M365">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N365">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="O365">
+        <v>2.625</v>
+      </c>
+      <c r="P365">
+        <v>2.75</v>
+      </c>
+      <c r="Q365">
+        <v>3.25</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>1.75</v>
+      </c>
+      <c r="T365">
+        <v>2.05</v>
+      </c>
+      <c r="U365">
+        <v>2</v>
+      </c>
+      <c r="V365">
+        <v>2</v>
+      </c>
+      <c r="W365">
         <v>1.8</v>
       </c>
-      <c r="P365">
-        <v>3.4</v>
-      </c>
-      <c r="Q365">
-        <v>5</v>
-      </c>
-      <c r="R365">
-        <v>-0.75</v>
-      </c>
-      <c r="S365">
-        <v>2.025</v>
-      </c>
-      <c r="T365">
-        <v>1.825</v>
-      </c>
-      <c r="U365">
-        <v>2</v>
-      </c>
-      <c r="V365">
-        <v>1.925</v>
-      </c>
-      <c r="W365">
-        <v>1.925</v>
-      </c>
       <c r="X365">
+        <v>1.625</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
+        <v>-1</v>
+      </c>
+      <c r="AA365">
+        <v>0.75</v>
+      </c>
+      <c r="AB365">
+        <v>-1</v>
+      </c>
+      <c r="AC365">
+        <v>-1</v>
+      </c>
+      <c r="AD365">
         <v>0.8</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>-1</v>
-      </c>
-      <c r="AA365">
-        <v>1.025</v>
-      </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
-      <c r="AC365">
-        <v>0</v>
-      </c>
-      <c r="AD365">
-        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34280,7 +34280,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7698541</v>
+        <v>7702212</v>
       </c>
       <c r="C367" t="s">
         <v>29</v>
@@ -34289,13 +34289,13 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E367" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F367" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367">
         <v>0</v>
@@ -34307,64 +34307,64 @@
         <v>0</v>
       </c>
       <c r="K367" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L367">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M367">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N367">
+        <v>3.3</v>
+      </c>
+      <c r="O367">
+        <v>2.3</v>
+      </c>
+      <c r="P367">
         <v>3</v>
       </c>
-      <c r="O367">
-        <v>2.9</v>
-      </c>
-      <c r="P367">
-        <v>2.8</v>
-      </c>
       <c r="Q367">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="R367">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S367">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T367">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U367">
         <v>1.75</v>
       </c>
       <c r="V367">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X367">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z367">
         <v>-1</v>
       </c>
       <c r="AA367">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC367">
         <v>-1</v>
       </c>
       <c r="AD367">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:30">
@@ -34372,7 +34372,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7702212</v>
+        <v>7698541</v>
       </c>
       <c r="C368" t="s">
         <v>29</v>
@@ -34381,13 +34381,13 @@
         <v>45325.72916666666</v>
       </c>
       <c r="E368" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F368" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368">
         <v>0</v>
@@ -34399,64 +34399,64 @@
         <v>0</v>
       </c>
       <c r="K368" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L368">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M368">
+        <v>2.75</v>
+      </c>
+      <c r="N368">
         <v>3</v>
       </c>
-      <c r="N368">
-        <v>3.3</v>
-      </c>
       <c r="O368">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="P368">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q368">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R368">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S368">
+        <v>1.875</v>
+      </c>
+      <c r="T368">
         <v>1.975</v>
-      </c>
-      <c r="T368">
-        <v>1.825</v>
       </c>
       <c r="U368">
         <v>1.75</v>
       </c>
       <c r="V368">
+        <v>1.85</v>
+      </c>
+      <c r="W368">
+        <v>2</v>
+      </c>
+      <c r="X368">
         <v>1.9</v>
       </c>
-      <c r="W368">
-        <v>1.9</v>
-      </c>
-      <c r="X368">
-        <v>-1</v>
-      </c>
       <c r="Y368">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z368">
         <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB368">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
         <v>-1</v>
       </c>
       <c r="AD368">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:30">
@@ -36304,7 +36304,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7698662</v>
+        <v>7698658</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -36313,10 +36313,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E389" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F389" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -36325,7 +36325,7 @@
         <v>0</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389">
         <v>0</v>
@@ -36334,43 +36334,43 @@
         <v>72</v>
       </c>
       <c r="L389">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M389">
         <v>2.75</v>
       </c>
       <c r="N389">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O389">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="P389">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q389">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R389">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S389">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T389">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U389">
         <v>1.75</v>
       </c>
       <c r="V389">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W389">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X389">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y389">
         <v>-1</v>
@@ -36379,7 +36379,7 @@
         <v>-1</v>
       </c>
       <c r="AA389">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB389">
         <v>-1</v>
@@ -36388,7 +36388,7 @@
         <v>-1</v>
       </c>
       <c r="AD389">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36488,7 +36488,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7698658</v>
+        <v>7698545</v>
       </c>
       <c r="C391" t="s">
         <v>29</v>
@@ -36497,10 +36497,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E391" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F391" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G391">
         <v>1</v>
@@ -36518,43 +36518,43 @@
         <v>72</v>
       </c>
       <c r="L391">
+        <v>2.5</v>
+      </c>
+      <c r="M391">
         <v>3</v>
       </c>
-      <c r="M391">
+      <c r="N391">
         <v>2.75</v>
       </c>
-      <c r="N391">
-        <v>2.5</v>
-      </c>
       <c r="O391">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P391">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q391">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="R391">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S391">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T391">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U391">
         <v>1.75</v>
       </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W391">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X391">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y391">
         <v>-1</v>
@@ -36563,7 +36563,7 @@
         <v>-1</v>
       </c>
       <c r="AA391">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB391">
         <v>-1</v>
@@ -36572,7 +36572,7 @@
         <v>-1</v>
       </c>
       <c r="AD391">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="392" spans="1:30">
@@ -36580,7 +36580,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7698656</v>
+        <v>7698662</v>
       </c>
       <c r="C392" t="s">
         <v>29</v>
@@ -36589,10 +36589,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E392" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F392" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G392">
         <v>1</v>
@@ -36601,7 +36601,7 @@
         <v>0</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J392">
         <v>0</v>
@@ -36610,31 +36610,31 @@
         <v>72</v>
       </c>
       <c r="L392">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M392">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N392">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O392">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="P392">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q392">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R392">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T392">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U392">
         <v>1.75</v>
@@ -36643,10 +36643,10 @@
         <v>1.775</v>
       </c>
       <c r="W392">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="X392">
-        <v>1.875</v>
+        <v>1.1</v>
       </c>
       <c r="Y392">
         <v>-1</v>
@@ -36655,7 +36655,7 @@
         <v>-1</v>
       </c>
       <c r="AA392">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB392">
         <v>-1</v>
@@ -36664,7 +36664,7 @@
         <v>-1</v>
       </c>
       <c r="AD392">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="393" spans="1:30">
@@ -36672,7 +36672,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7698545</v>
+        <v>7698656</v>
       </c>
       <c r="C393" t="s">
         <v>29</v>
@@ -36681,10 +36681,10 @@
         <v>45333.70833333334</v>
       </c>
       <c r="E393" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F393" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G393">
         <v>1</v>
@@ -36705,28 +36705,28 @@
         <v>2.5</v>
       </c>
       <c r="M393">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N393">
         <v>2.75</v>
       </c>
       <c r="O393">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="P393">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q393">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R393">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S393">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T393">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U393">
         <v>1.75</v>
@@ -36738,7 +36738,7 @@
         <v>2.025</v>
       </c>
       <c r="X393">
-        <v>1.1</v>
+        <v>1.875</v>
       </c>
       <c r="Y393">
         <v>-1</v>
@@ -36747,7 +36747,7 @@
         <v>-1</v>
       </c>
       <c r="AA393">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB393">
         <v>-1</v>
@@ -36856,7 +36856,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7698661</v>
+        <v>7698544</v>
       </c>
       <c r="C395" t="s">
         <v>29</v>
@@ -36865,82 +36865,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E395" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F395" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G395">
         <v>1</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I395">
         <v>1</v>
       </c>
       <c r="J395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K395" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L395">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M395">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N395">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O395">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="P395">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q395">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R395">
         <v>-0.25</v>
       </c>
       <c r="S395">
-        <v>2.125</v>
+        <v>2.1</v>
       </c>
       <c r="T395">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U395">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V395">
+        <v>2.05</v>
+      </c>
+      <c r="W395">
         <v>1.8</v>
       </c>
-      <c r="W395">
-        <v>2.05</v>
-      </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z395">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="AA395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB395">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC395">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AD395">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:30">
@@ -36948,7 +36948,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7698544</v>
+        <v>7698661</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -36957,82 +36957,82 @@
         <v>45333.79166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G396">
         <v>1</v>
       </c>
       <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>1</v>
+      </c>
+      <c r="J396">
+        <v>1</v>
+      </c>
+      <c r="K396" t="s">
+        <v>73</v>
+      </c>
+      <c r="L396">
+        <v>2.5</v>
+      </c>
+      <c r="M396">
+        <v>2.75</v>
+      </c>
+      <c r="N396">
         <v>3</v>
       </c>
-      <c r="I396">
-        <v>1</v>
-      </c>
-      <c r="J396">
-        <v>0</v>
-      </c>
-      <c r="K396" t="s">
-        <v>74</v>
-      </c>
-      <c r="L396">
-        <v>3.4</v>
-      </c>
-      <c r="M396">
+      <c r="O396">
+        <v>2.55</v>
+      </c>
+      <c r="P396">
         <v>2.875</v>
       </c>
-      <c r="N396">
-        <v>2.2</v>
-      </c>
-      <c r="O396">
-        <v>2.45</v>
-      </c>
-      <c r="P396">
-        <v>2.8</v>
-      </c>
       <c r="Q396">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R396">
         <v>-0.25</v>
       </c>
       <c r="S396">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="T396">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V396">
+        <v>1.8</v>
+      </c>
+      <c r="W396">
         <v>2.05</v>
       </c>
-      <c r="W396">
-        <v>1.8</v>
-      </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z396">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB396">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC396">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AD396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -37592,7 +37592,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7702208</v>
+        <v>7698666</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37601,82 +37601,82 @@
         <v>45339.72916666666</v>
       </c>
       <c r="E403" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F403" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K403" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L403">
         <v>2.5</v>
       </c>
       <c r="M403">
+        <v>2.875</v>
+      </c>
+      <c r="N403">
+        <v>2.875</v>
+      </c>
+      <c r="O403">
+        <v>2.7</v>
+      </c>
+      <c r="P403">
+        <v>2.875</v>
+      </c>
+      <c r="Q403">
         <v>3</v>
       </c>
-      <c r="N403">
-        <v>2.75</v>
-      </c>
-      <c r="O403">
-        <v>2.3</v>
-      </c>
-      <c r="P403">
-        <v>3</v>
-      </c>
-      <c r="Q403">
-        <v>3.5</v>
-      </c>
       <c r="R403">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S403">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T403">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="U403">
         <v>1.75</v>
       </c>
       <c r="V403">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W403">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X403">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA403">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB403">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC403">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD403">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:30">
@@ -37684,7 +37684,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7698666</v>
+        <v>7702208</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -37693,82 +37693,82 @@
         <v>45339.72916666666</v>
       </c>
       <c r="E404" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F404" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K404" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L404">
         <v>2.5</v>
       </c>
       <c r="M404">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N404">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O404">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="P404">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q404">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R404">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S404">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T404">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="U404">
         <v>1.75</v>
       </c>
       <c r="V404">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W404">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X404">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y404">
         <v>-1</v>
       </c>
       <c r="Z404">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB404">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC404">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AD404">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="405" spans="1:30">
@@ -38138,7 +38138,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7698356</v>
+        <v>7698668</v>
       </c>
       <c r="C409" t="s">
         <v>29</v>
@@ -38147,10 +38147,10 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E409" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F409" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G409">
         <v>1</v>
@@ -38159,7 +38159,7 @@
         <v>0</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J409">
         <v>0</v>
@@ -38168,43 +38168,43 @@
         <v>72</v>
       </c>
       <c r="L409">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M409">
         <v>2.9</v>
       </c>
       <c r="N409">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O409">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P409">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q409">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="R409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S409">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T409">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="U409">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V409">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X409">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="Y409">
         <v>-1</v>
@@ -38213,7 +38213,7 @@
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB409">
         <v>-1</v>
@@ -38222,7 +38222,7 @@
         <v>-1</v>
       </c>
       <c r="AD409">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="410" spans="1:30">
@@ -38230,7 +38230,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7698667</v>
+        <v>7698356</v>
       </c>
       <c r="C410" t="s">
         <v>29</v>
@@ -38239,19 +38239,19 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E410" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F410" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410">
         <v>0</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J410">
         <v>0</v>
@@ -38260,43 +38260,43 @@
         <v>72</v>
       </c>
       <c r="L410">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M410">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N410">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O410">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="P410">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q410">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="R410">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S410">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T410">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V410">
+        <v>2</v>
+      </c>
+      <c r="W410">
         <v>1.8</v>
       </c>
-      <c r="W410">
-        <v>2</v>
-      </c>
       <c r="X410">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="Y410">
         <v>-1</v>
@@ -38305,16 +38305,16 @@
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB410">
         <v>-1</v>
       </c>
       <c r="AC410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD410">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="411" spans="1:30">
@@ -38322,7 +38322,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7698668</v>
+        <v>7698667</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -38331,13 +38331,13 @@
         <v>45340.70833333334</v>
       </c>
       <c r="E411" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F411" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -38352,43 +38352,43 @@
         <v>72</v>
       </c>
       <c r="L411">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="M411">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O411">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P411">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q411">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="R411">
         <v>-0.25</v>
       </c>
       <c r="S411">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T411">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U411">
         <v>2</v>
       </c>
       <c r="V411">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W411">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X411">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
@@ -38397,16 +38397,16 @@
         <v>-1</v>
       </c>
       <c r="AA411">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB411">
         <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD411">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:30">
@@ -38506,7 +38506,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7698549</v>
+        <v>7698675</v>
       </c>
       <c r="C413" t="s">
         <v>29</v>
@@ -38515,19 +38515,19 @@
         <v>45340.79166666666</v>
       </c>
       <c r="E413" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413">
         <v>0</v>
@@ -38545,34 +38545,34 @@
         <v>4</v>
       </c>
       <c r="O413">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P413">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q413">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="R413">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S413">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T413">
+        <v>2</v>
+      </c>
+      <c r="U413">
         <v>1.75</v>
       </c>
-      <c r="U413">
-        <v>2</v>
-      </c>
       <c r="V413">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W413">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="X413">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y413">
         <v>-1</v>
@@ -38581,16 +38581,16 @@
         <v>-1</v>
       </c>
       <c r="AA413">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD413">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="414" spans="1:30">
@@ -38598,7 +38598,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7698675</v>
+        <v>7698549</v>
       </c>
       <c r="C414" t="s">
         <v>29</v>
@@ -38607,19 +38607,19 @@
         <v>45340.79166666666</v>
       </c>
       <c r="E414" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F414" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414">
         <v>0</v>
@@ -38637,34 +38637,34 @@
         <v>4</v>
       </c>
       <c r="O414">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P414">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q414">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="R414">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S414">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T414">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U414">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V414">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W414">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="X414">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="Y414">
         <v>-1</v>
@@ -38673,16 +38673,16 @@
         <v>-1</v>
       </c>
       <c r="AA414">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB414">
         <v>-1</v>
       </c>
       <c r="AC414">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD414">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:30">
@@ -39150,7 +39150,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>7698355</v>
+        <v>7698685</v>
       </c>
       <c r="C420" t="s">
         <v>29</v>
@@ -39159,10 +39159,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E420" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F420" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -39180,40 +39180,40 @@
         <v>73</v>
       </c>
       <c r="L420">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M420">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N420">
         <v>2.75</v>
       </c>
       <c r="O420">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="P420">
         <v>2.9</v>
       </c>
       <c r="Q420">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R420">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S420">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T420">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U420">
         <v>1.75</v>
       </c>
       <c r="V420">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W420">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X420">
         <v>-1</v>
@@ -39225,16 +39225,16 @@
         <v>-1</v>
       </c>
       <c r="AA420">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB420">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC420">
         <v>-1</v>
       </c>
       <c r="AD420">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="421" spans="1:30">
@@ -39242,7 +39242,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7698685</v>
+        <v>7698690</v>
       </c>
       <c r="C421" t="s">
         <v>29</v>
@@ -39251,10 +39251,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E421" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F421" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -39272,40 +39272,40 @@
         <v>73</v>
       </c>
       <c r="L421">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M421">
         <v>2.75</v>
       </c>
       <c r="N421">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O421">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P421">
         <v>2.9</v>
       </c>
       <c r="Q421">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R421">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S421">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T421">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U421">
         <v>1.75</v>
       </c>
       <c r="V421">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W421">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X421">
         <v>-1</v>
@@ -39317,16 +39317,16 @@
         <v>-1</v>
       </c>
       <c r="AA421">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB421">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC421">
         <v>-1</v>
       </c>
       <c r="AD421">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:30">
@@ -39334,7 +39334,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7698690</v>
+        <v>7698355</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -39343,10 +39343,10 @@
         <v>45346.70833333334</v>
       </c>
       <c r="E422" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F422" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G422">
         <v>0</v>
@@ -39364,16 +39364,16 @@
         <v>73</v>
       </c>
       <c r="L422">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M422">
+        <v>2.9</v>
+      </c>
+      <c r="N422">
         <v>2.75</v>
       </c>
-      <c r="N422">
-        <v>3.6</v>
-      </c>
       <c r="O422">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="P422">
         <v>2.9</v>
@@ -39394,10 +39394,10 @@
         <v>1.75</v>
       </c>
       <c r="V422">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W422">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X422">
         <v>-1</v>
@@ -39418,7 +39418,7 @@
         <v>-1</v>
       </c>
       <c r="AD422">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="423" spans="1:30">
@@ -39610,7 +39610,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>7864250</v>
+        <v>7698680</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -39619,16 +39619,16 @@
         <v>45347.70833333334</v>
       </c>
       <c r="E425" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F425" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G425">
         <v>1</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -39637,64 +39637,64 @@
         <v>0</v>
       </c>
       <c r="K425" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L425">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="M425">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N425">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O425">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="P425">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q425">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="R425">
+        <v>0</v>
+      </c>
+      <c r="S425">
+        <v>1.975</v>
+      </c>
+      <c r="T425">
+        <v>1.825</v>
+      </c>
+      <c r="U425">
+        <v>1.75</v>
+      </c>
+      <c r="V425">
+        <v>1.9</v>
+      </c>
+      <c r="W425">
+        <v>1.9</v>
+      </c>
+      <c r="X425">
+        <v>-1</v>
+      </c>
+      <c r="Y425">
+        <v>1.9</v>
+      </c>
+      <c r="Z425">
+        <v>-1</v>
+      </c>
+      <c r="AA425">
+        <v>0</v>
+      </c>
+      <c r="AB425">
+        <v>0</v>
+      </c>
+      <c r="AC425">
+        <v>0.45</v>
+      </c>
+      <c r="AD425">
         <v>-0.5</v>
-      </c>
-      <c r="S425">
-        <v>1.8</v>
-      </c>
-      <c r="T425">
-        <v>2</v>
-      </c>
-      <c r="U425">
-        <v>2</v>
-      </c>
-      <c r="V425">
-        <v>2.025</v>
-      </c>
-      <c r="W425">
-        <v>1.775</v>
-      </c>
-      <c r="X425">
-        <v>0.833</v>
-      </c>
-      <c r="Y425">
-        <v>-1</v>
-      </c>
-      <c r="Z425">
-        <v>-1</v>
-      </c>
-      <c r="AA425">
-        <v>0.8</v>
-      </c>
-      <c r="AB425">
-        <v>-1</v>
-      </c>
-      <c r="AC425">
-        <v>-1</v>
-      </c>
-      <c r="AD425">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:30">
@@ -39794,7 +39794,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>7698680</v>
+        <v>7864250</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -39803,16 +39803,16 @@
         <v>45347.70833333334</v>
       </c>
       <c r="E427" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F427" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G427">
         <v>1</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -39821,64 +39821,64 @@
         <v>0</v>
       </c>
       <c r="K427" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L427">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M427">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N427">
+        <v>4.333</v>
+      </c>
+      <c r="O427">
+        <v>1.833</v>
+      </c>
+      <c r="P427">
         <v>3.2</v>
       </c>
-      <c r="O427">
-        <v>2.9</v>
-      </c>
-      <c r="P427">
-        <v>2.9</v>
-      </c>
       <c r="Q427">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="R427">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S427">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T427">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U427">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V427">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W427">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X427">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y427">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z427">
         <v>-1</v>
       </c>
       <c r="AA427">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB427">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD427">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="428" spans="1:30">
@@ -41266,7 +41266,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7702204</v>
+        <v>7698696</v>
       </c>
       <c r="C443" t="s">
         <v>29</v>
@@ -41275,82 +41275,82 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E443" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F443" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="G443">
         <v>1</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I443">
         <v>0</v>
       </c>
       <c r="J443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K443" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L443">
+        <v>1.909</v>
+      </c>
+      <c r="M443">
+        <v>3.1</v>
+      </c>
+      <c r="N443">
+        <v>4.333</v>
+      </c>
+      <c r="O443">
+        <v>1.95</v>
+      </c>
+      <c r="P443">
+        <v>3.1</v>
+      </c>
+      <c r="Q443">
+        <v>4.75</v>
+      </c>
+      <c r="R443">
+        <v>-0.5</v>
+      </c>
+      <c r="S443">
+        <v>1.925</v>
+      </c>
+      <c r="T443">
+        <v>1.875</v>
+      </c>
+      <c r="U443">
+        <v>2</v>
+      </c>
+      <c r="V443">
+        <v>2</v>
+      </c>
+      <c r="W443">
         <v>1.8</v>
       </c>
-      <c r="M443">
-        <v>3.2</v>
-      </c>
-      <c r="N443">
-        <v>4.5</v>
-      </c>
-      <c r="O443">
-        <v>2.2</v>
-      </c>
-      <c r="P443">
-        <v>3</v>
-      </c>
-      <c r="Q443">
-        <v>3.8</v>
-      </c>
-      <c r="R443">
-        <v>-0.25</v>
-      </c>
-      <c r="S443">
-        <v>1.825</v>
-      </c>
-      <c r="T443">
-        <v>1.975</v>
-      </c>
-      <c r="U443">
-        <v>1.75</v>
-      </c>
-      <c r="V443">
-        <v>1.75</v>
-      </c>
-      <c r="W443">
-        <v>2.05</v>
-      </c>
       <c r="X443">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD443">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:30">
@@ -41358,7 +41358,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7698701</v>
+        <v>7702205</v>
       </c>
       <c r="C444" t="s">
         <v>29</v>
@@ -41367,16 +41367,16 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E444" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F444" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G444">
         <v>0</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I444">
         <v>0</v>
@@ -41385,64 +41385,64 @@
         <v>0</v>
       </c>
       <c r="K444" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L444">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M444">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N444">
         <v>4.5</v>
       </c>
       <c r="O444">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="P444">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q444">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="R444">
         <v>-0.75</v>
       </c>
       <c r="S444">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T444">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U444">
         <v>2</v>
       </c>
       <c r="V444">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W444">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA444">
         <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC444">
         <v>-1</v>
       </c>
       <c r="AD444">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="445" spans="1:30">
@@ -41450,7 +41450,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>7698700</v>
+        <v>7698701</v>
       </c>
       <c r="C445" t="s">
         <v>29</v>
@@ -41459,10 +41459,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E445" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F445" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -41480,61 +41480,61 @@
         <v>73</v>
       </c>
       <c r="L445">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M445">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N445">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O445">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="P445">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q445">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="R445">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S445">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T445">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U445">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V445">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W445">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z445">
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC445">
         <v>-1</v>
       </c>
       <c r="AD445">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="446" spans="1:30">
@@ -41542,7 +41542,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>7698697</v>
+        <v>7698700</v>
       </c>
       <c r="C446" t="s">
         <v>29</v>
@@ -41551,55 +41551,55 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E446" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F446" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J446">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K446" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L446">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M446">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N446">
+        <v>4</v>
+      </c>
+      <c r="O446">
+        <v>2.1</v>
+      </c>
+      <c r="P446">
+        <v>2.8</v>
+      </c>
+      <c r="Q446">
         <v>4.5</v>
       </c>
-      <c r="O446">
-        <v>1.8</v>
-      </c>
-      <c r="P446">
-        <v>3.3</v>
-      </c>
-      <c r="Q446">
-        <v>5.25</v>
-      </c>
       <c r="R446">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S446">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T446">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U446">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V446">
         <v>1.8</v>
@@ -41611,22 +41611,22 @@
         <v>-1</v>
       </c>
       <c r="Y446">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z446">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="AA446">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB446">
-        <v>1.025</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC446">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD446">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:30">
@@ -41634,7 +41634,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>7702205</v>
+        <v>7698697</v>
       </c>
       <c r="C447" t="s">
         <v>29</v>
@@ -41643,22 +41643,22 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E447" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F447" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K447" t="s">
         <v>74</v>
@@ -41673,31 +41673,31 @@
         <v>4.5</v>
       </c>
       <c r="O447">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P447">
         <v>3.3</v>
       </c>
       <c r="Q447">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="R447">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S447">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T447">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U447">
         <v>2</v>
       </c>
       <c r="V447">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W447">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X447">
         <v>-1</v>
@@ -41706,19 +41706,19 @@
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AA447">
         <v>-1</v>
       </c>
       <c r="AB447">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC447">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD447">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448" spans="1:30">
@@ -41726,7 +41726,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>7698692</v>
+        <v>7702204</v>
       </c>
       <c r="C448" t="s">
         <v>29</v>
@@ -41735,16 +41735,16 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E448" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F448" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G448">
         <v>1</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448">
         <v>0</v>
@@ -41753,64 +41753,64 @@
         <v>0</v>
       </c>
       <c r="K448" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L448">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M448">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N448">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O448">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P448">
         <v>3</v>
       </c>
       <c r="Q448">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="R448">
         <v>-0.25</v>
       </c>
       <c r="S448">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T448">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U448">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V448">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W448">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="X448">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y448">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
         <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB448">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC448">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD448">
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="449" spans="1:30">
@@ -41818,7 +41818,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>7698696</v>
+        <v>7698692</v>
       </c>
       <c r="C449" t="s">
         <v>29</v>
@@ -41827,10 +41827,10 @@
         <v>45354.70833333334</v>
       </c>
       <c r="E449" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F449" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -41842,61 +41842,61 @@
         <v>0</v>
       </c>
       <c r="J449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K449" t="s">
         <v>73</v>
       </c>
       <c r="L449">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M449">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N449">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O449">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="P449">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q449">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="R449">
+        <v>-0.25</v>
+      </c>
+      <c r="S449">
+        <v>2.025</v>
+      </c>
+      <c r="T449">
+        <v>1.825</v>
+      </c>
+      <c r="U449">
+        <v>2</v>
+      </c>
+      <c r="V449">
+        <v>2.1</v>
+      </c>
+      <c r="W449">
+        <v>1.775</v>
+      </c>
+      <c r="X449">
+        <v>-1</v>
+      </c>
+      <c r="Y449">
+        <v>2</v>
+      </c>
+      <c r="Z449">
+        <v>-1</v>
+      </c>
+      <c r="AA449">
         <v>-0.5</v>
       </c>
-      <c r="S449">
-        <v>1.925</v>
-      </c>
-      <c r="T449">
-        <v>1.875</v>
-      </c>
-      <c r="U449">
-        <v>2</v>
-      </c>
-      <c r="V449">
-        <v>2</v>
-      </c>
-      <c r="W449">
-        <v>1.8</v>
-      </c>
-      <c r="X449">
-        <v>-1</v>
-      </c>
-      <c r="Y449">
-        <v>2.1</v>
-      </c>
-      <c r="Z449">
-        <v>-1</v>
-      </c>
-      <c r="AA449">
-        <v>-1</v>
-      </c>
       <c r="AB449">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC449">
         <v>0</v>
@@ -43658,7 +43658,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>7702202</v>
+        <v>7698709</v>
       </c>
       <c r="C469" t="s">
         <v>29</v>
@@ -43667,82 +43667,82 @@
         <v>45361.79861111111</v>
       </c>
       <c r="E469" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F469" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G469">
         <v>1</v>
       </c>
       <c r="H469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K469" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L469">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M469">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="N469">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O469">
+        <v>1.65</v>
+      </c>
+      <c r="P469">
+        <v>3.5</v>
+      </c>
+      <c r="Q469">
+        <v>6</v>
+      </c>
+      <c r="R469">
+        <v>-0.75</v>
+      </c>
+      <c r="S469">
+        <v>1.8</v>
+      </c>
+      <c r="T469">
+        <v>2</v>
+      </c>
+      <c r="U469">
         <v>2.25</v>
       </c>
-      <c r="P469">
-        <v>2.875</v>
-      </c>
-      <c r="Q469">
-        <v>3.8</v>
-      </c>
-      <c r="R469">
-        <v>-0.25</v>
-      </c>
-      <c r="S469">
+      <c r="V469">
+        <v>1.975</v>
+      </c>
+      <c r="W469">
         <v>1.825</v>
       </c>
-      <c r="T469">
-        <v>1.975</v>
-      </c>
-      <c r="U469">
-        <v>2</v>
-      </c>
-      <c r="V469">
-        <v>2.025</v>
-      </c>
-      <c r="W469">
-        <v>1.775</v>
-      </c>
       <c r="X469">
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z469">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA469">
         <v>-1</v>
       </c>
       <c r="AB469">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC469">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD469">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="470" spans="1:30">
@@ -43750,7 +43750,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7698709</v>
+        <v>7702202</v>
       </c>
       <c r="C470" t="s">
         <v>29</v>
@@ -43759,82 +43759,82 @@
         <v>45361.79861111111</v>
       </c>
       <c r="E470" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F470" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G470">
         <v>1</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K470" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L470">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M470">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N470">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O470">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="P470">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q470">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="R470">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S470">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T470">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U470">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V470">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W470">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X470">
         <v>-1</v>
       </c>
       <c r="Y470">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z470">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA470">
         <v>-1</v>
       </c>
       <c r="AB470">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC470">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AD470">
-  